--- a/notebooks/DateOfDeath.xlsx
+++ b/notebooks/DateOfDeath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrick/dev/covid/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1E2C95-E252-DE44-9E3F-62B8F6A1568D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7751AB-8388-9544-86A2-06F44842B818}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{20D733EF-6676-F449-AF32-307F4FADCE6E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="21000" activeTab="1" xr2:uid="{20D733EF-6676-F449-AF32-307F4FADCE6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Arizona" sheetId="1" r:id="rId1"/>
@@ -413,11 +413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C77E57-C0B4-9B4C-98EA-985C0D327C7F}">
-  <dimension ref="A1:C328"/>
+  <dimension ref="A1:C329"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A329" sqref="A329"/>
+      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B318" sqref="B318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4157,11 +4157,11 @@
         <v>44201</v>
       </c>
       <c r="B312">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C312" s="4">
         <f t="shared" si="4"/>
-        <v>10837</v>
+        <v>10838</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -4173,7 +4173,7 @@
       </c>
       <c r="C313" s="4">
         <f t="shared" si="4"/>
-        <v>10946</v>
+        <v>10947</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -4181,11 +4181,11 @@
         <v>44203</v>
       </c>
       <c r="B314">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C314" s="4">
         <f t="shared" si="4"/>
-        <v>11058</v>
+        <v>11061</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -4193,11 +4193,11 @@
         <v>44204</v>
       </c>
       <c r="B315">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C315" s="4">
         <f t="shared" si="4"/>
-        <v>11182</v>
+        <v>11188</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -4205,11 +4205,11 @@
         <v>44205</v>
       </c>
       <c r="B316">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C316" s="4">
         <f t="shared" si="4"/>
-        <v>11298</v>
+        <v>11308</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -4217,11 +4217,11 @@
         <v>44206</v>
       </c>
       <c r="B317">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C317" s="4">
         <f t="shared" si="4"/>
-        <v>11415</v>
+        <v>11427</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -4229,11 +4229,11 @@
         <v>44207</v>
       </c>
       <c r="B318">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C318" s="4">
         <f t="shared" si="4"/>
-        <v>11510</v>
+        <v>11528</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -4241,11 +4241,11 @@
         <v>44208</v>
       </c>
       <c r="B319">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C319" s="4">
         <f t="shared" si="4"/>
-        <v>11615</v>
+        <v>11634</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -4253,11 +4253,11 @@
         <v>44209</v>
       </c>
       <c r="B320">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C320" s="4">
         <f t="shared" si="4"/>
-        <v>11725</v>
+        <v>11746</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="C321" s="4">
         <f t="shared" si="4"/>
-        <v>11824</v>
+        <v>11845</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -4277,11 +4277,11 @@
         <v>44211</v>
       </c>
       <c r="B322">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C322" s="4">
         <f t="shared" si="4"/>
-        <v>11907</v>
+        <v>11932</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -4289,11 +4289,11 @@
         <v>44212</v>
       </c>
       <c r="B323">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C323" s="4">
         <f t="shared" si="4"/>
-        <v>11963</v>
+        <v>11989</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -4301,11 +4301,11 @@
         <v>44213</v>
       </c>
       <c r="B324">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C324" s="4">
-        <f t="shared" ref="C324:C328" si="5">C323+B324</f>
-        <v>12023</v>
+        <f t="shared" ref="C324:C329" si="5">C323+B324</f>
+        <v>12057</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -4313,11 +4313,11 @@
         <v>44214</v>
       </c>
       <c r="B325">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C325" s="4">
         <f t="shared" si="5"/>
-        <v>12085</v>
+        <v>12123</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -4325,11 +4325,11 @@
         <v>44215</v>
       </c>
       <c r="B326">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C326" s="4">
         <f t="shared" si="5"/>
-        <v>12124</v>
+        <v>12171</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -4337,11 +4337,11 @@
         <v>44216</v>
       </c>
       <c r="B327">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C327" s="4">
         <f t="shared" si="5"/>
-        <v>12140</v>
+        <v>12201</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -4349,11 +4349,23 @@
         <v>44217</v>
       </c>
       <c r="B328">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C328" s="4">
         <f t="shared" si="5"/>
-        <v>12142</v>
+        <v>12207</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B329">
+        <v>2</v>
+      </c>
+      <c r="C329" s="4">
+        <f t="shared" si="5"/>
+        <v>12209</v>
       </c>
     </row>
   </sheetData>
@@ -4366,8 +4378,8 @@
   <dimension ref="A1:E326"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D309" sqref="D309"/>
+      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C311" sqref="C311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/notebooks/DateOfDeath.xlsx
+++ b/notebooks/DateOfDeath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrick/dev/covid/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4838255D-9F4F-AA45-A058-93587444646A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C0430C-D2CE-714D-BA05-91E59FA57848}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23600" yWindow="500" windowWidth="10000" windowHeight="20500" firstSheet="5" activeTab="7" xr2:uid="{20D733EF-6676-F449-AF32-307F4FADCE6E}"/>
   </bookViews>
@@ -458,11 +458,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFCCFA7-674C-0646-984C-69D4C070282C}">
-  <dimension ref="A1:C402"/>
+  <dimension ref="A1:C404"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B334" sqref="B334"/>
+      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B317" sqref="B317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4785,11 +4785,11 @@
         <v>44162</v>
       </c>
       <c r="B333" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C333" s="4">
         <f t="shared" si="11"/>
-        <v>4584</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="C334" s="4">
         <f t="shared" si="11"/>
-        <v>4617</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="C335" s="4">
         <f t="shared" si="11"/>
-        <v>4652</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="C336" s="4">
         <f t="shared" si="11"/>
-        <v>4685</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="C337" s="4">
         <f t="shared" si="11"/>
-        <v>4710</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -4854,7 +4854,7 @@
       </c>
       <c r="C338" s="4">
         <f t="shared" si="11"/>
-        <v>4745</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
@@ -4863,7 +4863,7 @@
         <v>44168</v>
       </c>
       <c r="B339" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C339" s="4">
         <f t="shared" si="11"/>
@@ -4928,11 +4928,11 @@
         <v>44173</v>
       </c>
       <c r="B344" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C344" s="4">
         <f t="shared" si="11"/>
-        <v>4982</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="C345" s="4">
         <f t="shared" si="11"/>
-        <v>5036</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
@@ -4954,7 +4954,7 @@
         <v>44175</v>
       </c>
       <c r="B346" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C346" s="4">
         <f t="shared" si="11"/>
@@ -4980,11 +4980,11 @@
         <v>44177</v>
       </c>
       <c r="B348" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C348" s="4">
         <f t="shared" si="11"/>
-        <v>5172</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="C349" s="4">
         <f t="shared" si="11"/>
-        <v>5205</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="C350" s="4">
         <f t="shared" si="11"/>
-        <v>5261</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
@@ -5023,7 +5023,7 @@
       </c>
       <c r="C351" s="4">
         <f t="shared" si="11"/>
-        <v>5307</v>
+        <v>5308</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="C352" s="4">
         <f t="shared" si="11"/>
-        <v>5367</v>
+        <v>5368</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
@@ -5045,11 +5045,11 @@
         <v>44182</v>
       </c>
       <c r="B353" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C353" s="4">
         <f t="shared" si="11"/>
-        <v>5411</v>
+        <v>5413</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
@@ -5058,11 +5058,11 @@
         <v>44183</v>
       </c>
       <c r="B354" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C354" s="4">
         <f t="shared" si="11"/>
-        <v>5452</v>
+        <v>5455</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
@@ -5071,11 +5071,11 @@
         <v>44184</v>
       </c>
       <c r="B355" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C355" s="4">
         <f t="shared" si="11"/>
-        <v>5502</v>
+        <v>5506</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
@@ -5084,11 +5084,11 @@
         <v>44185</v>
       </c>
       <c r="B356" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C356" s="4">
         <f t="shared" si="11"/>
-        <v>5555</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
@@ -5097,11 +5097,11 @@
         <v>44186</v>
       </c>
       <c r="B357" s="4">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C357" s="4">
         <f t="shared" si="11"/>
-        <v>5609</v>
+        <v>5617</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="C358" s="4">
         <f t="shared" si="11"/>
-        <v>5665</v>
+        <v>5673</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="C359" s="4">
         <f t="shared" si="11"/>
-        <v>5729</v>
+        <v>5737</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="C360" s="4">
         <f t="shared" si="11"/>
-        <v>5772</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="C361" s="4">
         <f t="shared" si="11"/>
-        <v>5818</v>
+        <v>5826</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="C362" s="4">
         <f t="shared" si="11"/>
-        <v>5875</v>
+        <v>5883</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
@@ -5179,7 +5179,7 @@
       </c>
       <c r="C363" s="4">
         <f t="shared" si="11"/>
-        <v>5941</v>
+        <v>5949</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="C364" s="4">
         <f t="shared" si="11"/>
-        <v>5996</v>
+        <v>6004</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
@@ -5201,11 +5201,11 @@
         <v>44194</v>
       </c>
       <c r="B365" s="4">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C365" s="4">
         <f t="shared" si="11"/>
-        <v>6065</v>
+        <v>6075</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="C366" s="4">
         <f t="shared" si="11"/>
-        <v>6127</v>
+        <v>6137</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="C367" s="4">
         <f t="shared" si="11"/>
-        <v>6183</v>
+        <v>6193</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="C368" s="4">
         <f t="shared" si="11"/>
-        <v>6251</v>
+        <v>6261</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="C369" s="4">
         <f t="shared" si="11"/>
-        <v>6317</v>
+        <v>6327</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="C370" s="4">
         <f t="shared" si="11"/>
-        <v>6376</v>
+        <v>6386</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="C371" s="4">
         <f t="shared" si="11"/>
-        <v>6453</v>
+        <v>6463</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="C372" s="4">
         <f t="shared" si="11"/>
-        <v>6509</v>
+        <v>6519</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="C373" s="4">
         <f t="shared" si="11"/>
-        <v>6566</v>
+        <v>6576</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
@@ -5318,11 +5318,11 @@
         <v>44203</v>
       </c>
       <c r="B374" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C374" s="4">
         <f t="shared" si="11"/>
-        <v>6632</v>
+        <v>6643</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
@@ -5331,11 +5331,11 @@
         <v>44204</v>
       </c>
       <c r="B375" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C375" s="4">
         <f t="shared" si="11"/>
-        <v>6686</v>
+        <v>6696</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="C376" s="4">
         <f t="shared" si="11"/>
-        <v>6742</v>
+        <v>6752</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="C377" s="4">
         <f t="shared" si="11"/>
-        <v>6809</v>
+        <v>6819</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="C378" s="4">
         <f t="shared" si="11"/>
-        <v>6877</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="C379" s="4">
         <f t="shared" si="11"/>
-        <v>6922</v>
+        <v>6932</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
@@ -5400,7 +5400,7 @@
       </c>
       <c r="C380" s="4">
         <f t="shared" si="11"/>
-        <v>6954</v>
+        <v>6964</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="C381" s="4">
         <f t="shared" si="11"/>
-        <v>6999</v>
+        <v>7009</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="C382" s="4">
         <f t="shared" si="11"/>
-        <v>7031</v>
+        <v>7041</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="C383" s="4">
         <f t="shared" si="11"/>
-        <v>7075</v>
+        <v>7085</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="C384" s="4">
         <f t="shared" si="11"/>
-        <v>7126</v>
+        <v>7136</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
@@ -5465,7 +5465,7 @@
       </c>
       <c r="C385" s="4">
         <f t="shared" si="11"/>
-        <v>7178</v>
+        <v>7188</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
@@ -5478,7 +5478,7 @@
       </c>
       <c r="C386" s="4">
         <f t="shared" si="11"/>
-        <v>7232</v>
+        <v>7242</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
@@ -5491,12 +5491,12 @@
       </c>
       <c r="C387" s="4">
         <f t="shared" si="11"/>
-        <v>7267</v>
+        <v>7277</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="3">
-        <f t="shared" ref="A388:A402" si="12">A387+1</f>
+        <f t="shared" ref="A388:A404" si="12">A387+1</f>
         <v>44217</v>
       </c>
       <c r="B388" s="4">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="C388" s="4">
         <f t="shared" ref="C388:C402" si="13">C387+B388</f>
-        <v>7306</v>
+        <v>7316</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="C389" s="4">
         <f t="shared" si="13"/>
-        <v>7337</v>
+        <v>7347</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
@@ -5530,7 +5530,7 @@
       </c>
       <c r="C390" s="4">
         <f t="shared" si="13"/>
-        <v>7370</v>
+        <v>7380</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="C391" s="4">
         <f t="shared" si="13"/>
-        <v>7391</v>
+        <v>7401</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="C392" s="4">
         <f t="shared" si="13"/>
-        <v>7406</v>
+        <v>7416</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="C393" s="4">
         <f t="shared" si="13"/>
-        <v>7427</v>
+        <v>7437</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
@@ -5582,7 +5582,7 @@
       </c>
       <c r="C394" s="4">
         <f t="shared" si="13"/>
-        <v>7440</v>
+        <v>7450</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
@@ -5595,7 +5595,7 @@
       </c>
       <c r="C395" s="4">
         <f t="shared" si="13"/>
-        <v>7458</v>
+        <v>7468</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="C396" s="4">
         <f t="shared" si="13"/>
-        <v>7472</v>
+        <v>7482</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="C397" s="4">
         <f t="shared" si="13"/>
-        <v>7480</v>
+        <v>7490</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="C398" s="4">
         <f t="shared" si="13"/>
-        <v>7483</v>
+        <v>7493</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
@@ -5647,7 +5647,7 @@
       </c>
       <c r="C399" s="4">
         <f t="shared" si="13"/>
-        <v>7493</v>
+        <v>7503</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
@@ -5660,7 +5660,7 @@
       </c>
       <c r="C400" s="4">
         <f t="shared" si="13"/>
-        <v>7502</v>
+        <v>7512</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
@@ -5669,11 +5669,11 @@
         <v>44230</v>
       </c>
       <c r="B401">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C401" s="4">
         <f t="shared" si="13"/>
-        <v>7504</v>
+        <v>7517</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
@@ -5682,11 +5682,37 @@
         <v>44231</v>
       </c>
       <c r="B402">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C402" s="4">
         <f t="shared" si="13"/>
-        <v>7505</v>
+        <v>7526</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403" s="3">
+        <f t="shared" si="12"/>
+        <v>44232</v>
+      </c>
+      <c r="B403">
+        <v>4</v>
+      </c>
+      <c r="C403" s="4">
+        <f t="shared" ref="C403:C404" si="14">C402+B403</f>
+        <v>7530</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404" s="3">
+        <f t="shared" si="12"/>
+        <v>44233</v>
+      </c>
+      <c r="B404">
+        <v>2</v>
+      </c>
+      <c r="C404" s="4">
+        <f t="shared" si="14"/>
+        <v>7532</v>
       </c>
     </row>
   </sheetData>
@@ -5696,11 +5722,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C77E57-C0B4-9B4C-98EA-985C0D327C7F}">
-  <dimension ref="A1:C342"/>
+  <dimension ref="A1:C345"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B307" sqref="B307"/>
+      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B279" sqref="B279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8912,11 +8938,11 @@
         <v>44157</v>
       </c>
       <c r="B268">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C268" s="4">
         <f t="shared" si="4"/>
-        <v>6753</v>
+        <v>6754</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -8928,7 +8954,7 @@
       </c>
       <c r="C269" s="4">
         <f t="shared" si="4"/>
-        <v>6798</v>
+        <v>6799</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -8940,7 +8966,7 @@
       </c>
       <c r="C270" s="4">
         <f t="shared" si="4"/>
-        <v>6853</v>
+        <v>6854</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -8952,7 +8978,7 @@
       </c>
       <c r="C271" s="4">
         <f t="shared" si="4"/>
-        <v>6902</v>
+        <v>6903</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -8964,7 +8990,7 @@
       </c>
       <c r="C272" s="4">
         <f t="shared" si="4"/>
-        <v>6945</v>
+        <v>6946</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -8976,7 +9002,7 @@
       </c>
       <c r="C273" s="4">
         <f t="shared" si="4"/>
-        <v>6987</v>
+        <v>6988</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -8988,7 +9014,7 @@
       </c>
       <c r="C274" s="4">
         <f t="shared" si="4"/>
-        <v>7037</v>
+        <v>7038</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -9000,7 +9026,7 @@
       </c>
       <c r="C275" s="4">
         <f t="shared" si="4"/>
-        <v>7097</v>
+        <v>7098</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -9012,7 +9038,7 @@
       </c>
       <c r="C276" s="4">
         <f t="shared" si="4"/>
-        <v>7148</v>
+        <v>7149</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -9020,11 +9046,11 @@
         <v>44166</v>
       </c>
       <c r="B277">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C277" s="4">
         <f t="shared" si="4"/>
-        <v>7209</v>
+        <v>7211</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -9032,11 +9058,11 @@
         <v>44167</v>
       </c>
       <c r="B278">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C278" s="4">
         <f t="shared" si="4"/>
-        <v>7267</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -9048,7 +9074,7 @@
       </c>
       <c r="C279" s="4">
         <f t="shared" si="4"/>
-        <v>7328</v>
+        <v>7331</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -9056,11 +9082,11 @@
         <v>44169</v>
       </c>
       <c r="B280">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C280" s="4">
         <f t="shared" si="4"/>
-        <v>7399</v>
+        <v>7403</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -9072,7 +9098,7 @@
       </c>
       <c r="C281" s="4">
         <f t="shared" si="4"/>
-        <v>7489</v>
+        <v>7493</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -9084,7 +9110,7 @@
       </c>
       <c r="C282" s="4">
         <f t="shared" si="4"/>
-        <v>7560</v>
+        <v>7564</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -9096,7 +9122,7 @@
       </c>
       <c r="C283" s="4">
         <f t="shared" si="4"/>
-        <v>7651</v>
+        <v>7655</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -9108,7 +9134,7 @@
       </c>
       <c r="C284" s="4">
         <f t="shared" si="4"/>
-        <v>7734</v>
+        <v>7738</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -9116,11 +9142,11 @@
         <v>44174</v>
       </c>
       <c r="B285">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C285" s="4">
         <f t="shared" si="4"/>
-        <v>7832</v>
+        <v>7835</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -9128,11 +9154,11 @@
         <v>44175</v>
       </c>
       <c r="B286">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C286" s="4">
         <f t="shared" si="4"/>
-        <v>7940</v>
+        <v>7942</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -9140,11 +9166,11 @@
         <v>44176</v>
       </c>
       <c r="B287">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C287" s="4">
         <f t="shared" si="4"/>
-        <v>8027</v>
+        <v>8030</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -9156,7 +9182,7 @@
       </c>
       <c r="C288" s="4">
         <f t="shared" si="4"/>
-        <v>8110</v>
+        <v>8113</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -9168,7 +9194,7 @@
       </c>
       <c r="C289" s="4">
         <f t="shared" si="4"/>
-        <v>8190</v>
+        <v>8193</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -9180,7 +9206,7 @@
       </c>
       <c r="C290" s="4">
         <f t="shared" si="4"/>
-        <v>8305</v>
+        <v>8308</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -9192,7 +9218,7 @@
       </c>
       <c r="C291" s="4">
         <f t="shared" si="4"/>
-        <v>8399</v>
+        <v>8402</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -9200,11 +9226,11 @@
         <v>44181</v>
       </c>
       <c r="B292">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C292" s="4">
         <f t="shared" si="4"/>
-        <v>8494</v>
+        <v>8498</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -9212,11 +9238,11 @@
         <v>44182</v>
       </c>
       <c r="B293">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C293" s="4">
         <f t="shared" si="4"/>
-        <v>8628</v>
+        <v>8633</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -9228,7 +9254,7 @@
       </c>
       <c r="C294" s="4">
         <f t="shared" si="4"/>
-        <v>8754</v>
+        <v>8759</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -9240,7 +9266,7 @@
       </c>
       <c r="C295" s="4">
         <f t="shared" si="4"/>
-        <v>8874</v>
+        <v>8879</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -9248,11 +9274,11 @@
         <v>44185</v>
       </c>
       <c r="B296">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C296" s="4">
         <f t="shared" si="4"/>
-        <v>8995</v>
+        <v>9001</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -9264,7 +9290,7 @@
       </c>
       <c r="C297" s="4">
         <f t="shared" si="4"/>
-        <v>9118</v>
+        <v>9124</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -9276,7 +9302,7 @@
       </c>
       <c r="C298" s="4">
         <f t="shared" si="4"/>
-        <v>9245</v>
+        <v>9251</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -9284,11 +9310,11 @@
         <v>44188</v>
       </c>
       <c r="B299">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C299" s="4">
         <f t="shared" si="4"/>
-        <v>9358</v>
+        <v>9367</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -9300,7 +9326,7 @@
       </c>
       <c r="C300" s="4">
         <f t="shared" si="4"/>
-        <v>9465</v>
+        <v>9474</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -9308,11 +9334,11 @@
         <v>44190</v>
       </c>
       <c r="B301">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C301" s="4">
         <f t="shared" si="4"/>
-        <v>9566</v>
+        <v>9576</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -9324,7 +9350,7 @@
       </c>
       <c r="C302" s="4">
         <f t="shared" si="4"/>
-        <v>9677</v>
+        <v>9687</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -9332,11 +9358,11 @@
         <v>44192</v>
       </c>
       <c r="B303">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C303" s="4">
         <f t="shared" si="4"/>
-        <v>9805</v>
+        <v>9816</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -9344,11 +9370,11 @@
         <v>44193</v>
       </c>
       <c r="B304">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C304" s="4">
         <f t="shared" si="4"/>
-        <v>9925</v>
+        <v>9937</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -9356,11 +9382,11 @@
         <v>44194</v>
       </c>
       <c r="B305">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C305" s="4">
         <f t="shared" si="4"/>
-        <v>10043</v>
+        <v>10057</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -9372,7 +9398,7 @@
       </c>
       <c r="C306" s="4">
         <f t="shared" si="4"/>
-        <v>10168</v>
+        <v>10182</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -9380,11 +9406,11 @@
         <v>44196</v>
       </c>
       <c r="B307">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C307" s="4">
         <f t="shared" si="4"/>
-        <v>10302</v>
+        <v>10319</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -9392,11 +9418,11 @@
         <v>44197</v>
       </c>
       <c r="B308">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C308" s="4">
         <f t="shared" si="4"/>
-        <v>10418</v>
+        <v>10436</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -9404,11 +9430,11 @@
         <v>44198</v>
       </c>
       <c r="B309">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C309" s="4">
         <f t="shared" si="4"/>
-        <v>10547</v>
+        <v>10567</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -9420,7 +9446,7 @@
       </c>
       <c r="C310" s="4">
         <f t="shared" si="4"/>
-        <v>10685</v>
+        <v>10705</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -9432,7 +9458,7 @@
       </c>
       <c r="C311" s="4">
         <f t="shared" si="4"/>
-        <v>10825</v>
+        <v>10845</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -9440,11 +9466,11 @@
         <v>44201</v>
       </c>
       <c r="B312">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C312" s="4">
         <f t="shared" si="4"/>
-        <v>10970</v>
+        <v>10992</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -9452,11 +9478,11 @@
         <v>44202</v>
       </c>
       <c r="B313">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C313" s="4">
         <f t="shared" si="4"/>
-        <v>11083</v>
+        <v>11106</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -9464,11 +9490,11 @@
         <v>44203</v>
       </c>
       <c r="B314">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C314" s="4">
         <f t="shared" si="4"/>
-        <v>11209</v>
+        <v>11233</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -9480,7 +9506,7 @@
       </c>
       <c r="C315" s="4">
         <f t="shared" si="4"/>
-        <v>11346</v>
+        <v>11370</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -9488,11 +9514,11 @@
         <v>44205</v>
       </c>
       <c r="B316">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C316" s="4">
         <f t="shared" si="4"/>
-        <v>11490</v>
+        <v>11516</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -9500,11 +9526,11 @@
         <v>44206</v>
       </c>
       <c r="B317">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C317" s="4">
         <f t="shared" si="4"/>
-        <v>11624</v>
+        <v>11652</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -9512,11 +9538,11 @@
         <v>44207</v>
       </c>
       <c r="B318">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C318" s="4">
         <f t="shared" si="4"/>
-        <v>11750</v>
+        <v>11781</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -9524,11 +9550,11 @@
         <v>44208</v>
       </c>
       <c r="B319">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C319" s="4">
         <f t="shared" si="4"/>
-        <v>11881</v>
+        <v>11914</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -9536,11 +9562,11 @@
         <v>44209</v>
       </c>
       <c r="B320">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C320" s="4">
         <f t="shared" si="4"/>
-        <v>12033</v>
+        <v>12067</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -9548,11 +9574,11 @@
         <v>44210</v>
       </c>
       <c r="B321">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C321" s="4">
         <f t="shared" si="4"/>
-        <v>12174</v>
+        <v>12211</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -9560,11 +9586,11 @@
         <v>44211</v>
       </c>
       <c r="B322">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C322" s="4">
         <f t="shared" si="4"/>
-        <v>12305</v>
+        <v>12345</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -9572,11 +9598,11 @@
         <v>44212</v>
       </c>
       <c r="B323">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C323" s="4">
         <f t="shared" si="4"/>
-        <v>12421</v>
+        <v>12468</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -9584,11 +9610,11 @@
         <v>44213</v>
       </c>
       <c r="B324">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C324" s="4">
         <f t="shared" ref="C324:C341" si="5">C323+B324</f>
-        <v>12562</v>
+        <v>12615</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -9600,7 +9626,7 @@
       </c>
       <c r="C325" s="4">
         <f t="shared" si="5"/>
-        <v>12721</v>
+        <v>12774</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -9612,7 +9638,7 @@
       </c>
       <c r="C326" s="4">
         <f t="shared" si="5"/>
-        <v>12843</v>
+        <v>12896</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -9624,7 +9650,7 @@
       </c>
       <c r="C327" s="4">
         <f t="shared" si="5"/>
-        <v>12970</v>
+        <v>13023</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -9636,7 +9662,7 @@
       </c>
       <c r="C328" s="4">
         <f t="shared" si="5"/>
-        <v>13082</v>
+        <v>13135</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -9648,7 +9674,7 @@
       </c>
       <c r="C329" s="4">
         <f t="shared" si="5"/>
-        <v>13191</v>
+        <v>13244</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -9661,7 +9687,7 @@
       </c>
       <c r="C330" s="4">
         <f t="shared" si="5"/>
-        <v>13295</v>
+        <v>13348</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -9674,12 +9700,12 @@
       </c>
       <c r="C331" s="4">
         <f t="shared" si="5"/>
-        <v>13384</v>
+        <v>13437</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <f t="shared" ref="A332:A342" si="6">A331+1</f>
+        <f t="shared" ref="A332:A345" si="6">A331+1</f>
         <v>44221</v>
       </c>
       <c r="B332">
@@ -9687,7 +9713,7 @@
       </c>
       <c r="C332" s="4">
         <f t="shared" si="5"/>
-        <v>13465</v>
+        <v>13518</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -9700,7 +9726,7 @@
       </c>
       <c r="C333" s="4">
         <f t="shared" si="5"/>
-        <v>13555</v>
+        <v>13608</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -9713,7 +9739,7 @@
       </c>
       <c r="C334" s="4">
         <f t="shared" si="5"/>
-        <v>13635</v>
+        <v>13688</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -9726,7 +9752,7 @@
       </c>
       <c r="C335" s="4">
         <f t="shared" si="5"/>
-        <v>13698</v>
+        <v>13751</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -9739,7 +9765,7 @@
       </c>
       <c r="C336" s="4">
         <f t="shared" si="5"/>
-        <v>13752</v>
+        <v>13805</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -9752,7 +9778,7 @@
       </c>
       <c r="C337" s="4">
         <f t="shared" si="5"/>
-        <v>13812</v>
+        <v>13865</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -9761,11 +9787,11 @@
         <v>44227</v>
       </c>
       <c r="B338">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C338" s="4">
         <f t="shared" si="5"/>
-        <v>13853</v>
+        <v>13914</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
@@ -9774,11 +9800,11 @@
         <v>44228</v>
       </c>
       <c r="B339">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C339" s="4">
         <f t="shared" si="5"/>
-        <v>13882</v>
+        <v>13951</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
@@ -9787,11 +9813,11 @@
         <v>44229</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C340" s="4">
         <f t="shared" si="5"/>
-        <v>13891</v>
+        <v>13984</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
@@ -9800,11 +9826,11 @@
         <v>44230</v>
       </c>
       <c r="B341">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C341" s="4">
         <f t="shared" si="5"/>
-        <v>13898</v>
+        <v>14017</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
@@ -9813,11 +9839,50 @@
         <v>44231</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C342" s="4">
         <f t="shared" ref="C342" si="7">C341+B342</f>
-        <v>13899</v>
+        <v>14029</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" s="2">
+        <f t="shared" si="6"/>
+        <v>44232</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343" s="4">
+        <f t="shared" ref="C343:C345" si="8">C342+B343</f>
+        <v>14029</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" s="2">
+        <f t="shared" si="6"/>
+        <v>44233</v>
+      </c>
+      <c r="B344">
+        <v>2</v>
+      </c>
+      <c r="C344" s="4">
+        <f t="shared" si="8"/>
+        <v>14031</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" s="2">
+        <f t="shared" si="6"/>
+        <v>44234</v>
+      </c>
+      <c r="B345">
+        <v>3</v>
+      </c>
+      <c r="C345" s="4">
+        <f t="shared" si="8"/>
+        <v>14034</v>
       </c>
     </row>
   </sheetData>
@@ -9830,8 +9895,8 @@
   <dimension ref="A1:C347"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B323" sqref="B323"/>
+      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B292" sqref="B292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13612,7 +13677,7 @@
       </c>
       <c r="C291">
         <f t="shared" si="12"/>
-        <v>4226</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -13625,7 +13690,7 @@
       </c>
       <c r="C292">
         <f t="shared" si="12"/>
-        <v>4252</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -13634,11 +13699,11 @@
         <v>44182</v>
       </c>
       <c r="B293">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C293">
         <f t="shared" si="12"/>
-        <v>4285</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -13651,7 +13716,7 @@
       </c>
       <c r="C294">
         <f t="shared" si="12"/>
-        <v>4301</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -13664,7 +13729,7 @@
       </c>
       <c r="C295">
         <f t="shared" si="12"/>
-        <v>4341</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -13673,11 +13738,11 @@
         <v>44185</v>
       </c>
       <c r="B296">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C296">
         <f t="shared" si="12"/>
-        <v>4373</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -13690,7 +13755,7 @@
       </c>
       <c r="C297">
         <f t="shared" si="12"/>
-        <v>4403</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -13699,11 +13764,11 @@
         <v>44187</v>
       </c>
       <c r="B298">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C298">
         <f t="shared" si="12"/>
-        <v>4431</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -13716,7 +13781,7 @@
       </c>
       <c r="C299">
         <f t="shared" si="12"/>
-        <v>4467</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -13725,11 +13790,11 @@
         <v>44189</v>
       </c>
       <c r="B300">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C300">
         <f t="shared" si="12"/>
-        <v>4491</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -13742,7 +13807,7 @@
       </c>
       <c r="C301">
         <f t="shared" si="12"/>
-        <v>4523</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -13755,7 +13820,7 @@
       </c>
       <c r="C302">
         <f t="shared" si="12"/>
-        <v>4548</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -13768,7 +13833,7 @@
       </c>
       <c r="C303">
         <f t="shared" si="12"/>
-        <v>4564</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -13781,7 +13846,7 @@
       </c>
       <c r="C304">
         <f t="shared" ref="C304:C335" si="13">C303+B306</f>
-        <v>4589</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -13790,11 +13855,11 @@
         <v>44194</v>
       </c>
       <c r="B305">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C305">
         <f t="shared" si="13"/>
-        <v>4610</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -13803,11 +13868,11 @@
         <v>44195</v>
       </c>
       <c r="B306">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C306">
         <f t="shared" si="13"/>
-        <v>4633</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -13816,11 +13881,11 @@
         <v>44196</v>
       </c>
       <c r="B307">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C307">
         <f t="shared" si="13"/>
-        <v>4663</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -13833,7 +13898,7 @@
       </c>
       <c r="C308">
         <f t="shared" si="13"/>
-        <v>4681</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -13846,7 +13911,7 @@
       </c>
       <c r="C309">
         <f t="shared" si="13"/>
-        <v>4700</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -13859,7 +13924,7 @@
       </c>
       <c r="C310">
         <f t="shared" si="13"/>
-        <v>4723</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -13868,11 +13933,11 @@
         <v>44200</v>
       </c>
       <c r="B311">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C311">
         <f t="shared" si="13"/>
-        <v>4749</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -13881,11 +13946,11 @@
         <v>44201</v>
       </c>
       <c r="B312">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C312">
         <f t="shared" si="13"/>
-        <v>4766</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -13894,11 +13959,11 @@
         <v>44202</v>
       </c>
       <c r="B313">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C313">
         <f t="shared" si="13"/>
-        <v>4792</v>
+        <v>4787</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -13911,7 +13976,7 @@
       </c>
       <c r="C314">
         <f t="shared" si="13"/>
-        <v>4821</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -13920,11 +13985,11 @@
         <v>44204</v>
       </c>
       <c r="B315">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C315">
         <f t="shared" si="13"/>
-        <v>4842</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -13937,7 +14002,7 @@
       </c>
       <c r="C316">
         <f t="shared" si="13"/>
-        <v>4860</v>
+        <v>4857</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -13946,11 +14011,11 @@
         <v>44206</v>
       </c>
       <c r="B317">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C317">
         <f t="shared" si="13"/>
-        <v>4876</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -13959,11 +14024,11 @@
         <v>44207</v>
       </c>
       <c r="B318">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C318">
         <f t="shared" si="13"/>
-        <v>4894</v>
+        <v>4891</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -13976,7 +14041,7 @@
       </c>
       <c r="C319">
         <f t="shared" si="13"/>
-        <v>4911</v>
+        <v>4908</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -13989,7 +14054,7 @@
       </c>
       <c r="C320">
         <f t="shared" si="13"/>
-        <v>4918</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -14002,7 +14067,7 @@
       </c>
       <c r="C321">
         <f t="shared" si="13"/>
-        <v>4932</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -14015,7 +14080,7 @@
       </c>
       <c r="C322">
         <f t="shared" si="13"/>
-        <v>4945</v>
+        <v>4942</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -14028,12 +14093,12 @@
       </c>
       <c r="C323">
         <f t="shared" si="13"/>
-        <v>4959</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <f t="shared" ref="A324:A344" si="14">A323+1</f>
+        <f t="shared" ref="A324:A346" si="14">A323+1</f>
         <v>44213</v>
       </c>
       <c r="B324">
@@ -14041,7 +14106,7 @@
       </c>
       <c r="C324">
         <f t="shared" si="13"/>
-        <v>4970</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -14054,7 +14119,7 @@
       </c>
       <c r="C325">
         <f t="shared" si="13"/>
-        <v>4981</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -14067,7 +14132,7 @@
       </c>
       <c r="C326">
         <f t="shared" si="13"/>
-        <v>4990</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -14080,7 +14145,7 @@
       </c>
       <c r="C327">
         <f t="shared" si="13"/>
-        <v>5003</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -14093,7 +14158,7 @@
       </c>
       <c r="C328">
         <f t="shared" si="13"/>
-        <v>5017</v>
+        <v>5014</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -14106,7 +14171,7 @@
       </c>
       <c r="C329">
         <f t="shared" si="13"/>
-        <v>5032</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -14119,7 +14184,7 @@
       </c>
       <c r="C330">
         <f t="shared" si="13"/>
-        <v>5044</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -14132,7 +14197,7 @@
       </c>
       <c r="C331">
         <f t="shared" si="13"/>
-        <v>5051</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -14145,7 +14210,7 @@
       </c>
       <c r="C332">
         <f t="shared" si="13"/>
-        <v>5064</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -14158,7 +14223,7 @@
       </c>
       <c r="C333">
         <f t="shared" si="13"/>
-        <v>5068</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -14171,7 +14236,7 @@
       </c>
       <c r="C334">
         <f t="shared" si="13"/>
-        <v>5075</v>
+        <v>5072</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -14184,7 +14249,7 @@
       </c>
       <c r="C335">
         <f t="shared" si="13"/>
-        <v>5081</v>
+        <v>5078</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -14196,8 +14261,8 @@
         <v>7</v>
       </c>
       <c r="C336">
-        <f t="shared" ref="C336:C367" si="15">C335+B338</f>
-        <v>5084</v>
+        <f t="shared" ref="C336" si="15">C335+B338</f>
+        <v>5081</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -14210,7 +14275,7 @@
       </c>
       <c r="C337">
         <f t="shared" ref="C337:C344" si="16">C336+B339</f>
-        <v>5086</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -14223,7 +14288,7 @@
       </c>
       <c r="C338">
         <f t="shared" si="16"/>
-        <v>5088</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
@@ -14236,7 +14301,7 @@
       </c>
       <c r="C339">
         <f t="shared" si="16"/>
-        <v>5091</v>
+        <v>5088</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
@@ -14249,7 +14314,7 @@
       </c>
       <c r="C340">
         <f t="shared" si="16"/>
-        <v>5091</v>
+        <v>5088</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
@@ -14262,7 +14327,7 @@
       </c>
       <c r="C341">
         <f t="shared" si="16"/>
-        <v>5091</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
@@ -14275,7 +14340,7 @@
       </c>
       <c r="C342">
         <f t="shared" si="16"/>
-        <v>5091</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -14284,11 +14349,11 @@
         <v>44232</v>
       </c>
       <c r="B343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C343">
         <f t="shared" si="16"/>
-        <v>5091</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -14301,14 +14366,34 @@
       </c>
       <c r="C344">
         <f t="shared" si="16"/>
-        <v>5091</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A345" s="2"/>
+      <c r="A345" s="2">
+        <f t="shared" si="14"/>
+        <v>44234</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <f t="shared" ref="C345:C346" si="17">C344+B347</f>
+        <v>5089</v>
+      </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A346" s="2"/>
+      <c r="A346" s="2">
+        <f t="shared" si="14"/>
+        <v>44235</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <f t="shared" si="17"/>
+        <v>5089</v>
+      </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="2"/>
@@ -17441,8 +17526,8 @@
   <dimension ref="A1:E357"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C287" sqref="C287"/>
+      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A348" sqref="A348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23430,15 +23515,15 @@
         <v>10</v>
       </c>
       <c r="C300">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D300">
         <f t="shared" si="13"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E300">
         <f t="shared" si="14"/>
-        <v>4804</v>
+        <v>4805</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -23458,7 +23543,7 @@
       </c>
       <c r="E301">
         <f t="shared" si="14"/>
-        <v>4828</v>
+        <v>4829</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -23478,7 +23563,7 @@
       </c>
       <c r="E302">
         <f t="shared" si="14"/>
-        <v>4862</v>
+        <v>4863</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
@@ -23498,7 +23583,7 @@
       </c>
       <c r="E303">
         <f t="shared" si="14"/>
-        <v>4901</v>
+        <v>4902</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -23518,7 +23603,7 @@
       </c>
       <c r="E304">
         <f t="shared" si="14"/>
-        <v>4940</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
@@ -23538,7 +23623,7 @@
       </c>
       <c r="E305">
         <f t="shared" si="14"/>
-        <v>4979</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
@@ -23558,7 +23643,7 @@
       </c>
       <c r="E306">
         <f t="shared" si="14"/>
-        <v>5013</v>
+        <v>5014</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
@@ -23578,7 +23663,7 @@
       </c>
       <c r="E307">
         <f t="shared" si="14"/>
-        <v>5057</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
@@ -23590,15 +23675,15 @@
         <v>9</v>
       </c>
       <c r="C308">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D308">
         <f t="shared" si="13"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E308">
         <f t="shared" si="14"/>
-        <v>5098</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
@@ -23618,7 +23703,7 @@
       </c>
       <c r="E309">
         <f t="shared" si="14"/>
-        <v>5135</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
@@ -23638,7 +23723,7 @@
       </c>
       <c r="E310">
         <f t="shared" si="14"/>
-        <v>5176</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
@@ -23658,7 +23743,7 @@
       </c>
       <c r="E311">
         <f t="shared" si="14"/>
-        <v>5219</v>
+        <v>5221</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -23678,7 +23763,7 @@
       </c>
       <c r="E312">
         <f t="shared" si="14"/>
-        <v>5272</v>
+        <v>5274</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
@@ -23698,7 +23783,7 @@
       </c>
       <c r="E313">
         <f t="shared" si="14"/>
-        <v>5316</v>
+        <v>5318</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
@@ -23710,15 +23795,15 @@
         <v>5</v>
       </c>
       <c r="C314">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D314">
         <f t="shared" si="13"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E314">
         <f t="shared" si="14"/>
-        <v>5354</v>
+        <v>5357</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
@@ -23730,15 +23815,15 @@
         <v>9</v>
       </c>
       <c r="C315">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D315">
         <f t="shared" si="13"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E315">
         <f t="shared" si="14"/>
-        <v>5406</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
@@ -23750,15 +23835,15 @@
         <v>6</v>
       </c>
       <c r="C316">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D316">
         <f t="shared" si="13"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E316">
         <f t="shared" si="14"/>
-        <v>5453</v>
+        <v>5459</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
@@ -23770,15 +23855,15 @@
         <v>11</v>
       </c>
       <c r="C317">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D317">
         <f t="shared" si="13"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E317">
         <f t="shared" si="14"/>
-        <v>5493</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
@@ -23790,15 +23875,15 @@
         <v>8</v>
       </c>
       <c r="C318">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D318">
         <f t="shared" si="13"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E318">
         <f t="shared" si="14"/>
-        <v>5533</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
@@ -23818,7 +23903,7 @@
       </c>
       <c r="E319">
         <f t="shared" si="14"/>
-        <v>5585</v>
+        <v>5593</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
@@ -23838,7 +23923,7 @@
       </c>
       <c r="E320">
         <f t="shared" si="14"/>
-        <v>5619</v>
+        <v>5627</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
@@ -23850,15 +23935,15 @@
         <v>2</v>
       </c>
       <c r="C321">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D321">
         <f t="shared" si="13"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E321">
         <f t="shared" si="14"/>
-        <v>5665</v>
+        <v>5674</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
@@ -23870,15 +23955,15 @@
         <v>11</v>
       </c>
       <c r="C322">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D322">
         <f t="shared" si="13"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E322">
         <f t="shared" si="14"/>
-        <v>5720</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
@@ -23890,20 +23975,20 @@
         <v>6</v>
       </c>
       <c r="C323">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D323">
         <f t="shared" si="13"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E323">
         <f t="shared" si="14"/>
-        <v>5751</v>
+        <v>5762</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <f t="shared" ref="A324:A342" si="15">A323+1</f>
+        <f t="shared" ref="A324:A348" si="15">A323+1</f>
         <v>44213</v>
       </c>
       <c r="B324">
@@ -23918,7 +24003,7 @@
       </c>
       <c r="E324">
         <f t="shared" ref="E324:E332" si="17">E323+D324</f>
-        <v>5791</v>
+        <v>5802</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
@@ -23930,15 +24015,15 @@
         <v>10</v>
       </c>
       <c r="C325">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D325">
         <f t="shared" si="16"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E325">
         <f t="shared" si="17"/>
-        <v>5840</v>
+        <v>5852</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
@@ -23947,18 +24032,18 @@
         <v>44215</v>
       </c>
       <c r="B326">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C326">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D326">
         <f t="shared" si="16"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E326">
         <f t="shared" si="17"/>
-        <v>5872</v>
+        <v>5887</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
@@ -23970,15 +24055,15 @@
         <v>4</v>
       </c>
       <c r="C327">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D327">
         <f t="shared" si="16"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E327">
         <f t="shared" si="17"/>
-        <v>5902</v>
+        <v>5919</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
@@ -23990,15 +24075,15 @@
         <v>4</v>
       </c>
       <c r="C328">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D328">
         <f t="shared" si="16"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E328">
         <f t="shared" si="17"/>
-        <v>5945</v>
+        <v>5964</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
@@ -24007,18 +24092,18 @@
         <v>44218</v>
       </c>
       <c r="B329">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C329">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D329">
         <f t="shared" si="16"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E329">
         <f t="shared" si="17"/>
-        <v>5977</v>
+        <v>5998</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
@@ -24030,15 +24115,15 @@
         <v>4</v>
       </c>
       <c r="C330">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D330">
         <f t="shared" si="16"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E330">
         <f t="shared" si="17"/>
-        <v>6005</v>
+        <v>6027</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
@@ -24050,15 +24135,15 @@
         <v>5</v>
       </c>
       <c r="C331">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D331">
         <f t="shared" si="16"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E331">
         <f t="shared" si="17"/>
-        <v>6036</v>
+        <v>6061</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
@@ -24067,18 +24152,18 @@
         <v>44221</v>
       </c>
       <c r="B332">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C332">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D332">
         <f t="shared" si="16"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E332">
         <f t="shared" si="17"/>
-        <v>6067</v>
+        <v>6094</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
@@ -24098,7 +24183,7 @@
       </c>
       <c r="E333">
         <f t="shared" ref="E333" si="18">E332+D333</f>
-        <v>6097</v>
+        <v>6124</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
@@ -24110,15 +24195,15 @@
         <v>4</v>
       </c>
       <c r="C334">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D334">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E334">
         <f t="shared" ref="E334:E339" si="19">E333+D334</f>
-        <v>6122</v>
+        <v>6154</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
@@ -24130,15 +24215,15 @@
         <v>2</v>
       </c>
       <c r="C335">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D335">
         <f t="shared" si="16"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E335">
         <f t="shared" si="19"/>
-        <v>6136</v>
+        <v>6169</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
@@ -24150,15 +24235,15 @@
         <v>3</v>
       </c>
       <c r="C336">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D336">
         <f t="shared" si="16"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E336">
         <f t="shared" si="19"/>
-        <v>6156</v>
+        <v>6199</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
@@ -24167,18 +24252,18 @@
         <v>44226</v>
       </c>
       <c r="B337">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C337">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D337">
         <f t="shared" si="16"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E337">
         <f t="shared" si="19"/>
-        <v>6167</v>
+        <v>6218</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
@@ -24190,15 +24275,15 @@
         <v>2</v>
       </c>
       <c r="C338">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D338">
         <f t="shared" si="16"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E338">
         <f t="shared" si="19"/>
-        <v>6183</v>
+        <v>6238</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
@@ -24207,18 +24292,18 @@
         <v>44228</v>
       </c>
       <c r="B339">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C339">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D339">
         <f t="shared" si="16"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E339">
         <f t="shared" si="19"/>
-        <v>6203</v>
+        <v>6267</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
@@ -24227,18 +24312,18 @@
         <v>44229</v>
       </c>
       <c r="B340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C340">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D340">
         <f t="shared" ref="D340" si="20">B340+C340</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E340">
         <f t="shared" ref="E340" si="21">E339+D340</f>
-        <v>6219</v>
+        <v>6288</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
@@ -24247,18 +24332,18 @@
         <v>44230</v>
       </c>
       <c r="B341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C341">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D341">
         <f t="shared" ref="D341:D342" si="22">B341+C341</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E341">
         <f t="shared" ref="E341:E342" si="23">E340+D341</f>
-        <v>6233</v>
+        <v>6305</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
@@ -24267,37 +24352,139 @@
         <v>44231</v>
       </c>
       <c r="B342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C342">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D342">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E342">
         <f t="shared" si="23"/>
-        <v>6236</v>
+        <v>6326</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A343" s="2"/>
+      <c r="A343" s="2">
+        <f t="shared" si="15"/>
+        <v>44232</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+      <c r="C343">
+        <v>13</v>
+      </c>
+      <c r="D343">
+        <f t="shared" ref="D343" si="24">B343+C343</f>
+        <v>14</v>
+      </c>
+      <c r="E343">
+        <f t="shared" ref="E343" si="25">E342+D343</f>
+        <v>6340</v>
+      </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A344" s="2"/>
+      <c r="A344" s="2">
+        <f t="shared" si="15"/>
+        <v>44233</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344">
+        <v>10</v>
+      </c>
+      <c r="D344">
+        <f t="shared" ref="D344:D346" si="26">B344+C344</f>
+        <v>11</v>
+      </c>
+      <c r="E344">
+        <f t="shared" ref="E344:E346" si="27">E343+D344</f>
+        <v>6351</v>
+      </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A345" s="2"/>
+      <c r="A345" s="2">
+        <f t="shared" si="15"/>
+        <v>44234</v>
+      </c>
+      <c r="B345">
+        <v>2</v>
+      </c>
+      <c r="C345">
+        <v>10</v>
+      </c>
+      <c r="D345">
+        <f t="shared" si="26"/>
+        <v>12</v>
+      </c>
+      <c r="E345">
+        <f t="shared" si="27"/>
+        <v>6363</v>
+      </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A346" s="2"/>
+      <c r="A346" s="2">
+        <f t="shared" si="15"/>
+        <v>44235</v>
+      </c>
+      <c r="B346">
+        <v>2</v>
+      </c>
+      <c r="C346">
+        <v>8</v>
+      </c>
+      <c r="D346">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="E346">
+        <f t="shared" si="27"/>
+        <v>6373</v>
+      </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A347" s="2"/>
+      <c r="A347" s="2">
+        <f t="shared" si="15"/>
+        <v>44236</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>12</v>
+      </c>
+      <c r="D347">
+        <f t="shared" ref="D347:D348" si="28">B347+C347</f>
+        <v>12</v>
+      </c>
+      <c r="E347">
+        <f t="shared" ref="E347:E348" si="29">E346+D347</f>
+        <v>6385</v>
+      </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A348" s="2"/>
+      <c r="A348" s="2">
+        <f t="shared" si="15"/>
+        <v>44237</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>4</v>
+      </c>
+      <c r="D348">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="E348">
+        <f t="shared" si="29"/>
+        <v>6389</v>
+      </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="2"/>
@@ -24333,11 +24520,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCF04A3-27B8-574D-8890-2D4B7141B7CD}">
-  <dimension ref="A1:E337"/>
+  <dimension ref="A1:E349"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B331" sqref="B331"/>
+      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C258" sqref="C258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29234,18 +29421,18 @@
         <v>44147</v>
       </c>
       <c r="B258" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C258">
         <v>5</v>
       </c>
       <c r="D258" s="4">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E258" s="4">
         <f t="shared" si="7"/>
-        <v>16613</v>
+        <v>16612</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -29264,7 +29451,7 @@
       </c>
       <c r="E259" s="4">
         <f t="shared" si="7"/>
-        <v>16646</v>
+        <v>16645</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -29275,11 +29462,11 @@
         <v>34</v>
       </c>
       <c r="C260">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D260" s="4">
         <f t="shared" si="8"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E260" s="4">
         <f t="shared" ref="E260:E323" si="9">E259+D260</f>
@@ -29291,18 +29478,18 @@
         <v>44150</v>
       </c>
       <c r="B261" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261" s="4">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E261" s="4">
         <f t="shared" si="9"/>
-        <v>16709</v>
+        <v>16710</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
@@ -29321,7 +29508,7 @@
       </c>
       <c r="E262" s="4">
         <f t="shared" si="9"/>
-        <v>16746</v>
+        <v>16747</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
@@ -29340,7 +29527,7 @@
       </c>
       <c r="E263" s="4">
         <f t="shared" si="9"/>
-        <v>16775</v>
+        <v>16776</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
@@ -29348,18 +29535,18 @@
         <v>44153</v>
       </c>
       <c r="B264" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C264">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D264" s="4">
         <f t="shared" si="8"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E264" s="4">
         <f t="shared" si="9"/>
-        <v>16806</v>
+        <v>16810</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
@@ -29378,7 +29565,7 @@
       </c>
       <c r="E265" s="4">
         <f t="shared" si="9"/>
-        <v>16848</v>
+        <v>16852</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -29397,7 +29584,7 @@
       </c>
       <c r="E266" s="4">
         <f t="shared" si="9"/>
-        <v>16892</v>
+        <v>16896</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
@@ -29416,7 +29603,7 @@
       </c>
       <c r="E267" s="4">
         <f t="shared" si="9"/>
-        <v>16918</v>
+        <v>16922</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -29435,7 +29622,7 @@
       </c>
       <c r="E268" s="4">
         <f t="shared" si="9"/>
-        <v>16950</v>
+        <v>16954</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
@@ -29454,7 +29641,7 @@
       </c>
       <c r="E269" s="4">
         <f t="shared" si="9"/>
-        <v>17009</v>
+        <v>17013</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -29473,7 +29660,7 @@
       </c>
       <c r="E270" s="4">
         <f t="shared" si="9"/>
-        <v>17059</v>
+        <v>17063</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -29492,7 +29679,7 @@
       </c>
       <c r="E271" s="4">
         <f t="shared" si="9"/>
-        <v>17109</v>
+        <v>17113</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -29500,18 +29687,18 @@
         <v>44161</v>
       </c>
       <c r="B272" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C272">
         <v>2</v>
       </c>
       <c r="D272" s="4">
         <f t="shared" si="8"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E272" s="4">
         <f t="shared" si="9"/>
-        <v>17155</v>
+        <v>17160</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -29522,15 +29709,15 @@
         <v>33</v>
       </c>
       <c r="C273">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D273" s="4">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E273" s="4">
         <f t="shared" si="9"/>
-        <v>17196</v>
+        <v>17202</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -29538,18 +29725,18 @@
         <v>44163</v>
       </c>
       <c r="B274" s="4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C274">
         <v>5</v>
       </c>
       <c r="D274" s="4">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E274" s="4">
         <f t="shared" si="9"/>
-        <v>17237</v>
+        <v>17246</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -29557,18 +29744,18 @@
         <v>44164</v>
       </c>
       <c r="B275" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C275">
         <v>6</v>
       </c>
       <c r="D275" s="4">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E275" s="4">
         <f t="shared" si="9"/>
-        <v>17287</v>
+        <v>17297</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
@@ -29576,18 +29763,18 @@
         <v>44165</v>
       </c>
       <c r="B276" s="4">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C276">
         <v>4</v>
       </c>
       <c r="D276" s="4">
         <f t="shared" si="8"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E276" s="4">
         <f t="shared" si="9"/>
-        <v>17360</v>
+        <v>17372</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
@@ -29595,10 +29782,10 @@
         <v>44166</v>
       </c>
       <c r="B277" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C277">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D277" s="4">
         <f t="shared" si="8"/>
@@ -29606,7 +29793,7 @@
       </c>
       <c r="E277" s="4">
         <f t="shared" si="9"/>
-        <v>17419</v>
+        <v>17431</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -29614,18 +29801,18 @@
         <v>44167</v>
       </c>
       <c r="B278" s="4">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C278">
         <v>4</v>
       </c>
       <c r="D278" s="4">
         <f t="shared" si="8"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E278" s="4">
         <f t="shared" si="9"/>
-        <v>17490</v>
+        <v>17504</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
@@ -29633,18 +29820,18 @@
         <v>44168</v>
       </c>
       <c r="B279" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C279">
         <v>6</v>
       </c>
       <c r="D279" s="4">
         <f t="shared" si="8"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E279" s="4">
         <f t="shared" si="9"/>
-        <v>17552</v>
+        <v>17567</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
@@ -29652,18 +29839,18 @@
         <v>44169</v>
       </c>
       <c r="B280" s="4">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C280">
         <v>10</v>
       </c>
       <c r="D280" s="4">
         <f t="shared" si="8"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E280" s="4">
         <f t="shared" si="9"/>
-        <v>17619</v>
+        <v>17636</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -29682,7 +29869,7 @@
       </c>
       <c r="E281" s="4">
         <f t="shared" si="9"/>
-        <v>17692</v>
+        <v>17709</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
@@ -29690,18 +29877,18 @@
         <v>44171</v>
       </c>
       <c r="B282" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C282">
         <v>8</v>
       </c>
       <c r="D282" s="4">
         <f t="shared" si="8"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E282" s="4">
         <f t="shared" si="9"/>
-        <v>17750</v>
+        <v>17768</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
@@ -29720,7 +29907,7 @@
       </c>
       <c r="E283" s="4">
         <f t="shared" si="9"/>
-        <v>17828</v>
+        <v>17846</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -29739,7 +29926,7 @@
       </c>
       <c r="E284" s="4">
         <f t="shared" si="9"/>
-        <v>17908</v>
+        <v>17926</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -29758,7 +29945,7 @@
       </c>
       <c r="E285" s="4">
         <f t="shared" si="9"/>
-        <v>17959</v>
+        <v>17977</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -29769,15 +29956,15 @@
         <v>70</v>
       </c>
       <c r="C286">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D286" s="4">
         <f t="shared" si="8"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E286" s="4">
         <f t="shared" si="9"/>
-        <v>18035</v>
+        <v>18054</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -29788,15 +29975,15 @@
         <v>85</v>
       </c>
       <c r="C287">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D287" s="4">
         <f t="shared" si="8"/>
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E287" s="4">
         <f t="shared" si="9"/>
-        <v>18127</v>
+        <v>18150</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
@@ -29804,18 +29991,18 @@
         <v>44177</v>
       </c>
       <c r="B288" s="4">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C288">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D288" s="4">
         <f t="shared" si="8"/>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E288" s="4">
         <f t="shared" si="9"/>
-        <v>18190</v>
+        <v>18217</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
@@ -29826,15 +30013,15 @@
         <v>51</v>
       </c>
       <c r="C289">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D289" s="4">
         <f t="shared" si="8"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E289" s="4">
         <f t="shared" si="9"/>
-        <v>18246</v>
+        <v>18274</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
@@ -29842,18 +30029,18 @@
         <v>44179</v>
       </c>
       <c r="B290" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C290">
         <v>6</v>
       </c>
       <c r="D290" s="4">
         <f t="shared" si="8"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E290" s="4">
         <f t="shared" si="9"/>
-        <v>18319</v>
+        <v>18348</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
@@ -29861,18 +30048,18 @@
         <v>44180</v>
       </c>
       <c r="B291" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C291">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D291" s="4">
         <f t="shared" si="8"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E291" s="4">
         <f t="shared" si="9"/>
-        <v>18382</v>
+        <v>18414</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
@@ -29883,15 +30070,15 @@
         <v>70</v>
       </c>
       <c r="C292">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D292" s="4">
         <f t="shared" si="8"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E292" s="4">
         <f t="shared" si="9"/>
-        <v>18463</v>
+        <v>18497</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
@@ -29899,18 +30086,18 @@
         <v>44182</v>
       </c>
       <c r="B293" s="4">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C293">
         <v>6</v>
       </c>
       <c r="D293" s="4">
         <f t="shared" si="8"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E293" s="4">
         <f t="shared" si="9"/>
-        <v>18537</v>
+        <v>18573</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -29918,18 +30105,18 @@
         <v>44183</v>
       </c>
       <c r="B294" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C294">
         <v>8</v>
       </c>
       <c r="D294" s="4">
         <f t="shared" si="8"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E294" s="4">
         <f t="shared" si="9"/>
-        <v>18608</v>
+        <v>18646</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -29940,15 +30127,15 @@
         <v>76</v>
       </c>
       <c r="C295">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D295" s="4">
         <f t="shared" si="8"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E295" s="4">
         <f t="shared" si="9"/>
-        <v>18689</v>
+        <v>18728</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -29956,18 +30143,18 @@
         <v>44185</v>
       </c>
       <c r="B296" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C296">
         <v>6</v>
       </c>
       <c r="D296" s="4">
         <f t="shared" si="8"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E296" s="4">
         <f t="shared" si="9"/>
-        <v>18755</v>
+        <v>18795</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
@@ -29986,7 +30173,7 @@
       </c>
       <c r="E297" s="4">
         <f t="shared" si="9"/>
-        <v>18829</v>
+        <v>18869</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
@@ -29997,15 +30184,15 @@
         <v>69</v>
       </c>
       <c r="C298">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D298" s="4">
         <f t="shared" si="8"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E298" s="4">
         <f t="shared" si="9"/>
-        <v>18907</v>
+        <v>18948</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
@@ -30024,7 +30211,7 @@
       </c>
       <c r="E299" s="4">
         <f t="shared" si="9"/>
-        <v>18980</v>
+        <v>19021</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
@@ -30032,10 +30219,10 @@
         <v>44189</v>
       </c>
       <c r="B300" s="4">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C300">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D300" s="4">
         <f t="shared" si="8"/>
@@ -30043,7 +30230,7 @@
       </c>
       <c r="E300" s="4">
         <f t="shared" si="9"/>
-        <v>19077</v>
+        <v>19118</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -30062,7 +30249,7 @@
       </c>
       <c r="E301" s="4">
         <f t="shared" si="9"/>
-        <v>19153</v>
+        <v>19194</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -30073,15 +30260,15 @@
         <v>61</v>
       </c>
       <c r="C302">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D302" s="4">
         <f t="shared" si="8"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E302" s="4">
         <f t="shared" si="9"/>
-        <v>19216</v>
+        <v>19258</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
@@ -30100,7 +30287,7 @@
       </c>
       <c r="E303" s="4">
         <f t="shared" si="9"/>
-        <v>19309</v>
+        <v>19351</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -30108,18 +30295,18 @@
         <v>44193</v>
       </c>
       <c r="B304" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C304">
         <v>4</v>
       </c>
       <c r="D304" s="4">
         <f t="shared" si="8"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E304" s="4">
         <f t="shared" si="9"/>
-        <v>19388</v>
+        <v>19431</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
@@ -30130,15 +30317,15 @@
         <v>73</v>
       </c>
       <c r="C305">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D305" s="4">
         <f t="shared" si="8"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E305" s="4">
         <f t="shared" si="9"/>
-        <v>19465</v>
+        <v>19509</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
@@ -30146,18 +30333,18 @@
         <v>44195</v>
       </c>
       <c r="B306" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C306">
         <v>3</v>
       </c>
       <c r="D306" s="4">
         <f t="shared" si="8"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E306" s="4">
         <f t="shared" si="9"/>
-        <v>19544</v>
+        <v>19589</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
@@ -30165,18 +30352,18 @@
         <v>44196</v>
       </c>
       <c r="B307" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C307">
         <v>2</v>
       </c>
       <c r="D307" s="4">
         <f t="shared" si="8"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E307" s="4">
         <f t="shared" si="9"/>
-        <v>19641</v>
+        <v>19687</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
@@ -30195,7 +30382,7 @@
       </c>
       <c r="E308" s="4">
         <f t="shared" si="9"/>
-        <v>19716</v>
+        <v>19762</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
@@ -30214,7 +30401,7 @@
       </c>
       <c r="E309" s="4">
         <f t="shared" si="9"/>
-        <v>19790</v>
+        <v>19836</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
@@ -30233,7 +30420,7 @@
       </c>
       <c r="E310" s="4">
         <f t="shared" si="9"/>
-        <v>19864</v>
+        <v>19910</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
@@ -30252,7 +30439,7 @@
       </c>
       <c r="E311" s="4">
         <f t="shared" si="9"/>
-        <v>19940</v>
+        <v>19986</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -30260,18 +30447,18 @@
         <v>44201</v>
       </c>
       <c r="B312" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C312">
         <v>3</v>
       </c>
       <c r="D312" s="4">
         <f t="shared" si="8"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E312" s="4">
         <f t="shared" si="9"/>
-        <v>20006</v>
+        <v>20053</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
@@ -30279,18 +30466,18 @@
         <v>44202</v>
       </c>
       <c r="B313" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C313">
         <v>6</v>
       </c>
       <c r="D313" s="4">
         <f t="shared" si="8"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E313" s="4">
         <f t="shared" si="9"/>
-        <v>20084</v>
+        <v>20132</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
@@ -30309,7 +30496,7 @@
       </c>
       <c r="E314" s="4">
         <f t="shared" si="9"/>
-        <v>20154</v>
+        <v>20202</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
@@ -30328,7 +30515,7 @@
       </c>
       <c r="E315" s="4">
         <f t="shared" si="9"/>
-        <v>20229</v>
+        <v>20277</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
@@ -30336,18 +30523,18 @@
         <v>44205</v>
       </c>
       <c r="B316" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C316">
         <v>3</v>
       </c>
       <c r="D316" s="4">
         <f t="shared" si="8"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E316" s="4">
         <f t="shared" si="9"/>
-        <v>20287</v>
+        <v>20336</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
@@ -30366,7 +30553,7 @@
       </c>
       <c r="E317" s="4">
         <f t="shared" si="9"/>
-        <v>20358</v>
+        <v>20407</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
@@ -30377,15 +30564,15 @@
         <v>89</v>
       </c>
       <c r="C318">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D318" s="4">
         <f t="shared" si="8"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E318" s="4">
         <f t="shared" si="9"/>
-        <v>20449</v>
+        <v>20497</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
@@ -30393,18 +30580,18 @@
         <v>44208</v>
       </c>
       <c r="B319" s="4">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C319">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D319" s="4">
         <f t="shared" si="8"/>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E319" s="4">
         <f t="shared" si="9"/>
-        <v>20527</v>
+        <v>20579</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
@@ -30415,15 +30602,15 @@
         <v>64</v>
       </c>
       <c r="C320">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D320" s="4">
         <f t="shared" si="8"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E320" s="4">
         <f t="shared" si="9"/>
-        <v>20594</v>
+        <v>20647</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
@@ -30431,18 +30618,18 @@
         <v>44210</v>
       </c>
       <c r="B321" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C321">
         <v>3</v>
       </c>
       <c r="D321" s="4">
         <f t="shared" si="8"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E321" s="4">
         <f t="shared" si="9"/>
-        <v>20679</v>
+        <v>20733</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
@@ -30461,7 +30648,7 @@
       </c>
       <c r="E322" s="4">
         <f t="shared" si="9"/>
-        <v>20756</v>
+        <v>20810</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
@@ -30469,18 +30656,18 @@
         <v>44212</v>
       </c>
       <c r="B323" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C323">
         <v>5</v>
       </c>
       <c r="D323" s="4">
         <f t="shared" ref="D323:D326" si="10">B323+C323</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E323" s="4">
         <f t="shared" si="9"/>
-        <v>20834</v>
+        <v>20889</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
@@ -30499,7 +30686,7 @@
       </c>
       <c r="E324" s="4">
         <f t="shared" ref="E324:E326" si="11">E323+D324</f>
-        <v>20914</v>
+        <v>20969</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
@@ -30507,18 +30694,18 @@
         <v>44214</v>
       </c>
       <c r="B325" s="4">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C325">
         <v>4</v>
       </c>
       <c r="D325" s="4">
         <f t="shared" si="10"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E325" s="4">
         <f t="shared" si="11"/>
-        <v>20986</v>
+        <v>21043</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
@@ -30537,7 +30724,7 @@
       </c>
       <c r="E326" s="4">
         <f t="shared" si="11"/>
-        <v>21054</v>
+        <v>21111</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
@@ -30546,38 +30733,38 @@
         <v>44216</v>
       </c>
       <c r="B327" s="4">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C327">
         <v>9</v>
       </c>
       <c r="D327" s="4">
         <f t="shared" ref="D327:D333" si="12">B327+C327</f>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E327" s="4">
         <f t="shared" ref="E327:E333" si="13">E326+D327</f>
-        <v>21125</v>
+        <v>21185</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <f t="shared" ref="A328:A337" si="14">A327+1</f>
+        <f t="shared" ref="A328:A349" si="14">A327+1</f>
         <v>44217</v>
       </c>
       <c r="B328">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C328">
         <v>2</v>
       </c>
       <c r="D328" s="4">
         <f t="shared" si="12"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E328" s="4">
         <f t="shared" si="13"/>
-        <v>21195</v>
+        <v>21257</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
@@ -30586,18 +30773,18 @@
         <v>44218</v>
       </c>
       <c r="B329">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C329">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D329" s="4">
         <f t="shared" si="12"/>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E329" s="4">
         <f t="shared" si="13"/>
-        <v>21277</v>
+        <v>21342</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
@@ -30606,18 +30793,18 @@
         <v>44219</v>
       </c>
       <c r="B330">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C330">
         <v>1</v>
       </c>
       <c r="D330" s="4">
         <f t="shared" si="12"/>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E330" s="4">
         <f t="shared" si="13"/>
-        <v>21336</v>
+        <v>21404</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
@@ -30626,18 +30813,18 @@
         <v>44220</v>
       </c>
       <c r="B331">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C331">
         <v>4</v>
       </c>
       <c r="D331" s="4">
         <f t="shared" si="12"/>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E331" s="4">
         <f t="shared" si="13"/>
-        <v>21400</v>
+        <v>21473</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
@@ -30646,18 +30833,18 @@
         <v>44221</v>
       </c>
       <c r="B332">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C332">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D332" s="4">
         <f t="shared" si="12"/>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E332" s="4">
         <f t="shared" si="13"/>
-        <v>21470</v>
+        <v>21549</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
@@ -30666,18 +30853,18 @@
         <v>44222</v>
       </c>
       <c r="B333">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C333">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D333" s="4">
         <f t="shared" si="12"/>
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E333" s="4">
         <f t="shared" si="13"/>
-        <v>21537</v>
+        <v>21636</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
@@ -30686,18 +30873,18 @@
         <v>44223</v>
       </c>
       <c r="B334">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C334">
         <v>1</v>
       </c>
       <c r="D334" s="4">
-        <f t="shared" ref="D334:D337" si="15">B334+C334</f>
-        <v>55</v>
+        <f t="shared" ref="D334:D347" si="15">B334+C334</f>
+        <v>72</v>
       </c>
       <c r="E334" s="4">
-        <f t="shared" ref="E334:E337" si="16">E333+D334</f>
-        <v>21592</v>
+        <f t="shared" ref="E334:E348" si="16">E333+D334</f>
+        <v>21708</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
@@ -30706,18 +30893,18 @@
         <v>44224</v>
       </c>
       <c r="B335">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C335">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D335" s="4">
         <f t="shared" si="15"/>
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E335" s="4">
         <f t="shared" si="16"/>
-        <v>21625</v>
+        <v>21769</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
@@ -30726,18 +30913,18 @@
         <v>44225</v>
       </c>
       <c r="B336">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C336">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D336" s="4">
         <f t="shared" si="15"/>
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E336" s="4">
         <f t="shared" si="16"/>
-        <v>21647</v>
+        <v>21824</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
@@ -30746,19 +30933,172 @@
         <v>44226</v>
       </c>
       <c r="B337">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C337">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D337" s="4">
         <f t="shared" si="15"/>
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E337" s="4">
         <f t="shared" si="16"/>
-        <v>21664</v>
-      </c>
+        <v>21895</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338" s="2">
+        <f t="shared" si="14"/>
+        <v>44227</v>
+      </c>
+      <c r="B338">
+        <v>50</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338" s="4">
+        <f t="shared" si="15"/>
+        <v>51</v>
+      </c>
+      <c r="E338" s="4">
+        <f t="shared" si="16"/>
+        <v>21946</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339" s="2">
+        <f t="shared" si="14"/>
+        <v>44228</v>
+      </c>
+      <c r="D339" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E339" s="4">
+        <f t="shared" si="16"/>
+        <v>21946</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" s="2">
+        <f t="shared" si="14"/>
+        <v>44229</v>
+      </c>
+      <c r="D340" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E340" s="4">
+        <f t="shared" si="16"/>
+        <v>21946</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341" s="2">
+        <f t="shared" si="14"/>
+        <v>44230</v>
+      </c>
+      <c r="D341" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E341" s="4">
+        <f t="shared" si="16"/>
+        <v>21946</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342" s="2">
+        <f t="shared" si="14"/>
+        <v>44231</v>
+      </c>
+      <c r="D342" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E342" s="4">
+        <f t="shared" si="16"/>
+        <v>21946</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343" s="2">
+        <f t="shared" si="14"/>
+        <v>44232</v>
+      </c>
+      <c r="D343" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E343" s="4">
+        <f t="shared" si="16"/>
+        <v>21946</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344" s="2">
+        <f t="shared" si="14"/>
+        <v>44233</v>
+      </c>
+      <c r="D344" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E344" s="4">
+        <f t="shared" si="16"/>
+        <v>21946</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345" s="2">
+        <f t="shared" si="14"/>
+        <v>44234</v>
+      </c>
+      <c r="D345" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E345" s="4">
+        <f t="shared" si="16"/>
+        <v>21946</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" s="2">
+        <f t="shared" si="14"/>
+        <v>44235</v>
+      </c>
+      <c r="D346" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E346" s="4">
+        <f t="shared" si="16"/>
+        <v>21946</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347" s="2">
+        <f t="shared" si="14"/>
+        <v>44236</v>
+      </c>
+      <c r="D347" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E347" s="4">
+        <f t="shared" si="16"/>
+        <v>21946</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348" s="2"/>
+      <c r="E348" s="4"/>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30767,11 +31107,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1940A1DF-951D-5944-B211-C56164A8D3EC}">
-  <dimension ref="A1:D341"/>
+  <dimension ref="A1:D345"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B296" sqref="B296"/>
+      <pane ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B311" sqref="B311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35203,11 +35543,11 @@
       <c r="B290" s="6"/>
       <c r="C290" s="8">
         <f>B296/7</f>
-        <v>35.142857142857146</v>
+        <v>35.285714285714285</v>
       </c>
       <c r="D290" s="10">
         <f t="shared" si="44"/>
-        <v>4905.1428571428651</v>
+        <v>4905.2857142857229</v>
       </c>
     </row>
     <row r="291" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35218,11 +35558,11 @@
       <c r="B291" s="6"/>
       <c r="C291" s="8">
         <f>B296/7</f>
-        <v>35.142857142857146</v>
+        <v>35.285714285714285</v>
       </c>
       <c r="D291" s="10">
         <f t="shared" si="44"/>
-        <v>4940.285714285722</v>
+        <v>4940.5714285714375</v>
       </c>
     </row>
     <row r="292" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35233,11 +35573,11 @@
       <c r="B292" s="6"/>
       <c r="C292" s="8">
         <f>B296/7</f>
-        <v>35.142857142857146</v>
+        <v>35.285714285714285</v>
       </c>
       <c r="D292" s="10">
         <f t="shared" si="44"/>
-        <v>4975.4285714285788</v>
+        <v>4975.8571428571522</v>
       </c>
     </row>
     <row r="293" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35248,11 +35588,11 @@
       <c r="B293" s="6"/>
       <c r="C293" s="8">
         <f>B296/7</f>
-        <v>35.142857142857146</v>
+        <v>35.285714285714285</v>
       </c>
       <c r="D293" s="10">
         <f t="shared" si="44"/>
-        <v>5010.5714285714357</v>
+        <v>5011.1428571428669</v>
       </c>
     </row>
     <row r="294" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35263,11 +35603,11 @@
       <c r="B294" s="6"/>
       <c r="C294" s="8">
         <f>B296/7</f>
-        <v>35.142857142857146</v>
+        <v>35.285714285714285</v>
       </c>
       <c r="D294" s="10">
         <f t="shared" si="44"/>
-        <v>5045.7142857142926</v>
+        <v>5046.4285714285816</v>
       </c>
     </row>
     <row r="295" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35278,11 +35618,11 @@
       <c r="B295" s="6"/>
       <c r="C295" s="8">
         <f>B296/7</f>
-        <v>35.142857142857146</v>
+        <v>35.285714285714285</v>
       </c>
       <c r="D295" s="10">
         <f t="shared" si="44"/>
-        <v>5080.8571428571495</v>
+        <v>5081.7142857142962</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -35291,15 +35631,15 @@
         <v>44184</v>
       </c>
       <c r="B296">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C296" s="8">
         <f t="shared" si="4"/>
-        <v>35.142857142857146</v>
+        <v>35.285714285714285</v>
       </c>
       <c r="D296" s="10">
         <f t="shared" si="44"/>
-        <v>5116.0000000000064</v>
+        <v>5117.0000000000109</v>
       </c>
     </row>
     <row r="297" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35314,7 +35654,7 @@
       </c>
       <c r="D297" s="10">
         <f t="shared" si="44"/>
-        <v>5159.1428571428632</v>
+        <v>5160.1428571428678</v>
       </c>
     </row>
     <row r="298" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35329,7 +35669,7 @@
       </c>
       <c r="D298" s="10">
         <f t="shared" si="44"/>
-        <v>5202.2857142857201</v>
+        <v>5203.2857142857247</v>
       </c>
     </row>
     <row r="299" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35344,7 +35684,7 @@
       </c>
       <c r="D299" s="10">
         <f t="shared" si="44"/>
-        <v>5245.428571428577</v>
+        <v>5246.4285714285816</v>
       </c>
     </row>
     <row r="300" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35359,7 +35699,7 @@
       </c>
       <c r="D300" s="10">
         <f t="shared" si="44"/>
-        <v>5288.5714285714339</v>
+        <v>5289.5714285714384</v>
       </c>
     </row>
     <row r="301" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35374,7 +35714,7 @@
       </c>
       <c r="D301" s="10">
         <f t="shared" si="44"/>
-        <v>5331.7142857142908</v>
+        <v>5332.7142857142953</v>
       </c>
     </row>
     <row r="302" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35389,7 +35729,7 @@
       </c>
       <c r="D302" s="10">
         <f t="shared" si="44"/>
-        <v>5374.8571428571477</v>
+        <v>5375.8571428571522</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -35406,7 +35746,7 @@
       </c>
       <c r="D303" s="10">
         <f t="shared" si="44"/>
-        <v>5418.0000000000045</v>
+        <v>5419.0000000000091</v>
       </c>
     </row>
     <row r="304" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35417,11 +35757,11 @@
       <c r="B304" s="6"/>
       <c r="C304" s="8">
         <f>B310/7</f>
-        <v>49.285714285714285</v>
+        <v>49.428571428571431</v>
       </c>
       <c r="D304" s="10">
         <f t="shared" si="44"/>
-        <v>5467.2857142857192</v>
+        <v>5468.4285714285807</v>
       </c>
     </row>
     <row r="305" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35432,11 +35772,11 @@
       <c r="B305" s="6"/>
       <c r="C305" s="8">
         <f>B310/7</f>
-        <v>49.285714285714285</v>
+        <v>49.428571428571431</v>
       </c>
       <c r="D305" s="10">
         <f t="shared" si="44"/>
-        <v>5516.5714285714339</v>
+        <v>5517.8571428571522</v>
       </c>
     </row>
     <row r="306" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35447,11 +35787,11 @@
       <c r="B306" s="6"/>
       <c r="C306" s="8">
         <f>B310/7</f>
-        <v>49.285714285714285</v>
+        <v>49.428571428571431</v>
       </c>
       <c r="D306" s="10">
         <f t="shared" si="44"/>
-        <v>5565.8571428571486</v>
+        <v>5567.2857142857238</v>
       </c>
     </row>
     <row r="307" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35462,11 +35802,11 @@
       <c r="B307" s="6"/>
       <c r="C307" s="8">
         <f>B310/7</f>
-        <v>49.285714285714285</v>
+        <v>49.428571428571431</v>
       </c>
       <c r="D307" s="10">
         <f t="shared" si="44"/>
-        <v>5615.1428571428632</v>
+        <v>5616.7142857142953</v>
       </c>
     </row>
     <row r="308" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35477,11 +35817,11 @@
       <c r="B308" s="6"/>
       <c r="C308" s="8">
         <f>B310/7</f>
-        <v>49.285714285714285</v>
+        <v>49.428571428571431</v>
       </c>
       <c r="D308" s="10">
         <f t="shared" si="44"/>
-        <v>5664.4285714285779</v>
+        <v>5666.1428571428669</v>
       </c>
     </row>
     <row r="309" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35492,11 +35832,11 @@
       <c r="B309" s="6"/>
       <c r="C309" s="8">
         <f>B310/7</f>
-        <v>49.285714285714285</v>
+        <v>49.428571428571431</v>
       </c>
       <c r="D309" s="10">
         <f t="shared" si="44"/>
-        <v>5713.7142857142926</v>
+        <v>5715.5714285714384</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -35505,15 +35845,15 @@
         <v>44198</v>
       </c>
       <c r="B310">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C310" s="8">
         <f t="shared" si="4"/>
-        <v>49.285714285714285</v>
+        <v>49.428571428571431</v>
       </c>
       <c r="D310" s="10">
         <f t="shared" si="44"/>
-        <v>5763.0000000000073</v>
+        <v>5765.00000000001</v>
       </c>
     </row>
     <row r="311" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35528,7 +35868,7 @@
       </c>
       <c r="D311" s="10">
         <f t="shared" si="44"/>
-        <v>5823.285714285722</v>
+        <v>5825.2857142857247</v>
       </c>
     </row>
     <row r="312" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35543,7 +35883,7 @@
       </c>
       <c r="D312" s="10">
         <f t="shared" si="44"/>
-        <v>5883.5714285714366</v>
+        <v>5885.5714285714394</v>
       </c>
     </row>
     <row r="313" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35558,7 +35898,7 @@
       </c>
       <c r="D313" s="10">
         <f t="shared" si="44"/>
-        <v>5943.8571428571513</v>
+        <v>5945.857142857154</v>
       </c>
     </row>
     <row r="314" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35573,7 +35913,7 @@
       </c>
       <c r="D314" s="10">
         <f t="shared" si="44"/>
-        <v>6004.142857142866</v>
+        <v>6006.1428571428687</v>
       </c>
     </row>
     <row r="315" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35588,7 +35928,7 @@
       </c>
       <c r="D315" s="10">
         <f t="shared" si="44"/>
-        <v>6064.4285714285807</v>
+        <v>6066.4285714285834</v>
       </c>
     </row>
     <row r="316" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35603,7 +35943,7 @@
       </c>
       <c r="D316" s="10">
         <f t="shared" si="44"/>
-        <v>6124.7142857142953</v>
+        <v>6126.7142857142981</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -35620,7 +35960,7 @@
       </c>
       <c r="D317" s="10">
         <f t="shared" si="44"/>
-        <v>6185.00000000001</v>
+        <v>6187.0000000000127</v>
       </c>
     </row>
     <row r="318" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35631,11 +35971,11 @@
       <c r="B318" s="6"/>
       <c r="C318" s="8">
         <f>B324/7</f>
-        <v>65.142857142857139</v>
+        <v>65.428571428571431</v>
       </c>
       <c r="D318" s="10">
         <f t="shared" si="44"/>
-        <v>6250.1428571428669</v>
+        <v>6252.4285714285843</v>
       </c>
     </row>
     <row r="319" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35646,11 +35986,11 @@
       <c r="B319" s="6"/>
       <c r="C319" s="8">
         <f>B324/7</f>
-        <v>65.142857142857139</v>
+        <v>65.428571428571431</v>
       </c>
       <c r="D319" s="10">
         <f t="shared" si="44"/>
-        <v>6315.2857142857238</v>
+        <v>6317.8571428571558</v>
       </c>
     </row>
     <row r="320" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35661,11 +36001,11 @@
       <c r="B320" s="6"/>
       <c r="C320" s="8">
         <f>B324/7</f>
-        <v>65.142857142857139</v>
+        <v>65.428571428571431</v>
       </c>
       <c r="D320" s="10">
         <f t="shared" si="44"/>
-        <v>6380.4285714285807</v>
+        <v>6383.2857142857274</v>
       </c>
     </row>
     <row r="321" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35676,11 +36016,11 @@
       <c r="B321" s="6"/>
       <c r="C321" s="8">
         <f>B324/7</f>
-        <v>65.142857142857139</v>
+        <v>65.428571428571431</v>
       </c>
       <c r="D321" s="10">
         <f t="shared" si="44"/>
-        <v>6445.5714285714375</v>
+        <v>6448.714285714299</v>
       </c>
     </row>
     <row r="322" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35691,11 +36031,11 @@
       <c r="B322" s="6"/>
       <c r="C322" s="8">
         <f>B324/7</f>
-        <v>65.142857142857139</v>
+        <v>65.428571428571431</v>
       </c>
       <c r="D322" s="10">
         <f t="shared" si="44"/>
-        <v>6510.7142857142944</v>
+        <v>6514.1428571428705</v>
       </c>
     </row>
     <row r="323" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35706,11 +36046,11 @@
       <c r="B323" s="6"/>
       <c r="C323" s="8">
         <f>B324/7</f>
-        <v>65.142857142857139</v>
+        <v>65.428571428571431</v>
       </c>
       <c r="D323" s="10">
-        <f t="shared" ref="D323:D338" si="54">D322+C323</f>
-        <v>6575.8571428571513</v>
+        <f t="shared" ref="D323:D345" si="54">D322+C323</f>
+        <v>6579.5714285714421</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -35719,15 +36059,15 @@
         <v>44212</v>
       </c>
       <c r="B324">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C324" s="8">
         <f t="shared" si="4"/>
-        <v>65.142857142857139</v>
+        <v>65.428571428571431</v>
       </c>
       <c r="D324" s="10">
         <f t="shared" si="54"/>
-        <v>6641.0000000000082</v>
+        <v>6645.0000000000136</v>
       </c>
     </row>
     <row r="325" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35738,11 +36078,11 @@
       <c r="B325" s="6"/>
       <c r="C325" s="8">
         <f>B331/7</f>
-        <v>65.142857142857139</v>
+        <v>66.428571428571431</v>
       </c>
       <c r="D325" s="10">
         <f t="shared" si="54"/>
-        <v>6706.1428571428651</v>
+        <v>6711.4285714285852</v>
       </c>
     </row>
     <row r="326" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35753,11 +36093,11 @@
       <c r="B326" s="6"/>
       <c r="C326" s="8">
         <f>B331/7</f>
-        <v>65.142857142857139</v>
+        <v>66.428571428571431</v>
       </c>
       <c r="D326" s="10">
         <f t="shared" si="54"/>
-        <v>6771.285714285722</v>
+        <v>6777.8571428571568</v>
       </c>
     </row>
     <row r="327" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35768,11 +36108,11 @@
       <c r="B327" s="6"/>
       <c r="C327" s="8">
         <f>B331/7</f>
-        <v>65.142857142857139</v>
+        <v>66.428571428571431</v>
       </c>
       <c r="D327" s="10">
         <f t="shared" si="54"/>
-        <v>6836.4285714285788</v>
+        <v>6844.2857142857283</v>
       </c>
     </row>
     <row r="328" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35783,11 +36123,11 @@
       <c r="B328" s="6"/>
       <c r="C328" s="8">
         <f>B331/7</f>
-        <v>65.142857142857139</v>
+        <v>66.428571428571431</v>
       </c>
       <c r="D328" s="10">
         <f t="shared" si="54"/>
-        <v>6901.5714285714357</v>
+        <v>6910.7142857142999</v>
       </c>
     </row>
     <row r="329" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35798,11 +36138,11 @@
       <c r="B329" s="6"/>
       <c r="C329" s="8">
         <f>B331/7</f>
-        <v>65.142857142857139</v>
+        <v>66.428571428571431</v>
       </c>
       <c r="D329" s="10">
         <f t="shared" si="54"/>
-        <v>6966.7142857142926</v>
+        <v>6977.1428571428714</v>
       </c>
     </row>
     <row r="330" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35813,11 +36153,11 @@
       <c r="B330" s="6"/>
       <c r="C330" s="8">
         <f>B331/7</f>
-        <v>65.142857142857139</v>
+        <v>66.428571428571431</v>
       </c>
       <c r="D330" s="10">
         <f t="shared" si="54"/>
-        <v>7031.8571428571495</v>
+        <v>7043.571428571443</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -35826,15 +36166,15 @@
         <v>44219</v>
       </c>
       <c r="B331">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="C331" s="8">
         <f>B331/7</f>
-        <v>65.142857142857139</v>
+        <v>66.428571428571431</v>
       </c>
       <c r="D331" s="10">
         <f t="shared" si="54"/>
-        <v>7097.0000000000064</v>
+        <v>7110.0000000000146</v>
       </c>
     </row>
     <row r="332" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35845,26 +36185,26 @@
       <c r="B332" s="6"/>
       <c r="C332" s="8">
         <f>B338/7</f>
-        <v>52</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="D332" s="10">
         <f t="shared" si="54"/>
-        <v>7149.0000000000064</v>
+        <v>7166.7142857142999</v>
       </c>
     </row>
     <row r="333" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3">
-        <f t="shared" ref="A333:A337" si="56">A332+1</f>
+        <f t="shared" ref="A333:A344" si="56">A332+1</f>
         <v>44221</v>
       </c>
       <c r="B333" s="6"/>
       <c r="C333" s="8">
         <f>B338/7</f>
-        <v>52</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="D333" s="10">
         <f t="shared" si="54"/>
-        <v>7201.0000000000064</v>
+        <v>7223.4285714285852</v>
       </c>
     </row>
     <row r="334" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35875,11 +36215,11 @@
       <c r="B334" s="6"/>
       <c r="C334" s="8">
         <f>B338/7</f>
-        <v>52</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="D334" s="10">
         <f t="shared" si="54"/>
-        <v>7253.0000000000064</v>
+        <v>7280.1428571428705</v>
       </c>
     </row>
     <row r="335" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35890,11 +36230,11 @@
       <c r="B335" s="6"/>
       <c r="C335" s="8">
         <f>B338/7</f>
-        <v>52</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="D335" s="10">
         <f t="shared" si="54"/>
-        <v>7305.0000000000064</v>
+        <v>7336.8571428571558</v>
       </c>
     </row>
     <row r="336" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35905,11 +36245,11 @@
       <c r="B336" s="6"/>
       <c r="C336" s="8">
         <f>B338/7</f>
-        <v>52</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="D336" s="10">
         <f t="shared" si="54"/>
-        <v>7357.0000000000064</v>
+        <v>7393.5714285714412</v>
       </c>
     </row>
     <row r="337" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -35920,11 +36260,11 @@
       <c r="B337" s="6"/>
       <c r="C337" s="8">
         <f>B338/7</f>
-        <v>52</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="D337" s="10">
         <f t="shared" si="54"/>
-        <v>7409.0000000000064</v>
+        <v>7450.2857142857265</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -35933,28 +36273,120 @@
         <v>44226</v>
       </c>
       <c r="B338">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="C338" s="8">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>56.714285714285715</v>
       </c>
       <c r="D338" s="10">
         <f t="shared" si="54"/>
-        <v>7461.0000000000064</v>
+        <v>7507.0000000000118</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" s="2"/>
+      <c r="A339" s="3">
+        <f t="shared" si="56"/>
+        <v>44227</v>
+      </c>
       <c r="B339" s="2"/>
+      <c r="C339" s="8">
+        <f>B345/7</f>
+        <v>40.857142857142854</v>
+      </c>
+      <c r="D339" s="10">
+        <f t="shared" si="54"/>
+        <v>7547.8571428571549</v>
+      </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" s="2"/>
+      <c r="A340" s="3">
+        <f t="shared" si="56"/>
+        <v>44228</v>
+      </c>
       <c r="B340" s="2"/>
+      <c r="C340" s="8">
+        <f>B345/7</f>
+        <v>40.857142857142854</v>
+      </c>
+      <c r="D340" s="10">
+        <f t="shared" si="54"/>
+        <v>7588.7142857142981</v>
+      </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" s="2"/>
+      <c r="A341" s="3">
+        <f t="shared" si="56"/>
+        <v>44229</v>
+      </c>
       <c r="B341" s="2"/>
+      <c r="C341" s="8">
+        <f>B345/7</f>
+        <v>40.857142857142854</v>
+      </c>
+      <c r="D341" s="10">
+        <f t="shared" si="54"/>
+        <v>7629.5714285714412</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" s="3">
+        <f t="shared" si="56"/>
+        <v>44230</v>
+      </c>
+      <c r="C342" s="8">
+        <f>B345/7</f>
+        <v>40.857142857142854</v>
+      </c>
+      <c r="D342" s="10">
+        <f t="shared" si="54"/>
+        <v>7670.4285714285843</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343" s="3">
+        <f t="shared" si="56"/>
+        <v>44231</v>
+      </c>
+      <c r="C343" s="8">
+        <f>B345/7</f>
+        <v>40.857142857142854</v>
+      </c>
+      <c r="D343" s="10">
+        <f t="shared" si="54"/>
+        <v>7711.2857142857274</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" s="3">
+        <f t="shared" si="56"/>
+        <v>44232</v>
+      </c>
+      <c r="C344" s="8">
+        <f>B345/7</f>
+        <v>40.857142857142854</v>
+      </c>
+      <c r="D344" s="10">
+        <f t="shared" si="54"/>
+        <v>7752.1428571428705</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" s="2">
+        <f>A338+7</f>
+        <v>44233</v>
+      </c>
+      <c r="B345">
+        <v>286</v>
+      </c>
+      <c r="C345" s="8">
+        <f t="shared" ref="C345" si="57">B345/7</f>
+        <v>40.857142857142854</v>
+      </c>
+      <c r="D345" s="10">
+        <f t="shared" si="54"/>
+        <v>7793.0000000000136</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35963,11 +36395,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289241FA-DB67-DA49-A417-E4BD34D128D1}">
-  <dimension ref="A1:C337"/>
+  <dimension ref="A1:C341"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B369" sqref="B369"/>
+      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39081,11 +39513,11 @@
         <v>44129</v>
       </c>
       <c r="B240">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240">
         <f t="shared" si="7"/>
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -39098,7 +39530,7 @@
       </c>
       <c r="C241">
         <f t="shared" si="7"/>
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -39111,7 +39543,7 @@
       </c>
       <c r="C242">
         <f t="shared" si="7"/>
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -39124,7 +39556,7 @@
       </c>
       <c r="C243">
         <f t="shared" si="7"/>
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -39137,7 +39569,7 @@
       </c>
       <c r="C244">
         <f t="shared" si="7"/>
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -39146,11 +39578,11 @@
         <v>44134</v>
       </c>
       <c r="B245">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C245">
         <f t="shared" si="7"/>
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -39163,7 +39595,7 @@
       </c>
       <c r="C246">
         <f t="shared" si="7"/>
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -39176,7 +39608,7 @@
       </c>
       <c r="C247">
         <f t="shared" si="7"/>
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -39189,7 +39621,7 @@
       </c>
       <c r="C248">
         <f t="shared" si="7"/>
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -39202,7 +39634,7 @@
       </c>
       <c r="C249">
         <f t="shared" si="7"/>
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -39215,7 +39647,7 @@
       </c>
       <c r="C250">
         <f t="shared" si="7"/>
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -39228,7 +39660,7 @@
       </c>
       <c r="C251">
         <f t="shared" si="7"/>
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -39241,7 +39673,7 @@
       </c>
       <c r="C252">
         <f t="shared" si="7"/>
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -39254,7 +39686,7 @@
       </c>
       <c r="C253">
         <f t="shared" si="7"/>
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -39267,7 +39699,7 @@
       </c>
       <c r="C254">
         <f t="shared" si="7"/>
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -39280,7 +39712,7 @@
       </c>
       <c r="C255">
         <f t="shared" si="7"/>
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -39293,7 +39725,7 @@
       </c>
       <c r="C256">
         <f t="shared" si="7"/>
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -39302,11 +39734,11 @@
         <v>44146</v>
       </c>
       <c r="B257">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C257">
         <f t="shared" si="7"/>
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -39319,7 +39751,7 @@
       </c>
       <c r="C258">
         <f t="shared" si="7"/>
-        <v>797</v>
+        <v>800</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -39332,7 +39764,7 @@
       </c>
       <c r="C259">
         <f t="shared" si="7"/>
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -39345,7 +39777,7 @@
       </c>
       <c r="C260">
         <f t="shared" ref="C260:C323" si="9">C259+B260</f>
-        <v>850</v>
+        <v>853</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -39358,7 +39790,7 @@
       </c>
       <c r="C261">
         <f t="shared" si="9"/>
-        <v>869</v>
+        <v>872</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -39371,7 +39803,7 @@
       </c>
       <c r="C262">
         <f t="shared" si="9"/>
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -39384,7 +39816,7 @@
       </c>
       <c r="C263">
         <f t="shared" si="9"/>
-        <v>927</v>
+        <v>930</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -39397,7 +39829,7 @@
       </c>
       <c r="C264">
         <f t="shared" si="9"/>
-        <v>945</v>
+        <v>948</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -39410,7 +39842,7 @@
       </c>
       <c r="C265">
         <f t="shared" si="9"/>
-        <v>965</v>
+        <v>968</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -39423,7 +39855,7 @@
       </c>
       <c r="C266">
         <f t="shared" si="9"/>
-        <v>986</v>
+        <v>989</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -39436,7 +39868,7 @@
       </c>
       <c r="C267">
         <f t="shared" si="9"/>
-        <v>1019</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -39449,7 +39881,7 @@
       </c>
       <c r="C268">
         <f t="shared" si="9"/>
-        <v>1043</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -39462,7 +39894,7 @@
       </c>
       <c r="C269">
         <f t="shared" si="9"/>
-        <v>1075</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -39475,7 +39907,7 @@
       </c>
       <c r="C270">
         <f t="shared" si="9"/>
-        <v>1094</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -39488,7 +39920,7 @@
       </c>
       <c r="C271">
         <f t="shared" si="9"/>
-        <v>1119</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -39501,7 +39933,7 @@
       </c>
       <c r="C272">
         <f t="shared" si="9"/>
-        <v>1138</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -39514,7 +39946,7 @@
       </c>
       <c r="C273">
         <f t="shared" si="9"/>
-        <v>1160</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -39527,7 +39959,7 @@
       </c>
       <c r="C274">
         <f t="shared" si="9"/>
-        <v>1178</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -39540,7 +39972,7 @@
       </c>
       <c r="C275">
         <f t="shared" si="9"/>
-        <v>1199</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -39553,7 +39985,7 @@
       </c>
       <c r="C276">
         <f t="shared" si="9"/>
-        <v>1226</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -39566,7 +39998,7 @@
       </c>
       <c r="C277">
         <f t="shared" si="9"/>
-        <v>1238</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -39579,7 +40011,7 @@
       </c>
       <c r="C278">
         <f t="shared" si="9"/>
-        <v>1262</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -39592,7 +40024,7 @@
       </c>
       <c r="C279">
         <f t="shared" si="9"/>
-        <v>1280</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -39605,7 +40037,7 @@
       </c>
       <c r="C280">
         <f t="shared" si="9"/>
-        <v>1300</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -39618,7 +40050,7 @@
       </c>
       <c r="C281">
         <f t="shared" si="9"/>
-        <v>1321</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -39631,7 +40063,7 @@
       </c>
       <c r="C282">
         <f t="shared" si="9"/>
-        <v>1345</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -39644,7 +40076,7 @@
       </c>
       <c r="C283">
         <f t="shared" si="9"/>
-        <v>1357</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -39653,11 +40085,11 @@
         <v>44173</v>
       </c>
       <c r="B284">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C284">
         <f t="shared" si="9"/>
-        <v>1379</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -39666,11 +40098,11 @@
         <v>44174</v>
       </c>
       <c r="B285">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C285">
         <f t="shared" si="9"/>
-        <v>1401</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -39683,7 +40115,7 @@
       </c>
       <c r="C286">
         <f t="shared" si="9"/>
-        <v>1416</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -39692,11 +40124,11 @@
         <v>44176</v>
       </c>
       <c r="B287">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C287">
         <f t="shared" si="9"/>
-        <v>1435</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -39705,11 +40137,11 @@
         <v>44177</v>
       </c>
       <c r="B288">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C288">
         <f t="shared" si="9"/>
-        <v>1448</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -39722,7 +40154,7 @@
       </c>
       <c r="C289">
         <f t="shared" si="9"/>
-        <v>1466</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -39735,7 +40167,7 @@
       </c>
       <c r="C290">
         <f t="shared" si="9"/>
-        <v>1484</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -39748,7 +40180,7 @@
       </c>
       <c r="C291">
         <f t="shared" si="9"/>
-        <v>1492</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -39761,7 +40193,7 @@
       </c>
       <c r="C292">
         <f t="shared" si="9"/>
-        <v>1505</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -39774,7 +40206,7 @@
       </c>
       <c r="C293">
         <f t="shared" si="9"/>
-        <v>1516</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -39787,7 +40219,7 @@
       </c>
       <c r="C294">
         <f t="shared" si="9"/>
-        <v>1528</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -39800,7 +40232,7 @@
       </c>
       <c r="C295">
         <f t="shared" si="9"/>
-        <v>1542</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -39813,7 +40245,7 @@
       </c>
       <c r="C296">
         <f t="shared" si="9"/>
-        <v>1551</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -39826,7 +40258,7 @@
       </c>
       <c r="C297">
         <f t="shared" si="9"/>
-        <v>1555</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -39839,7 +40271,7 @@
       </c>
       <c r="C298">
         <f t="shared" si="9"/>
-        <v>1564</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -39848,11 +40280,11 @@
         <v>44188</v>
       </c>
       <c r="B299">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C299">
         <f t="shared" si="9"/>
-        <v>1575</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -39865,7 +40297,7 @@
       </c>
       <c r="C300">
         <f t="shared" si="9"/>
-        <v>1580</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -39878,7 +40310,7 @@
       </c>
       <c r="C301">
         <f t="shared" si="9"/>
-        <v>1587</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -39891,7 +40323,7 @@
       </c>
       <c r="C302">
         <f t="shared" si="9"/>
-        <v>1593</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -39904,7 +40336,7 @@
       </c>
       <c r="C303">
         <f t="shared" si="9"/>
-        <v>1601</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -39917,7 +40349,7 @@
       </c>
       <c r="C304">
         <f t="shared" si="9"/>
-        <v>1606</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -39930,7 +40362,7 @@
       </c>
       <c r="C305">
         <f t="shared" si="9"/>
-        <v>1614</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -39943,7 +40375,7 @@
       </c>
       <c r="C306">
         <f t="shared" si="9"/>
-        <v>1619</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -39956,7 +40388,7 @@
       </c>
       <c r="C307">
         <f t="shared" si="9"/>
-        <v>1626</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -39969,7 +40401,7 @@
       </c>
       <c r="C308">
         <f t="shared" si="9"/>
-        <v>1637</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -39982,7 +40414,7 @@
       </c>
       <c r="C309">
         <f t="shared" si="9"/>
-        <v>1645</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -39995,7 +40427,7 @@
       </c>
       <c r="C310">
         <f t="shared" si="9"/>
-        <v>1655</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -40008,7 +40440,7 @@
       </c>
       <c r="C311">
         <f t="shared" si="9"/>
-        <v>1664</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -40021,7 +40453,7 @@
       </c>
       <c r="C312">
         <f t="shared" si="9"/>
-        <v>1677</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -40034,7 +40466,7 @@
       </c>
       <c r="C313">
         <f t="shared" si="9"/>
-        <v>1684</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -40043,11 +40475,11 @@
         <v>44203</v>
       </c>
       <c r="B314">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C314">
         <f t="shared" si="9"/>
-        <v>1691</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -40060,7 +40492,7 @@
       </c>
       <c r="C315">
         <f t="shared" si="9"/>
-        <v>1698</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -40073,7 +40505,7 @@
       </c>
       <c r="C316">
         <f t="shared" si="9"/>
-        <v>1706</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -40086,7 +40518,7 @@
       </c>
       <c r="C317">
         <f t="shared" si="9"/>
-        <v>1711</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -40099,7 +40531,7 @@
       </c>
       <c r="C318">
         <f t="shared" si="9"/>
-        <v>1716</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -40112,7 +40544,7 @@
       </c>
       <c r="C319">
         <f t="shared" si="9"/>
-        <v>1718</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -40125,7 +40557,7 @@
       </c>
       <c r="C320">
         <f t="shared" si="9"/>
-        <v>1720</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -40138,7 +40570,7 @@
       </c>
       <c r="C321">
         <f t="shared" si="9"/>
-        <v>1723</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -40151,7 +40583,7 @@
       </c>
       <c r="C322">
         <f t="shared" si="9"/>
-        <v>1727</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -40160,16 +40592,16 @@
         <v>44212</v>
       </c>
       <c r="B323">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C323">
         <f t="shared" si="9"/>
-        <v>1734</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <f t="shared" ref="A324:A337" si="10">A323+1</f>
+        <f t="shared" ref="A324:A341" si="10">A323+1</f>
         <v>44213</v>
       </c>
       <c r="B324">
@@ -40177,7 +40609,7 @@
       </c>
       <c r="C324">
         <f t="shared" ref="C324:C330" si="11">C323+B324</f>
-        <v>1738</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -40186,11 +40618,11 @@
         <v>44214</v>
       </c>
       <c r="B325">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C325">
         <f t="shared" si="11"/>
-        <v>1743</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -40203,7 +40635,7 @@
       </c>
       <c r="C326">
         <f t="shared" si="11"/>
-        <v>1749</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -40212,11 +40644,11 @@
         <v>44216</v>
       </c>
       <c r="B327">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C327">
         <f t="shared" si="11"/>
-        <v>1751</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -40229,7 +40661,7 @@
       </c>
       <c r="C328">
         <f t="shared" si="11"/>
-        <v>1757</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -40242,7 +40674,7 @@
       </c>
       <c r="C329">
         <f t="shared" si="11"/>
-        <v>1759</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -40255,7 +40687,7 @@
       </c>
       <c r="C330">
         <f t="shared" si="11"/>
-        <v>1763</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -40268,7 +40700,7 @@
       </c>
       <c r="C331">
         <f t="shared" ref="C331:C333" si="12">C330+B331</f>
-        <v>1764</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -40277,11 +40709,11 @@
         <v>44221</v>
       </c>
       <c r="B332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C332">
         <f t="shared" si="12"/>
-        <v>1764</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -40290,11 +40722,11 @@
         <v>44222</v>
       </c>
       <c r="B333">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C333">
         <f t="shared" si="12"/>
-        <v>1767</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -40303,11 +40735,11 @@
         <v>44223</v>
       </c>
       <c r="B334">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C334">
         <f t="shared" ref="C334:C335" si="13">C333+B334</f>
-        <v>1769</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -40316,11 +40748,11 @@
         <v>44224</v>
       </c>
       <c r="B335">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C335">
         <f t="shared" si="13"/>
-        <v>1773</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -40329,11 +40761,11 @@
         <v>44225</v>
       </c>
       <c r="B336">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C336">
         <f t="shared" ref="C336:C337" si="14">C335+B336</f>
-        <v>1775</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -40342,11 +40774,63 @@
         <v>44226</v>
       </c>
       <c r="B337">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C337">
         <f t="shared" si="14"/>
-        <v>1776</v>
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338" s="2">
+        <f t="shared" si="10"/>
+        <v>44227</v>
+      </c>
+      <c r="B338">
+        <v>3</v>
+      </c>
+      <c r="C338">
+        <f t="shared" ref="C338:C339" si="15">C337+B338</f>
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" s="2">
+        <f t="shared" si="10"/>
+        <v>44228</v>
+      </c>
+      <c r="B339">
+        <v>2</v>
+      </c>
+      <c r="C339">
+        <f t="shared" si="15"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" s="2">
+        <f t="shared" si="10"/>
+        <v>44229</v>
+      </c>
+      <c r="B340">
+        <v>2</v>
+      </c>
+      <c r="C340">
+        <f t="shared" ref="C340:C341" si="16">C339+B340</f>
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" s="2">
+        <f t="shared" si="10"/>
+        <v>44230</v>
+      </c>
+      <c r="B341">
+        <v>4</v>
+      </c>
+      <c r="C341">
+        <f>C340+B341</f>
+        <v>1806</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/DateOfDeath.xlsx
+++ b/notebooks/DateOfDeath.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\prusk\dev\covid\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82AD90F-6D15-4AD4-80EC-467B0109CD53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBAE03A-9BEB-421D-A59A-E5F008B522F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15975" yWindow="0" windowWidth="7065" windowHeight="14790" firstSheet="8" activeTab="8" xr2:uid="{20D733EF-6676-F449-AF32-307F4FADCE6E}"/>
+    <workbookView xWindow="15540" yWindow="0" windowWidth="7500" windowHeight="14760" firstSheet="8" activeTab="8" xr2:uid="{20D733EF-6676-F449-AF32-307F4FADCE6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Alabama" sheetId="5" r:id="rId1"/>
@@ -17546,7 +17546,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
-        <f t="shared" ref="A388:A450" si="25">A387+1</f>
+        <f t="shared" ref="A388:A448" si="25">A387+1</f>
         <v>44277</v>
       </c>
       <c r="B388">
@@ -18223,7 +18223,7 @@
         <v>44329</v>
       </c>
       <c r="C440">
-        <f t="shared" ref="C440:C450" si="27">C439+B442</f>
+        <f t="shared" ref="C440:C448" si="27">C439+B442</f>
         <v>6005</v>
       </c>
     </row>
@@ -27262,11 +27262,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C000B158-B8B3-C74D-9302-C35106BA0032}">
-  <dimension ref="A1:E447"/>
+  <dimension ref="A1:E454"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C267" sqref="C267"/>
+      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C340" sqref="C340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -34474,15 +34474,15 @@
         <v>1</v>
       </c>
       <c r="C361">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D361">
         <f t="shared" si="42"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E361">
         <f t="shared" si="43"/>
-        <v>6823</v>
+        <v>6824</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -34502,7 +34502,7 @@
       </c>
       <c r="E362">
         <f t="shared" ref="E362" si="45">E361+D362</f>
-        <v>6838</v>
+        <v>6839</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -34522,7 +34522,7 @@
       </c>
       <c r="E363">
         <f t="shared" ref="E363" si="47">E362+D363</f>
-        <v>6855</v>
+        <v>6856</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -34542,7 +34542,7 @@
       </c>
       <c r="E364">
         <f t="shared" ref="E364" si="49">E363+D364</f>
-        <v>6871</v>
+        <v>6872</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -34562,7 +34562,7 @@
       </c>
       <c r="E365">
         <f t="shared" ref="E365:E367" si="51">E364+D365</f>
-        <v>6883</v>
+        <v>6884</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -34582,7 +34582,7 @@
       </c>
       <c r="E366">
         <f t="shared" si="51"/>
-        <v>6892</v>
+        <v>6893</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -34602,7 +34602,7 @@
       </c>
       <c r="E367">
         <f t="shared" si="51"/>
-        <v>6905</v>
+        <v>6906</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -34622,7 +34622,7 @@
       </c>
       <c r="E368">
         <f t="shared" ref="E368" si="53">E367+D368</f>
-        <v>6917</v>
+        <v>6918</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -34642,7 +34642,7 @@
       </c>
       <c r="E369">
         <f t="shared" ref="E369" si="55">E368+D369</f>
-        <v>6928</v>
+        <v>6929</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -34662,7 +34662,7 @@
       </c>
       <c r="E370">
         <f t="shared" ref="E370" si="57">E369+D370</f>
-        <v>6936</v>
+        <v>6937</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -34682,7 +34682,7 @@
       </c>
       <c r="E371">
         <f t="shared" ref="E371" si="59">E370+D371</f>
-        <v>6944</v>
+        <v>6945</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -34702,7 +34702,7 @@
       </c>
       <c r="E372">
         <f t="shared" ref="E372:E378" si="62">E371+D372</f>
-        <v>6951</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -34722,7 +34722,7 @@
       </c>
       <c r="E373">
         <f t="shared" si="62"/>
-        <v>6957</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -34742,7 +34742,7 @@
       </c>
       <c r="E374">
         <f t="shared" si="62"/>
-        <v>6968</v>
+        <v>6969</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
@@ -34762,7 +34762,7 @@
       </c>
       <c r="E375">
         <f t="shared" si="62"/>
-        <v>6978</v>
+        <v>6979</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -34782,7 +34782,7 @@
       </c>
       <c r="E376">
         <f t="shared" si="62"/>
-        <v>6986</v>
+        <v>6987</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
@@ -34802,7 +34802,7 @@
       </c>
       <c r="E377">
         <f t="shared" si="62"/>
-        <v>6993</v>
+        <v>6994</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -34822,7 +34822,7 @@
       </c>
       <c r="E378">
         <f t="shared" si="62"/>
-        <v>7000</v>
+        <v>7001</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -34842,7 +34842,7 @@
       </c>
       <c r="E379">
         <f t="shared" ref="E379:E392" si="65">E378+D379</f>
-        <v>7005</v>
+        <v>7006</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -34862,7 +34862,7 @@
       </c>
       <c r="E380">
         <f t="shared" si="65"/>
-        <v>7012</v>
+        <v>7013</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
@@ -34882,7 +34882,7 @@
       </c>
       <c r="E381">
         <f t="shared" si="65"/>
-        <v>7017</v>
+        <v>7018</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -34902,7 +34902,7 @@
       </c>
       <c r="E382">
         <f t="shared" si="65"/>
-        <v>7022</v>
+        <v>7023</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
@@ -34922,7 +34922,7 @@
       </c>
       <c r="E383">
         <f t="shared" si="65"/>
-        <v>7028</v>
+        <v>7029</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
@@ -34942,7 +34942,7 @@
       </c>
       <c r="E384">
         <f t="shared" si="65"/>
-        <v>7036</v>
+        <v>7037</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
@@ -34962,7 +34962,7 @@
       </c>
       <c r="E385">
         <f t="shared" si="65"/>
-        <v>7045</v>
+        <v>7046</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
@@ -34982,7 +34982,7 @@
       </c>
       <c r="E386">
         <f t="shared" si="65"/>
-        <v>7052</v>
+        <v>7053</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
@@ -35002,7 +35002,7 @@
       </c>
       <c r="E387">
         <f t="shared" si="65"/>
-        <v>7057</v>
+        <v>7058</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -35022,7 +35022,7 @@
       </c>
       <c r="E388">
         <f t="shared" si="65"/>
-        <v>7064</v>
+        <v>7065</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
@@ -35042,7 +35042,7 @@
       </c>
       <c r="E389">
         <f t="shared" si="65"/>
-        <v>7066</v>
+        <v>7067</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
@@ -35062,7 +35062,7 @@
       </c>
       <c r="E390">
         <f t="shared" si="65"/>
-        <v>7069</v>
+        <v>7070</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
@@ -35082,7 +35082,7 @@
       </c>
       <c r="E391">
         <f t="shared" si="65"/>
-        <v>7073</v>
+        <v>7074</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
@@ -35102,7 +35102,7 @@
       </c>
       <c r="E392">
         <f t="shared" si="65"/>
-        <v>7076</v>
+        <v>7077</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
@@ -35122,7 +35122,7 @@
       </c>
       <c r="E393">
         <f t="shared" ref="E393:E406" si="67">E392+D393</f>
-        <v>7083</v>
+        <v>7084</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
@@ -35142,7 +35142,7 @@
       </c>
       <c r="E394">
         <f t="shared" si="67"/>
-        <v>7087</v>
+        <v>7088</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
@@ -35162,7 +35162,7 @@
       </c>
       <c r="E395">
         <f t="shared" si="67"/>
-        <v>7096</v>
+        <v>7097</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
@@ -35182,7 +35182,7 @@
       </c>
       <c r="E396">
         <f t="shared" si="67"/>
-        <v>7103</v>
+        <v>7104</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
@@ -35202,7 +35202,7 @@
       </c>
       <c r="E397">
         <f t="shared" si="67"/>
-        <v>7106</v>
+        <v>7107</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
@@ -35222,7 +35222,7 @@
       </c>
       <c r="E398">
         <f t="shared" si="67"/>
-        <v>7111</v>
+        <v>7112</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
@@ -35242,7 +35242,7 @@
       </c>
       <c r="E399">
         <f t="shared" si="67"/>
-        <v>7118</v>
+        <v>7119</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
@@ -35262,7 +35262,7 @@
       </c>
       <c r="E400">
         <f t="shared" si="67"/>
-        <v>7122</v>
+        <v>7123</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
@@ -35282,7 +35282,7 @@
       </c>
       <c r="E401">
         <f t="shared" si="67"/>
-        <v>7125</v>
+        <v>7126</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
@@ -35302,7 +35302,7 @@
       </c>
       <c r="E402">
         <f t="shared" si="67"/>
-        <v>7128</v>
+        <v>7129</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -35322,7 +35322,7 @@
       </c>
       <c r="E403">
         <f t="shared" si="67"/>
-        <v>7133</v>
+        <v>7134</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
@@ -35342,7 +35342,7 @@
       </c>
       <c r="E404">
         <f t="shared" si="67"/>
-        <v>7139</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
@@ -35362,7 +35362,7 @@
       </c>
       <c r="E405">
         <f t="shared" si="67"/>
-        <v>7140</v>
+        <v>7141</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
@@ -35382,7 +35382,7 @@
       </c>
       <c r="E406">
         <f t="shared" si="67"/>
-        <v>7144</v>
+        <v>7145</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -35402,7 +35402,7 @@
       </c>
       <c r="E407">
         <f t="shared" ref="E407:E411" si="69">E406+D407</f>
-        <v>7153</v>
+        <v>7154</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
@@ -35422,7 +35422,7 @@
       </c>
       <c r="E408">
         <f t="shared" si="69"/>
-        <v>7155</v>
+        <v>7156</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
@@ -35442,7 +35442,7 @@
       </c>
       <c r="E409">
         <f t="shared" si="69"/>
-        <v>7157</v>
+        <v>7158</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -35462,7 +35462,7 @@
       </c>
       <c r="E410">
         <f t="shared" si="69"/>
-        <v>7158</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
@@ -35482,7 +35482,7 @@
       </c>
       <c r="E411">
         <f t="shared" si="69"/>
-        <v>7162</v>
+        <v>7163</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -35494,15 +35494,15 @@
         <v>0</v>
       </c>
       <c r="C412">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D412">
         <f t="shared" ref="D412:D413" si="70">B412+C412</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E412">
         <f t="shared" ref="E412:E413" si="71">E411+D412</f>
-        <v>7167</v>
+        <v>7169</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -35522,7 +35522,7 @@
       </c>
       <c r="E413">
         <f t="shared" si="71"/>
-        <v>7170</v>
+        <v>7172</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
@@ -35542,7 +35542,7 @@
       </c>
       <c r="E414">
         <f t="shared" ref="E414:E419" si="73">E413+D414</f>
-        <v>7171</v>
+        <v>7173</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
@@ -35562,7 +35562,7 @@
       </c>
       <c r="E415">
         <f t="shared" si="73"/>
-        <v>7175</v>
+        <v>7177</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
@@ -35582,7 +35582,7 @@
       </c>
       <c r="E416">
         <f t="shared" si="73"/>
-        <v>7179</v>
+        <v>7181</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
@@ -35602,7 +35602,7 @@
       </c>
       <c r="E417">
         <f t="shared" si="73"/>
-        <v>7186</v>
+        <v>7188</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
@@ -35622,7 +35622,7 @@
       </c>
       <c r="E418">
         <f t="shared" si="73"/>
-        <v>7186</v>
+        <v>7188</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
@@ -35634,15 +35634,15 @@
         <v>0</v>
       </c>
       <c r="C419">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D419">
         <f t="shared" si="72"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E419">
         <f t="shared" si="73"/>
-        <v>7190</v>
+        <v>7193</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
@@ -35654,15 +35654,15 @@
         <v>0</v>
       </c>
       <c r="C420">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D420">
         <f t="shared" ref="D420:D426" si="74">B420+C420</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E420">
         <f t="shared" ref="E420:E426" si="75">E419+D420</f>
-        <v>7195</v>
+        <v>7199</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -35682,7 +35682,7 @@
       </c>
       <c r="E421">
         <f t="shared" si="75"/>
-        <v>7197</v>
+        <v>7201</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -35702,7 +35702,7 @@
       </c>
       <c r="E422">
         <f t="shared" si="75"/>
-        <v>7202</v>
+        <v>7206</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -35722,7 +35722,7 @@
       </c>
       <c r="E423">
         <f t="shared" si="75"/>
-        <v>7205</v>
+        <v>7209</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
@@ -35734,15 +35734,15 @@
         <v>0</v>
       </c>
       <c r="C424">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D424">
         <f t="shared" si="74"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E424">
         <f t="shared" si="75"/>
-        <v>7207</v>
+        <v>7212</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
@@ -35762,7 +35762,7 @@
       </c>
       <c r="E425">
         <f t="shared" si="75"/>
-        <v>7211</v>
+        <v>7216</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
@@ -35782,7 +35782,7 @@
       </c>
       <c r="E426">
         <f t="shared" si="75"/>
-        <v>7216</v>
+        <v>7221</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -35802,7 +35802,7 @@
       </c>
       <c r="E427">
         <f t="shared" ref="E427:E433" si="77">E426+D427</f>
-        <v>7218</v>
+        <v>7223</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
@@ -35822,7 +35822,7 @@
       </c>
       <c r="E428">
         <f t="shared" si="77"/>
-        <v>7220</v>
+        <v>7225</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -35842,7 +35842,7 @@
       </c>
       <c r="E429">
         <f t="shared" si="77"/>
-        <v>7221</v>
+        <v>7226</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
@@ -35862,7 +35862,7 @@
       </c>
       <c r="E430">
         <f t="shared" si="77"/>
-        <v>7223</v>
+        <v>7228</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -35882,7 +35882,7 @@
       </c>
       <c r="E431">
         <f t="shared" si="77"/>
-        <v>7224</v>
+        <v>7229</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
@@ -35902,7 +35902,7 @@
       </c>
       <c r="E432">
         <f t="shared" si="77"/>
-        <v>7225</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
@@ -35922,7 +35922,7 @@
       </c>
       <c r="E433">
         <f t="shared" si="77"/>
-        <v>7228</v>
+        <v>7233</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
@@ -35934,15 +35934,15 @@
         <v>0</v>
       </c>
       <c r="C434">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D434">
         <f t="shared" ref="D434:D439" si="78">B434+C434</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E434">
         <f t="shared" ref="E434:E439" si="79">E433+D434</f>
-        <v>7231</v>
+        <v>7237</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
@@ -35962,7 +35962,7 @@
       </c>
       <c r="E435">
         <f t="shared" si="79"/>
-        <v>7234</v>
+        <v>7240</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
@@ -35982,7 +35982,7 @@
       </c>
       <c r="E436">
         <f t="shared" si="79"/>
-        <v>7234</v>
+        <v>7240</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -36002,7 +36002,7 @@
       </c>
       <c r="E437">
         <f t="shared" si="79"/>
-        <v>7237</v>
+        <v>7243</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -36022,7 +36022,7 @@
       </c>
       <c r="E438">
         <f t="shared" si="79"/>
-        <v>7240</v>
+        <v>7246</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
@@ -36042,7 +36042,7 @@
       </c>
       <c r="E439">
         <f t="shared" si="79"/>
-        <v>7243</v>
+        <v>7249</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
@@ -36062,7 +36062,7 @@
       </c>
       <c r="E440">
         <f t="shared" ref="E440" si="81">E439+D440</f>
-        <v>7246</v>
+        <v>7252</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
@@ -36074,15 +36074,15 @@
         <v>0</v>
       </c>
       <c r="C441">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D441">
         <f t="shared" ref="D441:D447" si="82">B441+C441</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E441">
         <f t="shared" ref="E441:E447" si="83">E440+D441</f>
-        <v>7251</v>
+        <v>7258</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
@@ -36094,35 +36094,35 @@
         <v>0</v>
       </c>
       <c r="C442">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D442">
         <f t="shared" si="82"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E442">
         <f t="shared" si="83"/>
-        <v>7254</v>
+        <v>7262</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
-        <f t="shared" ref="A443:A447" si="84">A442+1</f>
+        <f t="shared" ref="A443:A454" si="84">A442+1</f>
         <v>44332</v>
       </c>
       <c r="B443">
         <v>0</v>
       </c>
       <c r="C443">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D443">
         <f t="shared" si="82"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E443">
         <f t="shared" si="83"/>
-        <v>7256</v>
+        <v>7265</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
@@ -36134,15 +36134,15 @@
         <v>0</v>
       </c>
       <c r="C444">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D444">
         <f t="shared" si="82"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E444">
         <f t="shared" si="83"/>
-        <v>7258</v>
+        <v>7269</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
@@ -36154,15 +36154,15 @@
         <v>1</v>
       </c>
       <c r="C445">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D445">
         <f t="shared" si="82"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E445">
         <f t="shared" si="83"/>
-        <v>7261</v>
+        <v>7274</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
@@ -36174,15 +36174,15 @@
         <v>0</v>
       </c>
       <c r="C446">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D446">
         <f t="shared" si="82"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E446">
         <f t="shared" si="83"/>
-        <v>7263</v>
+        <v>7278</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
@@ -36202,7 +36202,147 @@
       </c>
       <c r="E447">
         <f t="shared" si="83"/>
-        <v>7263</v>
+        <v>7278</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A448" s="2">
+        <f t="shared" si="84"/>
+        <v>44337</v>
+      </c>
+      <c r="B448">
+        <v>0</v>
+      </c>
+      <c r="C448">
+        <v>3</v>
+      </c>
+      <c r="D448">
+        <f t="shared" ref="D448:D454" si="85">B448+C448</f>
+        <v>3</v>
+      </c>
+      <c r="E448">
+        <f t="shared" ref="E448:E454" si="86">E447+D448</f>
+        <v>7281</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449" s="2">
+        <f t="shared" si="84"/>
+        <v>44338</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+      <c r="C449">
+        <v>2</v>
+      </c>
+      <c r="D449">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="E449">
+        <f t="shared" si="86"/>
+        <v>7283</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450" s="2">
+        <f t="shared" si="84"/>
+        <v>44339</v>
+      </c>
+      <c r="B450">
+        <v>1</v>
+      </c>
+      <c r="C450">
+        <v>3</v>
+      </c>
+      <c r="D450">
+        <f t="shared" si="85"/>
+        <v>4</v>
+      </c>
+      <c r="E450">
+        <f t="shared" si="86"/>
+        <v>7287</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451" s="2">
+        <f t="shared" si="84"/>
+        <v>44340</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <v>2</v>
+      </c>
+      <c r="D451">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="E451">
+        <f t="shared" si="86"/>
+        <v>7289</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452" s="2">
+        <f t="shared" si="84"/>
+        <v>44341</v>
+      </c>
+      <c r="B452">
+        <v>0</v>
+      </c>
+      <c r="C452">
+        <v>2</v>
+      </c>
+      <c r="D452">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="E452">
+        <f t="shared" si="86"/>
+        <v>7291</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453" s="2">
+        <f t="shared" si="84"/>
+        <v>44342</v>
+      </c>
+      <c r="B453">
+        <v>0</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+      <c r="D453">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="E453">
+        <f t="shared" si="86"/>
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A454" s="2">
+        <f t="shared" si="84"/>
+        <v>44343</v>
+      </c>
+      <c r="B454">
+        <v>0</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+      <c r="D454">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="E454">
+        <f t="shared" si="86"/>
+        <v>7293</v>
       </c>
     </row>
   </sheetData>
@@ -36212,11 +36352,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCF04A3-27B8-574D-8890-2D4B7141B7CD}">
-  <dimension ref="A1:E437"/>
+  <dimension ref="A1:E451"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A418" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B424" sqref="B424"/>
+      <pane ySplit="1" topLeftCell="A415" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D435" sqref="D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -42405,18 +42545,18 @@
         <v>44215</v>
       </c>
       <c r="B326" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C326">
         <v>10</v>
       </c>
       <c r="D326" s="4">
         <f t="shared" si="10"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E326" s="4">
         <f t="shared" si="11"/>
-        <v>21316</v>
+        <v>21315</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -42436,7 +42576,7 @@
       </c>
       <c r="E327" s="4">
         <f t="shared" ref="E327:E333" si="13">E326+D327</f>
-        <v>21399</v>
+        <v>21398</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -42456,7 +42596,7 @@
       </c>
       <c r="E328" s="4">
         <f t="shared" si="13"/>
-        <v>21481</v>
+        <v>21480</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -42476,7 +42616,7 @@
       </c>
       <c r="E329" s="4">
         <f t="shared" si="13"/>
-        <v>21573</v>
+        <v>21572</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -42496,7 +42636,7 @@
       </c>
       <c r="E330" s="4">
         <f t="shared" si="13"/>
-        <v>21649</v>
+        <v>21648</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -42516,7 +42656,7 @@
       </c>
       <c r="E331" s="4">
         <f t="shared" si="13"/>
-        <v>21726</v>
+        <v>21725</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -42536,7 +42676,7 @@
       </c>
       <c r="E332" s="4">
         <f t="shared" si="13"/>
-        <v>21809</v>
+        <v>21808</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -42556,7 +42696,7 @@
       </c>
       <c r="E333" s="4">
         <f t="shared" si="13"/>
-        <v>21903</v>
+        <v>21902</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -42576,7 +42716,7 @@
       </c>
       <c r="E334" s="4">
         <f t="shared" ref="E334:E347" si="16">E333+D334</f>
-        <v>21981</v>
+        <v>21980</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -42596,7 +42736,7 @@
       </c>
       <c r="E335" s="4">
         <f t="shared" si="16"/>
-        <v>22042</v>
+        <v>22041</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -42616,7 +42756,7 @@
       </c>
       <c r="E336" s="4">
         <f t="shared" si="16"/>
-        <v>22115</v>
+        <v>22114</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -42636,7 +42776,7 @@
       </c>
       <c r="E337" s="4">
         <f t="shared" si="16"/>
-        <v>22195</v>
+        <v>22194</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -42656,7 +42796,7 @@
       </c>
       <c r="E338" s="4">
         <f t="shared" si="16"/>
-        <v>22257</v>
+        <v>22256</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -42676,7 +42816,7 @@
       </c>
       <c r="E339" s="4">
         <f t="shared" si="16"/>
-        <v>22338</v>
+        <v>22337</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -42696,7 +42836,7 @@
       </c>
       <c r="E340" s="4">
         <f t="shared" si="16"/>
-        <v>22418</v>
+        <v>22417</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -42716,7 +42856,7 @@
       </c>
       <c r="E341" s="4">
         <f t="shared" si="16"/>
-        <v>22504</v>
+        <v>22503</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -42736,7 +42876,7 @@
       </c>
       <c r="E342" s="4">
         <f t="shared" si="16"/>
-        <v>22557</v>
+        <v>22556</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -42756,7 +42896,7 @@
       </c>
       <c r="E343" s="4">
         <f t="shared" si="16"/>
-        <v>22634</v>
+        <v>22633</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -42776,7 +42916,7 @@
       </c>
       <c r="E344" s="4">
         <f t="shared" si="16"/>
-        <v>22704</v>
+        <v>22703</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -42796,7 +42936,7 @@
       </c>
       <c r="E345" s="4">
         <f t="shared" si="16"/>
-        <v>22745</v>
+        <v>22744</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -42816,7 +42956,7 @@
       </c>
       <c r="E346" s="4">
         <f t="shared" si="16"/>
-        <v>22816</v>
+        <v>22815</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -42836,7 +42976,7 @@
       </c>
       <c r="E347" s="4">
         <f t="shared" si="16"/>
-        <v>22875</v>
+        <v>22874</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -42856,7 +42996,7 @@
       </c>
       <c r="E348" s="4">
         <f t="shared" ref="E348:E354" si="18">E347+D348</f>
-        <v>22940</v>
+        <v>22939</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -42876,7 +43016,7 @@
       </c>
       <c r="E349" s="4">
         <f t="shared" si="18"/>
-        <v>22980</v>
+        <v>22979</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -42896,7 +43036,7 @@
       </c>
       <c r="E350" s="4">
         <f t="shared" si="18"/>
-        <v>23031</v>
+        <v>23030</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -42916,7 +43056,7 @@
       </c>
       <c r="E351" s="4">
         <f t="shared" si="18"/>
-        <v>23083</v>
+        <v>23082</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -42936,7 +43076,7 @@
       </c>
       <c r="E352" s="4">
         <f t="shared" si="18"/>
-        <v>23116</v>
+        <v>23115</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -42956,7 +43096,7 @@
       </c>
       <c r="E353" s="4">
         <f t="shared" si="18"/>
-        <v>23169</v>
+        <v>23168</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -42976,7 +43116,7 @@
       </c>
       <c r="E354" s="4">
         <f t="shared" si="18"/>
-        <v>23223</v>
+        <v>23222</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -42996,7 +43136,7 @@
       </c>
       <c r="E355" s="4">
         <f t="shared" ref="E355:E368" si="20">E354+D355</f>
-        <v>23272</v>
+        <v>23271</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -43016,7 +43156,7 @@
       </c>
       <c r="E356" s="4">
         <f t="shared" si="20"/>
-        <v>23312</v>
+        <v>23311</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -43036,7 +43176,7 @@
       </c>
       <c r="E357" s="4">
         <f t="shared" si="20"/>
-        <v>23357</v>
+        <v>23356</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -43056,7 +43196,7 @@
       </c>
       <c r="E358" s="4">
         <f t="shared" si="20"/>
-        <v>23398</v>
+        <v>23397</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -43076,7 +43216,7 @@
       </c>
       <c r="E359" s="4">
         <f t="shared" si="20"/>
-        <v>23447</v>
+        <v>23446</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -43085,14 +43225,14 @@
         <v>44249</v>
       </c>
       <c r="B360">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C360">
         <v>1</v>
       </c>
       <c r="D360" s="4">
         <f t="shared" si="19"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E360" s="4">
         <f t="shared" si="20"/>
@@ -43145,18 +43285,18 @@
         <v>44252</v>
       </c>
       <c r="B363">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C363">
         <v>4</v>
       </c>
       <c r="D363" s="4">
         <f t="shared" si="19"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E363" s="4">
         <f t="shared" si="20"/>
-        <v>23621</v>
+        <v>23622</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -43176,7 +43316,7 @@
       </c>
       <c r="E364" s="4">
         <f t="shared" si="20"/>
-        <v>23660</v>
+        <v>23661</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -43185,18 +43325,18 @@
         <v>44254</v>
       </c>
       <c r="B365">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C365">
         <v>4</v>
       </c>
       <c r="D365" s="4">
         <f t="shared" si="19"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E365" s="4">
         <f t="shared" si="20"/>
-        <v>23696</v>
+        <v>23698</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -43216,7 +43356,7 @@
       </c>
       <c r="E366" s="4">
         <f t="shared" si="20"/>
-        <v>23727</v>
+        <v>23729</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -43225,18 +43365,18 @@
         <v>44256</v>
       </c>
       <c r="B367">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C367">
         <v>0</v>
       </c>
       <c r="D367" s="4">
         <f t="shared" si="19"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E367" s="4">
         <f t="shared" si="20"/>
-        <v>23763</v>
+        <v>23766</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -43256,7 +43396,7 @@
       </c>
       <c r="E368" s="4">
         <f t="shared" si="20"/>
-        <v>23792</v>
+        <v>23795</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -43276,7 +43416,7 @@
       </c>
       <c r="E369" s="4">
         <f t="shared" ref="E369:E375" si="22">E368+D369</f>
-        <v>23832</v>
+        <v>23835</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -43296,7 +43436,7 @@
       </c>
       <c r="E370" s="4">
         <f t="shared" si="22"/>
-        <v>23865</v>
+        <v>23868</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -43305,18 +43445,18 @@
         <v>44260</v>
       </c>
       <c r="B371">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C371">
         <v>1</v>
       </c>
       <c r="D371" s="4">
         <f t="shared" si="21"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E371" s="4">
         <f t="shared" si="22"/>
-        <v>23899</v>
+        <v>23903</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -43336,7 +43476,7 @@
       </c>
       <c r="E372" s="4">
         <f t="shared" si="22"/>
-        <v>23931</v>
+        <v>23935</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -43356,7 +43496,7 @@
       </c>
       <c r="E373" s="4">
         <f t="shared" si="22"/>
-        <v>23966</v>
+        <v>23970</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -43365,18 +43505,18 @@
         <v>44263</v>
       </c>
       <c r="B374">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C374">
         <v>1</v>
       </c>
       <c r="D374" s="4">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E374" s="4">
         <f t="shared" si="22"/>
-        <v>23989</v>
+        <v>23994</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
@@ -43396,7 +43536,7 @@
       </c>
       <c r="E375" s="4">
         <f t="shared" si="22"/>
-        <v>24023</v>
+        <v>24028</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -43405,18 +43545,18 @@
         <v>44265</v>
       </c>
       <c r="B376">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C376">
         <v>1</v>
       </c>
       <c r="D376" s="4">
         <f t="shared" ref="D376:D388" si="23">B376+C376</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E376" s="4">
         <f t="shared" ref="E376:E388" si="24">E375+D376</f>
-        <v>24056</v>
+        <v>24062</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
@@ -43436,7 +43576,7 @@
       </c>
       <c r="E377" s="4">
         <f t="shared" si="24"/>
-        <v>24080</v>
+        <v>24086</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -43445,18 +43585,18 @@
         <v>44267</v>
       </c>
       <c r="B378">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C378">
         <v>1</v>
       </c>
       <c r="D378" s="4">
         <f t="shared" si="23"/>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E378" s="4">
         <f t="shared" si="24"/>
-        <v>24118</v>
+        <v>24127</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -43476,7 +43616,7 @@
       </c>
       <c r="E379" s="4">
         <f t="shared" si="24"/>
-        <v>24145</v>
+        <v>24154</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -43496,7 +43636,7 @@
       </c>
       <c r="E380" s="4">
         <f t="shared" si="24"/>
-        <v>24180</v>
+        <v>24189</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
@@ -43505,18 +43645,18 @@
         <v>44270</v>
       </c>
       <c r="B381">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C381">
         <v>0</v>
       </c>
       <c r="D381" s="4">
         <f t="shared" si="23"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E381" s="4">
         <f t="shared" si="24"/>
-        <v>24205</v>
+        <v>24216</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -43536,7 +43676,7 @@
       </c>
       <c r="E382" s="4">
         <f t="shared" si="24"/>
-        <v>24239</v>
+        <v>24250</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
@@ -43545,18 +43685,18 @@
         <v>44272</v>
       </c>
       <c r="B383">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C383">
         <v>1</v>
       </c>
       <c r="D383" s="4">
         <f t="shared" si="23"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E383" s="4">
         <f t="shared" si="24"/>
-        <v>24272</v>
+        <v>24285</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
@@ -43565,18 +43705,18 @@
         <v>44273</v>
       </c>
       <c r="B384">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C384">
         <v>1</v>
       </c>
       <c r="D384" s="4">
         <f t="shared" si="23"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E384" s="4">
         <f t="shared" si="24"/>
-        <v>24313</v>
+        <v>24328</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
@@ -43585,18 +43725,18 @@
         <v>44274</v>
       </c>
       <c r="B385">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C385">
         <v>1</v>
       </c>
       <c r="D385" s="4">
         <f t="shared" si="23"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E385" s="4">
         <f t="shared" si="24"/>
-        <v>24351</v>
+        <v>24367</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
@@ -43616,7 +43756,7 @@
       </c>
       <c r="E386" s="4">
         <f t="shared" si="24"/>
-        <v>24382</v>
+        <v>24398</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
@@ -43636,7 +43776,7 @@
       </c>
       <c r="E387" s="4">
         <f t="shared" si="24"/>
-        <v>24412</v>
+        <v>24428</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -43656,7 +43796,7 @@
       </c>
       <c r="E388" s="4">
         <f t="shared" si="24"/>
-        <v>24438</v>
+        <v>24454</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
@@ -43676,7 +43816,7 @@
       </c>
       <c r="E389" s="4">
         <f t="shared" ref="E389:E395" si="26">E388+D389</f>
-        <v>24463</v>
+        <v>24479</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
@@ -43696,7 +43836,7 @@
       </c>
       <c r="E390" s="4">
         <f t="shared" si="26"/>
-        <v>24504</v>
+        <v>24520</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
@@ -43716,12 +43856,12 @@
       </c>
       <c r="E391" s="4">
         <f t="shared" si="26"/>
-        <v>24539</v>
+        <v>24555</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
-        <f t="shared" ref="A392:A437" si="27">A391+1</f>
+        <f t="shared" ref="A392:A451" si="27">A391+1</f>
         <v>44281</v>
       </c>
       <c r="B392">
@@ -43736,7 +43876,7 @@
       </c>
       <c r="E392" s="4">
         <f t="shared" si="26"/>
-        <v>24574</v>
+        <v>24590</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
@@ -43756,7 +43896,7 @@
       </c>
       <c r="E393" s="4">
         <f t="shared" si="26"/>
-        <v>24608</v>
+        <v>24624</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
@@ -43776,7 +43916,7 @@
       </c>
       <c r="E394" s="4">
         <f t="shared" si="26"/>
-        <v>24639</v>
+        <v>24655</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
@@ -43796,7 +43936,7 @@
       </c>
       <c r="E395" s="4">
         <f t="shared" si="26"/>
-        <v>24680</v>
+        <v>24696</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
@@ -43816,7 +43956,7 @@
       </c>
       <c r="E396" s="4">
         <f t="shared" ref="E396:E416" si="29">E395+D396</f>
-        <v>24709</v>
+        <v>24725</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
@@ -43836,7 +43976,7 @@
       </c>
       <c r="E397" s="4">
         <f t="shared" si="29"/>
-        <v>24741</v>
+        <v>24757</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
@@ -43856,7 +43996,7 @@
       </c>
       <c r="E398" s="4">
         <f t="shared" si="29"/>
-        <v>24783</v>
+        <v>24799</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
@@ -43876,7 +44016,7 @@
       </c>
       <c r="E399" s="4">
         <f t="shared" si="29"/>
-        <v>24813</v>
+        <v>24829</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
@@ -43896,7 +44036,7 @@
       </c>
       <c r="E400" s="4">
         <f t="shared" si="29"/>
-        <v>24832</v>
+        <v>24848</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
@@ -43916,7 +44056,7 @@
       </c>
       <c r="E401" s="4">
         <f t="shared" si="29"/>
-        <v>24869</v>
+        <v>24885</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
@@ -43936,7 +44076,7 @@
       </c>
       <c r="E402" s="4">
         <f t="shared" si="29"/>
-        <v>24906</v>
+        <v>24922</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -43956,7 +44096,7 @@
       </c>
       <c r="E403" s="4">
         <f t="shared" si="29"/>
-        <v>24941</v>
+        <v>24957</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
@@ -43976,7 +44116,7 @@
       </c>
       <c r="E404" s="4">
         <f t="shared" si="29"/>
-        <v>24982</v>
+        <v>24998</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
@@ -43996,7 +44136,7 @@
       </c>
       <c r="E405" s="4">
         <f t="shared" si="29"/>
-        <v>25018</v>
+        <v>25034</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
@@ -44016,7 +44156,7 @@
       </c>
       <c r="E406" s="4">
         <f t="shared" si="29"/>
-        <v>25068</v>
+        <v>25084</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -44036,7 +44176,7 @@
       </c>
       <c r="E407" s="4">
         <f t="shared" si="29"/>
-        <v>25103</v>
+        <v>25119</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
@@ -44045,18 +44185,18 @@
         <v>44297</v>
       </c>
       <c r="B408">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C408">
         <v>1</v>
       </c>
       <c r="D408" s="4">
         <f t="shared" si="28"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E408" s="4">
         <f t="shared" si="29"/>
-        <v>25145</v>
+        <v>25162</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
@@ -44076,7 +44216,7 @@
       </c>
       <c r="E409" s="4">
         <f t="shared" si="29"/>
-        <v>25176</v>
+        <v>25193</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -44096,7 +44236,7 @@
       </c>
       <c r="E410" s="4">
         <f t="shared" si="29"/>
-        <v>25218</v>
+        <v>25235</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
@@ -44116,7 +44256,7 @@
       </c>
       <c r="E411" s="4">
         <f t="shared" si="29"/>
-        <v>25253</v>
+        <v>25270</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -44136,7 +44276,7 @@
       </c>
       <c r="E412" s="4">
         <f t="shared" si="29"/>
-        <v>25282</v>
+        <v>25299</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -44156,7 +44296,7 @@
       </c>
       <c r="E413" s="4">
         <f t="shared" si="29"/>
-        <v>25305</v>
+        <v>25322</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
@@ -44176,7 +44316,7 @@
       </c>
       <c r="E414" s="4">
         <f t="shared" si="29"/>
-        <v>25337</v>
+        <v>25354</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
@@ -44196,7 +44336,7 @@
       </c>
       <c r="E415" s="4">
         <f t="shared" si="29"/>
-        <v>25366</v>
+        <v>25383</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
@@ -44216,7 +44356,7 @@
       </c>
       <c r="E416" s="4">
         <f t="shared" si="29"/>
-        <v>25395</v>
+        <v>25412</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
@@ -44236,7 +44376,7 @@
       </c>
       <c r="E417" s="4">
         <f t="shared" ref="E417:E424" si="31">E416+D417</f>
-        <v>25412</v>
+        <v>25429</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
@@ -44245,18 +44385,18 @@
         <v>44307</v>
       </c>
       <c r="B418">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C418">
         <v>3</v>
       </c>
       <c r="D418" s="4">
         <f t="shared" si="30"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E418" s="4">
         <f t="shared" si="31"/>
-        <v>25449</v>
+        <v>25468</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
@@ -44276,7 +44416,7 @@
       </c>
       <c r="E419" s="4">
         <f t="shared" si="31"/>
-        <v>25474</v>
+        <v>25493</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
@@ -44285,18 +44425,18 @@
         <v>44309</v>
       </c>
       <c r="B420">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C420">
         <v>1</v>
       </c>
       <c r="D420" s="4">
         <f t="shared" si="30"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E420" s="4">
         <f t="shared" si="31"/>
-        <v>25512</v>
+        <v>25532</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -44316,7 +44456,7 @@
       </c>
       <c r="E421" s="4">
         <f t="shared" si="31"/>
-        <v>25548</v>
+        <v>25568</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -44325,18 +44465,18 @@
         <v>44311</v>
       </c>
       <c r="B422">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C422">
         <v>0</v>
       </c>
       <c r="D422" s="4">
         <f t="shared" si="30"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E422" s="4">
         <f t="shared" si="31"/>
-        <v>25578</v>
+        <v>25599</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -44345,18 +44485,18 @@
         <v>44312</v>
       </c>
       <c r="B423">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C423">
         <v>0</v>
       </c>
       <c r="D423" s="4">
         <f t="shared" si="30"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E423" s="4">
         <f t="shared" si="31"/>
-        <v>25602</v>
+        <v>25625</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
@@ -44376,7 +44516,7 @@
       </c>
       <c r="E424" s="4">
         <f t="shared" si="31"/>
-        <v>25625</v>
+        <v>25648</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
@@ -44384,13 +44524,19 @@
         <f t="shared" si="27"/>
         <v>44314</v>
       </c>
+      <c r="B425">
+        <v>25</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
       <c r="D425" s="4">
         <f t="shared" ref="D425:D430" si="32">B425+C425</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E425" s="4">
         <f t="shared" ref="E425:E430" si="33">E424+D425</f>
-        <v>25625</v>
+        <v>25674</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
@@ -44398,13 +44544,19 @@
         <f t="shared" si="27"/>
         <v>44315</v>
       </c>
+      <c r="B426">
+        <v>21</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
       <c r="D426" s="4">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E426" s="4">
         <f t="shared" si="33"/>
-        <v>25625</v>
+        <v>25695</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -44412,13 +44564,19 @@
         <f t="shared" si="27"/>
         <v>44316</v>
       </c>
+      <c r="B427">
+        <v>29</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
       <c r="D427" s="4">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E427" s="4">
         <f t="shared" si="33"/>
-        <v>25625</v>
+        <v>25725</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
@@ -44426,13 +44584,19 @@
         <f t="shared" si="27"/>
         <v>44317</v>
       </c>
+      <c r="B428">
+        <v>23</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
       <c r="D428" s="4">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E428" s="4">
         <f t="shared" si="33"/>
-        <v>25625</v>
+        <v>25749</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -44440,13 +44604,19 @@
         <f t="shared" si="27"/>
         <v>44318</v>
       </c>
+      <c r="B429">
+        <v>22</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
       <c r="D429" s="4">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E429" s="4">
         <f t="shared" si="33"/>
-        <v>25625</v>
+        <v>25772</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
@@ -44454,13 +44624,19 @@
         <f t="shared" si="27"/>
         <v>44319</v>
       </c>
+      <c r="B430">
+        <v>25</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
       <c r="D430" s="4">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E430" s="4">
         <f t="shared" si="33"/>
-        <v>25625</v>
+        <v>25797</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -44468,13 +44644,19 @@
         <f t="shared" si="27"/>
         <v>44320</v>
       </c>
+      <c r="B431">
+        <v>27</v>
+      </c>
+      <c r="C431">
+        <v>3</v>
+      </c>
       <c r="D431" s="4">
         <f t="shared" ref="D431:D437" si="34">B431+C431</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E431" s="4">
         <f t="shared" ref="E431:E437" si="35">E430+D431</f>
-        <v>25625</v>
+        <v>25827</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
@@ -44482,13 +44664,19 @@
         <f t="shared" si="27"/>
         <v>44321</v>
       </c>
+      <c r="B432">
+        <v>26</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
       <c r="D432" s="4">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E432" s="4">
         <f t="shared" si="35"/>
-        <v>25625</v>
+        <v>25853</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
@@ -44496,13 +44684,19 @@
         <f t="shared" si="27"/>
         <v>44322</v>
       </c>
+      <c r="B433">
+        <v>21</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
       <c r="D433" s="4">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E433" s="4">
         <f t="shared" si="35"/>
-        <v>25625</v>
+        <v>25875</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
@@ -44510,13 +44704,19 @@
         <f t="shared" si="27"/>
         <v>44323</v>
       </c>
+      <c r="B434">
+        <v>24</v>
+      </c>
+      <c r="C434">
+        <v>2</v>
+      </c>
       <c r="D434" s="4">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E434" s="4">
         <f t="shared" si="35"/>
-        <v>25625</v>
+        <v>25901</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
@@ -44524,13 +44724,19 @@
         <f t="shared" si="27"/>
         <v>44324</v>
       </c>
+      <c r="B435">
+        <v>20</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
       <c r="D435" s="4">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E435" s="4">
         <f t="shared" si="35"/>
-        <v>25625</v>
+        <v>25922</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
@@ -44538,13 +44744,19 @@
         <f t="shared" si="27"/>
         <v>44325</v>
       </c>
+      <c r="B436">
+        <v>11</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
       <c r="D436" s="4">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E436" s="4">
         <f t="shared" si="35"/>
-        <v>25625</v>
+        <v>25933</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -44552,13 +44764,233 @@
         <f t="shared" si="27"/>
         <v>44326</v>
       </c>
+      <c r="B437">
+        <v>24</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
       <c r="D437" s="4">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E437" s="4">
         <f t="shared" si="35"/>
-        <v>25625</v>
+        <v>25958</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438" s="2">
+        <f t="shared" si="27"/>
+        <v>44327</v>
+      </c>
+      <c r="B438">
+        <v>14</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+      <c r="D438" s="4">
+        <f t="shared" ref="D438:D451" si="36">B438+C438</f>
+        <v>14</v>
+      </c>
+      <c r="E438" s="4">
+        <f t="shared" ref="E438:E451" si="37">E437+D438</f>
+        <v>25972</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439" s="2">
+        <f t="shared" si="27"/>
+        <v>44328</v>
+      </c>
+      <c r="B439">
+        <v>14</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+      <c r="D439" s="4">
+        <f t="shared" si="36"/>
+        <v>14</v>
+      </c>
+      <c r="E439" s="4">
+        <f t="shared" si="37"/>
+        <v>25986</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440" s="2">
+        <f t="shared" si="27"/>
+        <v>44329</v>
+      </c>
+      <c r="B440">
+        <v>21</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+      <c r="D440" s="4">
+        <f t="shared" si="36"/>
+        <v>21</v>
+      </c>
+      <c r="E440" s="4">
+        <f t="shared" si="37"/>
+        <v>26007</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441" s="2">
+        <f t="shared" si="27"/>
+        <v>44330</v>
+      </c>
+      <c r="D441" s="4">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E441" s="4">
+        <f t="shared" si="37"/>
+        <v>26007</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442" s="2">
+        <f t="shared" si="27"/>
+        <v>44331</v>
+      </c>
+      <c r="D442" s="4">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E442" s="4">
+        <f t="shared" si="37"/>
+        <v>26007</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443" s="2">
+        <f t="shared" si="27"/>
+        <v>44332</v>
+      </c>
+      <c r="D443" s="4">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E443" s="4">
+        <f t="shared" si="37"/>
+        <v>26007</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444" s="2">
+        <f t="shared" si="27"/>
+        <v>44333</v>
+      </c>
+      <c r="D444" s="4">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E444" s="4">
+        <f t="shared" si="37"/>
+        <v>26007</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445" s="2">
+        <f t="shared" si="27"/>
+        <v>44334</v>
+      </c>
+      <c r="D445" s="4">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E445" s="4">
+        <f t="shared" si="37"/>
+        <v>26007</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A446" s="2">
+        <f t="shared" si="27"/>
+        <v>44335</v>
+      </c>
+      <c r="D446" s="4">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E446" s="4">
+        <f t="shared" si="37"/>
+        <v>26007</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447" s="2">
+        <f t="shared" si="27"/>
+        <v>44336</v>
+      </c>
+      <c r="D447" s="4">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E447" s="4">
+        <f t="shared" si="37"/>
+        <v>26007</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A448" s="2">
+        <f t="shared" si="27"/>
+        <v>44337</v>
+      </c>
+      <c r="D448" s="4">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E448" s="4">
+        <f t="shared" si="37"/>
+        <v>26007</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449" s="2">
+        <f t="shared" si="27"/>
+        <v>44338</v>
+      </c>
+      <c r="D449" s="4">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E449" s="4">
+        <f t="shared" si="37"/>
+        <v>26007</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450" s="2">
+        <f t="shared" si="27"/>
+        <v>44339</v>
+      </c>
+      <c r="D450" s="4">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E450" s="4">
+        <f t="shared" si="37"/>
+        <v>26007</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451" s="2">
+        <f t="shared" si="27"/>
+        <v>44340</v>
+      </c>
+      <c r="D451" s="4">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E451" s="4">
+        <f t="shared" si="37"/>
+        <v>26007</v>
       </c>
     </row>
   </sheetData>
@@ -44568,11 +45000,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1940A1DF-951D-5944-B211-C56164A8D3EC}">
-  <dimension ref="A1:D450"/>
+  <dimension ref="A1:D457"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B248" sqref="B248"/>
+      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C269" sqref="C269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -49432,11 +49864,11 @@
       <c r="B318" s="6"/>
       <c r="C318" s="8">
         <f>B324/7</f>
-        <v>69.714285714285708</v>
+        <v>69.857142857142861</v>
       </c>
       <c r="D318" s="10">
         <f t="shared" si="44"/>
-        <v>6322.7142857142908</v>
+        <v>6322.8571428571486</v>
       </c>
     </row>
     <row r="319" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -49447,11 +49879,11 @@
       <c r="B319" s="6"/>
       <c r="C319" s="8">
         <f>B324/7</f>
-        <v>69.714285714285708</v>
+        <v>69.857142857142861</v>
       </c>
       <c r="D319" s="10">
         <f t="shared" si="44"/>
-        <v>6392.4285714285761</v>
+        <v>6392.7142857142917</v>
       </c>
     </row>
     <row r="320" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -49462,11 +49894,11 @@
       <c r="B320" s="6"/>
       <c r="C320" s="8">
         <f>B324/7</f>
-        <v>69.714285714285708</v>
+        <v>69.857142857142861</v>
       </c>
       <c r="D320" s="10">
         <f t="shared" si="44"/>
-        <v>6462.1428571428614</v>
+        <v>6462.5714285714348</v>
       </c>
     </row>
     <row r="321" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -49477,11 +49909,11 @@
       <c r="B321" s="6"/>
       <c r="C321" s="8">
         <f>B324/7</f>
-        <v>69.714285714285708</v>
+        <v>69.857142857142861</v>
       </c>
       <c r="D321" s="10">
         <f t="shared" si="44"/>
-        <v>6531.8571428571468</v>
+        <v>6532.4285714285779</v>
       </c>
     </row>
     <row r="322" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -49492,11 +49924,11 @@
       <c r="B322" s="6"/>
       <c r="C322" s="8">
         <f>B324/7</f>
-        <v>69.714285714285708</v>
+        <v>69.857142857142861</v>
       </c>
       <c r="D322" s="10">
         <f t="shared" si="44"/>
-        <v>6601.5714285714321</v>
+        <v>6602.285714285721</v>
       </c>
     </row>
     <row r="323" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -49507,11 +49939,11 @@
       <c r="B323" s="6"/>
       <c r="C323" s="8">
         <f>B324/7</f>
-        <v>69.714285714285708</v>
+        <v>69.857142857142861</v>
       </c>
       <c r="D323" s="10">
         <f t="shared" ref="D323:D352" si="54">D322+C323</f>
-        <v>6671.2857142857174</v>
+        <v>6672.1428571428642</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -49520,15 +49952,15 @@
         <v>44212</v>
       </c>
       <c r="B324">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C324" s="8">
         <f t="shared" si="4"/>
-        <v>69.714285714285708</v>
+        <v>69.857142857142861</v>
       </c>
       <c r="D324" s="10">
         <f t="shared" si="54"/>
-        <v>6741.0000000000027</v>
+        <v>6742.0000000000073</v>
       </c>
     </row>
     <row r="325" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -49539,11 +49971,11 @@
       <c r="B325" s="6"/>
       <c r="C325" s="8">
         <f>B331/7</f>
-        <v>75.142857142857139</v>
+        <v>75.285714285714292</v>
       </c>
       <c r="D325" s="10">
         <f t="shared" si="54"/>
-        <v>6816.1428571428596</v>
+        <v>6817.285714285722</v>
       </c>
     </row>
     <row r="326" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -49554,11 +49986,11 @@
       <c r="B326" s="6"/>
       <c r="C326" s="8">
         <f>B331/7</f>
-        <v>75.142857142857139</v>
+        <v>75.285714285714292</v>
       </c>
       <c r="D326" s="10">
         <f t="shared" si="54"/>
-        <v>6891.2857142857165</v>
+        <v>6892.5714285714366</v>
       </c>
     </row>
     <row r="327" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -49569,11 +50001,11 @@
       <c r="B327" s="6"/>
       <c r="C327" s="8">
         <f>B331/7</f>
-        <v>75.142857142857139</v>
+        <v>75.285714285714292</v>
       </c>
       <c r="D327" s="10">
         <f t="shared" si="54"/>
-        <v>6966.4285714285734</v>
+        <v>6967.8571428571513</v>
       </c>
     </row>
     <row r="328" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -49584,11 +50016,11 @@
       <c r="B328" s="6"/>
       <c r="C328" s="8">
         <f>B331/7</f>
-        <v>75.142857142857139</v>
+        <v>75.285714285714292</v>
       </c>
       <c r="D328" s="10">
         <f t="shared" si="54"/>
-        <v>7041.5714285714303</v>
+        <v>7043.142857142866</v>
       </c>
     </row>
     <row r="329" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -49599,11 +50031,11 @@
       <c r="B329" s="6"/>
       <c r="C329" s="8">
         <f>B331/7</f>
-        <v>75.142857142857139</v>
+        <v>75.285714285714292</v>
       </c>
       <c r="D329" s="10">
         <f t="shared" si="54"/>
-        <v>7116.7142857142871</v>
+        <v>7118.4285714285807</v>
       </c>
     </row>
     <row r="330" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -49614,11 +50046,11 @@
       <c r="B330" s="6"/>
       <c r="C330" s="8">
         <f>B331/7</f>
-        <v>75.142857142857139</v>
+        <v>75.285714285714292</v>
       </c>
       <c r="D330" s="10">
         <f t="shared" si="54"/>
-        <v>7191.857142857144</v>
+        <v>7193.7142857142953</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -49627,15 +50059,15 @@
         <v>44219</v>
       </c>
       <c r="B331">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C331" s="8">
         <f>B331/7</f>
-        <v>75.142857142857139</v>
+        <v>75.285714285714292</v>
       </c>
       <c r="D331" s="10">
         <f t="shared" si="54"/>
-        <v>7267.0000000000009</v>
+        <v>7269.00000000001</v>
       </c>
     </row>
     <row r="332" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -49650,7 +50082,7 @@
       </c>
       <c r="D332" s="10">
         <f t="shared" si="54"/>
-        <v>7332.5714285714294</v>
+        <v>7334.5714285714384</v>
       </c>
     </row>
     <row r="333" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -49665,7 +50097,7 @@
       </c>
       <c r="D333" s="10">
         <f t="shared" si="54"/>
-        <v>7398.1428571428578</v>
+        <v>7400.1428571428669</v>
       </c>
     </row>
     <row r="334" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -49680,7 +50112,7 @@
       </c>
       <c r="D334" s="10">
         <f t="shared" si="54"/>
-        <v>7463.7142857142862</v>
+        <v>7465.7142857142953</v>
       </c>
     </row>
     <row r="335" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -49695,7 +50127,7 @@
       </c>
       <c r="D335" s="10">
         <f t="shared" si="54"/>
-        <v>7529.2857142857147</v>
+        <v>7531.2857142857238</v>
       </c>
     </row>
     <row r="336" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -49710,7 +50142,7 @@
       </c>
       <c r="D336" s="10">
         <f t="shared" si="54"/>
-        <v>7594.8571428571431</v>
+        <v>7596.8571428571522</v>
       </c>
     </row>
     <row r="337" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -49725,7 +50157,7 @@
       </c>
       <c r="D337" s="10">
         <f t="shared" si="54"/>
-        <v>7660.4285714285716</v>
+        <v>7662.4285714285807</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -49742,7 +50174,7 @@
       </c>
       <c r="D338" s="10">
         <f t="shared" si="54"/>
-        <v>7726</v>
+        <v>7728.0000000000091</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -49757,7 +50189,7 @@
       </c>
       <c r="D339" s="10">
         <f t="shared" si="54"/>
-        <v>7781.7142857142853</v>
+        <v>7783.7142857142944</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -49772,7 +50204,7 @@
       </c>
       <c r="D340" s="10">
         <f t="shared" si="54"/>
-        <v>7837.4285714285706</v>
+        <v>7839.4285714285797</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -49787,7 +50219,7 @@
       </c>
       <c r="D341" s="10">
         <f t="shared" si="54"/>
-        <v>7893.142857142856</v>
+        <v>7895.1428571428651</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -49801,7 +50233,7 @@
       </c>
       <c r="D342" s="10">
         <f t="shared" si="54"/>
-        <v>7948.8571428571413</v>
+        <v>7950.8571428571504</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -49815,7 +50247,7 @@
       </c>
       <c r="D343" s="10">
         <f t="shared" si="54"/>
-        <v>8004.5714285714266</v>
+        <v>8006.5714285714357</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -49829,7 +50261,7 @@
       </c>
       <c r="D344" s="10">
         <f t="shared" si="54"/>
-        <v>8060.2857142857119</v>
+        <v>8062.285714285721</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -49846,7 +50278,7 @@
       </c>
       <c r="D345" s="10">
         <f t="shared" si="54"/>
-        <v>8115.9999999999973</v>
+        <v>8118.0000000000064</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -49860,7 +50292,7 @@
       </c>
       <c r="D346" s="10">
         <f t="shared" si="54"/>
-        <v>8156.4285714285688</v>
+        <v>8158.4285714285779</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -49874,7 +50306,7 @@
       </c>
       <c r="D347" s="10">
         <f t="shared" si="54"/>
-        <v>8196.8571428571395</v>
+        <v>8198.8571428571486</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -49888,7 +50320,7 @@
       </c>
       <c r="D348" s="10">
         <f t="shared" si="54"/>
-        <v>8237.2857142857101</v>
+        <v>8239.2857142857192</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -49902,7 +50334,7 @@
       </c>
       <c r="D349" s="10">
         <f t="shared" si="54"/>
-        <v>8277.7142857142808</v>
+        <v>8279.7142857142899</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -49916,7 +50348,7 @@
       </c>
       <c r="D350" s="10">
         <f t="shared" si="54"/>
-        <v>8318.1428571428514</v>
+        <v>8320.1428571428605</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -49930,7 +50362,7 @@
       </c>
       <c r="D351" s="10">
         <f t="shared" si="54"/>
-        <v>8358.5714285714221</v>
+        <v>8360.5714285714312</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -49947,7 +50379,7 @@
       </c>
       <c r="D352" s="10">
         <f t="shared" si="54"/>
-        <v>8398.9999999999927</v>
+        <v>8401.0000000000018</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -49957,11 +50389,11 @@
       </c>
       <c r="C353" s="8">
         <f>B359/7</f>
-        <v>31.714285714285715</v>
+        <v>31.857142857142858</v>
       </c>
       <c r="D353" s="10">
         <f t="shared" ref="D353:D359" si="59">D352+C353</f>
-        <v>8430.714285714279</v>
+        <v>8432.8571428571449</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -49971,11 +50403,11 @@
       </c>
       <c r="C354" s="8">
         <f>B359/7</f>
-        <v>31.714285714285715</v>
+        <v>31.857142857142858</v>
       </c>
       <c r="D354" s="10">
         <f t="shared" si="59"/>
-        <v>8462.4285714285652</v>
+        <v>8464.7142857142881</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -49985,11 +50417,11 @@
       </c>
       <c r="C355" s="8">
         <f>B359/7</f>
-        <v>31.714285714285715</v>
+        <v>31.857142857142858</v>
       </c>
       <c r="D355" s="10">
         <f t="shared" si="59"/>
-        <v>8494.1428571428514</v>
+        <v>8496.5714285714312</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -49999,11 +50431,11 @@
       </c>
       <c r="C356" s="8">
         <f>B359/7</f>
-        <v>31.714285714285715</v>
+        <v>31.857142857142858</v>
       </c>
       <c r="D356" s="10">
         <f t="shared" si="59"/>
-        <v>8525.8571428571377</v>
+        <v>8528.4285714285743</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -50013,11 +50445,11 @@
       </c>
       <c r="C357" s="8">
         <f>B359/7</f>
-        <v>31.714285714285715</v>
+        <v>31.857142857142858</v>
       </c>
       <c r="D357" s="10">
         <f t="shared" si="59"/>
-        <v>8557.5714285714239</v>
+        <v>8560.2857142857174</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -50027,11 +50459,11 @@
       </c>
       <c r="C358" s="8">
         <f>B359/7</f>
-        <v>31.714285714285715</v>
+        <v>31.857142857142858</v>
       </c>
       <c r="D358" s="10">
         <f t="shared" si="59"/>
-        <v>8589.2857142857101</v>
+        <v>8592.1428571428605</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -50040,15 +50472,15 @@
         <v>44247</v>
       </c>
       <c r="B359">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C359" s="8">
         <f t="shared" ref="C359" si="60">B359/7</f>
-        <v>31.714285714285715</v>
+        <v>31.857142857142858</v>
       </c>
       <c r="D359" s="10">
         <f t="shared" si="59"/>
-        <v>8620.9999999999964</v>
+        <v>8624.0000000000036</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -50058,11 +50490,11 @@
       </c>
       <c r="C360" s="8">
         <f>B366/7</f>
-        <v>23.571428571428573</v>
+        <v>23.714285714285715</v>
       </c>
       <c r="D360" s="10">
         <f t="shared" ref="D360:D366" si="61">D359+C360</f>
-        <v>8644.5714285714257</v>
+        <v>8647.7142857142899</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -50072,11 +50504,11 @@
       </c>
       <c r="C361" s="8">
         <f>B366/7</f>
-        <v>23.571428571428573</v>
+        <v>23.714285714285715</v>
       </c>
       <c r="D361" s="10">
         <f t="shared" si="61"/>
-        <v>8668.1428571428551</v>
+        <v>8671.4285714285761</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -50086,11 +50518,11 @@
       </c>
       <c r="C362" s="8">
         <f>B366/7</f>
-        <v>23.571428571428573</v>
+        <v>23.714285714285715</v>
       </c>
       <c r="D362" s="10">
         <f t="shared" si="61"/>
-        <v>8691.7142857142844</v>
+        <v>8695.1428571428623</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -50100,11 +50532,11 @@
       </c>
       <c r="C363" s="8">
         <f>B366/7</f>
-        <v>23.571428571428573</v>
+        <v>23.714285714285715</v>
       </c>
       <c r="D363" s="10">
         <f t="shared" si="61"/>
-        <v>8715.2857142857138</v>
+        <v>8718.8571428571486</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -50114,11 +50546,11 @@
       </c>
       <c r="C364" s="8">
         <f>B366/7</f>
-        <v>23.571428571428573</v>
+        <v>23.714285714285715</v>
       </c>
       <c r="D364" s="10">
         <f t="shared" si="61"/>
-        <v>8738.8571428571431</v>
+        <v>8742.5714285714348</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -50128,11 +50560,11 @@
       </c>
       <c r="C365" s="8">
         <f>B366/7</f>
-        <v>23.571428571428573</v>
+        <v>23.714285714285715</v>
       </c>
       <c r="D365" s="10">
         <f t="shared" si="61"/>
-        <v>8762.4285714285725</v>
+        <v>8766.285714285721</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -50141,15 +50573,15 @@
         <v>44254</v>
       </c>
       <c r="B366">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C366" s="8">
         <f t="shared" ref="C366" si="62">B366/7</f>
-        <v>23.571428571428573</v>
+        <v>23.714285714285715</v>
       </c>
       <c r="D366" s="10">
         <f t="shared" si="61"/>
-        <v>8786.0000000000018</v>
+        <v>8790.0000000000073</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -50163,7 +50595,7 @@
       </c>
       <c r="D367" s="10">
         <f t="shared" ref="D367:D373" si="63">D366+C367</f>
-        <v>8806.2857142857156</v>
+        <v>8810.285714285721</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -50177,7 +50609,7 @@
       </c>
       <c r="D368" s="10">
         <f t="shared" si="63"/>
-        <v>8826.5714285714294</v>
+        <v>8830.5714285714348</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -50191,7 +50623,7 @@
       </c>
       <c r="D369" s="10">
         <f t="shared" si="63"/>
-        <v>8846.8571428571431</v>
+        <v>8850.8571428571486</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -50205,7 +50637,7 @@
       </c>
       <c r="D370" s="10">
         <f t="shared" si="63"/>
-        <v>8867.1428571428569</v>
+        <v>8871.1428571428623</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -50219,7 +50651,7 @@
       </c>
       <c r="D371" s="10">
         <f t="shared" si="63"/>
-        <v>8887.4285714285706</v>
+        <v>8891.4285714285761</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -50233,7 +50665,7 @@
       </c>
       <c r="D372" s="10">
         <f t="shared" si="63"/>
-        <v>8907.7142857142844</v>
+        <v>8911.7142857142899</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -50250,7 +50682,7 @@
       </c>
       <c r="D373" s="10">
         <f t="shared" si="63"/>
-        <v>8927.9999999999982</v>
+        <v>8932.0000000000036</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -50264,7 +50696,7 @@
       </c>
       <c r="D374" s="10">
         <f t="shared" ref="D374:D387" si="65">D373+C374</f>
-        <v>8944.1428571428551</v>
+        <v>8948.1428571428605</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -50278,7 +50710,7 @@
       </c>
       <c r="D375" s="10">
         <f t="shared" si="65"/>
-        <v>8960.2857142857119</v>
+        <v>8964.2857142857174</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -50292,7 +50724,7 @@
       </c>
       <c r="D376" s="10">
         <f t="shared" si="65"/>
-        <v>8976.4285714285688</v>
+        <v>8980.4285714285743</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -50306,7 +50738,7 @@
       </c>
       <c r="D377" s="10">
         <f t="shared" si="65"/>
-        <v>8992.5714285714257</v>
+        <v>8996.5714285714312</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -50320,7 +50752,7 @@
       </c>
       <c r="D378" s="10">
         <f t="shared" si="65"/>
-        <v>9008.7142857142826</v>
+        <v>9012.7142857142881</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -50334,7 +50766,7 @@
       </c>
       <c r="D379" s="10">
         <f t="shared" si="65"/>
-        <v>9024.8571428571395</v>
+        <v>9028.8571428571449</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -50351,7 +50783,7 @@
       </c>
       <c r="D380" s="10">
         <f t="shared" si="65"/>
-        <v>9040.9999999999964</v>
+        <v>9045.0000000000018</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -50365,7 +50797,7 @@
       </c>
       <c r="D381" s="10">
         <f t="shared" si="65"/>
-        <v>9054.1428571428532</v>
+        <v>9058.1428571428587</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -50379,7 +50811,7 @@
       </c>
       <c r="D382" s="10">
         <f t="shared" si="65"/>
-        <v>9067.2857142857101</v>
+        <v>9071.2857142857156</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -50393,7 +50825,7 @@
       </c>
       <c r="D383" s="10">
         <f t="shared" si="65"/>
-        <v>9080.428571428567</v>
+        <v>9084.4285714285725</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -50407,7 +50839,7 @@
       </c>
       <c r="D384" s="10">
         <f t="shared" si="65"/>
-        <v>9093.5714285714239</v>
+        <v>9097.5714285714294</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -50421,7 +50853,7 @@
       </c>
       <c r="D385" s="10">
         <f t="shared" si="65"/>
-        <v>9106.7142857142808</v>
+        <v>9110.7142857142862</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -50435,7 +50867,7 @@
       </c>
       <c r="D386" s="10">
         <f t="shared" si="65"/>
-        <v>9119.8571428571377</v>
+        <v>9123.8571428571431</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -50452,7 +50884,7 @@
       </c>
       <c r="D387" s="10">
         <f t="shared" si="65"/>
-        <v>9132.9999999999945</v>
+        <v>9137</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -50462,11 +50894,11 @@
       </c>
       <c r="C388" s="8">
         <f>B394/7</f>
-        <v>11.571428571428571</v>
+        <v>11.714285714285714</v>
       </c>
       <c r="D388" s="10">
         <f t="shared" ref="D388:D394" si="68">D387+C388</f>
-        <v>9144.5714285714239</v>
+        <v>9148.7142857142862</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -50476,11 +50908,11 @@
       </c>
       <c r="C389" s="8">
         <f>B394/7</f>
-        <v>11.571428571428571</v>
+        <v>11.714285714285714</v>
       </c>
       <c r="D389" s="10">
         <f t="shared" si="68"/>
-        <v>9156.1428571428532</v>
+        <v>9160.4285714285725</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -50490,11 +50922,11 @@
       </c>
       <c r="C390" s="8">
         <f>B394/7</f>
-        <v>11.571428571428571</v>
+        <v>11.714285714285714</v>
       </c>
       <c r="D390" s="10">
         <f t="shared" si="68"/>
-        <v>9167.7142857142826</v>
+        <v>9172.1428571428587</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -50504,11 +50936,11 @@
       </c>
       <c r="C391" s="8">
         <f>B394/7</f>
-        <v>11.571428571428571</v>
+        <v>11.714285714285714</v>
       </c>
       <c r="D391" s="10">
         <f t="shared" si="68"/>
-        <v>9179.2857142857119</v>
+        <v>9183.8571428571449</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -50518,11 +50950,11 @@
       </c>
       <c r="C392" s="8">
         <f>B394/7</f>
-        <v>11.571428571428571</v>
+        <v>11.714285714285714</v>
       </c>
       <c r="D392" s="10">
         <f t="shared" si="68"/>
-        <v>9190.8571428571413</v>
+        <v>9195.5714285714312</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -50532,11 +50964,11 @@
       </c>
       <c r="C393" s="8">
         <f>B394/7</f>
-        <v>11.571428571428571</v>
+        <v>11.714285714285714</v>
       </c>
       <c r="D393" s="10">
         <f t="shared" si="68"/>
-        <v>9202.4285714285706</v>
+        <v>9207.2857142857174</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -50545,15 +50977,15 @@
         <v>44282</v>
       </c>
       <c r="B394">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C394" s="8">
         <f t="shared" ref="C394" si="69">B394/7</f>
-        <v>11.571428571428571</v>
+        <v>11.714285714285714</v>
       </c>
       <c r="D394" s="10">
         <f t="shared" si="68"/>
-        <v>9214</v>
+        <v>9219.0000000000036</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -50563,11 +50995,11 @@
       </c>
       <c r="C395" s="8">
         <f>B401/7</f>
-        <v>9.7142857142857135</v>
+        <v>9.8571428571428577</v>
       </c>
       <c r="D395" s="10">
         <f t="shared" ref="D395:D401" si="70">D394+C395</f>
-        <v>9223.7142857142862</v>
+        <v>9228.8571428571468</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -50577,11 +51009,11 @@
       </c>
       <c r="C396" s="8">
         <f>B401/7</f>
-        <v>9.7142857142857135</v>
+        <v>9.8571428571428577</v>
       </c>
       <c r="D396" s="10">
         <f t="shared" si="70"/>
-        <v>9233.4285714285725</v>
+        <v>9238.7142857142899</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -50591,11 +51023,11 @@
       </c>
       <c r="C397" s="8">
         <f>B401/7</f>
-        <v>9.7142857142857135</v>
+        <v>9.8571428571428577</v>
       </c>
       <c r="D397" s="10">
         <f t="shared" si="70"/>
-        <v>9243.1428571428587</v>
+        <v>9248.571428571433</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -50605,11 +51037,11 @@
       </c>
       <c r="C398" s="8">
         <f>B401/7</f>
-        <v>9.7142857142857135</v>
+        <v>9.8571428571428577</v>
       </c>
       <c r="D398" s="10">
         <f t="shared" si="70"/>
-        <v>9252.8571428571449</v>
+        <v>9258.4285714285761</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -50619,11 +51051,11 @@
       </c>
       <c r="C399" s="8">
         <f>B401/7</f>
-        <v>9.7142857142857135</v>
+        <v>9.8571428571428577</v>
       </c>
       <c r="D399" s="10">
         <f t="shared" si="70"/>
-        <v>9262.5714285714312</v>
+        <v>9268.2857142857192</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -50633,11 +51065,11 @@
       </c>
       <c r="C400" s="8">
         <f>B401/7</f>
-        <v>9.7142857142857135</v>
+        <v>9.8571428571428577</v>
       </c>
       <c r="D400" s="10">
         <f t="shared" si="70"/>
-        <v>9272.2857142857174</v>
+        <v>9278.1428571428623</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -50646,29 +51078,29 @@
         <v>44289</v>
       </c>
       <c r="B401">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C401" s="8">
         <f t="shared" ref="C401" si="72">B401/7</f>
-        <v>9.7142857142857135</v>
+        <v>9.8571428571428577</v>
       </c>
       <c r="D401" s="10">
         <f t="shared" si="70"/>
-        <v>9282.0000000000036</v>
+        <v>9288.0000000000055</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
-        <f t="shared" ref="A402:A449" si="73">A401+1</f>
+        <f t="shared" ref="A402:A456" si="73">A401+1</f>
         <v>44290</v>
       </c>
       <c r="C402" s="8">
         <f>B408/7</f>
-        <v>10</v>
+        <v>10.142857142857142</v>
       </c>
       <c r="D402" s="10">
         <f t="shared" ref="D402:D408" si="74">D401+C402</f>
-        <v>9292.0000000000036</v>
+        <v>9298.1428571428623</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -50678,11 +51110,11 @@
       </c>
       <c r="C403" s="8">
         <f>B408/7</f>
-        <v>10</v>
+        <v>10.142857142857142</v>
       </c>
       <c r="D403" s="10">
         <f t="shared" si="74"/>
-        <v>9302.0000000000036</v>
+        <v>9308.2857142857192</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -50692,11 +51124,11 @@
       </c>
       <c r="C404" s="8">
         <f>B408/7</f>
-        <v>10</v>
+        <v>10.142857142857142</v>
       </c>
       <c r="D404" s="10">
         <f t="shared" si="74"/>
-        <v>9312.0000000000036</v>
+        <v>9318.4285714285761</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -50706,11 +51138,11 @@
       </c>
       <c r="C405" s="8">
         <f>B408/7</f>
-        <v>10</v>
+        <v>10.142857142857142</v>
       </c>
       <c r="D405" s="10">
         <f t="shared" si="74"/>
-        <v>9322.0000000000036</v>
+        <v>9328.571428571433</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -50720,11 +51152,11 @@
       </c>
       <c r="C406" s="8">
         <f>B408/7</f>
-        <v>10</v>
+        <v>10.142857142857142</v>
       </c>
       <c r="D406" s="10">
         <f t="shared" si="74"/>
-        <v>9332.0000000000036</v>
+        <v>9338.7142857142899</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -50734,11 +51166,11 @@
       </c>
       <c r="C407" s="8">
         <f>B408/7</f>
-        <v>10</v>
+        <v>10.142857142857142</v>
       </c>
       <c r="D407" s="10">
         <f t="shared" si="74"/>
-        <v>9342.0000000000036</v>
+        <v>9348.8571428571468</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -50747,15 +51179,15 @@
         <v>44296</v>
       </c>
       <c r="B408">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C408" s="8">
         <f t="shared" ref="C408" si="75">B408/7</f>
-        <v>10</v>
+        <v>10.142857142857142</v>
       </c>
       <c r="D408" s="10">
         <f t="shared" si="74"/>
-        <v>9352.0000000000036</v>
+        <v>9359.0000000000036</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -50769,7 +51201,7 @@
       </c>
       <c r="D409" s="10">
         <f t="shared" ref="D409:D415" si="76">D408+C409</f>
-        <v>9362.1428571428605</v>
+        <v>9369.1428571428605</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -50783,7 +51215,7 @@
       </c>
       <c r="D410" s="10">
         <f t="shared" si="76"/>
-        <v>9372.2857142857174</v>
+        <v>9379.2857142857174</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -50797,7 +51229,7 @@
       </c>
       <c r="D411" s="10">
         <f t="shared" si="76"/>
-        <v>9382.4285714285743</v>
+        <v>9389.4285714285743</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -50811,7 +51243,7 @@
       </c>
       <c r="D412" s="10">
         <f t="shared" si="76"/>
-        <v>9392.5714285714312</v>
+        <v>9399.5714285714312</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -50825,7 +51257,7 @@
       </c>
       <c r="D413" s="10">
         <f t="shared" si="76"/>
-        <v>9402.7142857142881</v>
+        <v>9409.7142857142881</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -50839,7 +51271,7 @@
       </c>
       <c r="D414" s="10">
         <f t="shared" si="76"/>
-        <v>9412.8571428571449</v>
+        <v>9419.8571428571449</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -50856,7 +51288,7 @@
       </c>
       <c r="D415" s="10">
         <f t="shared" si="76"/>
-        <v>9423.0000000000018</v>
+        <v>9430.0000000000018</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -50870,7 +51302,7 @@
       </c>
       <c r="D416" s="10">
         <f t="shared" ref="D416:D422" si="78">D415+C416</f>
-        <v>9433.7142857142881</v>
+        <v>9440.7142857142881</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -50884,7 +51316,7 @@
       </c>
       <c r="D417" s="10">
         <f t="shared" si="78"/>
-        <v>9444.4285714285743</v>
+        <v>9451.4285714285743</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -50898,7 +51330,7 @@
       </c>
       <c r="D418" s="10">
         <f t="shared" si="78"/>
-        <v>9455.1428571428605</v>
+        <v>9462.1428571428605</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -50912,7 +51344,7 @@
       </c>
       <c r="D419" s="10">
         <f t="shared" si="78"/>
-        <v>9465.8571428571468</v>
+        <v>9472.8571428571468</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -50926,7 +51358,7 @@
       </c>
       <c r="D420" s="10">
         <f t="shared" si="78"/>
-        <v>9476.571428571433</v>
+        <v>9483.571428571433</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -50940,7 +51372,7 @@
       </c>
       <c r="D421" s="10">
         <f t="shared" si="78"/>
-        <v>9487.2857142857192</v>
+        <v>9494.2857142857192</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -50957,7 +51389,7 @@
       </c>
       <c r="D422" s="10">
         <f t="shared" si="78"/>
-        <v>9498.0000000000055</v>
+        <v>9505.0000000000055</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -50967,11 +51399,11 @@
       </c>
       <c r="C423" s="8">
         <f>B429/7</f>
-        <v>8.4285714285714288</v>
+        <v>9</v>
       </c>
       <c r="D423" s="10">
         <f t="shared" ref="D423:D429" si="80">D422+C423</f>
-        <v>9506.4285714285761</v>
+        <v>9514.0000000000055</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -50981,11 +51413,11 @@
       </c>
       <c r="C424" s="8">
         <f>B429/7</f>
-        <v>8.4285714285714288</v>
+        <v>9</v>
       </c>
       <c r="D424" s="10">
         <f t="shared" si="80"/>
-        <v>9514.8571428571468</v>
+        <v>9523.0000000000055</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -50995,11 +51427,11 @@
       </c>
       <c r="C425" s="8">
         <f>B429/7</f>
-        <v>8.4285714285714288</v>
+        <v>9</v>
       </c>
       <c r="D425" s="10">
         <f t="shared" si="80"/>
-        <v>9523.2857142857174</v>
+        <v>9532.0000000000055</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -51009,11 +51441,11 @@
       </c>
       <c r="C426" s="8">
         <f>B429/7</f>
-        <v>8.4285714285714288</v>
+        <v>9</v>
       </c>
       <c r="D426" s="10">
         <f t="shared" si="80"/>
-        <v>9531.7142857142881</v>
+        <v>9541.0000000000055</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -51023,11 +51455,11 @@
       </c>
       <c r="C427" s="8">
         <f>B429/7</f>
-        <v>8.4285714285714288</v>
+        <v>9</v>
       </c>
       <c r="D427" s="10">
         <f t="shared" si="80"/>
-        <v>9540.1428571428587</v>
+        <v>9550.0000000000055</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -51037,11 +51469,11 @@
       </c>
       <c r="C428" s="8">
         <f>B429/7</f>
-        <v>8.4285714285714288</v>
+        <v>9</v>
       </c>
       <c r="D428" s="10">
         <f t="shared" si="80"/>
-        <v>9548.5714285714294</v>
+        <v>9559.0000000000055</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -51050,15 +51482,15 @@
         <v>44317</v>
       </c>
       <c r="B429">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C429" s="8">
         <f t="shared" ref="C429" si="81">B429/7</f>
-        <v>8.4285714285714288</v>
+        <v>9</v>
       </c>
       <c r="D429" s="10">
         <f t="shared" si="80"/>
-        <v>9557</v>
+        <v>9568.0000000000055</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -51068,11 +51500,11 @@
       </c>
       <c r="C430" s="8">
         <f>B436/7</f>
-        <v>7.2857142857142856</v>
+        <v>7.4285714285714288</v>
       </c>
       <c r="D430" s="10">
         <f t="shared" ref="D430:D443" si="82">D429+C430</f>
-        <v>9564.2857142857138</v>
+        <v>9575.4285714285761</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -51082,11 +51514,11 @@
       </c>
       <c r="C431" s="8">
         <f>B436/7</f>
-        <v>7.2857142857142856</v>
+        <v>7.4285714285714288</v>
       </c>
       <c r="D431" s="10">
         <f t="shared" si="82"/>
-        <v>9571.5714285714275</v>
+        <v>9582.8571428571468</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -51096,11 +51528,11 @@
       </c>
       <c r="C432" s="8">
         <f>B436/7</f>
-        <v>7.2857142857142856</v>
+        <v>7.4285714285714288</v>
       </c>
       <c r="D432" s="10">
         <f t="shared" si="82"/>
-        <v>9578.8571428571413</v>
+        <v>9590.2857142857174</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -51110,11 +51542,11 @@
       </c>
       <c r="C433" s="8">
         <f>B436/7</f>
-        <v>7.2857142857142856</v>
+        <v>7.4285714285714288</v>
       </c>
       <c r="D433" s="10">
         <f t="shared" si="82"/>
-        <v>9586.1428571428551</v>
+        <v>9597.7142857142881</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -51124,11 +51556,11 @@
       </c>
       <c r="C434" s="8">
         <f>B436/7</f>
-        <v>7.2857142857142856</v>
+        <v>7.4285714285714288</v>
       </c>
       <c r="D434" s="10">
         <f t="shared" si="82"/>
-        <v>9593.4285714285688</v>
+        <v>9605.1428571428587</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -51138,11 +51570,11 @@
       </c>
       <c r="C435" s="8">
         <f>B436/7</f>
-        <v>7.2857142857142856</v>
+        <v>7.4285714285714288</v>
       </c>
       <c r="D435" s="10">
         <f t="shared" si="82"/>
-        <v>9600.7142857142826</v>
+        <v>9612.5714285714294</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -51151,15 +51583,15 @@
         <v>44324</v>
       </c>
       <c r="B436">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C436" s="8">
         <f t="shared" ref="C436" si="83">B436/7</f>
-        <v>7.2857142857142856</v>
+        <v>7.4285714285714288</v>
       </c>
       <c r="D436" s="10">
         <f t="shared" si="82"/>
-        <v>9607.9999999999964</v>
+        <v>9620</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -51169,11 +51601,11 @@
       </c>
       <c r="C437" s="8">
         <f>B443/7</f>
-        <v>5.2857142857142856</v>
+        <v>7.7142857142857144</v>
       </c>
       <c r="D437" s="10">
         <f t="shared" si="82"/>
-        <v>9613.2857142857101</v>
+        <v>9627.7142857142862</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -51183,11 +51615,11 @@
       </c>
       <c r="C438" s="8">
         <f>B443/7</f>
-        <v>5.2857142857142856</v>
+        <v>7.7142857142857144</v>
       </c>
       <c r="D438" s="10">
         <f t="shared" si="82"/>
-        <v>9618.5714285714239</v>
+        <v>9635.4285714285725</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -51197,11 +51629,11 @@
       </c>
       <c r="C439" s="8">
         <f>B443/7</f>
-        <v>5.2857142857142856</v>
+        <v>7.7142857142857144</v>
       </c>
       <c r="D439" s="10">
         <f t="shared" si="82"/>
-        <v>9623.8571428571377</v>
+        <v>9643.1428571428587</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -51211,11 +51643,11 @@
       </c>
       <c r="C440" s="8">
         <f>B443/7</f>
-        <v>5.2857142857142856</v>
+        <v>7.7142857142857144</v>
       </c>
       <c r="D440" s="10">
         <f t="shared" si="82"/>
-        <v>9629.1428571428514</v>
+        <v>9650.8571428571449</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -51225,11 +51657,11 @@
       </c>
       <c r="C441" s="8">
         <f>B443/7</f>
-        <v>5.2857142857142856</v>
+        <v>7.7142857142857144</v>
       </c>
       <c r="D441" s="10">
         <f t="shared" si="82"/>
-        <v>9634.4285714285652</v>
+        <v>9658.5714285714312</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -51239,11 +51671,11 @@
       </c>
       <c r="C442" s="8">
         <f>B443/7</f>
-        <v>5.2857142857142856</v>
+        <v>7.7142857142857144</v>
       </c>
       <c r="D442" s="10">
         <f t="shared" si="82"/>
-        <v>9639.714285714279</v>
+        <v>9666.2857142857174</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -51252,15 +51684,15 @@
         <v>44331</v>
       </c>
       <c r="B443">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C443" s="8">
         <f t="shared" ref="C443" si="84">B443/7</f>
-        <v>5.2857142857142856</v>
+        <v>7.7142857142857144</v>
       </c>
       <c r="D443" s="10">
         <f t="shared" si="82"/>
-        <v>9644.9999999999927</v>
+        <v>9674.0000000000036</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -51270,11 +51702,11 @@
       </c>
       <c r="C444" s="8">
         <f>B450/7</f>
-        <v>1.2857142857142858</v>
+        <v>3.4285714285714284</v>
       </c>
       <c r="D444" s="10">
         <f t="shared" ref="D444:D450" si="85">D443+C444</f>
-        <v>9646.2857142857065</v>
+        <v>9677.4285714285743</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -51284,11 +51716,11 @@
       </c>
       <c r="C445" s="8">
         <f>B450/7</f>
-        <v>1.2857142857142858</v>
+        <v>3.4285714285714284</v>
       </c>
       <c r="D445" s="10">
         <f t="shared" si="85"/>
-        <v>9647.5714285714203</v>
+        <v>9680.8571428571449</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -51298,11 +51730,11 @@
       </c>
       <c r="C446" s="8">
         <f>B450/7</f>
-        <v>1.2857142857142858</v>
+        <v>3.4285714285714284</v>
       </c>
       <c r="D446" s="10">
         <f t="shared" si="85"/>
-        <v>9648.857142857134</v>
+        <v>9684.2857142857156</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -51312,11 +51744,11 @@
       </c>
       <c r="C447" s="8">
         <f>B450/7</f>
-        <v>1.2857142857142858</v>
+        <v>3.4285714285714284</v>
       </c>
       <c r="D447" s="10">
         <f t="shared" si="85"/>
-        <v>9650.1428571428478</v>
+        <v>9687.7142857142862</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -51326,11 +51758,11 @@
       </c>
       <c r="C448" s="8">
         <f>B450/7</f>
-        <v>1.2857142857142858</v>
+        <v>3.4285714285714284</v>
       </c>
       <c r="D448" s="10">
         <f t="shared" si="85"/>
-        <v>9651.4285714285616</v>
+        <v>9691.1428571428569</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -51340,11 +51772,11 @@
       </c>
       <c r="C449" s="8">
         <f>B450/7</f>
-        <v>1.2857142857142858</v>
+        <v>3.4285714285714284</v>
       </c>
       <c r="D449" s="10">
         <f t="shared" si="85"/>
-        <v>9652.7142857142753</v>
+        <v>9694.5714285714275</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -51353,15 +51785,116 @@
         <v>44338</v>
       </c>
       <c r="B450">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C450" s="8">
         <f t="shared" ref="C450" si="86">B450/7</f>
-        <v>1.2857142857142858</v>
+        <v>3.4285714285714284</v>
       </c>
       <c r="D450" s="10">
         <f t="shared" si="85"/>
-        <v>9653.9999999999891</v>
+        <v>9697.9999999999982</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" s="3">
+        <f t="shared" si="73"/>
+        <v>44339</v>
+      </c>
+      <c r="C451" s="8">
+        <f>B457/7</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="D451" s="10">
+        <f t="shared" ref="D451:D457" si="87">D450+C451</f>
+        <v>9699.1428571428551</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" s="3">
+        <f t="shared" si="73"/>
+        <v>44340</v>
+      </c>
+      <c r="C452" s="8">
+        <f>B457/7</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="D452" s="10">
+        <f t="shared" si="87"/>
+        <v>9700.2857142857119</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" s="3">
+        <f t="shared" si="73"/>
+        <v>44341</v>
+      </c>
+      <c r="C453" s="8">
+        <f>B457/7</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="D453" s="10">
+        <f t="shared" si="87"/>
+        <v>9701.4285714285688</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" s="3">
+        <f t="shared" si="73"/>
+        <v>44342</v>
+      </c>
+      <c r="C454" s="8">
+        <f>B457/7</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="D454" s="10">
+        <f t="shared" si="87"/>
+        <v>9702.5714285714257</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" s="3">
+        <f t="shared" si="73"/>
+        <v>44343</v>
+      </c>
+      <c r="C455" s="8">
+        <f>B457/7</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="D455" s="10">
+        <f t="shared" si="87"/>
+        <v>9703.7142857142826</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" s="3">
+        <f t="shared" si="73"/>
+        <v>44344</v>
+      </c>
+      <c r="C456" s="8">
+        <f>B457/7</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="D456" s="10">
+        <f t="shared" si="87"/>
+        <v>9704.8571428571395</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" s="2">
+        <f>A450+7</f>
+        <v>44345</v>
+      </c>
+      <c r="B457">
+        <v>8</v>
+      </c>
+      <c r="C457" s="8">
+        <f t="shared" ref="C457" si="88">B457/7</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="D457" s="10">
+        <f t="shared" si="87"/>
+        <v>9705.9999999999964</v>
       </c>
     </row>
   </sheetData>
@@ -51371,11 +51904,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289241FA-DB67-DA49-A417-E4BD34D128D1}">
-  <dimension ref="A1:C442"/>
+  <dimension ref="A1:C449"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B316" sqref="B316"/>
+      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B290" sqref="B290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -56409,7 +56942,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
-        <f t="shared" ref="A388:A442" si="30">A387+1</f>
+        <f t="shared" ref="A388:A449" si="30">A387+1</f>
         <v>44277</v>
       </c>
       <c r="B388">
@@ -56468,7 +57001,7 @@
         <v>0</v>
       </c>
       <c r="C392">
-        <f t="shared" ref="C392:C442" si="31">C391+B392</f>
+        <f t="shared" ref="C392:C449" si="31">C391+B392</f>
         <v>1949</v>
       </c>
     </row>
@@ -56699,11 +57232,11 @@
         <v>44299</v>
       </c>
       <c r="B410">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C410">
         <f t="shared" si="31"/>
-        <v>1969</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -56716,7 +57249,7 @@
       </c>
       <c r="C411">
         <f t="shared" si="31"/>
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -56729,7 +57262,7 @@
       </c>
       <c r="C412">
         <f t="shared" si="31"/>
-        <v>1971</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -56742,7 +57275,7 @@
       </c>
       <c r="C413">
         <f t="shared" si="31"/>
-        <v>1972</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -56755,7 +57288,7 @@
       </c>
       <c r="C414">
         <f t="shared" si="31"/>
-        <v>1973</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -56768,7 +57301,7 @@
       </c>
       <c r="C415">
         <f t="shared" si="31"/>
-        <v>1974</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -56781,7 +57314,7 @@
       </c>
       <c r="C416">
         <f t="shared" si="31"/>
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -56794,7 +57327,7 @@
       </c>
       <c r="C417">
         <f t="shared" si="31"/>
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -56807,7 +57340,7 @@
       </c>
       <c r="C418">
         <f t="shared" si="31"/>
-        <v>1977</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -56816,11 +57349,11 @@
         <v>44308</v>
       </c>
       <c r="B419">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C419">
         <f t="shared" si="31"/>
-        <v>1979</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -56833,7 +57366,7 @@
       </c>
       <c r="C420">
         <f t="shared" si="31"/>
-        <v>1979</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -56846,7 +57379,7 @@
       </c>
       <c r="C421">
         <f t="shared" si="31"/>
-        <v>1979</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -56859,7 +57392,7 @@
       </c>
       <c r="C422">
         <f t="shared" si="31"/>
-        <v>1979</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -56872,7 +57405,7 @@
       </c>
       <c r="C423">
         <f t="shared" si="31"/>
-        <v>1979</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -56885,7 +57418,7 @@
       </c>
       <c r="C424">
         <f t="shared" si="31"/>
-        <v>1980</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -56894,11 +57427,11 @@
         <v>44314</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C425">
         <f t="shared" si="31"/>
-        <v>1982</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -56907,11 +57440,11 @@
         <v>44315</v>
       </c>
       <c r="B426">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C426">
         <f t="shared" si="31"/>
-        <v>1984</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -56924,7 +57457,7 @@
       </c>
       <c r="C427">
         <f t="shared" si="31"/>
-        <v>1985</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -56937,7 +57470,7 @@
       </c>
       <c r="C428">
         <f t="shared" si="31"/>
-        <v>1986</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -56946,11 +57479,11 @@
         <v>44318</v>
       </c>
       <c r="B429">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C429">
         <f t="shared" si="31"/>
-        <v>1988</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -56963,7 +57496,7 @@
       </c>
       <c r="C430">
         <f t="shared" si="31"/>
-        <v>1988</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -56976,7 +57509,7 @@
       </c>
       <c r="C431">
         <f t="shared" si="31"/>
-        <v>1990</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -56989,7 +57522,7 @@
       </c>
       <c r="C432">
         <f t="shared" si="31"/>
-        <v>1990</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -57002,7 +57535,7 @@
       </c>
       <c r="C433">
         <f t="shared" si="31"/>
-        <v>1991</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -57015,7 +57548,7 @@
       </c>
       <c r="C434">
         <f t="shared" si="31"/>
-        <v>1991</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -57028,7 +57561,7 @@
       </c>
       <c r="C435">
         <f t="shared" si="31"/>
-        <v>1993</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -57041,7 +57574,7 @@
       </c>
       <c r="C436">
         <f t="shared" si="31"/>
-        <v>1994</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -57054,7 +57587,7 @@
       </c>
       <c r="C437">
         <f t="shared" si="31"/>
-        <v>1995</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -57063,11 +57596,11 @@
         <v>44327</v>
       </c>
       <c r="B438">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C438">
         <f t="shared" si="31"/>
-        <v>1997</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -57080,7 +57613,7 @@
       </c>
       <c r="C439">
         <f t="shared" si="31"/>
-        <v>1997</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -57089,11 +57622,11 @@
         <v>44329</v>
       </c>
       <c r="B440">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C440">
         <f t="shared" si="31"/>
-        <v>1997</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -57106,7 +57639,7 @@
       </c>
       <c r="C441">
         <f t="shared" si="31"/>
-        <v>1998</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -57115,11 +57648,102 @@
         <v>44331</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C442">
         <f t="shared" si="31"/>
-        <v>1999</v>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="2">
+        <f t="shared" si="30"/>
+        <v>44332</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+      <c r="C443">
+        <f t="shared" si="31"/>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="2">
+        <f t="shared" si="30"/>
+        <v>44333</v>
+      </c>
+      <c r="B444">
+        <v>2</v>
+      </c>
+      <c r="C444">
+        <f t="shared" si="31"/>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="2">
+        <f t="shared" si="30"/>
+        <v>44334</v>
+      </c>
+      <c r="B445">
+        <v>1</v>
+      </c>
+      <c r="C445">
+        <f t="shared" si="31"/>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="2">
+        <f t="shared" si="30"/>
+        <v>44335</v>
+      </c>
+      <c r="B446">
+        <v>1</v>
+      </c>
+      <c r="C446">
+        <f t="shared" si="31"/>
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="2">
+        <f t="shared" si="30"/>
+        <v>44336</v>
+      </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
+      <c r="C447">
+        <f t="shared" si="31"/>
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="2">
+        <f t="shared" si="30"/>
+        <v>44337</v>
+      </c>
+      <c r="B448">
+        <v>0</v>
+      </c>
+      <c r="C448">
+        <f t="shared" si="31"/>
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="2">
+        <f t="shared" si="30"/>
+        <v>44338</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+      <c r="C449">
+        <f t="shared" si="31"/>
+        <v>2008</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/DateOfDeath.xlsx
+++ b/notebooks/DateOfDeath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\prusk\dev\covid\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBAE03A-9BEB-421D-A59A-E5F008B522F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0AAF3D-16FD-4679-9398-BDF01FFFEABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15540" yWindow="0" windowWidth="7500" windowHeight="14760" firstSheet="8" activeTab="8" xr2:uid="{20D733EF-6676-F449-AF32-307F4FADCE6E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="15000" firstSheet="1" activeTab="8" xr2:uid="{20D733EF-6676-F449-AF32-307F4FADCE6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Alabama" sheetId="5" r:id="rId1"/>
@@ -460,18 +460,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFCCFA7-674C-0646-984C-69D4C070282C}">
-  <dimension ref="A1:C506"/>
+  <dimension ref="A1:C508"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A405" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A413" sqref="A413"/>
+      <pane ySplit="1" topLeftCell="A485" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B399" sqref="B399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5858,11 +5858,11 @@
         <v>44244</v>
       </c>
       <c r="B415">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C415" s="4">
         <f t="shared" si="16"/>
-        <v>9058</v>
+        <v>9060</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -5875,7 +5875,7 @@
       </c>
       <c r="C416" s="4">
         <f t="shared" si="16"/>
-        <v>9082</v>
+        <v>9084</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="C417" s="4">
         <f t="shared" si="16"/>
-        <v>9113</v>
+        <v>9115</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -5901,7 +5901,7 @@
       </c>
       <c r="C418" s="4">
         <f t="shared" ref="C418:C422" si="17">C417+B418</f>
-        <v>9140</v>
+        <v>9142</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -5914,7 +5914,7 @@
       </c>
       <c r="C419" s="4">
         <f t="shared" si="17"/>
-        <v>9171</v>
+        <v>9173</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -5927,7 +5927,7 @@
       </c>
       <c r="C420" s="4">
         <f t="shared" si="17"/>
-        <v>9186</v>
+        <v>9188</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="C421" s="4">
         <f t="shared" si="17"/>
-        <v>9204</v>
+        <v>9206</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -5953,7 +5953,7 @@
       </c>
       <c r="C422" s="4">
         <f t="shared" si="17"/>
-        <v>9224</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="C423" s="4">
         <f t="shared" ref="C423:C426" si="18">C422+B423</f>
-        <v>9243</v>
+        <v>9245</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="C424" s="4">
         <f t="shared" si="18"/>
-        <v>9269</v>
+        <v>9271</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="C425" s="4">
         <f t="shared" si="18"/>
-        <v>9285</v>
+        <v>9287</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="C426" s="4">
         <f t="shared" si="18"/>
-        <v>9295</v>
+        <v>9297</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -6018,7 +6018,7 @@
       </c>
       <c r="C427" s="4">
         <f t="shared" ref="C427:C430" si="19">C426+B427</f>
-        <v>9310</v>
+        <v>9312</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="C428" s="4">
         <f t="shared" si="19"/>
-        <v>9321</v>
+        <v>9323</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="C429" s="4">
         <f t="shared" si="19"/>
-        <v>9330</v>
+        <v>9332</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -6057,7 +6057,7 @@
       </c>
       <c r="C430" s="4">
         <f t="shared" si="19"/>
-        <v>9343</v>
+        <v>9345</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -6070,7 +6070,7 @@
       </c>
       <c r="C431" s="4">
         <f t="shared" ref="C431:C483" si="20">C430+B431</f>
-        <v>9355</v>
+        <v>9357</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -6083,7 +6083,7 @@
       </c>
       <c r="C432" s="4">
         <f t="shared" si="20"/>
-        <v>9371</v>
+        <v>9373</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -6096,7 +6096,7 @@
       </c>
       <c r="C433" s="4">
         <f t="shared" si="20"/>
-        <v>9384</v>
+        <v>9386</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="C434" s="4">
         <f t="shared" si="20"/>
-        <v>9394</v>
+        <v>9396</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -6122,7 +6122,7 @@
       </c>
       <c r="C435" s="4">
         <f t="shared" si="20"/>
-        <v>9406</v>
+        <v>9408</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -6135,7 +6135,7 @@
       </c>
       <c r="C436" s="4">
         <f t="shared" si="20"/>
-        <v>9418</v>
+        <v>9420</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="C437" s="4">
         <f t="shared" si="20"/>
-        <v>9425</v>
+        <v>9427</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="C438" s="4">
         <f t="shared" si="20"/>
-        <v>9434</v>
+        <v>9436</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -6174,7 +6174,7 @@
       </c>
       <c r="C439" s="4">
         <f t="shared" si="20"/>
-        <v>9448</v>
+        <v>9450</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="C440" s="4">
         <f t="shared" si="20"/>
-        <v>9460</v>
+        <v>9462</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="C441" s="4">
         <f t="shared" si="20"/>
-        <v>9468</v>
+        <v>9470</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="C442" s="4">
         <f t="shared" si="20"/>
-        <v>9479</v>
+        <v>9481</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -6226,7 +6226,7 @@
       </c>
       <c r="C443" s="4">
         <f t="shared" si="20"/>
-        <v>9495</v>
+        <v>9497</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="C444" s="4">
         <f t="shared" si="20"/>
-        <v>9499</v>
+        <v>9501</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -6252,7 +6252,7 @@
       </c>
       <c r="C445" s="4">
         <f t="shared" si="20"/>
-        <v>9502</v>
+        <v>9504</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -6261,11 +6261,11 @@
         <v>44275</v>
       </c>
       <c r="B446">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C446" s="4">
         <f t="shared" si="20"/>
-        <v>9509</v>
+        <v>9512</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="C447" s="4">
         <f t="shared" si="20"/>
-        <v>9522</v>
+        <v>9525</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="C448" s="4">
         <f t="shared" si="20"/>
-        <v>9527</v>
+        <v>9530</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -6304,7 +6304,7 @@
       </c>
       <c r="C449" s="4">
         <f t="shared" si="20"/>
-        <v>9534</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="C450" s="4">
         <f t="shared" si="20"/>
-        <v>9539</v>
+        <v>9542</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="C451" s="4">
         <f t="shared" si="20"/>
-        <v>9555</v>
+        <v>9558</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -6343,12 +6343,12 @@
       </c>
       <c r="C452" s="4">
         <f t="shared" si="20"/>
-        <v>9561</v>
+        <v>9564</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="3">
-        <f t="shared" ref="A453:A506" si="21">A452+1</f>
+        <f t="shared" ref="A453:A508" si="21">A452+1</f>
         <v>44282</v>
       </c>
       <c r="B453">
@@ -6356,7 +6356,7 @@
       </c>
       <c r="C453" s="4">
         <f t="shared" si="20"/>
-        <v>9568</v>
+        <v>9571</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="C454" s="4">
         <f t="shared" si="20"/>
-        <v>9576</v>
+        <v>9579</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -6382,7 +6382,7 @@
       </c>
       <c r="C455" s="4">
         <f t="shared" si="20"/>
-        <v>9584</v>
+        <v>9587</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="C456" s="4">
         <f t="shared" si="20"/>
-        <v>9590</v>
+        <v>9593</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="C457" s="4">
         <f t="shared" si="20"/>
-        <v>9593</v>
+        <v>9596</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -6421,7 +6421,7 @@
       </c>
       <c r="C458" s="4">
         <f t="shared" si="20"/>
-        <v>9604</v>
+        <v>9607</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="C459" s="4">
         <f t="shared" si="20"/>
-        <v>9611</v>
+        <v>9614</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="C460" s="4">
         <f t="shared" si="20"/>
-        <v>9623</v>
+        <v>9626</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="C461" s="4">
         <f t="shared" si="20"/>
-        <v>9631</v>
+        <v>9634</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -6469,11 +6469,11 @@
         <v>44291</v>
       </c>
       <c r="B462">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C462" s="4">
         <f t="shared" si="20"/>
-        <v>9637</v>
+        <v>9641</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="C463" s="4">
         <f t="shared" si="20"/>
-        <v>9644</v>
+        <v>9648</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="C464" s="4">
         <f t="shared" si="20"/>
-        <v>9654</v>
+        <v>9658</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="C465" s="4">
         <f t="shared" si="20"/>
-        <v>9657</v>
+        <v>9661</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -6525,7 +6525,7 @@
       </c>
       <c r="C466" s="4">
         <f t="shared" si="20"/>
-        <v>9667</v>
+        <v>9671</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -6538,7 +6538,7 @@
       </c>
       <c r="C467" s="4">
         <f t="shared" si="20"/>
-        <v>9670</v>
+        <v>9674</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -6547,11 +6547,11 @@
         <v>44297</v>
       </c>
       <c r="B468">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C468" s="4">
         <f t="shared" si="20"/>
-        <v>9675</v>
+        <v>9680</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="C469" s="4">
         <f t="shared" si="20"/>
-        <v>9678</v>
+        <v>9683</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -6577,7 +6577,7 @@
       </c>
       <c r="C470" s="4">
         <f t="shared" si="20"/>
-        <v>9688</v>
+        <v>9693</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -6590,7 +6590,7 @@
       </c>
       <c r="C471" s="4">
         <f t="shared" si="20"/>
-        <v>9694</v>
+        <v>9699</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -6603,7 +6603,7 @@
       </c>
       <c r="C472" s="4">
         <f t="shared" si="20"/>
-        <v>9694</v>
+        <v>9699</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="C473" s="4">
         <f>C472+B473</f>
-        <v>9697</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="C474" s="4">
         <f>C473+B474</f>
-        <v>9700</v>
+        <v>9705</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -6642,7 +6642,7 @@
       </c>
       <c r="C475" s="4">
         <f>C474+B475</f>
-        <v>9704</v>
+        <v>9709</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -6655,7 +6655,7 @@
       </c>
       <c r="C476" s="4">
         <f>C475+B476</f>
-        <v>9706</v>
+        <v>9711</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -6664,11 +6664,11 @@
         <v>44306</v>
       </c>
       <c r="B477">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C477" s="4">
         <f>C476+B477</f>
-        <v>9710</v>
+        <v>9716</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="C478" s="4">
         <f t="shared" si="20"/>
-        <v>9716</v>
+        <v>9722</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -6694,7 +6694,7 @@
       </c>
       <c r="C479" s="4">
         <f t="shared" si="20"/>
-        <v>9719</v>
+        <v>9725</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -6707,7 +6707,7 @@
       </c>
       <c r="C480" s="4">
         <f t="shared" si="20"/>
-        <v>9725</v>
+        <v>9731</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -6720,7 +6720,7 @@
       </c>
       <c r="C481" s="4">
         <f t="shared" si="20"/>
-        <v>9736</v>
+        <v>9742</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="C482" s="4">
         <f t="shared" si="20"/>
-        <v>9742</v>
+        <v>9748</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -6746,7 +6746,7 @@
       </c>
       <c r="C483" s="4">
         <f t="shared" si="20"/>
-        <v>9745</v>
+        <v>9751</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -6758,8 +6758,8 @@
         <v>2</v>
       </c>
       <c r="C484" s="4">
-        <f t="shared" ref="C484:C506" si="22">C483+B484</f>
-        <v>9747</v>
+        <f t="shared" ref="C484:C508" si="22">C483+B484</f>
+        <v>9753</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -6772,7 +6772,7 @@
       </c>
       <c r="C485" s="4">
         <f t="shared" si="22"/>
-        <v>9749</v>
+        <v>9755</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -6781,11 +6781,11 @@
         <v>44315</v>
       </c>
       <c r="B486">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C486" s="4">
         <f t="shared" si="22"/>
-        <v>9753</v>
+        <v>9761</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -6798,7 +6798,7 @@
       </c>
       <c r="C487" s="4">
         <f t="shared" si="22"/>
-        <v>9757</v>
+        <v>9765</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -6811,7 +6811,7 @@
       </c>
       <c r="C488" s="4">
         <f t="shared" si="22"/>
-        <v>9760</v>
+        <v>9768</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="C489" s="4">
         <f t="shared" si="22"/>
-        <v>9763</v>
+        <v>9771</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="C490" s="4">
         <f t="shared" si="22"/>
-        <v>9767</v>
+        <v>9775</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -6850,7 +6850,7 @@
       </c>
       <c r="C491" s="4">
         <f t="shared" si="22"/>
-        <v>9775</v>
+        <v>9783</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -6859,11 +6859,11 @@
         <v>44321</v>
       </c>
       <c r="B492">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C492" s="4">
         <f t="shared" si="22"/>
-        <v>9780</v>
+        <v>9790</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="C493" s="4">
         <f t="shared" si="22"/>
-        <v>9787</v>
+        <v>9797</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -6885,11 +6885,11 @@
         <v>44323</v>
       </c>
       <c r="B494">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C494" s="4">
         <f t="shared" si="22"/>
-        <v>9798</v>
+        <v>9809</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="C495" s="4">
         <f t="shared" si="22"/>
-        <v>9804</v>
+        <v>9815</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -6911,11 +6911,11 @@
         <v>44325</v>
       </c>
       <c r="B496">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C496" s="4">
         <f t="shared" si="22"/>
-        <v>9810</v>
+        <v>9822</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -6924,11 +6924,11 @@
         <v>44326</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C497" s="4">
         <f t="shared" si="22"/>
-        <v>9811</v>
+        <v>9824</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -6937,11 +6937,11 @@
         <v>44327</v>
       </c>
       <c r="B498">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C498" s="4">
         <f t="shared" si="22"/>
-        <v>9815</v>
+        <v>9831</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -6954,7 +6954,7 @@
       </c>
       <c r="C499" s="4">
         <f t="shared" si="22"/>
-        <v>9819</v>
+        <v>9835</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="C500" s="4">
         <f t="shared" si="22"/>
-        <v>9822</v>
+        <v>9838</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -6976,11 +6976,11 @@
         <v>44330</v>
       </c>
       <c r="B501">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C501" s="4">
         <f t="shared" si="22"/>
-        <v>9827</v>
+        <v>9844</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -6989,11 +6989,11 @@
         <v>44331</v>
       </c>
       <c r="B502">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C502" s="4">
         <f t="shared" si="22"/>
-        <v>9828</v>
+        <v>9846</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -7002,11 +7002,11 @@
         <v>44332</v>
       </c>
       <c r="B503">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C503" s="4">
         <f t="shared" si="22"/>
-        <v>9830</v>
+        <v>9852</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -7015,11 +7015,11 @@
         <v>44333</v>
       </c>
       <c r="B504">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C504" s="4">
         <f t="shared" si="22"/>
-        <v>9831</v>
+        <v>9855</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -7028,11 +7028,11 @@
         <v>44334</v>
       </c>
       <c r="B505">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C505" s="4">
         <f t="shared" si="22"/>
-        <v>9835</v>
+        <v>9860</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -7041,11 +7041,37 @@
         <v>44335</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C506" s="4">
         <f t="shared" si="22"/>
-        <v>9836</v>
+        <v>9863</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="3">
+        <f t="shared" si="21"/>
+        <v>44336</v>
+      </c>
+      <c r="B507">
+        <v>4</v>
+      </c>
+      <c r="C507" s="4">
+        <f t="shared" si="22"/>
+        <v>9867</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="3">
+        <f t="shared" si="21"/>
+        <v>44337</v>
+      </c>
+      <c r="B508">
+        <v>1</v>
+      </c>
+      <c r="C508" s="4">
+        <f t="shared" si="22"/>
+        <v>9868</v>
       </c>
     </row>
   </sheetData>
@@ -7055,11 +7081,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C77E57-C0B4-9B4C-98EA-985C0D327C7F}">
-  <dimension ref="A1:C446"/>
+  <dimension ref="A1:C453"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C247" sqref="C247"/>
+      <pane ySplit="1" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B250" sqref="B250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10259,11 +10285,11 @@
         <v>44156</v>
       </c>
       <c r="B267">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C267" s="4">
         <f t="shared" si="4"/>
-        <v>6726</v>
+        <v>6727</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -10275,7 +10301,7 @@
       </c>
       <c r="C268" s="4">
         <f t="shared" si="4"/>
-        <v>6770</v>
+        <v>6771</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -10287,7 +10313,7 @@
       </c>
       <c r="C269" s="4">
         <f t="shared" si="4"/>
-        <v>6815</v>
+        <v>6816</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -10299,7 +10325,7 @@
       </c>
       <c r="C270" s="4">
         <f t="shared" si="4"/>
-        <v>6873</v>
+        <v>6874</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -10311,7 +10337,7 @@
       </c>
       <c r="C271" s="4">
         <f t="shared" si="4"/>
-        <v>6920</v>
+        <v>6921</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -10323,7 +10349,7 @@
       </c>
       <c r="C272" s="4">
         <f t="shared" si="4"/>
-        <v>6963</v>
+        <v>6964</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -10335,7 +10361,7 @@
       </c>
       <c r="C273" s="4">
         <f t="shared" si="4"/>
-        <v>7006</v>
+        <v>7007</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -10347,7 +10373,7 @@
       </c>
       <c r="C274" s="4">
         <f t="shared" si="4"/>
-        <v>7056</v>
+        <v>7057</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -10359,7 +10385,7 @@
       </c>
       <c r="C275" s="4">
         <f t="shared" si="4"/>
-        <v>7116</v>
+        <v>7117</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -10371,7 +10397,7 @@
       </c>
       <c r="C276" s="4">
         <f t="shared" si="4"/>
-        <v>7168</v>
+        <v>7169</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -10383,7 +10409,7 @@
       </c>
       <c r="C277" s="4">
         <f t="shared" si="4"/>
-        <v>7230</v>
+        <v>7231</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -10395,7 +10421,7 @@
       </c>
       <c r="C278" s="4">
         <f t="shared" si="4"/>
-        <v>7286</v>
+        <v>7287</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -10407,7 +10433,7 @@
       </c>
       <c r="C279" s="4">
         <f t="shared" si="4"/>
-        <v>7347</v>
+        <v>7348</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -10419,7 +10445,7 @@
       </c>
       <c r="C280" s="4">
         <f t="shared" si="4"/>
-        <v>7421</v>
+        <v>7422</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -10427,11 +10453,11 @@
         <v>44170</v>
       </c>
       <c r="B281">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C281" s="4">
         <f t="shared" si="4"/>
-        <v>7512</v>
+        <v>7514</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -10443,7 +10469,7 @@
       </c>
       <c r="C282" s="4">
         <f t="shared" si="4"/>
-        <v>7582</v>
+        <v>7584</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -10455,7 +10481,7 @@
       </c>
       <c r="C283" s="4">
         <f t="shared" si="4"/>
-        <v>7672</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -10467,7 +10493,7 @@
       </c>
       <c r="C284" s="4">
         <f t="shared" si="4"/>
-        <v>7754</v>
+        <v>7756</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -10479,7 +10505,7 @@
       </c>
       <c r="C285" s="4">
         <f t="shared" si="4"/>
-        <v>7852</v>
+        <v>7854</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -10491,7 +10517,7 @@
       </c>
       <c r="C286" s="4">
         <f t="shared" si="4"/>
-        <v>7965</v>
+        <v>7967</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -10499,11 +10525,11 @@
         <v>44176</v>
       </c>
       <c r="B287">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C287" s="4">
         <f t="shared" si="4"/>
-        <v>8057</v>
+        <v>8060</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -10515,7 +10541,7 @@
       </c>
       <c r="C288" s="4">
         <f t="shared" si="4"/>
-        <v>8141</v>
+        <v>8144</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -10527,7 +10553,7 @@
       </c>
       <c r="C289" s="4">
         <f t="shared" si="4"/>
-        <v>8221</v>
+        <v>8224</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -10539,7 +10565,7 @@
       </c>
       <c r="C290" s="4">
         <f t="shared" si="4"/>
-        <v>8337</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -10547,11 +10573,11 @@
         <v>44180</v>
       </c>
       <c r="B291">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C291" s="4">
         <f t="shared" si="4"/>
-        <v>8432</v>
+        <v>8434</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -10563,7 +10589,7 @@
       </c>
       <c r="C292" s="4">
         <f t="shared" si="4"/>
-        <v>8530</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -10575,7 +10601,7 @@
       </c>
       <c r="C293" s="4">
         <f t="shared" si="4"/>
-        <v>8667</v>
+        <v>8669</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -10587,7 +10613,7 @@
       </c>
       <c r="C294" s="4">
         <f t="shared" si="4"/>
-        <v>8797</v>
+        <v>8799</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -10599,7 +10625,7 @@
       </c>
       <c r="C295" s="4">
         <f t="shared" si="4"/>
-        <v>8923</v>
+        <v>8925</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -10611,7 +10637,7 @@
       </c>
       <c r="C296" s="4">
         <f t="shared" si="4"/>
-        <v>9045</v>
+        <v>9047</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -10623,7 +10649,7 @@
       </c>
       <c r="C297" s="4">
         <f t="shared" si="4"/>
-        <v>9169</v>
+        <v>9171</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -10635,7 +10661,7 @@
       </c>
       <c r="C298" s="4">
         <f t="shared" si="4"/>
-        <v>9300</v>
+        <v>9302</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -10647,7 +10673,7 @@
       </c>
       <c r="C299" s="4">
         <f t="shared" si="4"/>
-        <v>9419</v>
+        <v>9421</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -10659,7 +10685,7 @@
       </c>
       <c r="C300" s="4">
         <f t="shared" si="4"/>
-        <v>9534</v>
+        <v>9536</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -10671,7 +10697,7 @@
       </c>
       <c r="C301" s="4">
         <f t="shared" si="4"/>
-        <v>9643</v>
+        <v>9645</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -10683,7 +10709,7 @@
       </c>
       <c r="C302" s="4">
         <f t="shared" si="4"/>
-        <v>9760</v>
+        <v>9762</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -10695,7 +10721,7 @@
       </c>
       <c r="C303" s="4">
         <f t="shared" si="4"/>
-        <v>9889</v>
+        <v>9891</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -10707,7 +10733,7 @@
       </c>
       <c r="C304" s="4">
         <f t="shared" si="4"/>
-        <v>10020</v>
+        <v>10022</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -10719,7 +10745,7 @@
       </c>
       <c r="C305" s="4">
         <f t="shared" si="4"/>
-        <v>10141</v>
+        <v>10143</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -10731,7 +10757,7 @@
       </c>
       <c r="C306" s="4">
         <f t="shared" si="4"/>
-        <v>10267</v>
+        <v>10269</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -10743,7 +10769,7 @@
       </c>
       <c r="C307" s="4">
         <f t="shared" si="4"/>
-        <v>10413</v>
+        <v>10415</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -10755,7 +10781,7 @@
       </c>
       <c r="C308" s="4">
         <f t="shared" si="4"/>
-        <v>10544</v>
+        <v>10546</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -10767,7 +10793,7 @@
       </c>
       <c r="C309" s="4">
         <f t="shared" si="4"/>
-        <v>10681</v>
+        <v>10683</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -10779,7 +10805,7 @@
       </c>
       <c r="C310" s="4">
         <f t="shared" si="4"/>
-        <v>10825</v>
+        <v>10827</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -10791,7 +10817,7 @@
       </c>
       <c r="C311" s="4">
         <f t="shared" si="4"/>
-        <v>10965</v>
+        <v>10967</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -10803,7 +10829,7 @@
       </c>
       <c r="C312" s="4">
         <f t="shared" si="4"/>
-        <v>11125</v>
+        <v>11127</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -10815,7 +10841,7 @@
       </c>
       <c r="C313" s="4">
         <f t="shared" si="4"/>
-        <v>11255</v>
+        <v>11257</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -10827,7 +10853,7 @@
       </c>
       <c r="C314" s="4">
         <f t="shared" si="4"/>
-        <v>11399</v>
+        <v>11401</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -10839,7 +10865,7 @@
       </c>
       <c r="C315" s="4">
         <f t="shared" si="4"/>
-        <v>11546</v>
+        <v>11548</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -10851,7 +10877,7 @@
       </c>
       <c r="C316" s="4">
         <f t="shared" si="4"/>
-        <v>11705</v>
+        <v>11707</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -10859,11 +10885,11 @@
         <v>44206</v>
       </c>
       <c r="B317">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C317" s="4">
         <f t="shared" si="4"/>
-        <v>11858</v>
+        <v>11859</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -10875,7 +10901,7 @@
       </c>
       <c r="C318" s="4">
         <f t="shared" si="4"/>
-        <v>12011</v>
+        <v>12012</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -10883,11 +10909,11 @@
         <v>44208</v>
       </c>
       <c r="B319">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C319" s="4">
         <f t="shared" si="4"/>
-        <v>12155</v>
+        <v>12157</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -10895,11 +10921,11 @@
         <v>44209</v>
       </c>
       <c r="B320">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C320" s="4">
         <f t="shared" si="4"/>
-        <v>12327</v>
+        <v>12328</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -10911,7 +10937,7 @@
       </c>
       <c r="C321" s="4">
         <f t="shared" si="4"/>
-        <v>12485</v>
+        <v>12486</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -10923,7 +10949,7 @@
       </c>
       <c r="C322" s="4">
         <f t="shared" si="4"/>
-        <v>12637</v>
+        <v>12638</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -10935,7 +10961,7 @@
       </c>
       <c r="C323" s="4">
         <f t="shared" si="4"/>
-        <v>12773</v>
+        <v>12774</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -10947,7 +10973,7 @@
       </c>
       <c r="C324" s="4">
         <f t="shared" ref="C324:C341" si="5">C323+B324</f>
-        <v>12931</v>
+        <v>12932</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -10959,7 +10985,7 @@
       </c>
       <c r="C325" s="4">
         <f t="shared" si="5"/>
-        <v>13108</v>
+        <v>13109</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -10971,7 +10997,7 @@
       </c>
       <c r="C326" s="4">
         <f t="shared" si="5"/>
-        <v>13252</v>
+        <v>13253</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -10983,7 +11009,7 @@
       </c>
       <c r="C327" s="4">
         <f t="shared" si="5"/>
-        <v>13396</v>
+        <v>13397</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -10991,11 +11017,11 @@
         <v>44217</v>
       </c>
       <c r="B328">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C328" s="4">
         <f t="shared" si="5"/>
-        <v>13530</v>
+        <v>13532</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -11007,7 +11033,7 @@
       </c>
       <c r="C329" s="4">
         <f t="shared" si="5"/>
-        <v>13662</v>
+        <v>13664</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -11020,7 +11046,7 @@
       </c>
       <c r="C330" s="4">
         <f t="shared" si="5"/>
-        <v>13806</v>
+        <v>13808</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -11033,7 +11059,7 @@
       </c>
       <c r="C331" s="4">
         <f t="shared" si="5"/>
-        <v>13935</v>
+        <v>13937</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -11046,7 +11072,7 @@
       </c>
       <c r="C332" s="4">
         <f t="shared" si="5"/>
-        <v>14048</v>
+        <v>14050</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -11059,7 +11085,7 @@
       </c>
       <c r="C333" s="4">
         <f t="shared" si="5"/>
-        <v>14182</v>
+        <v>14184</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -11072,7 +11098,7 @@
       </c>
       <c r="C334" s="4">
         <f t="shared" si="5"/>
-        <v>14307</v>
+        <v>14309</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -11085,7 +11111,7 @@
       </c>
       <c r="C335" s="4">
         <f t="shared" si="5"/>
-        <v>14427</v>
+        <v>14429</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -11098,7 +11124,7 @@
       </c>
       <c r="C336" s="4">
         <f t="shared" si="5"/>
-        <v>14530</v>
+        <v>14532</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -11111,7 +11137,7 @@
       </c>
       <c r="C337" s="4">
         <f t="shared" si="5"/>
-        <v>14657</v>
+        <v>14659</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -11120,11 +11146,11 @@
         <v>44227</v>
       </c>
       <c r="B338">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C338" s="4">
         <f t="shared" si="5"/>
-        <v>14767</v>
+        <v>14770</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -11137,7 +11163,7 @@
       </c>
       <c r="C339" s="4">
         <f t="shared" si="5"/>
-        <v>14868</v>
+        <v>14871</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -11150,7 +11176,7 @@
       </c>
       <c r="C340" s="4">
         <f t="shared" si="5"/>
-        <v>14985</v>
+        <v>14988</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -11163,7 +11189,7 @@
       </c>
       <c r="C341" s="4">
         <f t="shared" si="5"/>
-        <v>15103</v>
+        <v>15106</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -11176,7 +11202,7 @@
       </c>
       <c r="C342" s="4">
         <f t="shared" ref="C342" si="7">C341+B342</f>
-        <v>15199</v>
+        <v>15202</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -11189,7 +11215,7 @@
       </c>
       <c r="C343" s="4">
         <f t="shared" ref="C343:C345" si="8">C342+B343</f>
-        <v>15282</v>
+        <v>15285</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -11202,7 +11228,7 @@
       </c>
       <c r="C344" s="4">
         <f t="shared" si="8"/>
-        <v>15373</v>
+        <v>15376</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -11215,7 +11241,7 @@
       </c>
       <c r="C345" s="4">
         <f t="shared" si="8"/>
-        <v>15472</v>
+        <v>15475</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -11224,11 +11250,11 @@
         <v>44235</v>
       </c>
       <c r="B346">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C346" s="4">
         <f t="shared" ref="C346:C352" si="9">C345+B346</f>
-        <v>15555</v>
+        <v>15559</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -11241,7 +11267,7 @@
       </c>
       <c r="C347" s="4">
         <f t="shared" si="9"/>
-        <v>15646</v>
+        <v>15650</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -11250,11 +11276,11 @@
         <v>44237</v>
       </c>
       <c r="B348">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C348" s="4">
         <f t="shared" si="9"/>
-        <v>15722</v>
+        <v>15727</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -11263,11 +11289,11 @@
         <v>44238</v>
       </c>
       <c r="B349">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C349" s="4">
         <f t="shared" si="9"/>
-        <v>15792</v>
+        <v>15798</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -11280,7 +11306,7 @@
       </c>
       <c r="C350" s="4">
         <f t="shared" si="9"/>
-        <v>15866</v>
+        <v>15872</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -11293,7 +11319,7 @@
       </c>
       <c r="C351" s="4">
         <f t="shared" si="9"/>
-        <v>15929</v>
+        <v>15935</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -11302,11 +11328,11 @@
         <v>44241</v>
       </c>
       <c r="B352">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C352" s="4">
         <f t="shared" si="9"/>
-        <v>15995</v>
+        <v>16002</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -11319,7 +11345,7 @@
       </c>
       <c r="C353" s="4">
         <f t="shared" ref="C353:C354" si="10">C352+B353</f>
-        <v>16056</v>
+        <v>16063</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -11328,11 +11354,11 @@
         <v>44243</v>
       </c>
       <c r="B354">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C354" s="4">
         <f t="shared" si="10"/>
-        <v>16109</v>
+        <v>16118</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -11345,7 +11371,7 @@
       </c>
       <c r="C355" s="4">
         <f t="shared" ref="C355:C357" si="11">C354+B355</f>
-        <v>16152</v>
+        <v>16161</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -11354,11 +11380,11 @@
         <v>44245</v>
       </c>
       <c r="B356">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C356" s="4">
         <f t="shared" si="11"/>
-        <v>16204</v>
+        <v>16214</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -11367,11 +11393,11 @@
         <v>44246</v>
       </c>
       <c r="B357">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C357" s="4">
         <f t="shared" si="11"/>
-        <v>16255</v>
+        <v>16267</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -11380,11 +11406,11 @@
         <v>44247</v>
       </c>
       <c r="B358">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C358" s="4">
         <f t="shared" ref="C358:C362" si="12">C357+B358</f>
-        <v>16293</v>
+        <v>16307</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -11397,7 +11423,7 @@
       </c>
       <c r="C359" s="4">
         <f t="shared" si="12"/>
-        <v>16335</v>
+        <v>16349</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -11410,7 +11436,7 @@
       </c>
       <c r="C360" s="4">
         <f t="shared" si="12"/>
-        <v>16368</v>
+        <v>16382</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -11423,7 +11449,7 @@
       </c>
       <c r="C361" s="4">
         <f t="shared" si="12"/>
-        <v>16400</v>
+        <v>16414</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -11436,7 +11462,7 @@
       </c>
       <c r="C362" s="4">
         <f t="shared" si="12"/>
-        <v>16438</v>
+        <v>16452</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -11449,7 +11475,7 @@
       </c>
       <c r="C363" s="4">
         <f t="shared" ref="C363" si="13">C362+B363</f>
-        <v>16472</v>
+        <v>16486</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -11462,7 +11488,7 @@
       </c>
       <c r="C364" s="4">
         <f t="shared" ref="C364:C369" si="14">C363+B364</f>
-        <v>16510</v>
+        <v>16524</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -11475,7 +11501,7 @@
       </c>
       <c r="C365" s="4">
         <f t="shared" si="14"/>
-        <v>16543</v>
+        <v>16557</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -11488,7 +11514,7 @@
       </c>
       <c r="C366" s="4">
         <f t="shared" si="14"/>
-        <v>16569</v>
+        <v>16583</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -11497,11 +11523,11 @@
         <v>44256</v>
       </c>
       <c r="B367">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C367" s="4">
         <f t="shared" si="14"/>
-        <v>16599</v>
+        <v>16614</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -11510,11 +11536,11 @@
         <v>44257</v>
       </c>
       <c r="B368">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C368" s="4">
         <f t="shared" si="14"/>
-        <v>16627</v>
+        <v>16643</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -11527,7 +11553,7 @@
       </c>
       <c r="C369" s="4">
         <f t="shared" si="14"/>
-        <v>16659</v>
+        <v>16675</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -11536,11 +11562,11 @@
         <v>44259</v>
       </c>
       <c r="B370">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C370" s="4">
         <f t="shared" ref="C370:C376" si="15">C369+B370</f>
-        <v>16690</v>
+        <v>16707</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -11553,7 +11579,7 @@
       </c>
       <c r="C371" s="4">
         <f t="shared" si="15"/>
-        <v>16716</v>
+        <v>16733</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -11566,7 +11592,7 @@
       </c>
       <c r="C372" s="4">
         <f t="shared" si="15"/>
-        <v>16742</v>
+        <v>16759</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -11579,7 +11605,7 @@
       </c>
       <c r="C373" s="4">
         <f t="shared" si="15"/>
-        <v>16768</v>
+        <v>16785</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -11592,7 +11618,7 @@
       </c>
       <c r="C374" s="4">
         <f t="shared" si="15"/>
-        <v>16786</v>
+        <v>16803</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -11601,11 +11627,11 @@
         <v>44264</v>
       </c>
       <c r="B375">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C375" s="4">
         <f t="shared" si="15"/>
-        <v>16810</v>
+        <v>16828</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -11618,7 +11644,7 @@
       </c>
       <c r="C376" s="4">
         <f t="shared" si="15"/>
-        <v>16829</v>
+        <v>16847</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -11631,7 +11657,7 @@
       </c>
       <c r="C377" s="4">
         <f t="shared" ref="C377:C439" si="16">C376+B377</f>
-        <v>16847</v>
+        <v>16865</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -11644,7 +11670,7 @@
       </c>
       <c r="C378" s="4">
         <f t="shared" si="16"/>
-        <v>16868</v>
+        <v>16886</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -11657,7 +11683,7 @@
       </c>
       <c r="C379" s="4">
         <f t="shared" si="16"/>
-        <v>16888</v>
+        <v>16906</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -11670,7 +11696,7 @@
       </c>
       <c r="C380" s="4">
         <f t="shared" si="16"/>
-        <v>16908</v>
+        <v>16926</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -11683,7 +11709,7 @@
       </c>
       <c r="C381" s="4">
         <f t="shared" si="16"/>
-        <v>16926</v>
+        <v>16944</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -11696,7 +11722,7 @@
       </c>
       <c r="C382" s="4">
         <f t="shared" si="16"/>
-        <v>16948</v>
+        <v>16966</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -11709,7 +11735,7 @@
       </c>
       <c r="C383" s="4">
         <f t="shared" si="16"/>
-        <v>16966</v>
+        <v>16984</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -11722,7 +11748,7 @@
       </c>
       <c r="C384" s="4">
         <f t="shared" si="16"/>
-        <v>16988</v>
+        <v>17006</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -11735,7 +11761,7 @@
       </c>
       <c r="C385" s="4">
         <f t="shared" si="16"/>
-        <v>17004</v>
+        <v>17022</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -11748,7 +11774,7 @@
       </c>
       <c r="C386" s="4">
         <f t="shared" si="16"/>
-        <v>17022</v>
+        <v>17040</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -11761,7 +11787,7 @@
       </c>
       <c r="C387" s="4">
         <f t="shared" si="16"/>
-        <v>17033</v>
+        <v>17051</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -11774,7 +11800,7 @@
       </c>
       <c r="C388" s="4">
         <f t="shared" si="16"/>
-        <v>17043</v>
+        <v>17061</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -11787,7 +11813,7 @@
       </c>
       <c r="C389" s="4">
         <f t="shared" si="16"/>
-        <v>17053</v>
+        <v>17071</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -11800,7 +11826,7 @@
       </c>
       <c r="C390" s="4">
         <f t="shared" si="16"/>
-        <v>17059</v>
+        <v>17077</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -11813,7 +11839,7 @@
       </c>
       <c r="C391" s="4">
         <f t="shared" si="16"/>
-        <v>17072</v>
+        <v>17090</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -11826,7 +11852,7 @@
       </c>
       <c r="C392" s="4">
         <f t="shared" si="16"/>
-        <v>17083</v>
+        <v>17101</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -11839,7 +11865,7 @@
       </c>
       <c r="C393" s="4">
         <f t="shared" si="16"/>
-        <v>17095</v>
+        <v>17113</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -11852,7 +11878,7 @@
       </c>
       <c r="C394" s="4">
         <f t="shared" si="16"/>
-        <v>17104</v>
+        <v>17122</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -11865,12 +11891,12 @@
       </c>
       <c r="C395" s="4">
         <f t="shared" si="16"/>
-        <v>17116</v>
+        <v>17134</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
-        <f t="shared" ref="A396:A446" si="17">A395+1</f>
+        <f t="shared" ref="A396:A453" si="17">A395+1</f>
         <v>44285</v>
       </c>
       <c r="B396">
@@ -11878,7 +11904,7 @@
       </c>
       <c r="C396" s="4">
         <f t="shared" si="16"/>
-        <v>17124</v>
+        <v>17142</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -11891,7 +11917,7 @@
       </c>
       <c r="C397" s="4">
         <f t="shared" si="16"/>
-        <v>17131</v>
+        <v>17149</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -11904,7 +11930,7 @@
       </c>
       <c r="C398" s="4">
         <f t="shared" si="16"/>
-        <v>17138</v>
+        <v>17156</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -11917,7 +11943,7 @@
       </c>
       <c r="C399" s="4">
         <f t="shared" si="16"/>
-        <v>17149</v>
+        <v>17167</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -11930,7 +11956,7 @@
       </c>
       <c r="C400" s="4">
         <f t="shared" si="16"/>
-        <v>17156</v>
+        <v>17174</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -11939,11 +11965,11 @@
         <v>44290</v>
       </c>
       <c r="B401">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C401" s="4">
         <f t="shared" si="16"/>
-        <v>17164</v>
+        <v>17183</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -11956,7 +11982,7 @@
       </c>
       <c r="C402" s="4">
         <f t="shared" si="16"/>
-        <v>17171</v>
+        <v>17190</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -11969,7 +11995,7 @@
       </c>
       <c r="C403" s="4">
         <f t="shared" si="16"/>
-        <v>17184</v>
+        <v>17203</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -11982,7 +12008,7 @@
       </c>
       <c r="C404" s="4">
         <f t="shared" si="16"/>
-        <v>17190</v>
+        <v>17209</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -11995,7 +12021,7 @@
       </c>
       <c r="C405" s="4">
         <f t="shared" si="16"/>
-        <v>17205</v>
+        <v>17224</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -12008,7 +12034,7 @@
       </c>
       <c r="C406" s="4">
         <f t="shared" si="16"/>
-        <v>17218</v>
+        <v>17237</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -12021,7 +12047,7 @@
       </c>
       <c r="C407" s="4">
         <f t="shared" si="16"/>
-        <v>17233</v>
+        <v>17252</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -12034,7 +12060,7 @@
       </c>
       <c r="C408" s="4">
         <f t="shared" si="16"/>
-        <v>17242</v>
+        <v>17261</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -12047,7 +12073,7 @@
       </c>
       <c r="C409" s="4">
         <f t="shared" si="16"/>
-        <v>17254</v>
+        <v>17273</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -12060,7 +12086,7 @@
       </c>
       <c r="C410" s="4">
         <f t="shared" si="16"/>
-        <v>17269</v>
+        <v>17288</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -12073,7 +12099,7 @@
       </c>
       <c r="C411" s="4">
         <f t="shared" si="16"/>
-        <v>17278</v>
+        <v>17297</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -12086,7 +12112,7 @@
       </c>
       <c r="C412" s="4">
         <f t="shared" si="16"/>
-        <v>17284</v>
+        <v>17303</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -12099,7 +12125,7 @@
       </c>
       <c r="C413" s="4">
         <f t="shared" si="16"/>
-        <v>17291</v>
+        <v>17310</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -12108,11 +12134,11 @@
         <v>44303</v>
       </c>
       <c r="B414">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C414" s="4">
         <f t="shared" si="16"/>
-        <v>17304</v>
+        <v>17324</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -12125,7 +12151,7 @@
       </c>
       <c r="C415" s="4">
         <f t="shared" si="16"/>
-        <v>17308</v>
+        <v>17328</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -12138,7 +12164,7 @@
       </c>
       <c r="C416" s="4">
         <f t="shared" si="16"/>
-        <v>17320</v>
+        <v>17340</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -12151,7 +12177,7 @@
       </c>
       <c r="C417" s="4">
         <f t="shared" si="16"/>
-        <v>17326</v>
+        <v>17346</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -12164,7 +12190,7 @@
       </c>
       <c r="C418" s="4">
         <f t="shared" si="16"/>
-        <v>17331</v>
+        <v>17351</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -12177,7 +12203,7 @@
       </c>
       <c r="C419" s="4">
         <f t="shared" si="16"/>
-        <v>17339</v>
+        <v>17359</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -12190,7 +12216,7 @@
       </c>
       <c r="C420" s="4">
         <f t="shared" si="16"/>
-        <v>17349</v>
+        <v>17369</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -12203,7 +12229,7 @@
       </c>
       <c r="C421" s="4">
         <f t="shared" si="16"/>
-        <v>17351</v>
+        <v>17371</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -12212,11 +12238,11 @@
         <v>44311</v>
       </c>
       <c r="B422">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C422" s="4">
         <f t="shared" si="16"/>
-        <v>17361</v>
+        <v>17382</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -12225,11 +12251,11 @@
         <v>44312</v>
       </c>
       <c r="B423">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C423" s="4">
         <f t="shared" si="16"/>
-        <v>17367</v>
+        <v>17389</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -12242,7 +12268,7 @@
       </c>
       <c r="C424" s="4">
         <f t="shared" si="16"/>
-        <v>17377</v>
+        <v>17399</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -12251,11 +12277,11 @@
         <v>44314</v>
       </c>
       <c r="B425">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C425" s="4">
         <f t="shared" si="16"/>
-        <v>17385</v>
+        <v>17408</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -12268,7 +12294,7 @@
       </c>
       <c r="C426" s="4">
         <f t="shared" si="16"/>
-        <v>17391</v>
+        <v>17414</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -12281,7 +12307,7 @@
       </c>
       <c r="C427" s="4">
         <f t="shared" si="16"/>
-        <v>17396</v>
+        <v>17419</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -12290,11 +12316,11 @@
         <v>44317</v>
       </c>
       <c r="B428">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C428" s="4">
         <f t="shared" si="16"/>
-        <v>17401</v>
+        <v>17425</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -12307,7 +12333,7 @@
       </c>
       <c r="C429" s="4">
         <f t="shared" si="16"/>
-        <v>17411</v>
+        <v>17435</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -12316,11 +12342,11 @@
         <v>44319</v>
       </c>
       <c r="B430">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C430" s="4">
         <f t="shared" si="16"/>
-        <v>17423</v>
+        <v>17448</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -12329,11 +12355,11 @@
         <v>44320</v>
       </c>
       <c r="B431">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C431" s="4">
         <f t="shared" si="16"/>
-        <v>17428</v>
+        <v>17456</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -12346,7 +12372,7 @@
       </c>
       <c r="C432" s="4">
         <f t="shared" si="16"/>
-        <v>17434</v>
+        <v>17462</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -12355,11 +12381,11 @@
         <v>44322</v>
       </c>
       <c r="B433">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C433" s="4">
         <f t="shared" si="16"/>
-        <v>17443</v>
+        <v>17472</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -12372,7 +12398,7 @@
       </c>
       <c r="C434" s="4">
         <f t="shared" si="16"/>
-        <v>17450</v>
+        <v>17479</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -12381,11 +12407,11 @@
         <v>44324</v>
       </c>
       <c r="B435">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C435" s="4">
         <f t="shared" si="16"/>
-        <v>17460</v>
+        <v>17491</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -12398,7 +12424,7 @@
       </c>
       <c r="C436" s="4">
         <f t="shared" si="16"/>
-        <v>17466</v>
+        <v>17497</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -12406,9 +12432,12 @@
         <f t="shared" si="17"/>
         <v>44326</v>
       </c>
+      <c r="B437">
+        <v>8</v>
+      </c>
       <c r="C437" s="4">
         <f t="shared" si="16"/>
-        <v>17466</v>
+        <v>17505</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -12416,9 +12445,12 @@
         <f t="shared" si="17"/>
         <v>44327</v>
       </c>
+      <c r="B438">
+        <v>9</v>
+      </c>
       <c r="C438" s="4">
         <f t="shared" si="16"/>
-        <v>17466</v>
+        <v>17514</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -12426,9 +12458,12 @@
         <f t="shared" si="17"/>
         <v>44328</v>
       </c>
+      <c r="B439">
+        <v>10</v>
+      </c>
       <c r="C439" s="4">
         <f t="shared" si="16"/>
-        <v>17466</v>
+        <v>17524</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -12436,9 +12471,12 @@
         <f t="shared" si="17"/>
         <v>44329</v>
       </c>
+      <c r="B440">
+        <v>8</v>
+      </c>
       <c r="C440" s="4">
-        <f t="shared" ref="C440:C446" si="18">C439+B440</f>
-        <v>17466</v>
+        <f t="shared" ref="C440:C453" si="18">C439+B440</f>
+        <v>17532</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -12446,9 +12484,12 @@
         <f t="shared" si="17"/>
         <v>44330</v>
       </c>
+      <c r="B441">
+        <v>6</v>
+      </c>
       <c r="C441" s="4">
         <f t="shared" si="18"/>
-        <v>17466</v>
+        <v>17538</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -12456,9 +12497,12 @@
         <f t="shared" si="17"/>
         <v>44331</v>
       </c>
+      <c r="B442">
+        <v>6</v>
+      </c>
       <c r="C442" s="4">
         <f t="shared" si="18"/>
-        <v>17466</v>
+        <v>17544</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -12466,9 +12510,12 @@
         <f t="shared" si="17"/>
         <v>44332</v>
       </c>
+      <c r="B443">
+        <v>13</v>
+      </c>
       <c r="C443" s="4">
         <f t="shared" si="18"/>
-        <v>17466</v>
+        <v>17557</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -12478,7 +12525,7 @@
       </c>
       <c r="C444" s="4">
         <f t="shared" si="18"/>
-        <v>17466</v>
+        <v>17557</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -12488,7 +12535,7 @@
       </c>
       <c r="C445" s="4">
         <f t="shared" si="18"/>
-        <v>17466</v>
+        <v>17557</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -12498,7 +12545,77 @@
       </c>
       <c r="C446" s="4">
         <f t="shared" si="18"/>
-        <v>17466</v>
+        <v>17557</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="2">
+        <f t="shared" si="17"/>
+        <v>44336</v>
+      </c>
+      <c r="C447" s="4">
+        <f t="shared" si="18"/>
+        <v>17557</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="2">
+        <f t="shared" si="17"/>
+        <v>44337</v>
+      </c>
+      <c r="C448" s="4">
+        <f t="shared" si="18"/>
+        <v>17557</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="2">
+        <f t="shared" si="17"/>
+        <v>44338</v>
+      </c>
+      <c r="C449" s="4">
+        <f t="shared" si="18"/>
+        <v>17557</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="2">
+        <f t="shared" si="17"/>
+        <v>44339</v>
+      </c>
+      <c r="C450" s="4">
+        <f t="shared" si="18"/>
+        <v>17557</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="2">
+        <f t="shared" si="17"/>
+        <v>44340</v>
+      </c>
+      <c r="C451" s="4">
+        <f t="shared" si="18"/>
+        <v>17557</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="2">
+        <f t="shared" si="17"/>
+        <v>44341</v>
+      </c>
+      <c r="C452" s="4">
+        <f t="shared" si="18"/>
+        <v>17557</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="2">
+        <f t="shared" si="17"/>
+        <v>44342</v>
+      </c>
+      <c r="C453" s="4">
+        <f t="shared" si="18"/>
+        <v>17557</v>
       </c>
     </row>
   </sheetData>
@@ -12508,11 +12625,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E4AC50-8CCA-1540-A424-2CAC1A9866A5}">
-  <dimension ref="A1:C450"/>
+  <dimension ref="A1:C454"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B342" sqref="B342"/>
+      <pane ySplit="1" topLeftCell="A463" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B359" sqref="B359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17546,7 +17663,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
-        <f t="shared" ref="A388:A448" si="25">A387+1</f>
+        <f t="shared" ref="A388:A451" si="25">A387+1</f>
         <v>44277</v>
       </c>
       <c r="B388">
@@ -17593,7 +17710,7 @@
       </c>
       <c r="C391">
         <f t="shared" si="24"/>
-        <v>5860</v>
+        <v>5861</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -17606,7 +17723,7 @@
       </c>
       <c r="C392">
         <f t="shared" si="24"/>
-        <v>5866</v>
+        <v>5867</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -17615,11 +17732,11 @@
         <v>44282</v>
       </c>
       <c r="B393">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C393">
         <f t="shared" si="24"/>
-        <v>5867</v>
+        <v>5868</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -17632,7 +17749,7 @@
       </c>
       <c r="C394">
         <f t="shared" si="24"/>
-        <v>5868</v>
+        <v>5869</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -17645,7 +17762,7 @@
       </c>
       <c r="C395">
         <f t="shared" si="24"/>
-        <v>5871</v>
+        <v>5872</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -17658,7 +17775,7 @@
       </c>
       <c r="C396">
         <f t="shared" si="24"/>
-        <v>5875</v>
+        <v>5876</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -17671,7 +17788,7 @@
       </c>
       <c r="C397">
         <f t="shared" si="24"/>
-        <v>5877</v>
+        <v>5878</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -17684,7 +17801,7 @@
       </c>
       <c r="C398">
         <f t="shared" si="24"/>
-        <v>5881</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -17697,7 +17814,7 @@
       </c>
       <c r="C399">
         <f t="shared" si="24"/>
-        <v>5885</v>
+        <v>5886</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -17710,7 +17827,7 @@
       </c>
       <c r="C400">
         <f t="shared" si="24"/>
-        <v>5889</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -17723,7 +17840,7 @@
       </c>
       <c r="C401">
         <f t="shared" si="24"/>
-        <v>5893</v>
+        <v>5894</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -17736,7 +17853,7 @@
       </c>
       <c r="C402">
         <f t="shared" si="24"/>
-        <v>5896</v>
+        <v>5897</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -17749,7 +17866,7 @@
       </c>
       <c r="C403">
         <f t="shared" si="24"/>
-        <v>5902</v>
+        <v>5903</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -17762,7 +17879,7 @@
       </c>
       <c r="C404">
         <f t="shared" si="24"/>
-        <v>5908</v>
+        <v>5909</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -17775,7 +17892,7 @@
       </c>
       <c r="C405">
         <f t="shared" si="24"/>
-        <v>5913</v>
+        <v>5914</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -17788,7 +17905,7 @@
       </c>
       <c r="C406">
         <f t="shared" si="24"/>
-        <v>5917</v>
+        <v>5918</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -17801,7 +17918,7 @@
       </c>
       <c r="C407">
         <f t="shared" si="24"/>
-        <v>5922</v>
+        <v>5923</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -17814,7 +17931,7 @@
       </c>
       <c r="C408">
         <f t="shared" si="24"/>
-        <v>5927</v>
+        <v>5928</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -17827,7 +17944,7 @@
       </c>
       <c r="C409">
         <f t="shared" si="24"/>
-        <v>5931</v>
+        <v>5932</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -17840,7 +17957,7 @@
       </c>
       <c r="C410">
         <f t="shared" si="24"/>
-        <v>5933</v>
+        <v>5934</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -17853,7 +17970,7 @@
       </c>
       <c r="C411">
         <f t="shared" si="24"/>
-        <v>5936</v>
+        <v>5937</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -17866,7 +17983,7 @@
       </c>
       <c r="C412">
         <f t="shared" si="24"/>
-        <v>5937</v>
+        <v>5938</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -17879,7 +17996,7 @@
       </c>
       <c r="C413">
         <f t="shared" si="24"/>
-        <v>5941</v>
+        <v>5942</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -17892,7 +18009,7 @@
       </c>
       <c r="C414">
         <f t="shared" si="24"/>
-        <v>5945</v>
+        <v>5946</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -17905,7 +18022,7 @@
       </c>
       <c r="C415">
         <f t="shared" si="24"/>
-        <v>5945</v>
+        <v>5946</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -17918,7 +18035,7 @@
       </c>
       <c r="C416">
         <f t="shared" si="24"/>
-        <v>5947</v>
+        <v>5948</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -17931,7 +18048,7 @@
       </c>
       <c r="C417">
         <f t="shared" si="24"/>
-        <v>5956</v>
+        <v>5957</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -17944,7 +18061,7 @@
       </c>
       <c r="C418">
         <f t="shared" si="24"/>
-        <v>5960</v>
+        <v>5961</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -17957,7 +18074,7 @@
       </c>
       <c r="C419">
         <f t="shared" si="24"/>
-        <v>5962</v>
+        <v>5963</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -17970,7 +18087,7 @@
       </c>
       <c r="C420">
         <f t="shared" si="24"/>
-        <v>5966</v>
+        <v>5968</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -17983,7 +18100,7 @@
       </c>
       <c r="C421">
         <f t="shared" si="24"/>
-        <v>5969</v>
+        <v>5971</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -17992,11 +18109,11 @@
         <v>44311</v>
       </c>
       <c r="B422">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C422">
         <f t="shared" si="24"/>
-        <v>5972</v>
+        <v>5974</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -18009,7 +18126,7 @@
       </c>
       <c r="C423">
         <f t="shared" si="24"/>
-        <v>5975</v>
+        <v>5977</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -18022,7 +18139,7 @@
       </c>
       <c r="C424">
         <f t="shared" si="24"/>
-        <v>5977</v>
+        <v>5979</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -18035,7 +18152,7 @@
       </c>
       <c r="C425">
         <f t="shared" si="24"/>
-        <v>5979</v>
+        <v>5981</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -18048,7 +18165,7 @@
       </c>
       <c r="C426">
         <f t="shared" si="24"/>
-        <v>5983</v>
+        <v>5985</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -18061,7 +18178,7 @@
       </c>
       <c r="C427">
         <f t="shared" si="24"/>
-        <v>5985</v>
+        <v>5987</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -18074,7 +18191,7 @@
       </c>
       <c r="C428">
         <f t="shared" si="24"/>
-        <v>5990</v>
+        <v>5992</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -18087,7 +18204,7 @@
       </c>
       <c r="C429">
         <f t="shared" si="24"/>
-        <v>5993</v>
+        <v>5995</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -18100,7 +18217,7 @@
       </c>
       <c r="C430">
         <f t="shared" si="24"/>
-        <v>5994</v>
+        <v>5996</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -18113,7 +18230,7 @@
       </c>
       <c r="C431">
         <f t="shared" si="24"/>
-        <v>5997</v>
+        <v>5999</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -18126,7 +18243,7 @@
       </c>
       <c r="C432">
         <f t="shared" si="24"/>
-        <v>5997</v>
+        <v>5999</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -18139,7 +18256,7 @@
       </c>
       <c r="C433">
         <f t="shared" ref="C433:C439" si="26">C432+B435</f>
-        <v>5999</v>
+        <v>6001</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -18152,7 +18269,7 @@
       </c>
       <c r="C434">
         <f t="shared" si="26"/>
-        <v>6000</v>
+        <v>6002</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -18165,7 +18282,7 @@
       </c>
       <c r="C435">
         <f t="shared" si="26"/>
-        <v>6003</v>
+        <v>6006</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -18178,7 +18295,7 @@
       </c>
       <c r="C436">
         <f t="shared" si="26"/>
-        <v>6005</v>
+        <v>6007</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -18187,11 +18304,11 @@
         <v>44326</v>
       </c>
       <c r="B437">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C437">
         <f t="shared" si="26"/>
-        <v>6005</v>
+        <v>6011</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -18200,11 +18317,11 @@
         <v>44327</v>
       </c>
       <c r="B438">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C438">
         <f t="shared" si="26"/>
-        <v>6005</v>
+        <v>6013</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -18212,9 +18329,12 @@
         <f t="shared" si="25"/>
         <v>44328</v>
       </c>
+      <c r="B439">
+        <v>4</v>
+      </c>
       <c r="C439">
         <f t="shared" si="26"/>
-        <v>6005</v>
+        <v>6016</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -18222,9 +18342,12 @@
         <f t="shared" si="25"/>
         <v>44329</v>
       </c>
+      <c r="B440">
+        <v>2</v>
+      </c>
       <c r="C440">
-        <f t="shared" ref="C440:C448" si="27">C439+B442</f>
-        <v>6005</v>
+        <f t="shared" ref="C440:C454" si="27">C439+B442</f>
+        <v>6020</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -18232,9 +18355,12 @@
         <f t="shared" si="25"/>
         <v>44330</v>
       </c>
+      <c r="B441">
+        <v>3</v>
+      </c>
       <c r="C441">
         <f t="shared" si="27"/>
-        <v>6005</v>
+        <v>6023</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -18242,9 +18368,12 @@
         <f t="shared" si="25"/>
         <v>44331</v>
       </c>
+      <c r="B442">
+        <v>4</v>
+      </c>
       <c r="C442">
         <f t="shared" si="27"/>
-        <v>6005</v>
+        <v>6024</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -18252,9 +18381,12 @@
         <f t="shared" si="25"/>
         <v>44332</v>
       </c>
+      <c r="B443">
+        <v>3</v>
+      </c>
       <c r="C443">
         <f t="shared" si="27"/>
-        <v>6005</v>
+        <v>6024</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -18262,9 +18394,12 @@
         <f t="shared" si="25"/>
         <v>44333</v>
       </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
       <c r="C444">
         <f t="shared" si="27"/>
-        <v>6005</v>
+        <v>6024</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -18272,9 +18407,12 @@
         <f t="shared" si="25"/>
         <v>44334</v>
       </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
       <c r="C445">
         <f t="shared" si="27"/>
-        <v>6005</v>
+        <v>6024</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -18284,7 +18422,7 @@
       </c>
       <c r="C446">
         <f t="shared" si="27"/>
-        <v>6005</v>
+        <v>6024</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -18294,7 +18432,7 @@
       </c>
       <c r="C447">
         <f t="shared" si="27"/>
-        <v>6005</v>
+        <v>6024</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -18304,14 +18442,68 @@
       </c>
       <c r="C448">
         <f t="shared" si="27"/>
-        <v>6005</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="2"/>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="2"/>
+        <v>6024</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="2">
+        <f t="shared" si="25"/>
+        <v>44338</v>
+      </c>
+      <c r="C449">
+        <f t="shared" si="27"/>
+        <v>6024</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="2">
+        <f t="shared" si="25"/>
+        <v>44339</v>
+      </c>
+      <c r="C450">
+        <f t="shared" si="27"/>
+        <v>6024</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="2">
+        <f t="shared" si="25"/>
+        <v>44340</v>
+      </c>
+      <c r="C451">
+        <f t="shared" si="27"/>
+        <v>6024</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="2">
+        <f t="shared" ref="A452:A454" si="28">A451+1</f>
+        <v>44341</v>
+      </c>
+      <c r="C452">
+        <f t="shared" si="27"/>
+        <v>6024</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="2">
+        <f t="shared" si="28"/>
+        <v>44342</v>
+      </c>
+      <c r="C453">
+        <f t="shared" si="27"/>
+        <v>6024</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="2">
+        <f t="shared" si="28"/>
+        <v>44343</v>
+      </c>
+      <c r="C454">
+        <f t="shared" si="27"/>
+        <v>6024</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{6A6A4AB1-AA23-D44E-9DE6-8ABA1E6ECA2B}"/>
@@ -18321,11 +18513,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB9FD01-DC18-004F-B15D-973BF1FC9330}">
-  <dimension ref="A1:C447"/>
+  <dimension ref="A1:C453"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A360" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B360" sqref="B360"/>
+      <pane ySplit="1" topLeftCell="A449" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21521,7 +21713,7 @@
       </c>
       <c r="C246">
         <f t="shared" si="8"/>
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -21534,7 +21726,7 @@
       </c>
       <c r="C247">
         <f t="shared" si="8"/>
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -21547,7 +21739,7 @@
       </c>
       <c r="C248">
         <f t="shared" si="8"/>
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -21556,11 +21748,11 @@
         <v>44138</v>
       </c>
       <c r="B249">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C249">
         <f t="shared" si="8"/>
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -21573,7 +21765,7 @@
       </c>
       <c r="C250">
         <f t="shared" si="8"/>
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -21586,7 +21778,7 @@
       </c>
       <c r="C251">
         <f t="shared" si="8"/>
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -21599,7 +21791,7 @@
       </c>
       <c r="C252">
         <f t="shared" si="8"/>
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -21612,7 +21804,7 @@
       </c>
       <c r="C253">
         <f t="shared" si="8"/>
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -21625,7 +21817,7 @@
       </c>
       <c r="C254">
         <f t="shared" si="8"/>
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -21638,7 +21830,7 @@
       </c>
       <c r="C255">
         <f t="shared" si="8"/>
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -21651,7 +21843,7 @@
       </c>
       <c r="C256">
         <f t="shared" si="8"/>
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -21664,7 +21856,7 @@
       </c>
       <c r="C257">
         <f t="shared" si="8"/>
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -21677,7 +21869,7 @@
       </c>
       <c r="C258">
         <f t="shared" si="8"/>
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -21690,7 +21882,7 @@
       </c>
       <c r="C259">
         <f t="shared" si="8"/>
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -21703,7 +21895,7 @@
       </c>
       <c r="C260">
         <f t="shared" si="8"/>
-        <v>1662</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -21716,7 +21908,7 @@
       </c>
       <c r="C261">
         <f t="shared" si="8"/>
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -21729,7 +21921,7 @@
       </c>
       <c r="C262">
         <f t="shared" si="8"/>
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -21742,7 +21934,7 @@
       </c>
       <c r="C263">
         <f t="shared" si="8"/>
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -21755,7 +21947,7 @@
       </c>
       <c r="C264">
         <f t="shared" si="8"/>
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -21768,7 +21960,7 @@
       </c>
       <c r="C265">
         <f t="shared" si="8"/>
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -21781,7 +21973,7 @@
       </c>
       <c r="C266">
         <f t="shared" si="8"/>
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -21794,7 +21986,7 @@
       </c>
       <c r="C267">
         <f t="shared" si="8"/>
-        <v>1918</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -21807,7 +21999,7 @@
       </c>
       <c r="C268">
         <f t="shared" si="8"/>
-        <v>1957</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -21820,7 +22012,7 @@
       </c>
       <c r="C269">
         <f t="shared" si="8"/>
-        <v>1995</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -21833,7 +22025,7 @@
       </c>
       <c r="C270">
         <f t="shared" si="8"/>
-        <v>2032</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -21842,11 +22034,11 @@
         <v>44160</v>
       </c>
       <c r="B271">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C271">
         <f t="shared" si="8"/>
-        <v>2086</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -21855,11 +22047,11 @@
         <v>44161</v>
       </c>
       <c r="B272">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C272">
         <f t="shared" ref="C272:C335" si="10">C271+B275</f>
-        <v>2132</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -21868,11 +22060,11 @@
         <v>44162</v>
       </c>
       <c r="B273">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C273">
         <f t="shared" si="10"/>
-        <v>2178</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -21885,7 +22077,7 @@
       </c>
       <c r="C274">
         <f t="shared" si="10"/>
-        <v>2229</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -21898,7 +22090,7 @@
       </c>
       <c r="C275">
         <f t="shared" si="10"/>
-        <v>2270</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -21911,7 +22103,7 @@
       </c>
       <c r="C276">
         <f t="shared" si="10"/>
-        <v>2315</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -21924,7 +22116,7 @@
       </c>
       <c r="C277">
         <f t="shared" si="10"/>
-        <v>2350</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -21937,7 +22129,7 @@
       </c>
       <c r="C278">
         <f t="shared" si="10"/>
-        <v>2398</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -21950,7 +22142,7 @@
       </c>
       <c r="C279">
         <f t="shared" si="10"/>
-        <v>2446</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -21963,7 +22155,7 @@
       </c>
       <c r="C280">
         <f t="shared" si="10"/>
-        <v>2487</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -21972,11 +22164,11 @@
         <v>44170</v>
       </c>
       <c r="B281">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C281">
         <f t="shared" si="10"/>
-        <v>2539</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -21989,7 +22181,7 @@
       </c>
       <c r="C282">
         <f t="shared" si="10"/>
-        <v>2591</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -22002,7 +22194,7 @@
       </c>
       <c r="C283">
         <f t="shared" si="10"/>
-        <v>2633</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -22011,11 +22203,11 @@
         <v>44173</v>
       </c>
       <c r="B284">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C284">
         <f t="shared" si="10"/>
-        <v>2692</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -22028,7 +22220,7 @@
       </c>
       <c r="C285">
         <f t="shared" si="10"/>
-        <v>2737</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -22041,7 +22233,7 @@
       </c>
       <c r="C286">
         <f t="shared" si="10"/>
-        <v>2781</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -22054,7 +22246,7 @@
       </c>
       <c r="C287">
         <f t="shared" si="10"/>
-        <v>2838</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -22067,7 +22259,7 @@
       </c>
       <c r="C288">
         <f t="shared" si="10"/>
-        <v>2885</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -22080,7 +22272,7 @@
       </c>
       <c r="C289">
         <f t="shared" si="10"/>
-        <v>2939</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -22093,7 +22285,7 @@
       </c>
       <c r="C290">
         <f t="shared" si="10"/>
-        <v>2989</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -22106,7 +22298,7 @@
       </c>
       <c r="C291">
         <f t="shared" si="10"/>
-        <v>3026</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -22119,7 +22311,7 @@
       </c>
       <c r="C292">
         <f t="shared" si="10"/>
-        <v>3066</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -22132,7 +22324,7 @@
       </c>
       <c r="C293">
         <f t="shared" si="10"/>
-        <v>3106</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -22145,7 +22337,7 @@
       </c>
       <c r="C294">
         <f t="shared" si="10"/>
-        <v>3146</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -22158,7 +22350,7 @@
       </c>
       <c r="C295">
         <f t="shared" si="10"/>
-        <v>3209</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -22171,7 +22363,7 @@
       </c>
       <c r="C296">
         <f t="shared" si="10"/>
-        <v>3250</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -22180,11 +22372,11 @@
         <v>44186</v>
       </c>
       <c r="B297">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C297">
         <f t="shared" si="10"/>
-        <v>3289</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -22197,7 +22389,7 @@
       </c>
       <c r="C298">
         <f t="shared" si="10"/>
-        <v>3326</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -22210,7 +22402,7 @@
       </c>
       <c r="C299">
         <f t="shared" si="10"/>
-        <v>3369</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -22223,7 +22415,7 @@
       </c>
       <c r="C300">
         <f t="shared" si="10"/>
-        <v>3406</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -22236,7 +22428,7 @@
       </c>
       <c r="C301">
         <f t="shared" si="10"/>
-        <v>3436</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -22245,11 +22437,11 @@
         <v>44191</v>
       </c>
       <c r="B302">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C302">
         <f t="shared" si="10"/>
-        <v>3467</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -22262,7 +22454,7 @@
       </c>
       <c r="C303">
         <f t="shared" si="10"/>
-        <v>3506</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -22275,7 +22467,7 @@
       </c>
       <c r="C304">
         <f t="shared" si="10"/>
-        <v>3545</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -22284,11 +22476,11 @@
         <v>44194</v>
       </c>
       <c r="B305">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C305">
         <f t="shared" si="10"/>
-        <v>3580</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -22301,7 +22493,7 @@
       </c>
       <c r="C306">
         <f t="shared" si="10"/>
-        <v>3611</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -22314,7 +22506,7 @@
       </c>
       <c r="C307">
         <f t="shared" si="10"/>
-        <v>3640</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -22327,7 +22519,7 @@
       </c>
       <c r="C308">
         <f t="shared" si="10"/>
-        <v>3689</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -22340,7 +22532,7 @@
       </c>
       <c r="C309">
         <f t="shared" si="10"/>
-        <v>3721</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -22349,11 +22541,11 @@
         <v>44199</v>
       </c>
       <c r="B310">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C310">
         <f t="shared" si="10"/>
-        <v>3758</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -22366,7 +22558,7 @@
       </c>
       <c r="C311">
         <f t="shared" si="10"/>
-        <v>3797</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -22375,11 +22567,11 @@
         <v>44201</v>
       </c>
       <c r="B312">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C312">
         <f t="shared" si="10"/>
-        <v>3848</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -22392,7 +22584,7 @@
       </c>
       <c r="C313">
         <f t="shared" si="10"/>
-        <v>3878</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -22405,7 +22597,7 @@
       </c>
       <c r="C314">
         <f t="shared" si="10"/>
-        <v>3916</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -22418,7 +22610,7 @@
       </c>
       <c r="C315">
         <f t="shared" si="10"/>
-        <v>3948</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -22431,7 +22623,7 @@
       </c>
       <c r="C316">
         <f t="shared" si="10"/>
-        <v>3972</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -22444,7 +22636,7 @@
       </c>
       <c r="C317">
         <f t="shared" si="10"/>
-        <v>4013</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -22457,7 +22649,7 @@
       </c>
       <c r="C318">
         <f t="shared" si="10"/>
-        <v>4050</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -22470,7 +22662,7 @@
       </c>
       <c r="C319">
         <f t="shared" si="10"/>
-        <v>4081</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -22483,7 +22675,7 @@
       </c>
       <c r="C320">
         <f t="shared" si="10"/>
-        <v>4107</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -22496,7 +22688,7 @@
       </c>
       <c r="C321">
         <f t="shared" si="10"/>
-        <v>4142</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -22505,11 +22697,11 @@
         <v>44211</v>
       </c>
       <c r="B322">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C322">
         <f t="shared" si="10"/>
-        <v>4175</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -22522,7 +22714,7 @@
       </c>
       <c r="C323">
         <f t="shared" si="10"/>
-        <v>4202</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -22535,7 +22727,7 @@
       </c>
       <c r="C324">
         <f t="shared" si="10"/>
-        <v>4227</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -22548,7 +22740,7 @@
       </c>
       <c r="C325">
         <f t="shared" si="10"/>
-        <v>4252</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -22561,7 +22753,7 @@
       </c>
       <c r="C326">
         <f t="shared" si="10"/>
-        <v>4282</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -22570,11 +22762,11 @@
         <v>44216</v>
       </c>
       <c r="B327">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C327">
         <f t="shared" si="10"/>
-        <v>4302</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -22587,7 +22779,7 @@
       </c>
       <c r="C328">
         <f t="shared" si="10"/>
-        <v>4323</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -22600,7 +22792,7 @@
       </c>
       <c r="C329">
         <f t="shared" si="10"/>
-        <v>4353</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -22613,7 +22805,7 @@
       </c>
       <c r="C330">
         <f t="shared" si="10"/>
-        <v>4386</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -22626,7 +22818,7 @@
       </c>
       <c r="C331">
         <f t="shared" si="10"/>
-        <v>4404</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -22639,7 +22831,7 @@
       </c>
       <c r="C332">
         <f t="shared" si="10"/>
-        <v>4438</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -22652,7 +22844,7 @@
       </c>
       <c r="C333">
         <f t="shared" si="10"/>
-        <v>4456</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -22665,7 +22857,7 @@
       </c>
       <c r="C334">
         <f t="shared" si="10"/>
-        <v>4478</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -22678,7 +22870,7 @@
       </c>
       <c r="C335">
         <f t="shared" si="10"/>
-        <v>4501</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -22691,7 +22883,7 @@
       </c>
       <c r="C336">
         <f t="shared" ref="C336:C353" si="12">C335+B339</f>
-        <v>4522</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -22704,7 +22896,7 @@
       </c>
       <c r="C337">
         <f t="shared" si="12"/>
-        <v>4532</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -22717,7 +22909,7 @@
       </c>
       <c r="C338">
         <f t="shared" si="12"/>
-        <v>4549</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -22730,7 +22922,7 @@
       </c>
       <c r="C339">
         <f t="shared" si="12"/>
-        <v>4566</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -22743,7 +22935,7 @@
       </c>
       <c r="C340">
         <f t="shared" si="12"/>
-        <v>4580</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -22756,7 +22948,7 @@
       </c>
       <c r="C341">
         <f t="shared" si="12"/>
-        <v>4590</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -22765,11 +22957,11 @@
         <v>44231</v>
       </c>
       <c r="B342">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C342">
         <f t="shared" si="12"/>
-        <v>4600</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -22782,7 +22974,7 @@
       </c>
       <c r="C343">
         <f t="shared" si="12"/>
-        <v>4612</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -22795,7 +22987,7 @@
       </c>
       <c r="C344">
         <f t="shared" si="12"/>
-        <v>4624</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -22808,7 +23000,7 @@
       </c>
       <c r="C345">
         <f t="shared" si="12"/>
-        <v>4639</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -22817,11 +23009,11 @@
         <v>44235</v>
       </c>
       <c r="B346">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C346">
         <f t="shared" si="12"/>
-        <v>4647</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -22834,7 +23026,7 @@
       </c>
       <c r="C347">
         <f t="shared" si="12"/>
-        <v>4658</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -22847,7 +23039,7 @@
       </c>
       <c r="C348">
         <f t="shared" si="12"/>
-        <v>4666</v>
+        <v>4671</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -22856,11 +23048,11 @@
         <v>44238</v>
       </c>
       <c r="B349">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C349">
         <f t="shared" si="12"/>
-        <v>4678</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -22873,7 +23065,7 @@
       </c>
       <c r="C350">
         <f t="shared" si="12"/>
-        <v>4685</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -22886,7 +23078,7 @@
       </c>
       <c r="C351">
         <f t="shared" si="12"/>
-        <v>4697</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -22899,7 +23091,7 @@
       </c>
       <c r="C352">
         <f t="shared" si="12"/>
-        <v>4709</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -22912,7 +23104,7 @@
       </c>
       <c r="C353">
         <f t="shared" si="12"/>
-        <v>4716</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -22925,7 +23117,7 @@
       </c>
       <c r="C354">
         <f t="shared" ref="C354:C358" si="13">C353+B357</f>
-        <v>4724</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -22938,7 +23130,7 @@
       </c>
       <c r="C355">
         <f t="shared" si="13"/>
-        <v>4733</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -22951,7 +23143,7 @@
       </c>
       <c r="C356">
         <f t="shared" si="13"/>
-        <v>4740</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -22964,7 +23156,7 @@
       </c>
       <c r="C357">
         <f t="shared" si="13"/>
-        <v>4744</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -22977,7 +23169,7 @@
       </c>
       <c r="C358">
         <f t="shared" si="13"/>
-        <v>4755</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -22990,7 +23182,7 @@
       </c>
       <c r="C359">
         <f t="shared" ref="C359:C361" si="14">C358+B362</f>
-        <v>4768</v>
+        <v>4773</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -23003,7 +23195,7 @@
       </c>
       <c r="C360">
         <f t="shared" si="14"/>
-        <v>4779</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -23016,7 +23208,7 @@
       </c>
       <c r="C361">
         <f t="shared" si="14"/>
-        <v>4785</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -23029,7 +23221,7 @@
       </c>
       <c r="C362">
         <f t="shared" ref="C362:C364" si="15">C361+B365</f>
-        <v>4790</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -23042,7 +23234,7 @@
       </c>
       <c r="C363">
         <f t="shared" si="15"/>
-        <v>4791</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -23055,7 +23247,7 @@
       </c>
       <c r="C364">
         <f t="shared" si="15"/>
-        <v>4795</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -23068,7 +23260,7 @@
       </c>
       <c r="C365">
         <f t="shared" ref="C365:C370" si="16">C364+B368</f>
-        <v>4801</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -23081,7 +23273,7 @@
       </c>
       <c r="C366">
         <f t="shared" si="16"/>
-        <v>4806</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -23094,7 +23286,7 @@
       </c>
       <c r="C367">
         <f t="shared" si="16"/>
-        <v>4814</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -23107,7 +23299,7 @@
       </c>
       <c r="C368">
         <f t="shared" si="16"/>
-        <v>4821</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -23120,7 +23312,7 @@
       </c>
       <c r="C369">
         <f t="shared" si="16"/>
-        <v>4825</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -23133,7 +23325,7 @@
       </c>
       <c r="C370">
         <f t="shared" si="16"/>
-        <v>4829</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -23146,7 +23338,7 @@
       </c>
       <c r="C371">
         <f t="shared" ref="C371:C428" si="17">C370+B374</f>
-        <v>4833</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -23159,7 +23351,7 @@
       </c>
       <c r="C372">
         <f t="shared" si="17"/>
-        <v>4836</v>
+        <v>4841</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -23172,7 +23364,7 @@
       </c>
       <c r="C373">
         <f t="shared" si="17"/>
-        <v>4844</v>
+        <v>4849</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -23185,7 +23377,7 @@
       </c>
       <c r="C374">
         <f t="shared" si="17"/>
-        <v>4850</v>
+        <v>4855</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -23198,7 +23390,7 @@
       </c>
       <c r="C375">
         <f t="shared" si="17"/>
-        <v>4856</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -23211,7 +23403,7 @@
       </c>
       <c r="C376">
         <f t="shared" si="17"/>
-        <v>4859</v>
+        <v>4864</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -23224,7 +23416,7 @@
       </c>
       <c r="C377">
         <f t="shared" si="17"/>
-        <v>4863</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -23237,7 +23429,7 @@
       </c>
       <c r="C378">
         <f t="shared" si="17"/>
-        <v>4867</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -23250,7 +23442,7 @@
       </c>
       <c r="C379">
         <f t="shared" si="17"/>
-        <v>4869</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -23263,7 +23455,7 @@
       </c>
       <c r="C380">
         <f t="shared" si="17"/>
-        <v>4874</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -23276,7 +23468,7 @@
       </c>
       <c r="C381">
         <f t="shared" si="17"/>
-        <v>4876</v>
+        <v>4881</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -23289,7 +23481,7 @@
       </c>
       <c r="C382">
         <f t="shared" si="17"/>
-        <v>4877</v>
+        <v>4882</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -23302,7 +23494,7 @@
       </c>
       <c r="C383">
         <f t="shared" si="17"/>
-        <v>4880</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -23315,7 +23507,7 @@
       </c>
       <c r="C384">
         <f t="shared" si="17"/>
-        <v>4882</v>
+        <v>4887</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -23328,7 +23520,7 @@
       </c>
       <c r="C385">
         <f t="shared" si="17"/>
-        <v>4889</v>
+        <v>4894</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -23341,7 +23533,7 @@
       </c>
       <c r="C386">
         <f t="shared" si="17"/>
-        <v>4894</v>
+        <v>4899</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -23354,12 +23546,12 @@
       </c>
       <c r="C387">
         <f t="shared" si="17"/>
-        <v>4900</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
-        <f t="shared" ref="A388:A447" si="18">A387+1</f>
+        <f t="shared" ref="A388:A451" si="18">A387+1</f>
         <v>44277</v>
       </c>
       <c r="B388">
@@ -23367,7 +23559,7 @@
       </c>
       <c r="C388">
         <f t="shared" si="17"/>
-        <v>4901</v>
+        <v>4905</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -23380,7 +23572,7 @@
       </c>
       <c r="C389">
         <f t="shared" si="17"/>
-        <v>4905</v>
+        <v>4909</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -23389,11 +23581,11 @@
         <v>44279</v>
       </c>
       <c r="B390">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C390">
         <f t="shared" si="17"/>
-        <v>4909</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -23406,7 +23598,7 @@
       </c>
       <c r="C391">
         <f t="shared" si="17"/>
-        <v>4914</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -23419,7 +23611,7 @@
       </c>
       <c r="C392">
         <f t="shared" si="17"/>
-        <v>4917</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -23432,7 +23624,7 @@
       </c>
       <c r="C393">
         <f t="shared" si="17"/>
-        <v>4921</v>
+        <v>4925</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -23445,7 +23637,7 @@
       </c>
       <c r="C394">
         <f t="shared" si="17"/>
-        <v>4924</v>
+        <v>4928</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -23458,7 +23650,7 @@
       </c>
       <c r="C395">
         <f t="shared" si="17"/>
-        <v>4931</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -23471,7 +23663,7 @@
       </c>
       <c r="C396">
         <f t="shared" si="17"/>
-        <v>4933</v>
+        <v>4937</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -23484,7 +23676,7 @@
       </c>
       <c r="C397">
         <f t="shared" si="17"/>
-        <v>4934</v>
+        <v>4938</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -23497,7 +23689,7 @@
       </c>
       <c r="C398">
         <f t="shared" si="17"/>
-        <v>4938</v>
+        <v>4942</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -23510,7 +23702,7 @@
       </c>
       <c r="C399">
         <f t="shared" si="17"/>
-        <v>4939</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -23523,7 +23715,7 @@
       </c>
       <c r="C400">
         <f t="shared" si="17"/>
-        <v>4939</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -23536,7 +23728,7 @@
       </c>
       <c r="C401">
         <f t="shared" si="17"/>
-        <v>4940</v>
+        <v>4944</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -23549,7 +23741,7 @@
       </c>
       <c r="C402">
         <f t="shared" si="17"/>
-        <v>4944</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -23562,7 +23754,7 @@
       </c>
       <c r="C403">
         <f t="shared" si="17"/>
-        <v>4946</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -23575,7 +23767,7 @@
       </c>
       <c r="C404">
         <f t="shared" si="17"/>
-        <v>4948</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -23588,7 +23780,7 @@
       </c>
       <c r="C405">
         <f t="shared" si="17"/>
-        <v>4952</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -23601,7 +23793,7 @@
       </c>
       <c r="C406">
         <f t="shared" si="17"/>
-        <v>4953</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -23614,7 +23806,7 @@
       </c>
       <c r="C407">
         <f t="shared" si="17"/>
-        <v>4955</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -23627,7 +23819,7 @@
       </c>
       <c r="C408">
         <f t="shared" si="17"/>
-        <v>4956</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -23640,7 +23832,7 @@
       </c>
       <c r="C409">
         <f t="shared" si="17"/>
-        <v>4958</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -23653,7 +23845,7 @@
       </c>
       <c r="C410">
         <f t="shared" si="17"/>
-        <v>4962</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -23666,7 +23858,7 @@
       </c>
       <c r="C411">
         <f t="shared" si="17"/>
-        <v>4965</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -23679,7 +23871,7 @@
       </c>
       <c r="C412">
         <f t="shared" si="17"/>
-        <v>4969</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -23692,7 +23884,7 @@
       </c>
       <c r="C413">
         <f t="shared" si="17"/>
-        <v>4972</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -23705,7 +23897,7 @@
       </c>
       <c r="C414">
         <f t="shared" si="17"/>
-        <v>4972</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -23718,7 +23910,7 @@
       </c>
       <c r="C415">
         <f t="shared" si="17"/>
-        <v>4975</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -23731,7 +23923,7 @@
       </c>
       <c r="C416">
         <f t="shared" si="17"/>
-        <v>4977</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -23744,7 +23936,7 @@
       </c>
       <c r="C417">
         <f t="shared" si="17"/>
-        <v>4980</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -23753,11 +23945,11 @@
         <v>44307</v>
       </c>
       <c r="B418">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C418">
         <f t="shared" si="17"/>
-        <v>4982</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -23770,7 +23962,7 @@
       </c>
       <c r="C419">
         <f t="shared" si="17"/>
-        <v>4983</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -23783,7 +23975,7 @@
       </c>
       <c r="C420">
         <f t="shared" si="17"/>
-        <v>4984</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -23796,7 +23988,7 @@
       </c>
       <c r="C421">
         <f t="shared" si="17"/>
-        <v>4988</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -23809,7 +24001,7 @@
       </c>
       <c r="C422">
         <f t="shared" si="17"/>
-        <v>4990</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -23822,7 +24014,7 @@
       </c>
       <c r="C423">
         <f t="shared" si="17"/>
-        <v>4993</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -23835,7 +24027,7 @@
       </c>
       <c r="C424">
         <f t="shared" si="17"/>
-        <v>4998</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -23848,7 +24040,7 @@
       </c>
       <c r="C425">
         <f t="shared" si="17"/>
-        <v>5005</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -23861,7 +24053,7 @@
       </c>
       <c r="C426">
         <f t="shared" si="17"/>
-        <v>5006</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -23874,7 +24066,7 @@
       </c>
       <c r="C427">
         <f t="shared" si="17"/>
-        <v>5009</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -23887,7 +24079,7 @@
       </c>
       <c r="C428">
         <f t="shared" si="17"/>
-        <v>5010</v>
+        <v>5014</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -23899,8 +24091,8 @@
         <v>1</v>
       </c>
       <c r="C429">
-        <f t="shared" ref="C429:C447" si="19">C428+B432</f>
-        <v>5012</v>
+        <f t="shared" ref="C429:C453" si="19">C428+B432</f>
+        <v>5018</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -23909,11 +24101,11 @@
         <v>44319</v>
       </c>
       <c r="B430">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C430">
         <f t="shared" si="19"/>
-        <v>5012</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -23926,7 +24118,7 @@
       </c>
       <c r="C431">
         <f t="shared" si="19"/>
-        <v>5014</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -23935,11 +24127,11 @@
         <v>44321</v>
       </c>
       <c r="B432">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C432">
         <f t="shared" si="19"/>
-        <v>5017</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -23948,11 +24140,11 @@
         <v>44322</v>
       </c>
       <c r="B433">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C433">
         <f t="shared" si="19"/>
-        <v>5018</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -23965,7 +24157,7 @@
       </c>
       <c r="C434">
         <f t="shared" si="19"/>
-        <v>5019</v>
+        <v>5026</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -23974,11 +24166,11 @@
         <v>44324</v>
       </c>
       <c r="B435">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C435">
         <f t="shared" si="19"/>
-        <v>5021</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -23987,11 +24179,11 @@
         <v>44325</v>
       </c>
       <c r="B436">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C436">
         <f t="shared" si="19"/>
-        <v>5025</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -24004,7 +24196,7 @@
       </c>
       <c r="C437">
         <f t="shared" si="19"/>
-        <v>5027</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -24017,7 +24209,7 @@
       </c>
       <c r="C438">
         <f t="shared" si="19"/>
-        <v>5027</v>
+        <v>5038</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -24030,7 +24222,7 @@
       </c>
       <c r="C439">
         <f t="shared" si="19"/>
-        <v>5028</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -24039,11 +24231,11 @@
         <v>44329</v>
       </c>
       <c r="B440">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C440">
         <f t="shared" si="19"/>
-        <v>5030</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -24052,11 +24244,11 @@
         <v>44330</v>
       </c>
       <c r="B441">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C441">
         <f t="shared" si="19"/>
-        <v>5031</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -24069,7 +24261,7 @@
       </c>
       <c r="C442">
         <f t="shared" si="19"/>
-        <v>5032</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -24078,11 +24270,11 @@
         <v>44332</v>
       </c>
       <c r="B443">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C443">
         <f t="shared" si="19"/>
-        <v>5032</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -24095,7 +24287,7 @@
       </c>
       <c r="C444">
         <f t="shared" si="19"/>
-        <v>5033</v>
+        <v>5052</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -24104,11 +24296,11 @@
         <v>44334</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C445">
         <f t="shared" si="19"/>
-        <v>5033</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -24117,11 +24309,11 @@
         <v>44335</v>
       </c>
       <c r="B446">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C446">
         <f t="shared" si="19"/>
-        <v>5033</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -24130,11 +24322,89 @@
         <v>44336</v>
       </c>
       <c r="B447">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C447">
         <f t="shared" si="19"/>
-        <v>5033</v>
+        <v>5054</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="2">
+        <f t="shared" si="18"/>
+        <v>44337</v>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+      <c r="C448">
+        <f t="shared" si="19"/>
+        <v>5054</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="2">
+        <f t="shared" si="18"/>
+        <v>44338</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+      <c r="C449">
+        <f t="shared" si="19"/>
+        <v>5055</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="2">
+        <f t="shared" si="18"/>
+        <v>44339</v>
+      </c>
+      <c r="B450">
+        <v>1</v>
+      </c>
+      <c r="C450">
+        <f t="shared" si="19"/>
+        <v>5056</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="2">
+        <f t="shared" si="18"/>
+        <v>44340</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <f t="shared" si="19"/>
+        <v>5056</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="2">
+        <f t="shared" ref="A452:A453" si="20">A451+1</f>
+        <v>44341</v>
+      </c>
+      <c r="B452">
+        <v>1</v>
+      </c>
+      <c r="C452">
+        <f t="shared" si="19"/>
+        <v>5056</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="2">
+        <f t="shared" si="20"/>
+        <v>44342</v>
+      </c>
+      <c r="B453">
+        <v>1</v>
+      </c>
+      <c r="C453">
+        <f t="shared" si="19"/>
+        <v>5056</v>
       </c>
     </row>
   </sheetData>
@@ -27265,8 +27535,8 @@
   <dimension ref="A1:E454"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C340" sqref="C340"/>
+      <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B439" sqref="B439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -45003,7 +45273,7 @@
   <dimension ref="A1:D457"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C269" sqref="C269"/>
     </sheetView>
   </sheetViews>
@@ -51907,7 +52177,7 @@
   <dimension ref="A1:C449"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B290" sqref="B290"/>
     </sheetView>
   </sheetViews>

--- a/notebooks/DateOfDeath.xlsx
+++ b/notebooks/DateOfDeath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\prusk\dev\covid\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEA8DC8-46BF-45A4-9A1F-7E1F5A359247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45E41D6-D8E2-4E12-8C21-59517A46094D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="1" activeTab="8" xr2:uid="{20D733EF-6676-F449-AF32-307F4FADCE6E}"/>
+    <workbookView xWindow="17280" yWindow="0" windowWidth="5865" windowHeight="14550" firstSheet="8" activeTab="8" xr2:uid="{20D733EF-6676-F449-AF32-307F4FADCE6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Alabama" sheetId="5" r:id="rId1"/>
@@ -470,11 +470,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFCCFA7-674C-0646-984C-69D4C070282C}">
-  <dimension ref="A1:C693"/>
+  <dimension ref="A1:C708"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A658" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A658" sqref="A658"/>
+      <pane ySplit="1" topLeftCell="A622" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B629" sqref="B629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8845,24 +8845,24 @@
         <v>44473</v>
       </c>
       <c r="B644">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C644" s="4">
         <f t="shared" si="32"/>
-        <v>15303</v>
+        <v>15304</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="3">
-        <f t="shared" ref="A645:A693" si="33">A644+1</f>
+        <f t="shared" ref="A645:A708" si="33">A644+1</f>
         <v>44474</v>
       </c>
       <c r="B645">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C645" s="4">
         <f t="shared" si="32"/>
-        <v>15347</v>
+        <v>15350</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
@@ -8875,7 +8875,7 @@
       </c>
       <c r="C646" s="4">
         <f t="shared" si="32"/>
-        <v>15378</v>
+        <v>15381</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
@@ -8888,7 +8888,7 @@
       </c>
       <c r="C647" s="4">
         <f t="shared" si="32"/>
-        <v>15411</v>
+        <v>15414</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="C648" s="4">
         <f t="shared" si="32"/>
-        <v>15438</v>
+        <v>15441</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
@@ -8910,11 +8910,11 @@
         <v>44478</v>
       </c>
       <c r="B649">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C649" s="4">
         <f t="shared" ref="C649" si="34">C648+B649</f>
-        <v>15478</v>
+        <v>15483</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
@@ -8927,7 +8927,7 @@
       </c>
       <c r="C650" s="4">
         <f t="shared" ref="C650:C662" si="35">C649+B650</f>
-        <v>15509</v>
+        <v>15514</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
@@ -8936,11 +8936,11 @@
         <v>44480</v>
       </c>
       <c r="B651">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C651" s="4">
         <f t="shared" si="35"/>
-        <v>15537</v>
+        <v>15544</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="C652" s="4">
         <f t="shared" si="35"/>
-        <v>15567</v>
+        <v>15574</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
@@ -8962,11 +8962,11 @@
         <v>44482</v>
       </c>
       <c r="B653">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C653" s="4">
         <f t="shared" si="35"/>
-        <v>15602</v>
+        <v>15610</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
@@ -8975,11 +8975,11 @@
         <v>44483</v>
       </c>
       <c r="B654">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C654" s="4">
         <f t="shared" si="35"/>
-        <v>15631</v>
+        <v>15640</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
@@ -8992,7 +8992,7 @@
       </c>
       <c r="C655" s="4">
         <f t="shared" si="35"/>
-        <v>15652</v>
+        <v>15661</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
@@ -9005,7 +9005,7 @@
       </c>
       <c r="C656" s="4">
         <f t="shared" si="35"/>
-        <v>15679</v>
+        <v>15688</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
@@ -9018,7 +9018,7 @@
       </c>
       <c r="C657" s="4">
         <f t="shared" si="35"/>
-        <v>15698</v>
+        <v>15707</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
@@ -9027,11 +9027,11 @@
         <v>44487</v>
       </c>
       <c r="B658">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C658" s="4">
         <f t="shared" si="35"/>
-        <v>15723</v>
+        <v>15733</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
@@ -9040,11 +9040,11 @@
         <v>44488</v>
       </c>
       <c r="B659">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C659" s="4">
         <f t="shared" si="35"/>
-        <v>15745</v>
+        <v>15756</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
@@ -9053,11 +9053,11 @@
         <v>44489</v>
       </c>
       <c r="B660">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C660" s="4">
         <f t="shared" si="35"/>
-        <v>15767</v>
+        <v>15781</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
@@ -9066,11 +9066,11 @@
         <v>44490</v>
       </c>
       <c r="B661">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C661" s="4">
         <f t="shared" si="35"/>
-        <v>15780</v>
+        <v>15795</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
@@ -9083,7 +9083,7 @@
       </c>
       <c r="C662" s="4">
         <f t="shared" si="35"/>
-        <v>15796</v>
+        <v>15811</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
@@ -9092,11 +9092,11 @@
         <v>44492</v>
       </c>
       <c r="B663">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C663" s="4">
         <f t="shared" ref="C663:C676" si="36">C662+B663</f>
-        <v>15814</v>
+        <v>15830</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
@@ -9109,7 +9109,7 @@
       </c>
       <c r="C664" s="4">
         <f t="shared" si="36"/>
-        <v>15826</v>
+        <v>15842</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
@@ -9122,7 +9122,7 @@
       </c>
       <c r="C665" s="4">
         <f t="shared" si="36"/>
-        <v>15842</v>
+        <v>15858</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.25">
@@ -9131,11 +9131,11 @@
         <v>44495</v>
       </c>
       <c r="B666">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C666" s="4">
         <f t="shared" si="36"/>
-        <v>15861</v>
+        <v>15879</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.25">
@@ -9144,11 +9144,11 @@
         <v>44496</v>
       </c>
       <c r="B667">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C667" s="4">
         <f t="shared" si="36"/>
-        <v>15870</v>
+        <v>15889</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
@@ -9161,7 +9161,7 @@
       </c>
       <c r="C668" s="4">
         <f t="shared" si="36"/>
-        <v>15886</v>
+        <v>15905</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
@@ -9170,11 +9170,11 @@
         <v>44498</v>
       </c>
       <c r="B669">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C669" s="4">
         <f t="shared" si="36"/>
-        <v>15892</v>
+        <v>15912</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
@@ -9187,7 +9187,7 @@
       </c>
       <c r="C670" s="4">
         <f t="shared" si="36"/>
-        <v>15904</v>
+        <v>15924</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.25">
@@ -9196,11 +9196,11 @@
         <v>44500</v>
       </c>
       <c r="B671">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C671" s="4">
         <f t="shared" si="36"/>
-        <v>15911</v>
+        <v>15932</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.25">
@@ -9213,7 +9213,7 @@
       </c>
       <c r="C672" s="4">
         <f t="shared" si="36"/>
-        <v>15915</v>
+        <v>15936</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
@@ -9222,11 +9222,11 @@
         <v>44502</v>
       </c>
       <c r="B673">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C673" s="4">
         <f t="shared" si="36"/>
-        <v>15923</v>
+        <v>15945</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
@@ -9235,11 +9235,11 @@
         <v>44503</v>
       </c>
       <c r="B674">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C674" s="4">
         <f t="shared" si="36"/>
-        <v>15932</v>
+        <v>15955</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
@@ -9248,11 +9248,11 @@
         <v>44504</v>
       </c>
       <c r="B675">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C675" s="4">
         <f t="shared" si="36"/>
-        <v>15942</v>
+        <v>15969</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
@@ -9261,11 +9261,11 @@
         <v>44505</v>
       </c>
       <c r="B676">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C676" s="4">
         <f t="shared" si="36"/>
-        <v>15951</v>
+        <v>15980</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
@@ -9274,11 +9274,11 @@
         <v>44506</v>
       </c>
       <c r="B677">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C677" s="4">
         <f t="shared" ref="C677:C679" si="37">C676+B677</f>
-        <v>15965</v>
+        <v>15997</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
@@ -9287,11 +9287,11 @@
         <v>44507</v>
       </c>
       <c r="B678">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C678" s="4">
         <f t="shared" si="37"/>
-        <v>15977</v>
+        <v>16012</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
@@ -9300,11 +9300,11 @@
         <v>44508</v>
       </c>
       <c r="B679">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C679" s="4">
         <f t="shared" si="37"/>
-        <v>15985</v>
+        <v>16021</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
@@ -9313,11 +9313,11 @@
         <v>44509</v>
       </c>
       <c r="B680">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C680" s="4">
-        <f t="shared" ref="C680:C693" si="38">C679+B680</f>
-        <v>15992</v>
+        <f t="shared" ref="C680:C704" si="38">C679+B680</f>
+        <v>16029</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
@@ -9326,11 +9326,11 @@
         <v>44510</v>
       </c>
       <c r="B681">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C681" s="4">
         <f t="shared" si="38"/>
-        <v>16001</v>
+        <v>16042</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
@@ -9339,11 +9339,11 @@
         <v>44511</v>
       </c>
       <c r="B682">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C682" s="4">
         <f t="shared" si="38"/>
-        <v>16004</v>
+        <v>16047</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
@@ -9352,11 +9352,11 @@
         <v>44512</v>
       </c>
       <c r="B683">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C683" s="4">
         <f t="shared" si="38"/>
-        <v>16008</v>
+        <v>16056</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
@@ -9365,11 +9365,11 @@
         <v>44513</v>
       </c>
       <c r="B684">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C684" s="4">
         <f t="shared" si="38"/>
-        <v>16012</v>
+        <v>16063</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
@@ -9378,11 +9378,11 @@
         <v>44514</v>
       </c>
       <c r="B685">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C685" s="4">
         <f t="shared" si="38"/>
-        <v>16014</v>
+        <v>16068</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
@@ -9390,9 +9390,12 @@
         <f t="shared" si="33"/>
         <v>44515</v>
       </c>
+      <c r="B686">
+        <v>3</v>
+      </c>
       <c r="C686" s="4">
         <f t="shared" si="38"/>
-        <v>16014</v>
+        <v>16071</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
@@ -9400,9 +9403,12 @@
         <f t="shared" si="33"/>
         <v>44516</v>
       </c>
+      <c r="B687">
+        <v>5</v>
+      </c>
       <c r="C687" s="4">
         <f t="shared" si="38"/>
-        <v>16014</v>
+        <v>16076</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
@@ -9410,9 +9416,12 @@
         <f t="shared" si="33"/>
         <v>44517</v>
       </c>
+      <c r="B688">
+        <v>5</v>
+      </c>
       <c r="C688" s="4">
         <f t="shared" si="38"/>
-        <v>16014</v>
+        <v>16081</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
@@ -9420,9 +9429,12 @@
         <f t="shared" si="33"/>
         <v>44518</v>
       </c>
+      <c r="B689">
+        <v>3</v>
+      </c>
       <c r="C689" s="4">
         <f t="shared" si="38"/>
-        <v>16014</v>
+        <v>16084</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
@@ -9430,9 +9442,12 @@
         <f t="shared" si="33"/>
         <v>44519</v>
       </c>
+      <c r="B690">
+        <v>3</v>
+      </c>
       <c r="C690" s="4">
         <f t="shared" si="38"/>
-        <v>16014</v>
+        <v>16087</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
@@ -9440,9 +9455,12 @@
         <f t="shared" si="33"/>
         <v>44520</v>
       </c>
+      <c r="B691">
+        <v>5</v>
+      </c>
       <c r="C691" s="4">
         <f t="shared" si="38"/>
-        <v>16014</v>
+        <v>16092</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
@@ -9450,9 +9468,12 @@
         <f t="shared" si="33"/>
         <v>44521</v>
       </c>
+      <c r="B692">
+        <v>3</v>
+      </c>
       <c r="C692" s="4">
         <f t="shared" si="38"/>
-        <v>16014</v>
+        <v>16095</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
@@ -9460,10 +9481,159 @@
         <f t="shared" si="33"/>
         <v>44522</v>
       </c>
+      <c r="B693">
+        <v>4</v>
+      </c>
       <c r="C693" s="4">
         <f t="shared" si="38"/>
-        <v>16014</v>
-      </c>
+        <v>16099</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694" s="3">
+        <f t="shared" si="33"/>
+        <v>44523</v>
+      </c>
+      <c r="B694">
+        <v>5</v>
+      </c>
+      <c r="C694" s="4">
+        <f t="shared" si="38"/>
+        <v>16104</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695" s="3">
+        <f t="shared" si="33"/>
+        <v>44524</v>
+      </c>
+      <c r="B695">
+        <v>3</v>
+      </c>
+      <c r="C695" s="4">
+        <f t="shared" si="38"/>
+        <v>16107</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696" s="3">
+        <f t="shared" si="33"/>
+        <v>44525</v>
+      </c>
+      <c r="B696">
+        <v>2</v>
+      </c>
+      <c r="C696" s="4">
+        <f t="shared" si="38"/>
+        <v>16109</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" s="3">
+        <f t="shared" si="33"/>
+        <v>44526</v>
+      </c>
+      <c r="B697">
+        <v>1</v>
+      </c>
+      <c r="C697" s="4">
+        <f t="shared" si="38"/>
+        <v>16110</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" s="3">
+        <f t="shared" si="33"/>
+        <v>44527</v>
+      </c>
+      <c r="B698">
+        <v>4</v>
+      </c>
+      <c r="C698" s="4">
+        <f t="shared" si="38"/>
+        <v>16114</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" s="3">
+        <f t="shared" si="33"/>
+        <v>44528</v>
+      </c>
+      <c r="B699">
+        <v>3</v>
+      </c>
+      <c r="C699" s="4">
+        <f t="shared" si="38"/>
+        <v>16117</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700" s="3">
+        <f t="shared" si="33"/>
+        <v>44529</v>
+      </c>
+      <c r="B700">
+        <v>1</v>
+      </c>
+      <c r="C700" s="4">
+        <f t="shared" si="38"/>
+        <v>16118</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701" s="3">
+        <f t="shared" si="33"/>
+        <v>44530</v>
+      </c>
+      <c r="B701">
+        <v>1</v>
+      </c>
+      <c r="C701" s="4">
+        <f t="shared" si="38"/>
+        <v>16119</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702" s="3">
+        <f t="shared" si="33"/>
+        <v>44531</v>
+      </c>
+      <c r="C702" s="4">
+        <f t="shared" si="38"/>
+        <v>16119</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703" s="3">
+        <f t="shared" si="33"/>
+        <v>44532</v>
+      </c>
+      <c r="C703" s="4">
+        <f t="shared" si="38"/>
+        <v>16119</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704" s="3">
+        <f t="shared" si="33"/>
+        <v>44533</v>
+      </c>
+      <c r="C704" s="4">
+        <f t="shared" si="38"/>
+        <v>16119</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705" s="3"/>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706" s="3"/>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707" s="3"/>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9473,11 +9643,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C77E57-C0B4-9B4C-98EA-985C0D327C7F}">
-  <dimension ref="A1:C633"/>
+  <dimension ref="A1:C647"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A613" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A634" sqref="A634"/>
+      <pane ySplit="1" topLeftCell="A547" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B570" sqref="B570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16606,11 +16776,11 @@
         <v>44463</v>
       </c>
       <c r="B574">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C574" s="4">
         <f t="shared" si="25"/>
-        <v>20188</v>
+        <v>20187</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
@@ -16623,7 +16793,7 @@
       </c>
       <c r="C575" s="4">
         <f t="shared" si="25"/>
-        <v>20222</v>
+        <v>20221</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -16636,7 +16806,7 @@
       </c>
       <c r="C576" s="4">
         <f t="shared" si="25"/>
-        <v>20258</v>
+        <v>20257</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -16645,7 +16815,7 @@
         <v>44466</v>
       </c>
       <c r="B577">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C577" s="4">
         <f t="shared" si="25"/>
@@ -16671,11 +16841,11 @@
         <v>44468</v>
       </c>
       <c r="B579">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C579" s="4">
         <f t="shared" si="25"/>
-        <v>20392</v>
+        <v>20393</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
@@ -16688,7 +16858,7 @@
       </c>
       <c r="C580" s="4">
         <f t="shared" si="25"/>
-        <v>20419</v>
+        <v>20420</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -16697,11 +16867,11 @@
         <v>44470</v>
       </c>
       <c r="B581">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C581" s="4">
         <f t="shared" si="25"/>
-        <v>20461</v>
+        <v>20463</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -16714,7 +16884,7 @@
       </c>
       <c r="C582" s="4">
         <f t="shared" si="25"/>
-        <v>20496</v>
+        <v>20498</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
@@ -16727,7 +16897,7 @@
       </c>
       <c r="C583" s="4">
         <f t="shared" ref="C583" si="26">C582+B583</f>
-        <v>20545</v>
+        <v>20547</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -16740,7 +16910,7 @@
       </c>
       <c r="C584" s="4">
         <f t="shared" ref="C584:C602" si="27">C583+B584</f>
-        <v>20578</v>
+        <v>20580</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
@@ -16749,11 +16919,11 @@
         <v>44474</v>
       </c>
       <c r="B585">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C585" s="4">
         <f t="shared" si="27"/>
-        <v>20607</v>
+        <v>20610</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -16762,11 +16932,11 @@
         <v>44475</v>
       </c>
       <c r="B586">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C586" s="4">
         <f t="shared" si="27"/>
-        <v>20644</v>
+        <v>20646</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -16779,12 +16949,12 @@
       </c>
       <c r="C587" s="4">
         <f t="shared" si="27"/>
-        <v>20676</v>
+        <v>20678</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" s="2">
-        <f t="shared" ref="A588:A633" si="28">A587+1</f>
+        <f t="shared" ref="A588:A647" si="28">A587+1</f>
         <v>44477</v>
       </c>
       <c r="B588">
@@ -16792,7 +16962,7 @@
       </c>
       <c r="C588" s="4">
         <f t="shared" si="27"/>
-        <v>20713</v>
+        <v>20715</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
@@ -16805,7 +16975,7 @@
       </c>
       <c r="C589" s="4">
         <f t="shared" si="27"/>
-        <v>20746</v>
+        <v>20748</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
@@ -16818,7 +16988,7 @@
       </c>
       <c r="C590" s="4">
         <f t="shared" si="27"/>
-        <v>20788</v>
+        <v>20790</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
@@ -16827,11 +16997,11 @@
         <v>44480</v>
       </c>
       <c r="B591">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C591" s="4">
         <f t="shared" si="27"/>
-        <v>20827</v>
+        <v>20831</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
@@ -16840,11 +17010,11 @@
         <v>44481</v>
       </c>
       <c r="B592">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C592" s="4">
         <f t="shared" si="27"/>
-        <v>20861</v>
+        <v>20866</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
@@ -16857,7 +17027,7 @@
       </c>
       <c r="C593" s="4">
         <f t="shared" si="27"/>
-        <v>20906</v>
+        <v>20911</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -16866,11 +17036,11 @@
         <v>44483</v>
       </c>
       <c r="B594">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C594" s="4">
         <f t="shared" si="27"/>
-        <v>20942</v>
+        <v>20948</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -16879,11 +17049,11 @@
         <v>44484</v>
       </c>
       <c r="B595">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C595" s="4">
         <f t="shared" si="27"/>
-        <v>20974</v>
+        <v>20982</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -16892,11 +17062,11 @@
         <v>44485</v>
       </c>
       <c r="B596">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C596" s="4">
         <f t="shared" si="27"/>
-        <v>21012</v>
+        <v>21021</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -16905,11 +17075,11 @@
         <v>44486</v>
       </c>
       <c r="B597">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C597" s="4">
         <f t="shared" si="27"/>
-        <v>21041</v>
+        <v>21052</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -16918,11 +17088,11 @@
         <v>44487</v>
       </c>
       <c r="B598">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C598" s="4">
         <f t="shared" si="27"/>
-        <v>21079</v>
+        <v>21091</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -16931,11 +17101,11 @@
         <v>44488</v>
       </c>
       <c r="B599">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C599" s="4">
         <f t="shared" si="27"/>
-        <v>21108</v>
+        <v>21121</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -16948,7 +17118,7 @@
       </c>
       <c r="C600" s="4">
         <f t="shared" si="27"/>
-        <v>21137</v>
+        <v>21150</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -16957,11 +17127,11 @@
         <v>44490</v>
       </c>
       <c r="B601">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C601" s="4">
         <f t="shared" si="27"/>
-        <v>21167</v>
+        <v>21181</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -16970,11 +17140,11 @@
         <v>44491</v>
       </c>
       <c r="B602">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C602" s="4">
         <f t="shared" si="27"/>
-        <v>21207</v>
+        <v>21222</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -16987,7 +17157,7 @@
       </c>
       <c r="C603" s="4">
         <f t="shared" ref="C603:C619" si="29">C602+B603</f>
-        <v>21240</v>
+        <v>21255</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -17000,7 +17170,7 @@
       </c>
       <c r="C604" s="4">
         <f t="shared" si="29"/>
-        <v>21278</v>
+        <v>21293</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
@@ -17009,11 +17179,11 @@
         <v>44494</v>
       </c>
       <c r="B605">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C605" s="4">
         <f t="shared" si="29"/>
-        <v>21305</v>
+        <v>21321</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -17026,7 +17196,7 @@
       </c>
       <c r="C606" s="4">
         <f t="shared" si="29"/>
-        <v>21347</v>
+        <v>21363</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -17039,7 +17209,7 @@
       </c>
       <c r="C607" s="4">
         <f t="shared" si="29"/>
-        <v>21383</v>
+        <v>21399</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -17052,7 +17222,7 @@
       </c>
       <c r="C608" s="4">
         <f t="shared" si="29"/>
-        <v>21413</v>
+        <v>21429</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -17065,7 +17235,7 @@
       </c>
       <c r="C609" s="4">
         <f t="shared" si="29"/>
-        <v>21456</v>
+        <v>21472</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -17074,11 +17244,11 @@
         <v>44499</v>
       </c>
       <c r="B610">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C610" s="4">
         <f t="shared" si="29"/>
-        <v>21511</v>
+        <v>21531</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
@@ -17087,11 +17257,11 @@
         <v>44500</v>
       </c>
       <c r="B611">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C611" s="4">
         <f t="shared" si="29"/>
-        <v>21541</v>
+        <v>21562</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
@@ -17100,11 +17270,11 @@
         <v>44501</v>
       </c>
       <c r="B612">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C612" s="4">
         <f t="shared" si="29"/>
-        <v>21571</v>
+        <v>21596</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
@@ -17113,11 +17283,11 @@
         <v>44502</v>
       </c>
       <c r="B613">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C613" s="4">
         <f t="shared" si="29"/>
-        <v>21608</v>
+        <v>21637</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
@@ -17126,11 +17296,11 @@
         <v>44503</v>
       </c>
       <c r="B614">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C614" s="4">
         <f t="shared" si="29"/>
-        <v>21639</v>
+        <v>21671</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -17139,11 +17309,11 @@
         <v>44504</v>
       </c>
       <c r="B615">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C615" s="4">
         <f t="shared" si="29"/>
-        <v>21678</v>
+        <v>21717</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
@@ -17152,11 +17322,11 @@
         <v>44505</v>
       </c>
       <c r="B616">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C616" s="4">
         <f t="shared" si="29"/>
-        <v>21712</v>
+        <v>21754</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -17165,11 +17335,11 @@
         <v>44506</v>
       </c>
       <c r="B617">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C617" s="4">
         <f t="shared" si="29"/>
-        <v>21739</v>
+        <v>21792</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -17178,11 +17348,11 @@
         <v>44507</v>
       </c>
       <c r="B618">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C618" s="4">
         <f t="shared" si="29"/>
-        <v>21775</v>
+        <v>21839</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
@@ -17191,11 +17361,11 @@
         <v>44508</v>
       </c>
       <c r="B619">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C619" s="4">
         <f t="shared" si="29"/>
-        <v>21810</v>
+        <v>21884</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -17204,11 +17374,11 @@
         <v>44509</v>
       </c>
       <c r="B620">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C620" s="4">
         <f t="shared" ref="C620" si="30">C619+B620</f>
-        <v>21843</v>
+        <v>21928</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -17217,11 +17387,11 @@
         <v>44510</v>
       </c>
       <c r="B621">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C621" s="4">
         <f t="shared" ref="C621:C633" si="31">C620+B621</f>
-        <v>21875</v>
+        <v>21982</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
@@ -17230,11 +17400,11 @@
         <v>44511</v>
       </c>
       <c r="B622">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C622" s="4">
         <f t="shared" si="31"/>
-        <v>21896</v>
+        <v>22023</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -17243,11 +17413,11 @@
         <v>44512</v>
       </c>
       <c r="B623">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C623" s="4">
         <f t="shared" si="31"/>
-        <v>21912</v>
+        <v>22076</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
@@ -17256,11 +17426,11 @@
         <v>44513</v>
       </c>
       <c r="B624">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C624" s="4">
         <f t="shared" si="31"/>
-        <v>21927</v>
+        <v>22111</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
@@ -17269,11 +17439,11 @@
         <v>44514</v>
       </c>
       <c r="B625">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C625" s="4">
         <f t="shared" si="31"/>
-        <v>21941</v>
+        <v>22152</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
@@ -17282,11 +17452,11 @@
         <v>44515</v>
       </c>
       <c r="B626">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C626" s="4">
         <f t="shared" si="31"/>
-        <v>21950</v>
+        <v>22195</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -17294,9 +17464,12 @@
         <f t="shared" si="28"/>
         <v>44516</v>
       </c>
+      <c r="B627">
+        <v>38</v>
+      </c>
       <c r="C627" s="4">
         <f t="shared" si="31"/>
-        <v>21950</v>
+        <v>22233</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
@@ -17304,9 +17477,12 @@
         <f t="shared" si="28"/>
         <v>44517</v>
       </c>
+      <c r="B628">
+        <v>38</v>
+      </c>
       <c r="C628" s="4">
         <f t="shared" si="31"/>
-        <v>21950</v>
+        <v>22271</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
@@ -17314,9 +17490,12 @@
         <f t="shared" si="28"/>
         <v>44518</v>
       </c>
+      <c r="B629">
+        <v>37</v>
+      </c>
       <c r="C629" s="4">
         <f t="shared" si="31"/>
-        <v>21950</v>
+        <v>22308</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
@@ -17324,9 +17503,12 @@
         <f t="shared" si="28"/>
         <v>44519</v>
       </c>
+      <c r="B630">
+        <v>36</v>
+      </c>
       <c r="C630" s="4">
         <f t="shared" si="31"/>
-        <v>21950</v>
+        <v>22344</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
@@ -17334,9 +17516,12 @@
         <f t="shared" si="28"/>
         <v>44520</v>
       </c>
+      <c r="B631">
+        <v>47</v>
+      </c>
       <c r="C631" s="4">
         <f t="shared" si="31"/>
-        <v>21950</v>
+        <v>22391</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
@@ -17344,9 +17529,12 @@
         <f t="shared" si="28"/>
         <v>44521</v>
       </c>
+      <c r="B632">
+        <v>40</v>
+      </c>
       <c r="C632" s="4">
         <f t="shared" si="31"/>
-        <v>21950</v>
+        <v>22431</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
@@ -17354,9 +17542,179 @@
         <f t="shared" si="28"/>
         <v>44522</v>
       </c>
+      <c r="B633">
+        <v>31</v>
+      </c>
       <c r="C633" s="4">
         <f t="shared" si="31"/>
-        <v>21950</v>
+        <v>22462</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="2">
+        <f t="shared" si="28"/>
+        <v>44523</v>
+      </c>
+      <c r="B634">
+        <v>25</v>
+      </c>
+      <c r="C634" s="4">
+        <f t="shared" ref="C634:C647" si="32">C633+B634</f>
+        <v>22487</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="2">
+        <f t="shared" si="28"/>
+        <v>44524</v>
+      </c>
+      <c r="B635">
+        <v>19</v>
+      </c>
+      <c r="C635" s="4">
+        <f t="shared" si="32"/>
+        <v>22506</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="2">
+        <f t="shared" si="28"/>
+        <v>44525</v>
+      </c>
+      <c r="B636">
+        <v>17</v>
+      </c>
+      <c r="C636" s="4">
+        <f t="shared" si="32"/>
+        <v>22523</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="2">
+        <f t="shared" si="28"/>
+        <v>44526</v>
+      </c>
+      <c r="B637">
+        <v>17</v>
+      </c>
+      <c r="C637" s="4">
+        <f t="shared" si="32"/>
+        <v>22540</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="2">
+        <f t="shared" si="28"/>
+        <v>44527</v>
+      </c>
+      <c r="B638">
+        <v>16</v>
+      </c>
+      <c r="C638" s="4">
+        <f t="shared" si="32"/>
+        <v>22556</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="2">
+        <f t="shared" si="28"/>
+        <v>44528</v>
+      </c>
+      <c r="B639">
+        <v>6</v>
+      </c>
+      <c r="C639" s="4">
+        <f t="shared" si="32"/>
+        <v>22562</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="2">
+        <f t="shared" si="28"/>
+        <v>44529</v>
+      </c>
+      <c r="B640">
+        <v>6</v>
+      </c>
+      <c r="C640" s="4">
+        <f t="shared" si="32"/>
+        <v>22568</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="2">
+        <f t="shared" si="28"/>
+        <v>44530</v>
+      </c>
+      <c r="B641">
+        <v>3</v>
+      </c>
+      <c r="C641" s="4">
+        <f t="shared" si="32"/>
+        <v>22571</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="2">
+        <f t="shared" si="28"/>
+        <v>44531</v>
+      </c>
+      <c r="B642">
+        <v>5</v>
+      </c>
+      <c r="C642" s="4">
+        <f t="shared" si="32"/>
+        <v>22576</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="2">
+        <f t="shared" si="28"/>
+        <v>44532</v>
+      </c>
+      <c r="C643" s="4">
+        <f t="shared" si="32"/>
+        <v>22576</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="2">
+        <f t="shared" si="28"/>
+        <v>44533</v>
+      </c>
+      <c r="C644" s="4">
+        <f t="shared" si="32"/>
+        <v>22576</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" s="2">
+        <f t="shared" si="28"/>
+        <v>44534</v>
+      </c>
+      <c r="C645" s="4">
+        <f t="shared" si="32"/>
+        <v>22576</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" s="2">
+        <f t="shared" si="28"/>
+        <v>44535</v>
+      </c>
+      <c r="C646" s="4">
+        <f t="shared" si="32"/>
+        <v>22576</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" s="2">
+        <f t="shared" si="28"/>
+        <v>44536</v>
+      </c>
+      <c r="C647" s="4">
+        <f t="shared" si="32"/>
+        <v>22576</v>
       </c>
     </row>
   </sheetData>
@@ -17366,11 +17724,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E4AC50-8CCA-1540-A424-2CAC1A9866A5}">
-  <dimension ref="A1:C630"/>
+  <dimension ref="A1:C644"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A596" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A596" sqref="A596"/>
+      <pane ySplit="1" topLeftCell="A553" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B574" sqref="B574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24856,7 +25214,7 @@
       </c>
       <c r="C576">
         <f t="shared" si="24"/>
-        <v>6713</v>
+        <v>6714</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -24869,7 +25227,7 @@
       </c>
       <c r="C577">
         <f t="shared" si="24"/>
-        <v>6725</v>
+        <v>6727</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -24878,11 +25236,11 @@
         <v>44467</v>
       </c>
       <c r="B578">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C578">
         <f t="shared" si="24"/>
-        <v>6741</v>
+        <v>6740</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -24891,20 +25249,20 @@
         <v>44468</v>
       </c>
       <c r="B579">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C579">
         <f t="shared" si="24"/>
-        <v>6762</v>
+        <v>6761</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
-        <f t="shared" ref="A580:A630" si="25">A579+1</f>
+        <f t="shared" ref="A580:A643" si="25">A579+1</f>
         <v>44469</v>
       </c>
       <c r="B580">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C580">
         <f t="shared" si="24"/>
@@ -24930,7 +25288,7 @@
         <v>44471</v>
       </c>
       <c r="B582">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C582">
         <f t="shared" si="24"/>
@@ -24947,7 +25305,7 @@
       </c>
       <c r="C583">
         <f t="shared" ref="C583:C602" si="26">C582+B585</f>
-        <v>6811</v>
+        <v>6812</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -24960,7 +25318,7 @@
       </c>
       <c r="C584">
         <f t="shared" si="26"/>
-        <v>6826</v>
+        <v>6830</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
@@ -24969,11 +25327,11 @@
         <v>44474</v>
       </c>
       <c r="B585">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C585">
         <f t="shared" si="26"/>
-        <v>6845</v>
+        <v>6849</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -24982,11 +25340,11 @@
         <v>44475</v>
       </c>
       <c r="B586">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C586">
         <f t="shared" si="26"/>
-        <v>6862</v>
+        <v>6866</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -24999,7 +25357,7 @@
       </c>
       <c r="C587">
         <f t="shared" si="26"/>
-        <v>6881</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
@@ -25012,7 +25370,7 @@
       </c>
       <c r="C588">
         <f t="shared" si="26"/>
-        <v>6898</v>
+        <v>6903</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
@@ -25025,7 +25383,7 @@
       </c>
       <c r="C589">
         <f t="shared" si="26"/>
-        <v>6912</v>
+        <v>6918</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
@@ -25034,11 +25392,11 @@
         <v>44479</v>
       </c>
       <c r="B590">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C590">
         <f t="shared" si="26"/>
-        <v>6926</v>
+        <v>6932</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
@@ -25047,11 +25405,11 @@
         <v>44480</v>
       </c>
       <c r="B591">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C591">
         <f t="shared" si="26"/>
-        <v>6946</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
@@ -25064,7 +25422,7 @@
       </c>
       <c r="C592">
         <f t="shared" si="26"/>
-        <v>6958</v>
+        <v>6964</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
@@ -25077,7 +25435,7 @@
       </c>
       <c r="C593">
         <f t="shared" si="26"/>
-        <v>6970</v>
+        <v>6978</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -25090,7 +25448,7 @@
       </c>
       <c r="C594">
         <f t="shared" si="26"/>
-        <v>6985</v>
+        <v>6994</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -25099,11 +25457,11 @@
         <v>44484</v>
       </c>
       <c r="B595">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C595">
         <f t="shared" si="26"/>
-        <v>6997</v>
+        <v>7003</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -25112,11 +25470,11 @@
         <v>44485</v>
       </c>
       <c r="B596">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C596">
         <f t="shared" si="26"/>
-        <v>7012</v>
+        <v>7019</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -25125,11 +25483,11 @@
         <v>44486</v>
       </c>
       <c r="B597">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C597">
         <f t="shared" si="26"/>
-        <v>7023</v>
+        <v>7031</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -25138,11 +25496,11 @@
         <v>44487</v>
       </c>
       <c r="B598">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C598">
         <f t="shared" si="26"/>
-        <v>7041</v>
+        <v>7049</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -25151,11 +25509,11 @@
         <v>44488</v>
       </c>
       <c r="B599">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C599">
         <f t="shared" si="26"/>
-        <v>7052</v>
+        <v>7060</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -25168,7 +25526,7 @@
       </c>
       <c r="C600">
         <f t="shared" si="26"/>
-        <v>7068</v>
+        <v>7077</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -25181,7 +25539,7 @@
       </c>
       <c r="C601">
         <f t="shared" si="26"/>
-        <v>7083</v>
+        <v>7097</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -25190,11 +25548,11 @@
         <v>44491</v>
       </c>
       <c r="B602">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C602">
         <f t="shared" si="26"/>
-        <v>7099</v>
+        <v>7116</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -25203,11 +25561,11 @@
         <v>44492</v>
       </c>
       <c r="B603">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C603">
         <f t="shared" ref="C603:C616" si="27">C602+B605</f>
-        <v>7105</v>
+        <v>7124</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -25216,11 +25574,11 @@
         <v>44493</v>
       </c>
       <c r="B604">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C604">
         <f t="shared" si="27"/>
-        <v>7112</v>
+        <v>7134</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
@@ -25229,11 +25587,11 @@
         <v>44494</v>
       </c>
       <c r="B605">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C605">
         <f t="shared" si="27"/>
-        <v>7127</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -25242,11 +25600,11 @@
         <v>44495</v>
       </c>
       <c r="B606">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C606">
         <f t="shared" si="27"/>
-        <v>7132</v>
+        <v>7155</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -25255,11 +25613,11 @@
         <v>44496</v>
       </c>
       <c r="B607">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C607">
         <f t="shared" si="27"/>
-        <v>7140</v>
+        <v>7167</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -25272,7 +25630,7 @@
       </c>
       <c r="C608">
         <f t="shared" si="27"/>
-        <v>7151</v>
+        <v>7181</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -25281,11 +25639,11 @@
         <v>44498</v>
       </c>
       <c r="B609">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C609">
         <f t="shared" si="27"/>
-        <v>7160</v>
+        <v>7195</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -25294,11 +25652,11 @@
         <v>44499</v>
       </c>
       <c r="B610">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C610">
         <f t="shared" si="27"/>
-        <v>7167</v>
+        <v>7206</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
@@ -25307,11 +25665,11 @@
         <v>44500</v>
       </c>
       <c r="B611">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C611">
         <f t="shared" si="27"/>
-        <v>7177</v>
+        <v>7218</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
@@ -25320,11 +25678,11 @@
         <v>44501</v>
       </c>
       <c r="B612">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C612">
         <f t="shared" si="27"/>
-        <v>7189</v>
+        <v>7231</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
@@ -25333,11 +25691,11 @@
         <v>44502</v>
       </c>
       <c r="B613">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C613">
         <f t="shared" si="27"/>
-        <v>7199</v>
+        <v>7241</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
@@ -25346,11 +25704,11 @@
         <v>44503</v>
       </c>
       <c r="B614">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C614">
         <f t="shared" si="27"/>
-        <v>7207</v>
+        <v>7255</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -25363,7 +25721,7 @@
       </c>
       <c r="C615">
         <f t="shared" si="27"/>
-        <v>7211</v>
+        <v>7261</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
@@ -25372,11 +25730,11 @@
         <v>44505</v>
       </c>
       <c r="B616">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C616">
         <f t="shared" si="27"/>
-        <v>7218</v>
+        <v>7268</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -25385,11 +25743,11 @@
         <v>44506</v>
       </c>
       <c r="B617">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C617">
         <f t="shared" ref="C617" si="28">C616+B619</f>
-        <v>7221</v>
+        <v>7276</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -25402,7 +25760,7 @@
       </c>
       <c r="C618">
         <f t="shared" ref="C618:C630" si="29">C617+B620</f>
-        <v>7223</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
@@ -25411,11 +25769,11 @@
         <v>44508</v>
       </c>
       <c r="B619">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C619">
         <f t="shared" si="29"/>
-        <v>7223</v>
+        <v>7296</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -25424,11 +25782,11 @@
         <v>44509</v>
       </c>
       <c r="B620">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C620">
         <f t="shared" si="29"/>
-        <v>7226</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -25436,9 +25794,12 @@
         <f t="shared" si="25"/>
         <v>44510</v>
       </c>
+      <c r="B621">
+        <v>12</v>
+      </c>
       <c r="C621">
         <f t="shared" si="29"/>
-        <v>7226</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
@@ -25447,11 +25808,11 @@
         <v>44511</v>
       </c>
       <c r="B622">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C622">
         <f t="shared" si="29"/>
-        <v>7226</v>
+        <v>7328</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -25459,9 +25820,12 @@
         <f t="shared" si="25"/>
         <v>44512</v>
       </c>
+      <c r="B623">
+        <v>10</v>
+      </c>
       <c r="C623">
         <f t="shared" si="29"/>
-        <v>7226</v>
+        <v>7333</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
@@ -25469,9 +25833,12 @@
         <f t="shared" si="25"/>
         <v>44513</v>
       </c>
+      <c r="B624">
+        <v>8</v>
+      </c>
       <c r="C624">
         <f t="shared" si="29"/>
-        <v>7226</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
@@ -25479,9 +25846,12 @@
         <f t="shared" si="25"/>
         <v>44514</v>
       </c>
+      <c r="B625">
+        <v>5</v>
+      </c>
       <c r="C625">
         <f t="shared" si="29"/>
-        <v>7226</v>
+        <v>7352</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
@@ -25489,9 +25859,12 @@
         <f t="shared" si="25"/>
         <v>44515</v>
       </c>
+      <c r="B626">
+        <v>9</v>
+      </c>
       <c r="C626">
         <f t="shared" si="29"/>
-        <v>7226</v>
+        <v>7361</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -25499,9 +25872,12 @@
         <f t="shared" si="25"/>
         <v>44516</v>
       </c>
+      <c r="B627">
+        <v>10</v>
+      </c>
       <c r="C627">
         <f t="shared" si="29"/>
-        <v>7226</v>
+        <v>7369</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
@@ -25509,9 +25885,12 @@
         <f t="shared" si="25"/>
         <v>44517</v>
       </c>
+      <c r="B628">
+        <v>9</v>
+      </c>
       <c r="C628">
         <f t="shared" si="29"/>
-        <v>7226</v>
+        <v>7376</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
@@ -25519,9 +25898,12 @@
         <f t="shared" si="25"/>
         <v>44518</v>
       </c>
+      <c r="B629">
+        <v>8</v>
+      </c>
       <c r="C629">
         <f t="shared" si="29"/>
-        <v>7226</v>
+        <v>7383</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
@@ -25529,9 +25911,182 @@
         <f t="shared" si="25"/>
         <v>44519</v>
       </c>
+      <c r="B630">
+        <v>7</v>
+      </c>
       <c r="C630">
         <f t="shared" si="29"/>
-        <v>7226</v>
+        <v>7387</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="2">
+        <f t="shared" si="25"/>
+        <v>44520</v>
+      </c>
+      <c r="B631">
+        <v>7</v>
+      </c>
+      <c r="C631">
+        <f t="shared" ref="C631:C644" si="30">C630+B633</f>
+        <v>7389</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="2">
+        <f t="shared" si="25"/>
+        <v>44521</v>
+      </c>
+      <c r="B632">
+        <v>4</v>
+      </c>
+      <c r="C632">
+        <f t="shared" si="30"/>
+        <v>7392</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="2">
+        <f t="shared" si="25"/>
+        <v>44522</v>
+      </c>
+      <c r="B633">
+        <v>2</v>
+      </c>
+      <c r="C633">
+        <f t="shared" si="30"/>
+        <v>7392</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="2">
+        <f t="shared" si="25"/>
+        <v>44523</v>
+      </c>
+      <c r="B634">
+        <v>3</v>
+      </c>
+      <c r="C634">
+        <f t="shared" si="30"/>
+        <v>7392</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="2">
+        <f t="shared" si="25"/>
+        <v>44524</v>
+      </c>
+      <c r="B635">
+        <v>0</v>
+      </c>
+      <c r="C635">
+        <f t="shared" si="30"/>
+        <v>7393</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="2">
+        <f t="shared" si="25"/>
+        <v>44525</v>
+      </c>
+      <c r="B636">
+        <v>0</v>
+      </c>
+      <c r="C636">
+        <f t="shared" si="30"/>
+        <v>7393</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="2">
+        <f t="shared" si="25"/>
+        <v>44526</v>
+      </c>
+      <c r="B637">
+        <v>1</v>
+      </c>
+      <c r="C637">
+        <f t="shared" si="30"/>
+        <v>7393</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="2">
+        <f t="shared" si="25"/>
+        <v>44527</v>
+      </c>
+      <c r="B638">
+        <v>0</v>
+      </c>
+      <c r="C638">
+        <f t="shared" si="30"/>
+        <v>7394</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="2">
+        <f t="shared" si="25"/>
+        <v>44528</v>
+      </c>
+      <c r="B639">
+        <v>0</v>
+      </c>
+      <c r="C639">
+        <f t="shared" si="30"/>
+        <v>7394</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="2">
+        <f t="shared" si="25"/>
+        <v>44529</v>
+      </c>
+      <c r="B640">
+        <v>1</v>
+      </c>
+      <c r="C640">
+        <f t="shared" si="30"/>
+        <v>7394</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="2">
+        <f t="shared" si="25"/>
+        <v>44530</v>
+      </c>
+      <c r="C641">
+        <f t="shared" si="30"/>
+        <v>7394</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="2">
+        <f t="shared" si="25"/>
+        <v>44531</v>
+      </c>
+      <c r="C642">
+        <f t="shared" si="30"/>
+        <v>7394</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="2">
+        <f t="shared" si="25"/>
+        <v>44532</v>
+      </c>
+      <c r="C643">
+        <f t="shared" si="30"/>
+        <v>7394</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="2">
+        <f t="shared" ref="A644" si="31">A643+1</f>
+        <v>44533</v>
+      </c>
+      <c r="C644">
+        <f t="shared" si="30"/>
+        <v>7394</v>
       </c>
     </row>
   </sheetData>
@@ -25542,11 +26097,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB9FD01-DC18-004F-B15D-973BF1FC9330}">
-  <dimension ref="A1:C634"/>
+  <dimension ref="A1:C646"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A608" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A608" sqref="A608"/>
+      <pane ySplit="1" topLeftCell="A583" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B596" sqref="B596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33076,7 +33631,7 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
-        <f t="shared" ref="A580:A632" si="28">A579+1</f>
+        <f t="shared" ref="A580:A643" si="28">A579+1</f>
         <v>44469</v>
       </c>
       <c r="B580">
@@ -33266,7 +33821,7 @@
       </c>
       <c r="C594">
         <f t="shared" si="29"/>
-        <v>6371</v>
+        <v>6372</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -33279,7 +33834,7 @@
       </c>
       <c r="C595">
         <f t="shared" si="29"/>
-        <v>6383</v>
+        <v>6384</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -33292,7 +33847,7 @@
       </c>
       <c r="C596">
         <f t="shared" si="29"/>
-        <v>6391</v>
+        <v>6392</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -33301,7 +33856,7 @@
         <v>44486</v>
       </c>
       <c r="B597">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C597">
         <f t="shared" si="29"/>
@@ -33318,7 +33873,7 @@
       </c>
       <c r="C598">
         <f t="shared" si="29"/>
-        <v>6417</v>
+        <v>6418</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -33331,7 +33886,7 @@
       </c>
       <c r="C599">
         <f t="shared" si="29"/>
-        <v>6435</v>
+        <v>6436</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -33340,11 +33895,11 @@
         <v>44489</v>
       </c>
       <c r="B600">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C600">
         <f t="shared" si="29"/>
-        <v>6445</v>
+        <v>6446</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -33353,11 +33908,11 @@
         <v>44490</v>
       </c>
       <c r="B601">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C601">
         <f t="shared" si="29"/>
-        <v>6458</v>
+        <v>6459</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -33370,7 +33925,7 @@
       </c>
       <c r="C602">
         <f t="shared" si="29"/>
-        <v>6466</v>
+        <v>6467</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -33383,7 +33938,7 @@
       </c>
       <c r="C603">
         <f t="shared" ref="C603:C620" si="30">C602+B606</f>
-        <v>6472</v>
+        <v>6474</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -33396,7 +33951,7 @@
       </c>
       <c r="C604">
         <f t="shared" si="30"/>
-        <v>6480</v>
+        <v>6482</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
@@ -33409,7 +33964,7 @@
       </c>
       <c r="C605">
         <f t="shared" si="30"/>
-        <v>6491</v>
+        <v>6494</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -33418,11 +33973,11 @@
         <v>44495</v>
       </c>
       <c r="B606">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C606">
         <f t="shared" si="30"/>
-        <v>6501</v>
+        <v>6504</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -33435,7 +33990,7 @@
       </c>
       <c r="C607">
         <f t="shared" si="30"/>
-        <v>6508</v>
+        <v>6512</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -33444,11 +33999,11 @@
         <v>44497</v>
       </c>
       <c r="B608">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C608">
         <f t="shared" si="30"/>
-        <v>6518</v>
+        <v>6521</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -33461,7 +34016,7 @@
       </c>
       <c r="C609">
         <f t="shared" si="30"/>
-        <v>6526</v>
+        <v>6529</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -33470,11 +34025,11 @@
         <v>44499</v>
       </c>
       <c r="B610">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C610">
         <f t="shared" si="30"/>
-        <v>6539</v>
+        <v>6543</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
@@ -33483,11 +34038,11 @@
         <v>44500</v>
       </c>
       <c r="B611">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C611">
         <f t="shared" si="30"/>
-        <v>6546</v>
+        <v>6552</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
@@ -33500,7 +34055,7 @@
       </c>
       <c r="C612">
         <f t="shared" si="30"/>
-        <v>6553</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
@@ -33509,11 +34064,11 @@
         <v>44502</v>
       </c>
       <c r="B613">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C613">
         <f t="shared" si="30"/>
-        <v>6557</v>
+        <v>6564</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
@@ -33522,11 +34077,11 @@
         <v>44503</v>
       </c>
       <c r="B614">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C614">
         <f t="shared" si="30"/>
-        <v>6561</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -33535,11 +34090,11 @@
         <v>44504</v>
       </c>
       <c r="B615">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C615">
         <f t="shared" si="30"/>
-        <v>6569</v>
+        <v>6578</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
@@ -33552,7 +34107,7 @@
       </c>
       <c r="C616">
         <f t="shared" si="30"/>
-        <v>6573</v>
+        <v>6583</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -33561,11 +34116,11 @@
         <v>44506</v>
       </c>
       <c r="B617">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C617">
         <f t="shared" si="30"/>
-        <v>6575</v>
+        <v>6588</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -33578,7 +34133,7 @@
       </c>
       <c r="C618">
         <f t="shared" si="30"/>
-        <v>6578</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
@@ -33587,11 +34142,11 @@
         <v>44508</v>
       </c>
       <c r="B619">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C619">
         <f t="shared" si="30"/>
-        <v>6581</v>
+        <v>6596</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -33600,11 +34155,11 @@
         <v>44509</v>
       </c>
       <c r="B620">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C620">
         <f t="shared" si="30"/>
-        <v>6585</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -33613,11 +34168,11 @@
         <v>44510</v>
       </c>
       <c r="B621">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C621">
         <f t="shared" ref="C621:C632" si="31">C620+B624</f>
-        <v>6589</v>
+        <v>6606</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
@@ -33626,11 +34181,11 @@
         <v>44511</v>
       </c>
       <c r="B622">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C622">
         <f t="shared" si="31"/>
-        <v>6590</v>
+        <v>6607</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -33643,7 +34198,7 @@
       </c>
       <c r="C623">
         <f t="shared" si="31"/>
-        <v>6594</v>
+        <v>6612</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
@@ -33652,11 +34207,11 @@
         <v>44513</v>
       </c>
       <c r="B624">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C624">
         <f t="shared" si="31"/>
-        <v>6597</v>
+        <v>6617</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
@@ -33669,7 +34224,7 @@
       </c>
       <c r="C625">
         <f t="shared" si="31"/>
-        <v>6598</v>
+        <v>6621</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
@@ -33678,11 +34233,11 @@
         <v>44515</v>
       </c>
       <c r="B626">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C626">
         <f t="shared" si="31"/>
-        <v>6600</v>
+        <v>6628</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -33691,11 +34246,11 @@
         <v>44516</v>
       </c>
       <c r="B627">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C627">
         <f t="shared" si="31"/>
-        <v>6601</v>
+        <v>6639</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
@@ -33704,11 +34259,11 @@
         <v>44517</v>
       </c>
       <c r="B628">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C628">
         <f t="shared" si="31"/>
-        <v>6601</v>
+        <v>6643</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
@@ -33717,11 +34272,11 @@
         <v>44518</v>
       </c>
       <c r="B629">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C629">
         <f t="shared" si="31"/>
-        <v>6601</v>
+        <v>6646</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
@@ -33730,11 +34285,11 @@
         <v>44519</v>
       </c>
       <c r="B630">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C630">
         <f t="shared" si="31"/>
-        <v>6601</v>
+        <v>6651</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
@@ -33742,9 +34297,12 @@
         <f t="shared" si="28"/>
         <v>44520</v>
       </c>
+      <c r="B631">
+        <v>4</v>
+      </c>
       <c r="C631">
         <f t="shared" si="31"/>
-        <v>6601</v>
+        <v>6654</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
@@ -33752,16 +34310,186 @@
         <f t="shared" si="28"/>
         <v>44521</v>
       </c>
+      <c r="B632">
+        <v>3</v>
+      </c>
       <c r="C632">
         <f t="shared" si="31"/>
-        <v>6601</v>
+        <v>6659</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A633" s="2"/>
+      <c r="A633" s="2">
+        <f t="shared" si="28"/>
+        <v>44522</v>
+      </c>
+      <c r="B633">
+        <v>5</v>
+      </c>
+      <c r="C633">
+        <f t="shared" ref="C633:C646" si="32">C632+B636</f>
+        <v>6664</v>
+      </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A634" s="2"/>
+      <c r="A634" s="2">
+        <f t="shared" si="28"/>
+        <v>44523</v>
+      </c>
+      <c r="B634">
+        <v>3</v>
+      </c>
+      <c r="C634">
+        <f t="shared" si="32"/>
+        <v>6670</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="2">
+        <f t="shared" si="28"/>
+        <v>44524</v>
+      </c>
+      <c r="B635">
+        <v>5</v>
+      </c>
+      <c r="C635">
+        <f t="shared" si="32"/>
+        <v>6675</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="2">
+        <f t="shared" si="28"/>
+        <v>44525</v>
+      </c>
+      <c r="B636">
+        <v>5</v>
+      </c>
+      <c r="C636">
+        <f t="shared" si="32"/>
+        <v>6682</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="2">
+        <f t="shared" si="28"/>
+        <v>44526</v>
+      </c>
+      <c r="B637">
+        <v>6</v>
+      </c>
+      <c r="C637">
+        <f t="shared" si="32"/>
+        <v>6689</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="2">
+        <f t="shared" si="28"/>
+        <v>44527</v>
+      </c>
+      <c r="B638">
+        <v>5</v>
+      </c>
+      <c r="C638">
+        <f t="shared" si="32"/>
+        <v>6696</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="2">
+        <f t="shared" si="28"/>
+        <v>44528</v>
+      </c>
+      <c r="B639">
+        <v>7</v>
+      </c>
+      <c r="C639">
+        <f t="shared" si="32"/>
+        <v>6697</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="2">
+        <f t="shared" si="28"/>
+        <v>44529</v>
+      </c>
+      <c r="B640">
+        <v>7</v>
+      </c>
+      <c r="C640">
+        <f t="shared" si="32"/>
+        <v>6699</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="2">
+        <f t="shared" si="28"/>
+        <v>44530</v>
+      </c>
+      <c r="B641">
+        <v>7</v>
+      </c>
+      <c r="C641">
+        <f t="shared" si="32"/>
+        <v>6699</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="2">
+        <f t="shared" si="28"/>
+        <v>44531</v>
+      </c>
+      <c r="B642">
+        <v>1</v>
+      </c>
+      <c r="C642">
+        <f t="shared" si="32"/>
+        <v>6699</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="2">
+        <f t="shared" si="28"/>
+        <v>44532</v>
+      </c>
+      <c r="B643">
+        <v>2</v>
+      </c>
+      <c r="C643">
+        <f t="shared" si="32"/>
+        <v>6699</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="2">
+        <f t="shared" ref="A644:A646" si="33">A643+1</f>
+        <v>44533</v>
+      </c>
+      <c r="C644">
+        <f t="shared" si="32"/>
+        <v>6699</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" s="2">
+        <f t="shared" si="33"/>
+        <v>44534</v>
+      </c>
+      <c r="C645">
+        <f t="shared" si="32"/>
+        <v>6699</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" s="2">
+        <f t="shared" si="33"/>
+        <v>44535</v>
+      </c>
+      <c r="C646">
+        <f t="shared" si="32"/>
+        <v>6699</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{6A6A4AB1-AA23-D44E-9DE6-8ABA1E6ECA2B}"/>
@@ -36888,11 +37616,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C000B158-B8B3-C74D-9302-C35106BA0032}">
-  <dimension ref="A1:E634"/>
+  <dimension ref="A1:E646"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A606" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A606" sqref="A606"/>
+      <pane ySplit="1" topLeftCell="A569" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C569" sqref="C569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -48293,7 +49021,7 @@
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
-        <f t="shared" ref="A571:A632" si="99">A570+1</f>
+        <f t="shared" ref="A571:A634" si="99">A570+1</f>
         <v>44460</v>
       </c>
       <c r="B571">
@@ -48620,15 +49348,15 @@
         <v>1</v>
       </c>
       <c r="C587">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D587">
         <f t="shared" si="100"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E587">
         <f t="shared" si="101"/>
-        <v>9906</v>
+        <v>9905</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
@@ -48645,7 +49373,7 @@
       </c>
       <c r="E588">
         <f t="shared" ref="E588:E602" si="103">E587+D588</f>
-        <v>9915</v>
+        <v>9914</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
@@ -48665,7 +49393,7 @@
       </c>
       <c r="E589">
         <f t="shared" si="103"/>
-        <v>9924</v>
+        <v>9923</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
@@ -48682,7 +49410,7 @@
       </c>
       <c r="E590">
         <f t="shared" si="103"/>
-        <v>9935</v>
+        <v>9934</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
@@ -48699,7 +49427,7 @@
       </c>
       <c r="E591">
         <f t="shared" si="103"/>
-        <v>9947</v>
+        <v>9946</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
@@ -48719,7 +49447,7 @@
       </c>
       <c r="E592">
         <f t="shared" si="103"/>
-        <v>9953</v>
+        <v>9952</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
@@ -48736,7 +49464,7 @@
       </c>
       <c r="E593">
         <f t="shared" si="103"/>
-        <v>9962</v>
+        <v>9961</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
@@ -48748,11 +49476,11 @@
         <v>1</v>
       </c>
       <c r="C594">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D594">
         <f t="shared" si="102"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E594">
         <f t="shared" si="103"/>
@@ -48888,15 +49616,15 @@
         <v>0</v>
       </c>
       <c r="C601">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D601">
         <f t="shared" si="102"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E601">
         <f t="shared" si="103"/>
-        <v>10054</v>
+        <v>10055</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
@@ -48916,7 +49644,7 @@
       </c>
       <c r="E602">
         <f t="shared" si="103"/>
-        <v>10066</v>
+        <v>10067</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
@@ -48933,7 +49661,7 @@
       </c>
       <c r="E603">
         <f t="shared" ref="E603:E620" si="105">E602+D603</f>
-        <v>10075</v>
+        <v>10076</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
@@ -48942,15 +49670,15 @@
         <v>44493</v>
       </c>
       <c r="C604">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D604">
         <f t="shared" si="104"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E604">
         <f t="shared" si="105"/>
-        <v>10080</v>
+        <v>10082</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
@@ -48967,7 +49695,7 @@
       </c>
       <c r="E605">
         <f t="shared" si="105"/>
-        <v>10089</v>
+        <v>10091</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
@@ -48984,7 +49712,7 @@
       </c>
       <c r="E606">
         <f t="shared" si="105"/>
-        <v>10093</v>
+        <v>10095</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
@@ -48993,15 +49721,15 @@
         <v>44496</v>
       </c>
       <c r="C607">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D607">
         <f t="shared" si="104"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E607">
         <f t="shared" si="105"/>
-        <v>10099</v>
+        <v>10102</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
@@ -49010,15 +49738,15 @@
         <v>44497</v>
       </c>
       <c r="C608">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D608">
         <f t="shared" si="104"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E608">
         <f t="shared" si="105"/>
-        <v>10104</v>
+        <v>10108</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
@@ -49030,15 +49758,15 @@
         <v>1</v>
       </c>
       <c r="C609">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D609">
         <f t="shared" si="104"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E609">
         <f t="shared" si="105"/>
-        <v>10110</v>
+        <v>10115</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
@@ -49047,15 +49775,15 @@
         <v>44499</v>
       </c>
       <c r="C610">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D610">
         <f t="shared" si="104"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E610">
         <f t="shared" si="105"/>
-        <v>10119</v>
+        <v>10118</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
@@ -49064,11 +49792,11 @@
         <v>44500</v>
       </c>
       <c r="C611">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D611">
         <f t="shared" si="104"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E611">
         <f t="shared" si="105"/>
@@ -49115,15 +49843,15 @@
         <v>44503</v>
       </c>
       <c r="C614">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D614">
         <f t="shared" si="104"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E614">
         <f t="shared" si="105"/>
-        <v>10133</v>
+        <v>10134</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
@@ -49135,15 +49863,15 @@
         <v>1</v>
       </c>
       <c r="C615">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D615">
         <f t="shared" si="104"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E615">
         <f t="shared" si="105"/>
-        <v>10140</v>
+        <v>10142</v>
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
@@ -49152,15 +49880,15 @@
         <v>44505</v>
       </c>
       <c r="C616">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D616">
         <f t="shared" si="104"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E616">
         <f t="shared" si="105"/>
-        <v>10146</v>
+        <v>10151</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
@@ -49172,15 +49900,15 @@
         <v>1</v>
       </c>
       <c r="C617">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D617">
         <f t="shared" si="104"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E617">
         <f t="shared" si="105"/>
-        <v>10151</v>
+        <v>10157</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
@@ -49189,15 +49917,15 @@
         <v>44507</v>
       </c>
       <c r="C618">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D618">
         <f t="shared" si="104"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E618">
         <f t="shared" si="105"/>
-        <v>10156</v>
+        <v>10164</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
@@ -49214,7 +49942,7 @@
       </c>
       <c r="E619">
         <f t="shared" si="105"/>
-        <v>10160</v>
+        <v>10168</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
@@ -49231,7 +49959,7 @@
       </c>
       <c r="E620">
         <f t="shared" si="105"/>
-        <v>10167</v>
+        <v>10175</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
@@ -49240,15 +49968,15 @@
         <v>44510</v>
       </c>
       <c r="C621">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D621">
         <f t="shared" ref="D621:D632" si="106">B621+C621</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E621">
         <f t="shared" ref="E621:E632" si="107">E620+D621</f>
-        <v>10169</v>
+        <v>10179</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
@@ -49257,15 +49985,15 @@
         <v>44511</v>
       </c>
       <c r="C622">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D622">
         <f t="shared" si="106"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E622">
         <f t="shared" si="107"/>
-        <v>10170</v>
+        <v>10181</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
@@ -49277,15 +50005,15 @@
         <v>1</v>
       </c>
       <c r="C623">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D623">
         <f t="shared" si="106"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E623">
         <f t="shared" si="107"/>
-        <v>10173</v>
+        <v>10185</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
@@ -49294,15 +50022,15 @@
         <v>44513</v>
       </c>
       <c r="C624">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D624">
         <f t="shared" si="106"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E624">
         <f t="shared" si="107"/>
-        <v>10174</v>
+        <v>10188</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
@@ -49319,7 +50047,7 @@
       </c>
       <c r="E625">
         <f t="shared" si="107"/>
-        <v>10174</v>
+        <v>10188</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
@@ -49328,15 +50056,15 @@
         <v>44515</v>
       </c>
       <c r="C626">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D626">
         <f t="shared" si="106"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E626">
         <f t="shared" si="107"/>
-        <v>10175</v>
+        <v>10190</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
@@ -49345,15 +50073,15 @@
         <v>44516</v>
       </c>
       <c r="C627">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D627">
         <f t="shared" si="106"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E627">
         <f t="shared" si="107"/>
-        <v>10176</v>
+        <v>10193</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
@@ -49362,15 +50090,15 @@
         <v>44517</v>
       </c>
       <c r="C628">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D628">
         <f t="shared" si="106"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E628">
         <f t="shared" si="107"/>
-        <v>10178</v>
+        <v>10197</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
@@ -49378,13 +50106,16 @@
         <f t="shared" si="99"/>
         <v>44518</v>
       </c>
+      <c r="C629">
+        <v>0</v>
+      </c>
       <c r="D629">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="E629">
         <f t="shared" si="107"/>
-        <v>10178</v>
+        <v>10197</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
@@ -49392,13 +50123,16 @@
         <f t="shared" si="99"/>
         <v>44519</v>
       </c>
+      <c r="C630">
+        <v>3</v>
+      </c>
       <c r="D630">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E630">
         <f t="shared" si="107"/>
-        <v>10178</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
@@ -49406,13 +50140,16 @@
         <f t="shared" si="99"/>
         <v>44520</v>
       </c>
+      <c r="C631">
+        <v>6</v>
+      </c>
       <c r="D631">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E631">
         <f t="shared" si="107"/>
-        <v>10178</v>
+        <v>10206</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
@@ -49420,20 +50157,249 @@
         <f t="shared" si="99"/>
         <v>44521</v>
       </c>
+      <c r="C632">
+        <v>2</v>
+      </c>
       <c r="D632">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E632">
         <f t="shared" si="107"/>
-        <v>10178</v>
+        <v>10208</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A633" s="2"/>
+      <c r="A633" s="2">
+        <f t="shared" si="99"/>
+        <v>44522</v>
+      </c>
+      <c r="C633">
+        <v>5</v>
+      </c>
+      <c r="D633">
+        <f t="shared" ref="D633:D646" si="108">B633+C633</f>
+        <v>5</v>
+      </c>
+      <c r="E633">
+        <f t="shared" ref="E633:E646" si="109">E632+D633</f>
+        <v>10213</v>
+      </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A634" s="2"/>
+      <c r="A634" s="2">
+        <f t="shared" si="99"/>
+        <v>44523</v>
+      </c>
+      <c r="B634">
+        <v>1</v>
+      </c>
+      <c r="C634">
+        <v>4</v>
+      </c>
+      <c r="D634">
+        <f t="shared" si="108"/>
+        <v>5</v>
+      </c>
+      <c r="E634">
+        <f t="shared" si="109"/>
+        <v>10218</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A635" s="2">
+        <f t="shared" ref="A635:A646" si="110">A634+1</f>
+        <v>44524</v>
+      </c>
+      <c r="C635">
+        <v>0</v>
+      </c>
+      <c r="D635">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="E635">
+        <f t="shared" si="109"/>
+        <v>10218</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A636" s="2">
+        <f t="shared" si="110"/>
+        <v>44525</v>
+      </c>
+      <c r="B636">
+        <v>1</v>
+      </c>
+      <c r="C636">
+        <v>2</v>
+      </c>
+      <c r="D636">
+        <f t="shared" si="108"/>
+        <v>3</v>
+      </c>
+      <c r="E636">
+        <f t="shared" si="109"/>
+        <v>10221</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A637" s="2">
+        <f t="shared" si="110"/>
+        <v>44526</v>
+      </c>
+      <c r="C637">
+        <v>3</v>
+      </c>
+      <c r="D637">
+        <f t="shared" si="108"/>
+        <v>3</v>
+      </c>
+      <c r="E637">
+        <f t="shared" si="109"/>
+        <v>10224</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A638" s="2">
+        <f t="shared" si="110"/>
+        <v>44527</v>
+      </c>
+      <c r="C638">
+        <v>1</v>
+      </c>
+      <c r="D638">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="E638">
+        <f t="shared" si="109"/>
+        <v>10225</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A639" s="2">
+        <f t="shared" si="110"/>
+        <v>44528</v>
+      </c>
+      <c r="C639">
+        <v>1</v>
+      </c>
+      <c r="D639">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="E639">
+        <f t="shared" si="109"/>
+        <v>10226</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A640" s="2">
+        <f t="shared" si="110"/>
+        <v>44529</v>
+      </c>
+      <c r="C640">
+        <v>3</v>
+      </c>
+      <c r="D640">
+        <f t="shared" si="108"/>
+        <v>3</v>
+      </c>
+      <c r="E640">
+        <f t="shared" si="109"/>
+        <v>10229</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A641" s="2">
+        <f t="shared" si="110"/>
+        <v>44530</v>
+      </c>
+      <c r="C641">
+        <v>1</v>
+      </c>
+      <c r="D641">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="E641">
+        <f t="shared" si="109"/>
+        <v>10230</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A642" s="2">
+        <f t="shared" si="110"/>
+        <v>44531</v>
+      </c>
+      <c r="C642">
+        <v>1</v>
+      </c>
+      <c r="D642">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="E642">
+        <f t="shared" si="109"/>
+        <v>10231</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A643" s="2">
+        <f t="shared" si="110"/>
+        <v>44532</v>
+      </c>
+      <c r="D643">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="E643">
+        <f t="shared" si="109"/>
+        <v>10231</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A644" s="2">
+        <f t="shared" si="110"/>
+        <v>44533</v>
+      </c>
+      <c r="D644">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="E644">
+        <f t="shared" si="109"/>
+        <v>10231</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A645" s="2">
+        <f t="shared" si="110"/>
+        <v>44534</v>
+      </c>
+      <c r="D645">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="E645">
+        <f t="shared" si="109"/>
+        <v>10231</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A646" s="2">
+        <f t="shared" si="110"/>
+        <v>44535</v>
+      </c>
+      <c r="D646">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="E646">
+        <f t="shared" si="109"/>
+        <v>10231</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49442,11 +50408,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCF04A3-27B8-574D-8890-2D4B7141B7CD}">
-  <dimension ref="A1:E630"/>
+  <dimension ref="A1:E637"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A596" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A599" sqref="A599"/>
+      <pane ySplit="1" topLeftCell="A581" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C607" sqref="C607"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -60755,18 +61721,18 @@
         <v>44471</v>
       </c>
       <c r="B582">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C582">
         <v>0</v>
       </c>
       <c r="D582" s="4">
         <f t="shared" si="54"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E582" s="4">
         <f t="shared" si="55"/>
-        <v>27456</v>
+        <v>27457</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
@@ -60786,7 +61752,7 @@
       </c>
       <c r="E583" s="4">
         <f t="shared" si="55"/>
-        <v>27472</v>
+        <v>27473</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
@@ -60806,12 +61772,12 @@
       </c>
       <c r="E584" s="4">
         <f t="shared" si="55"/>
-        <v>27493</v>
+        <v>27494</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" s="2">
-        <f t="shared" ref="A585:A623" si="56">A584+1</f>
+        <f t="shared" ref="A585:A637" si="56">A584+1</f>
         <v>44474</v>
       </c>
       <c r="B585">
@@ -60826,7 +61792,7 @@
       </c>
       <c r="E585" s="4">
         <f t="shared" si="55"/>
-        <v>27512</v>
+        <v>27513</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
@@ -60846,7 +61812,7 @@
       </c>
       <c r="E586" s="4">
         <f t="shared" si="55"/>
-        <v>27535</v>
+        <v>27536</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
@@ -60855,18 +61821,18 @@
         <v>44476</v>
       </c>
       <c r="B587">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C587">
         <v>0</v>
       </c>
       <c r="D587" s="4">
         <f t="shared" si="54"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E587" s="4">
         <f t="shared" si="55"/>
-        <v>27553</v>
+        <v>27555</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
@@ -60886,7 +61852,7 @@
       </c>
       <c r="E588" s="4">
         <f t="shared" si="55"/>
-        <v>27572</v>
+        <v>27574</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
@@ -60906,7 +61872,7 @@
       </c>
       <c r="E589" s="4">
         <f t="shared" si="55"/>
-        <v>27582</v>
+        <v>27584</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
@@ -60926,7 +61892,7 @@
       </c>
       <c r="E590" s="4">
         <f t="shared" si="55"/>
-        <v>27599</v>
+        <v>27601</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
@@ -60946,7 +61912,7 @@
       </c>
       <c r="E591" s="4">
         <f t="shared" si="55"/>
-        <v>27619</v>
+        <v>27621</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
@@ -60955,18 +61921,18 @@
         <v>44481</v>
       </c>
       <c r="B592">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C592">
         <v>2</v>
       </c>
       <c r="D592" s="4">
         <f t="shared" si="54"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E592" s="4">
         <f t="shared" si="55"/>
-        <v>27635</v>
+        <v>27638</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
@@ -60986,7 +61952,7 @@
       </c>
       <c r="E593" s="4">
         <f t="shared" si="55"/>
-        <v>27649</v>
+        <v>27652</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
@@ -61006,7 +61972,7 @@
       </c>
       <c r="E594" s="4">
         <f t="shared" si="55"/>
-        <v>27664</v>
+        <v>27667</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
@@ -61026,7 +61992,7 @@
       </c>
       <c r="E595" s="4">
         <f t="shared" si="55"/>
-        <v>27688</v>
+        <v>27691</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
@@ -61046,7 +62012,7 @@
       </c>
       <c r="E596" s="4">
         <f t="shared" si="55"/>
-        <v>27701</v>
+        <v>27704</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
@@ -61055,18 +62021,18 @@
         <v>44486</v>
       </c>
       <c r="B597">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C597">
         <v>0</v>
       </c>
       <c r="D597" s="4">
         <f t="shared" si="54"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E597" s="4">
         <f t="shared" si="55"/>
-        <v>27717</v>
+        <v>27721</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
@@ -61086,7 +62052,7 @@
       </c>
       <c r="E598" s="4">
         <f t="shared" si="55"/>
-        <v>27731</v>
+        <v>27735</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
@@ -61106,7 +62072,7 @@
       </c>
       <c r="E599" s="4">
         <f t="shared" si="55"/>
-        <v>27750</v>
+        <v>27754</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
@@ -61115,18 +62081,18 @@
         <v>44489</v>
       </c>
       <c r="B600">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C600">
         <v>0</v>
       </c>
       <c r="D600" s="4">
         <f t="shared" si="54"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E600" s="4">
         <f t="shared" si="55"/>
-        <v>27771</v>
+        <v>27776</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
@@ -61146,7 +62112,7 @@
       </c>
       <c r="E601" s="4">
         <f t="shared" si="55"/>
-        <v>27793</v>
+        <v>27798</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
@@ -61166,7 +62132,7 @@
       </c>
       <c r="E602" s="4">
         <f t="shared" si="55"/>
-        <v>27812</v>
+        <v>27817</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
@@ -61186,7 +62152,7 @@
       </c>
       <c r="E603" s="4">
         <f t="shared" ref="E603:E615" si="58">E602+D603</f>
-        <v>27826</v>
+        <v>27831</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
@@ -61206,7 +62172,7 @@
       </c>
       <c r="E604" s="4">
         <f t="shared" si="58"/>
-        <v>27849</v>
+        <v>27854</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
@@ -61226,7 +62192,7 @@
       </c>
       <c r="E605" s="4">
         <f t="shared" si="58"/>
-        <v>27864</v>
+        <v>27869</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
@@ -61235,18 +62201,18 @@
         <v>44495</v>
       </c>
       <c r="B606">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C606">
         <v>2</v>
       </c>
       <c r="D606" s="4">
         <f t="shared" si="57"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E606" s="4">
         <f t="shared" si="58"/>
-        <v>27880</v>
+        <v>27886</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
@@ -61266,7 +62232,7 @@
       </c>
       <c r="E607" s="4">
         <f t="shared" si="58"/>
-        <v>27889</v>
+        <v>27895</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
@@ -61275,18 +62241,18 @@
         <v>44497</v>
       </c>
       <c r="B608">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C608">
         <v>0</v>
       </c>
       <c r="D608" s="4">
         <f t="shared" si="57"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E608" s="4">
         <f t="shared" si="58"/>
-        <v>27901</v>
+        <v>27908</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
@@ -61295,18 +62261,18 @@
         <v>44498</v>
       </c>
       <c r="B609">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C609">
         <v>0</v>
       </c>
       <c r="D609" s="4">
         <f t="shared" si="57"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E609" s="4">
         <f t="shared" si="58"/>
-        <v>27927</v>
+        <v>27933</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
@@ -61326,7 +62292,7 @@
       </c>
       <c r="E610" s="4">
         <f t="shared" si="58"/>
-        <v>27938</v>
+        <v>27944</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
@@ -61346,7 +62312,7 @@
       </c>
       <c r="E611" s="4">
         <f t="shared" si="58"/>
-        <v>27958</v>
+        <v>27964</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
@@ -61358,15 +62324,15 @@
         <v>15</v>
       </c>
       <c r="C612">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D612" s="4">
         <f t="shared" si="57"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E612" s="4">
         <f t="shared" si="58"/>
-        <v>27974</v>
+        <v>27981</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
@@ -61386,7 +62352,7 @@
       </c>
       <c r="E613" s="4">
         <f t="shared" si="58"/>
-        <v>27981</v>
+        <v>27988</v>
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
@@ -61395,18 +62361,18 @@
         <v>44503</v>
       </c>
       <c r="B614">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C614">
         <v>0</v>
       </c>
       <c r="D614" s="4">
         <f t="shared" si="57"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E614" s="4">
         <f t="shared" si="58"/>
-        <v>27991</v>
+        <v>27999</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
@@ -61415,18 +62381,18 @@
         <v>44504</v>
       </c>
       <c r="B615">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C615">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D615" s="4">
         <f t="shared" si="57"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E615" s="4">
         <f t="shared" si="58"/>
-        <v>28003</v>
+        <v>28013</v>
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
@@ -61435,18 +62401,18 @@
         <v>44505</v>
       </c>
       <c r="B616">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C616">
         <v>0</v>
       </c>
       <c r="D616" s="4">
         <f t="shared" ref="D616:D623" si="59">B616+C616</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E616" s="4">
         <f t="shared" ref="E616:E623" si="60">E615+D616</f>
-        <v>28012</v>
+        <v>28025</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
@@ -61455,18 +62421,18 @@
         <v>44506</v>
       </c>
       <c r="B617">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C617">
         <v>0</v>
       </c>
       <c r="D617" s="4">
         <f t="shared" si="59"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E617" s="4">
         <f t="shared" si="60"/>
-        <v>28026</v>
+        <v>28043</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
@@ -61475,18 +62441,18 @@
         <v>44507</v>
       </c>
       <c r="B618">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C618">
         <v>0</v>
       </c>
       <c r="D618" s="4">
         <f t="shared" si="59"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E618" s="4">
         <f t="shared" si="60"/>
-        <v>28038</v>
+        <v>28056</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
@@ -61495,18 +62461,18 @@
         <v>44508</v>
       </c>
       <c r="B619">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C619">
         <v>0</v>
       </c>
       <c r="D619" s="4">
         <f t="shared" si="59"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E619" s="4">
         <f t="shared" si="60"/>
-        <v>28053</v>
+        <v>28072</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
@@ -61515,18 +62481,18 @@
         <v>44509</v>
       </c>
       <c r="B620">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C620">
         <v>0</v>
       </c>
       <c r="D620" s="4">
         <f t="shared" si="59"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E620" s="4">
         <f t="shared" si="60"/>
-        <v>28057</v>
+        <v>28080</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
@@ -61535,18 +62501,18 @@
         <v>44510</v>
       </c>
       <c r="B621">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C621">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D621" s="4">
         <f t="shared" si="59"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E621" s="4">
         <f t="shared" si="60"/>
-        <v>28061</v>
+        <v>28089</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
@@ -61555,18 +62521,18 @@
         <v>44511</v>
       </c>
       <c r="B622">
+        <v>12</v>
+      </c>
+      <c r="C622">
         <v>2</v>
-      </c>
-      <c r="C622">
-        <v>0</v>
       </c>
       <c r="D622" s="4">
         <f t="shared" si="59"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E622" s="4">
         <f t="shared" si="60"/>
-        <v>28063</v>
+        <v>28103</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
@@ -61575,54 +62541,299 @@
         <v>44512</v>
       </c>
       <c r="B623">
+        <v>14</v>
+      </c>
+      <c r="C623">
         <v>1</v>
-      </c>
-      <c r="C623">
-        <v>0</v>
       </c>
       <c r="D623" s="4">
         <f t="shared" si="59"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E623" s="4">
         <f t="shared" si="60"/>
-        <v>28064</v>
+        <v>28118</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A624" s="2"/>
-      <c r="D624" s="4"/>
-      <c r="E624" s="4"/>
+      <c r="A624" s="2">
+        <f t="shared" si="56"/>
+        <v>44513</v>
+      </c>
+      <c r="B624">
+        <v>14</v>
+      </c>
+      <c r="C624">
+        <v>0</v>
+      </c>
+      <c r="D624" s="4">
+        <f t="shared" ref="D624:D637" si="61">B624+C624</f>
+        <v>14</v>
+      </c>
+      <c r="E624" s="4">
+        <f t="shared" ref="E624:E637" si="62">E623+D624</f>
+        <v>28132</v>
+      </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A625" s="2"/>
-      <c r="D625" s="4"/>
-      <c r="E625" s="4"/>
+      <c r="A625" s="2">
+        <f t="shared" si="56"/>
+        <v>44514</v>
+      </c>
+      <c r="B625">
+        <v>8</v>
+      </c>
+      <c r="C625">
+        <v>1</v>
+      </c>
+      <c r="D625" s="4">
+        <f t="shared" si="61"/>
+        <v>9</v>
+      </c>
+      <c r="E625" s="4">
+        <f t="shared" si="62"/>
+        <v>28141</v>
+      </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A626" s="2"/>
-      <c r="D626" s="4"/>
-      <c r="E626" s="4"/>
+      <c r="A626" s="2">
+        <f t="shared" si="56"/>
+        <v>44515</v>
+      </c>
+      <c r="B626">
+        <v>13</v>
+      </c>
+      <c r="C626">
+        <v>1</v>
+      </c>
+      <c r="D626" s="4">
+        <f t="shared" si="61"/>
+        <v>14</v>
+      </c>
+      <c r="E626" s="4">
+        <f t="shared" si="62"/>
+        <v>28155</v>
+      </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A627" s="2"/>
-      <c r="D627" s="4"/>
-      <c r="E627" s="4"/>
+      <c r="A627" s="2">
+        <f t="shared" si="56"/>
+        <v>44516</v>
+      </c>
+      <c r="B627">
+        <v>7</v>
+      </c>
+      <c r="C627">
+        <v>1</v>
+      </c>
+      <c r="D627" s="4">
+        <f t="shared" si="61"/>
+        <v>8</v>
+      </c>
+      <c r="E627" s="4">
+        <f t="shared" si="62"/>
+        <v>28163</v>
+      </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A628" s="2"/>
-      <c r="D628" s="4"/>
-      <c r="E628" s="4"/>
+      <c r="A628" s="2">
+        <f t="shared" si="56"/>
+        <v>44517</v>
+      </c>
+      <c r="B628">
+        <v>12</v>
+      </c>
+      <c r="C628">
+        <v>0</v>
+      </c>
+      <c r="D628" s="4">
+        <f t="shared" si="61"/>
+        <v>12</v>
+      </c>
+      <c r="E628" s="4">
+        <f t="shared" si="62"/>
+        <v>28175</v>
+      </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A629" s="2"/>
-      <c r="D629" s="4"/>
-      <c r="E629" s="4"/>
+      <c r="A629" s="2">
+        <f t="shared" si="56"/>
+        <v>44518</v>
+      </c>
+      <c r="B629">
+        <v>15</v>
+      </c>
+      <c r="C629">
+        <v>0</v>
+      </c>
+      <c r="D629" s="4">
+        <f t="shared" si="61"/>
+        <v>15</v>
+      </c>
+      <c r="E629" s="4">
+        <f t="shared" si="62"/>
+        <v>28190</v>
+      </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A630" s="2"/>
-      <c r="D630" s="4"/>
-      <c r="E630" s="4"/>
+      <c r="A630" s="2">
+        <f t="shared" si="56"/>
+        <v>44519</v>
+      </c>
+      <c r="B630">
+        <v>9</v>
+      </c>
+      <c r="C630">
+        <v>0</v>
+      </c>
+      <c r="D630" s="4">
+        <f t="shared" si="61"/>
+        <v>9</v>
+      </c>
+      <c r="E630" s="4">
+        <f t="shared" si="62"/>
+        <v>28199</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A631" s="2">
+        <f t="shared" si="56"/>
+        <v>44520</v>
+      </c>
+      <c r="B631">
+        <v>5</v>
+      </c>
+      <c r="C631">
+        <v>0</v>
+      </c>
+      <c r="D631" s="4">
+        <f t="shared" si="61"/>
+        <v>5</v>
+      </c>
+      <c r="E631" s="4">
+        <f t="shared" si="62"/>
+        <v>28204</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A632" s="2">
+        <f t="shared" si="56"/>
+        <v>44521</v>
+      </c>
+      <c r="B632">
+        <v>7</v>
+      </c>
+      <c r="C632">
+        <v>0</v>
+      </c>
+      <c r="D632" s="4">
+        <f t="shared" si="61"/>
+        <v>7</v>
+      </c>
+      <c r="E632" s="4">
+        <f t="shared" si="62"/>
+        <v>28211</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A633" s="2">
+        <f t="shared" si="56"/>
+        <v>44522</v>
+      </c>
+      <c r="B633">
+        <v>3</v>
+      </c>
+      <c r="C633">
+        <v>1</v>
+      </c>
+      <c r="D633" s="4">
+        <f t="shared" si="61"/>
+        <v>4</v>
+      </c>
+      <c r="E633" s="4">
+        <f t="shared" si="62"/>
+        <v>28215</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A634" s="2">
+        <f t="shared" si="56"/>
+        <v>44523</v>
+      </c>
+      <c r="B634">
+        <v>6</v>
+      </c>
+      <c r="C634">
+        <v>0</v>
+      </c>
+      <c r="D634" s="4">
+        <f t="shared" si="61"/>
+        <v>6</v>
+      </c>
+      <c r="E634" s="4">
+        <f t="shared" si="62"/>
+        <v>28221</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A635" s="2">
+        <f t="shared" si="56"/>
+        <v>44524</v>
+      </c>
+      <c r="B635">
+        <v>3</v>
+      </c>
+      <c r="C635">
+        <v>0</v>
+      </c>
+      <c r="D635" s="4">
+        <f t="shared" si="61"/>
+        <v>3</v>
+      </c>
+      <c r="E635" s="4">
+        <f t="shared" si="62"/>
+        <v>28224</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A636" s="2">
+        <f t="shared" si="56"/>
+        <v>44525</v>
+      </c>
+      <c r="B636">
+        <v>2</v>
+      </c>
+      <c r="C636">
+        <v>0</v>
+      </c>
+      <c r="D636" s="4">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="E636" s="4">
+        <f t="shared" si="62"/>
+        <v>28226</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A637" s="2">
+        <f t="shared" si="56"/>
+        <v>44526</v>
+      </c>
+      <c r="B637">
+        <v>0</v>
+      </c>
+      <c r="C637">
+        <v>0</v>
+      </c>
+      <c r="D637" s="4">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="E637" s="4">
+        <f t="shared" si="62"/>
+        <v>28226</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -61631,11 +62842,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1940A1DF-951D-5944-B211-C56164A8D3EC}">
-  <dimension ref="A1:D639"/>
+  <dimension ref="A1:D646"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A601" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A601" sqref="A601"/>
+      <pane ySplit="1" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B535" sqref="B535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -69545,11 +70756,11 @@
       </c>
       <c r="C528" s="8">
         <f>B534/7</f>
-        <v>24.571428571428573</v>
+        <v>24.714285714285715</v>
       </c>
       <c r="D528" s="10">
         <f t="shared" si="103"/>
-        <v>10100.571428571471</v>
+        <v>10100.714285714328</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -69559,11 +70770,11 @@
       </c>
       <c r="C529" s="8">
         <f>B534/7</f>
-        <v>24.571428571428573</v>
+        <v>24.714285714285715</v>
       </c>
       <c r="D529" s="10">
         <f t="shared" si="103"/>
-        <v>10125.142857142901</v>
+        <v>10125.428571428614</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -69573,11 +70784,11 @@
       </c>
       <c r="C530" s="8">
         <f>B534/7</f>
-        <v>24.571428571428573</v>
+        <v>24.714285714285715</v>
       </c>
       <c r="D530" s="10">
         <f t="shared" si="103"/>
-        <v>10149.71428571433</v>
+        <v>10150.142857142901</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -69587,11 +70798,11 @@
       </c>
       <c r="C531" s="8">
         <f>B534/7</f>
-        <v>24.571428571428573</v>
+        <v>24.714285714285715</v>
       </c>
       <c r="D531" s="10">
         <f t="shared" si="103"/>
-        <v>10174.285714285759</v>
+        <v>10174.857142857187</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
@@ -69601,11 +70812,11 @@
       </c>
       <c r="C532" s="8">
         <f>B534/7</f>
-        <v>24.571428571428573</v>
+        <v>24.714285714285715</v>
       </c>
       <c r="D532" s="10">
         <f t="shared" si="103"/>
-        <v>10198.857142857189</v>
+        <v>10199.571428571473</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -69615,11 +70826,11 @@
       </c>
       <c r="C533" s="8">
         <f>B534/7</f>
-        <v>24.571428571428573</v>
+        <v>24.714285714285715</v>
       </c>
       <c r="D533" s="10">
         <f t="shared" si="103"/>
-        <v>10223.428571428618</v>
+        <v>10224.285714285759</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
@@ -69628,15 +70839,15 @@
         <v>44422</v>
       </c>
       <c r="B534">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C534" s="8">
         <f t="shared" ref="C534" si="106">B534/7</f>
-        <v>24.571428571428573</v>
+        <v>24.714285714285715</v>
       </c>
       <c r="D534" s="10">
         <f t="shared" si="103"/>
-        <v>10248.000000000047</v>
+        <v>10249.000000000045</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
@@ -69646,11 +70857,11 @@
       </c>
       <c r="C535" s="8">
         <f t="shared" ref="C535" si="108">B541/7</f>
-        <v>36.571428571428569</v>
+        <v>36.857142857142854</v>
       </c>
       <c r="D535" s="10">
         <f t="shared" ref="D535:D562" si="109">D534+C535</f>
-        <v>10284.571428571477</v>
+        <v>10285.857142857189</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
@@ -69660,11 +70871,11 @@
       </c>
       <c r="C536" s="8">
         <f t="shared" ref="C536" si="110">B541/7</f>
-        <v>36.571428571428569</v>
+        <v>36.857142857142854</v>
       </c>
       <c r="D536" s="10">
         <f t="shared" si="109"/>
-        <v>10321.142857142906</v>
+        <v>10322.714285714332</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -69674,11 +70885,11 @@
       </c>
       <c r="C537" s="8">
         <f t="shared" ref="C537" si="111">B541/7</f>
-        <v>36.571428571428569</v>
+        <v>36.857142857142854</v>
       </c>
       <c r="D537" s="10">
         <f t="shared" si="109"/>
-        <v>10357.714285714335</v>
+        <v>10359.571428571475</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
@@ -69688,11 +70899,11 @@
       </c>
       <c r="C538" s="8">
         <f t="shared" ref="C538" si="112">B541/7</f>
-        <v>36.571428571428569</v>
+        <v>36.857142857142854</v>
       </c>
       <c r="D538" s="10">
         <f t="shared" si="109"/>
-        <v>10394.285714285765</v>
+        <v>10396.428571428618</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -69702,11 +70913,11 @@
       </c>
       <c r="C539" s="8">
         <f t="shared" ref="C539" si="113">B541/7</f>
-        <v>36.571428571428569</v>
+        <v>36.857142857142854</v>
       </c>
       <c r="D539" s="10">
         <f t="shared" si="109"/>
-        <v>10430.857142857194</v>
+        <v>10433.285714285761</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
@@ -69716,11 +70927,11 @@
       </c>
       <c r="C540" s="8">
         <f t="shared" ref="C540" si="114">B541/7</f>
-        <v>36.571428571428569</v>
+        <v>36.857142857142854</v>
       </c>
       <c r="D540" s="10">
         <f t="shared" si="109"/>
-        <v>10467.428571428623</v>
+        <v>10470.142857142904</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
@@ -69729,15 +70940,15 @@
         <v>44429</v>
       </c>
       <c r="B541">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C541" s="8">
         <f t="shared" ref="C541" si="116">B541/7</f>
-        <v>36.571428571428569</v>
+        <v>36.857142857142854</v>
       </c>
       <c r="D541" s="10">
         <f t="shared" si="109"/>
-        <v>10504.000000000053</v>
+        <v>10507.000000000047</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -69747,11 +70958,11 @@
       </c>
       <c r="C542" s="8">
         <f t="shared" ref="C542" si="117">B548/7</f>
-        <v>48.857142857142854</v>
+        <v>49</v>
       </c>
       <c r="D542" s="10">
         <f t="shared" si="109"/>
-        <v>10552.857142857196</v>
+        <v>10556.000000000047</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
@@ -69761,11 +70972,11 @@
       </c>
       <c r="C543" s="8">
         <f t="shared" ref="C543" si="118">B548/7</f>
-        <v>48.857142857142854</v>
+        <v>49</v>
       </c>
       <c r="D543" s="10">
         <f t="shared" si="109"/>
-        <v>10601.714285714339</v>
+        <v>10605.000000000047</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
@@ -69775,11 +70986,11 @@
       </c>
       <c r="C544" s="8">
         <f t="shared" ref="C544" si="119">B548/7</f>
-        <v>48.857142857142854</v>
+        <v>49</v>
       </c>
       <c r="D544" s="10">
         <f t="shared" si="109"/>
-        <v>10650.571428571482</v>
+        <v>10654.000000000047</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
@@ -69789,11 +71000,11 @@
       </c>
       <c r="C545" s="8">
         <f t="shared" ref="C545" si="120">B548/7</f>
-        <v>48.857142857142854</v>
+        <v>49</v>
       </c>
       <c r="D545" s="10">
         <f t="shared" si="109"/>
-        <v>10699.428571428625</v>
+        <v>10703.000000000047</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
@@ -69803,11 +71014,11 @@
       </c>
       <c r="C546" s="8">
         <f t="shared" ref="C546" si="121">B548/7</f>
-        <v>48.857142857142854</v>
+        <v>49</v>
       </c>
       <c r="D546" s="10">
         <f t="shared" si="109"/>
-        <v>10748.285714285768</v>
+        <v>10752.000000000047</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
@@ -69817,11 +71028,11 @@
       </c>
       <c r="C547" s="8">
         <f t="shared" ref="C547" si="122">B548/7</f>
-        <v>48.857142857142854</v>
+        <v>49</v>
       </c>
       <c r="D547" s="10">
         <f t="shared" si="109"/>
-        <v>10797.142857142911</v>
+        <v>10801.000000000047</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
@@ -69830,15 +71041,15 @@
         <v>44436</v>
       </c>
       <c r="B548">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C548" s="8">
         <f t="shared" ref="C548" si="124">B548/7</f>
-        <v>48.857142857142854</v>
+        <v>49</v>
       </c>
       <c r="D548" s="10">
         <f t="shared" si="109"/>
-        <v>10846.000000000055</v>
+        <v>10850.000000000047</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
@@ -69848,11 +71059,11 @@
       </c>
       <c r="C549" s="8">
         <f t="shared" ref="C549" si="125">B555/7</f>
-        <v>55.142857142857146</v>
+        <v>54.857142857142854</v>
       </c>
       <c r="D549" s="10">
         <f t="shared" si="109"/>
-        <v>10901.142857142911</v>
+        <v>10904.85714285719</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
@@ -69862,11 +71073,11 @@
       </c>
       <c r="C550" s="8">
         <f t="shared" ref="C550" si="126">B555/7</f>
-        <v>55.142857142857146</v>
+        <v>54.857142857142854</v>
       </c>
       <c r="D550" s="10">
         <f t="shared" si="109"/>
-        <v>10956.285714285768</v>
+        <v>10959.714285714334</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
@@ -69876,11 +71087,11 @@
       </c>
       <c r="C551" s="8">
         <f t="shared" ref="C551" si="127">B555/7</f>
-        <v>55.142857142857146</v>
+        <v>54.857142857142854</v>
       </c>
       <c r="D551" s="10">
         <f t="shared" si="109"/>
-        <v>11011.428571428625</v>
+        <v>11014.571428571477</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
@@ -69890,11 +71101,11 @@
       </c>
       <c r="C552" s="8">
         <f t="shared" ref="C552" si="128">B555/7</f>
-        <v>55.142857142857146</v>
+        <v>54.857142857142854</v>
       </c>
       <c r="D552" s="10">
         <f t="shared" si="109"/>
-        <v>11066.571428571482</v>
+        <v>11069.42857142862</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
@@ -69904,11 +71115,11 @@
       </c>
       <c r="C553" s="8">
         <f t="shared" ref="C553" si="129">B555/7</f>
-        <v>55.142857142857146</v>
+        <v>54.857142857142854</v>
       </c>
       <c r="D553" s="10">
         <f t="shared" si="109"/>
-        <v>11121.714285714339</v>
+        <v>11124.285714285763</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
@@ -69918,11 +71129,11 @@
       </c>
       <c r="C554" s="8">
         <f t="shared" ref="C554" si="130">B555/7</f>
-        <v>55.142857142857146</v>
+        <v>54.857142857142854</v>
       </c>
       <c r="D554" s="10">
         <f t="shared" si="109"/>
-        <v>11176.857142857196</v>
+        <v>11179.142857142906</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
@@ -69931,15 +71142,15 @@
         <v>44443</v>
       </c>
       <c r="B555">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C555" s="8">
         <f t="shared" ref="C555" si="132">B555/7</f>
-        <v>55.142857142857146</v>
+        <v>54.857142857142854</v>
       </c>
       <c r="D555" s="10">
         <f t="shared" si="109"/>
-        <v>11232.000000000053</v>
+        <v>11234.000000000049</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
@@ -69949,11 +71160,11 @@
       </c>
       <c r="C556" s="8">
         <f t="shared" ref="C556" si="133">B562/7</f>
-        <v>63.428571428571431</v>
+        <v>63.285714285714285</v>
       </c>
       <c r="D556" s="10">
         <f t="shared" si="109"/>
-        <v>11295.428571428623</v>
+        <v>11297.285714285763</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
@@ -69963,11 +71174,11 @@
       </c>
       <c r="C557" s="8">
         <f t="shared" ref="C557" si="134">B562/7</f>
-        <v>63.428571428571431</v>
+        <v>63.285714285714285</v>
       </c>
       <c r="D557" s="10">
         <f t="shared" si="109"/>
-        <v>11358.857142857194</v>
+        <v>11360.571428571477</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
@@ -69977,11 +71188,11 @@
       </c>
       <c r="C558" s="8">
         <f t="shared" ref="C558" si="135">B562/7</f>
-        <v>63.428571428571431</v>
+        <v>63.285714285714285</v>
       </c>
       <c r="D558" s="10">
         <f t="shared" si="109"/>
-        <v>11422.285714285765</v>
+        <v>11423.85714285719</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
@@ -69991,11 +71202,11 @@
       </c>
       <c r="C559" s="8">
         <f t="shared" ref="C559" si="136">B562/7</f>
-        <v>63.428571428571431</v>
+        <v>63.285714285714285</v>
       </c>
       <c r="D559" s="10">
         <f t="shared" si="109"/>
-        <v>11485.714285714335</v>
+        <v>11487.142857142904</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
@@ -70005,11 +71216,11 @@
       </c>
       <c r="C560" s="8">
         <f t="shared" ref="C560" si="137">B562/7</f>
-        <v>63.428571428571431</v>
+        <v>63.285714285714285</v>
       </c>
       <c r="D560" s="10">
         <f t="shared" si="109"/>
-        <v>11549.142857142906</v>
+        <v>11550.428571428618</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
@@ -70019,11 +71230,11 @@
       </c>
       <c r="C561" s="8">
         <f t="shared" ref="C561" si="138">B562/7</f>
-        <v>63.428571428571431</v>
+        <v>63.285714285714285</v>
       </c>
       <c r="D561" s="10">
         <f t="shared" si="109"/>
-        <v>11612.571428571477</v>
+        <v>11613.714285714332</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
@@ -70032,15 +71243,15 @@
         <v>44450</v>
       </c>
       <c r="B562">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C562" s="8">
         <f t="shared" ref="C562" si="140">B562/7</f>
-        <v>63.428571428571431</v>
+        <v>63.285714285714285</v>
       </c>
       <c r="D562" s="10">
         <f t="shared" si="109"/>
-        <v>11676.000000000047</v>
+        <v>11677.000000000045</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
@@ -70050,11 +71261,11 @@
       </c>
       <c r="C563" s="8">
         <f t="shared" ref="C563" si="141">B569/7</f>
-        <v>70.571428571428569</v>
+        <v>70.428571428571431</v>
       </c>
       <c r="D563" s="10">
         <f t="shared" ref="D563:D576" si="142">D562+C563</f>
-        <v>11746.571428571477</v>
+        <v>11747.428571428616</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
@@ -70064,11 +71275,11 @@
       </c>
       <c r="C564" s="8">
         <f t="shared" ref="C564" si="143">B569/7</f>
-        <v>70.571428571428569</v>
+        <v>70.428571428571431</v>
       </c>
       <c r="D564" s="10">
         <f t="shared" si="142"/>
-        <v>11817.142857142906</v>
+        <v>11817.857142857187</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
@@ -70078,11 +71289,11 @@
       </c>
       <c r="C565" s="8">
         <f t="shared" ref="C565" si="144">B569/7</f>
-        <v>70.571428571428569</v>
+        <v>70.428571428571431</v>
       </c>
       <c r="D565" s="10">
         <f t="shared" si="142"/>
-        <v>11887.714285714335</v>
+        <v>11888.285714285757</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
@@ -70092,11 +71303,11 @@
       </c>
       <c r="C566" s="8">
         <f t="shared" ref="C566" si="145">B569/7</f>
-        <v>70.571428571428569</v>
+        <v>70.428571428571431</v>
       </c>
       <c r="D566" s="10">
         <f t="shared" si="142"/>
-        <v>11958.285714285765</v>
+        <v>11958.714285714328</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
@@ -70106,11 +71317,11 @@
       </c>
       <c r="C567" s="8">
         <f t="shared" ref="C567" si="146">B569/7</f>
-        <v>70.571428571428569</v>
+        <v>70.428571428571431</v>
       </c>
       <c r="D567" s="10">
         <f t="shared" si="142"/>
-        <v>12028.857142857194</v>
+        <v>12029.142857142899</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
@@ -70120,11 +71331,11 @@
       </c>
       <c r="C568" s="8">
         <f t="shared" ref="C568" si="147">B569/7</f>
-        <v>70.571428571428569</v>
+        <v>70.428571428571431</v>
       </c>
       <c r="D568" s="10">
         <f t="shared" si="142"/>
-        <v>12099.428571428623</v>
+        <v>12099.571428571469</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
@@ -70133,15 +71344,15 @@
         <v>44457</v>
       </c>
       <c r="B569">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C569" s="8">
         <f t="shared" ref="C569" si="149">B569/7</f>
-        <v>70.571428571428569</v>
+        <v>70.428571428571431</v>
       </c>
       <c r="D569" s="10">
         <f t="shared" si="142"/>
-        <v>12170.000000000053</v>
+        <v>12170.00000000004</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
@@ -70151,11 +71362,11 @@
       </c>
       <c r="C570" s="8">
         <f t="shared" ref="C570" si="150">B576/7</f>
-        <v>63.285714285714285</v>
+        <v>63.714285714285715</v>
       </c>
       <c r="D570" s="10">
         <f t="shared" si="142"/>
-        <v>12233.285714285767</v>
+        <v>12233.714285714326</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
@@ -70165,11 +71376,11 @@
       </c>
       <c r="C571" s="8">
         <f t="shared" ref="C571" si="151">B576/7</f>
-        <v>63.285714285714285</v>
+        <v>63.714285714285715</v>
       </c>
       <c r="D571" s="10">
         <f t="shared" si="142"/>
-        <v>12296.57142857148</v>
+        <v>12297.428571428612</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
@@ -70179,11 +71390,11 @@
       </c>
       <c r="C572" s="8">
         <f t="shared" ref="C572" si="152">B576/7</f>
-        <v>63.285714285714285</v>
+        <v>63.714285714285715</v>
       </c>
       <c r="D572" s="10">
         <f t="shared" si="142"/>
-        <v>12359.857142857194</v>
+        <v>12361.142857142899</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
@@ -70193,11 +71404,11 @@
       </c>
       <c r="C573" s="8">
         <f t="shared" ref="C573" si="153">B576/7</f>
-        <v>63.285714285714285</v>
+        <v>63.714285714285715</v>
       </c>
       <c r="D573" s="10">
         <f t="shared" si="142"/>
-        <v>12423.142857142908</v>
+        <v>12424.857142857185</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
@@ -70207,11 +71418,11 @@
       </c>
       <c r="C574" s="8">
         <f t="shared" ref="C574" si="154">B576/7</f>
-        <v>63.285714285714285</v>
+        <v>63.714285714285715</v>
       </c>
       <c r="D574" s="10">
         <f t="shared" si="142"/>
-        <v>12486.428571428622</v>
+        <v>12488.571428571471</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
@@ -70221,11 +71432,11 @@
       </c>
       <c r="C575" s="8">
         <f t="shared" ref="C575" si="155">B576/7</f>
-        <v>63.285714285714285</v>
+        <v>63.714285714285715</v>
       </c>
       <c r="D575" s="10">
         <f t="shared" si="142"/>
-        <v>12549.714285714335</v>
+        <v>12552.285714285757</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
@@ -70234,15 +71445,15 @@
         <v>44464</v>
       </c>
       <c r="B576">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C576" s="8">
         <f t="shared" ref="C576" si="157">B576/7</f>
-        <v>63.285714285714285</v>
+        <v>63.714285714285715</v>
       </c>
       <c r="D576" s="10">
         <f t="shared" si="142"/>
-        <v>12613.000000000049</v>
+        <v>12616.000000000044</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
@@ -70252,11 +71463,11 @@
       </c>
       <c r="C577" s="8">
         <f t="shared" ref="C577" si="158">B583/7</f>
-        <v>53.714285714285715</v>
+        <v>54</v>
       </c>
       <c r="D577" s="10">
         <f t="shared" ref="D577:D583" si="159">D576+C577</f>
-        <v>12666.714285714335</v>
+        <v>12670.000000000044</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
@@ -70266,11 +71477,11 @@
       </c>
       <c r="C578" s="8">
         <f t="shared" ref="C578" si="160">B583/7</f>
-        <v>53.714285714285715</v>
+        <v>54</v>
       </c>
       <c r="D578" s="10">
         <f t="shared" si="159"/>
-        <v>12720.428571428622</v>
+        <v>12724.000000000044</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
@@ -70280,11 +71491,11 @@
       </c>
       <c r="C579" s="8">
         <f t="shared" ref="C579" si="161">B583/7</f>
-        <v>53.714285714285715</v>
+        <v>54</v>
       </c>
       <c r="D579" s="10">
         <f t="shared" si="159"/>
-        <v>12774.142857142908</v>
+        <v>12778.000000000044</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
@@ -70294,11 +71505,11 @@
       </c>
       <c r="C580" s="8">
         <f t="shared" ref="C580" si="162">B583/7</f>
-        <v>53.714285714285715</v>
+        <v>54</v>
       </c>
       <c r="D580" s="10">
         <f t="shared" si="159"/>
-        <v>12827.857142857194</v>
+        <v>12832.000000000044</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
@@ -70308,11 +71519,11 @@
       </c>
       <c r="C581" s="8">
         <f t="shared" ref="C581" si="163">B583/7</f>
-        <v>53.714285714285715</v>
+        <v>54</v>
       </c>
       <c r="D581" s="10">
         <f t="shared" si="159"/>
-        <v>12881.57142857148</v>
+        <v>12886.000000000044</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
@@ -70322,11 +71533,11 @@
       </c>
       <c r="C582" s="8">
         <f t="shared" ref="C582" si="164">B583/7</f>
-        <v>53.714285714285715</v>
+        <v>54</v>
       </c>
       <c r="D582" s="10">
         <f t="shared" si="159"/>
-        <v>12935.285714285767</v>
+        <v>12940.000000000044</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
@@ -70335,15 +71546,15 @@
         <v>44471</v>
       </c>
       <c r="B583">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C583" s="8">
         <f t="shared" ref="C583" si="166">B583/7</f>
-        <v>53.714285714285715</v>
+        <v>54</v>
       </c>
       <c r="D583" s="10">
         <f t="shared" si="159"/>
-        <v>12989.000000000053</v>
+        <v>12994.000000000044</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
@@ -70353,11 +71564,11 @@
       </c>
       <c r="C584" s="8">
         <f t="shared" ref="C584" si="167">B590/7</f>
-        <v>47</v>
+        <v>47.285714285714285</v>
       </c>
       <c r="D584" s="10">
         <f t="shared" ref="D584:D590" si="168">D583+C584</f>
-        <v>13036.000000000053</v>
+        <v>13041.285714285757</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
@@ -70367,11 +71578,11 @@
       </c>
       <c r="C585" s="8">
         <f t="shared" ref="C585" si="169">B590/7</f>
-        <v>47</v>
+        <v>47.285714285714285</v>
       </c>
       <c r="D585" s="10">
         <f t="shared" si="168"/>
-        <v>13083.000000000053</v>
+        <v>13088.571428571471</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
@@ -70381,11 +71592,11 @@
       </c>
       <c r="C586" s="8">
         <f t="shared" ref="C586" si="170">B590/7</f>
-        <v>47</v>
+        <v>47.285714285714285</v>
       </c>
       <c r="D586" s="10">
         <f t="shared" si="168"/>
-        <v>13130.000000000053</v>
+        <v>13135.857142857185</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
@@ -70395,11 +71606,11 @@
       </c>
       <c r="C587" s="8">
         <f t="shared" ref="C587" si="171">B590/7</f>
-        <v>47</v>
+        <v>47.285714285714285</v>
       </c>
       <c r="D587" s="10">
         <f t="shared" si="168"/>
-        <v>13177.000000000053</v>
+        <v>13183.142857142899</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
@@ -70409,11 +71620,11 @@
       </c>
       <c r="C588" s="8">
         <f t="shared" ref="C588" si="172">B590/7</f>
-        <v>47</v>
+        <v>47.285714285714285</v>
       </c>
       <c r="D588" s="10">
         <f t="shared" si="168"/>
-        <v>13224.000000000053</v>
+        <v>13230.428571428612</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
@@ -70423,11 +71634,11 @@
       </c>
       <c r="C589" s="8">
         <f t="shared" ref="C589" si="173">B590/7</f>
-        <v>47</v>
+        <v>47.285714285714285</v>
       </c>
       <c r="D589" s="10">
         <f t="shared" si="168"/>
-        <v>13271.000000000053</v>
+        <v>13277.714285714326</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
@@ -70436,15 +71647,15 @@
         <v>44478</v>
       </c>
       <c r="B590">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C590" s="8">
         <f t="shared" ref="C590" si="175">B590/7</f>
-        <v>47</v>
+        <v>47.285714285714285</v>
       </c>
       <c r="D590" s="10">
         <f t="shared" si="168"/>
-        <v>13318.000000000053</v>
+        <v>13325.00000000004</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
@@ -70454,11 +71665,11 @@
       </c>
       <c r="C591" s="8">
         <f t="shared" ref="C591" si="176">B597/7</f>
-        <v>34.285714285714285</v>
+        <v>34.571428571428569</v>
       </c>
       <c r="D591" s="10">
         <f t="shared" ref="D591:D604" si="177">D590+C591</f>
-        <v>13352.285714285767</v>
+        <v>13359.571428571469</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
@@ -70468,11 +71679,11 @@
       </c>
       <c r="C592" s="8">
         <f t="shared" ref="C592" si="178">B597/7</f>
-        <v>34.285714285714285</v>
+        <v>34.571428571428569</v>
       </c>
       <c r="D592" s="10">
         <f t="shared" si="177"/>
-        <v>13386.57142857148</v>
+        <v>13394.142857142899</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
@@ -70482,11 +71693,11 @@
       </c>
       <c r="C593" s="8">
         <f t="shared" ref="C593" si="179">B597/7</f>
-        <v>34.285714285714285</v>
+        <v>34.571428571428569</v>
       </c>
       <c r="D593" s="10">
         <f t="shared" si="177"/>
-        <v>13420.857142857194</v>
+        <v>13428.714285714328</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
@@ -70496,11 +71707,11 @@
       </c>
       <c r="C594" s="8">
         <f t="shared" ref="C594" si="180">B597/7</f>
-        <v>34.285714285714285</v>
+        <v>34.571428571428569</v>
       </c>
       <c r="D594" s="10">
         <f t="shared" si="177"/>
-        <v>13455.142857142908</v>
+        <v>13463.285714285757</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
@@ -70510,11 +71721,11 @@
       </c>
       <c r="C595" s="8">
         <f t="shared" ref="C595" si="181">B597/7</f>
-        <v>34.285714285714285</v>
+        <v>34.571428571428569</v>
       </c>
       <c r="D595" s="10">
         <f t="shared" si="177"/>
-        <v>13489.428571428622</v>
+        <v>13497.857142857187</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
@@ -70524,11 +71735,11 @@
       </c>
       <c r="C596" s="8">
         <f t="shared" ref="C596" si="182">B597/7</f>
-        <v>34.285714285714285</v>
+        <v>34.571428571428569</v>
       </c>
       <c r="D596" s="10">
         <f t="shared" si="177"/>
-        <v>13523.714285714335</v>
+        <v>13532.428571428616</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
@@ -70537,15 +71748,15 @@
         <v>44485</v>
       </c>
       <c r="B597">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C597" s="8">
         <f t="shared" ref="C597" si="184">B597/7</f>
-        <v>34.285714285714285</v>
+        <v>34.571428571428569</v>
       </c>
       <c r="D597" s="10">
         <f t="shared" si="177"/>
-        <v>13558.000000000049</v>
+        <v>13567.000000000045</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
@@ -70555,11 +71766,11 @@
       </c>
       <c r="C598" s="8">
         <f t="shared" ref="C598" si="185">B604/7</f>
-        <v>29.714285714285715</v>
+        <v>30</v>
       </c>
       <c r="D598" s="10">
         <f t="shared" si="177"/>
-        <v>13587.714285714335</v>
+        <v>13597.000000000045</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
@@ -70569,11 +71780,11 @@
       </c>
       <c r="C599" s="8">
         <f t="shared" ref="C599" si="187">B604/7</f>
-        <v>29.714285714285715</v>
+        <v>30</v>
       </c>
       <c r="D599" s="10">
         <f t="shared" si="177"/>
-        <v>13617.428571428622</v>
+        <v>13627.000000000045</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
@@ -70583,11 +71794,11 @@
       </c>
       <c r="C600" s="8">
         <f t="shared" ref="C600" si="188">B604/7</f>
-        <v>29.714285714285715</v>
+        <v>30</v>
       </c>
       <c r="D600" s="10">
         <f t="shared" si="177"/>
-        <v>13647.142857142908</v>
+        <v>13657.000000000045</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
@@ -70597,11 +71808,11 @@
       </c>
       <c r="C601" s="8">
         <f t="shared" ref="C601" si="189">B604/7</f>
-        <v>29.714285714285715</v>
+        <v>30</v>
       </c>
       <c r="D601" s="10">
         <f t="shared" si="177"/>
-        <v>13676.857142857194</v>
+        <v>13687.000000000045</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
@@ -70611,11 +71822,11 @@
       </c>
       <c r="C602" s="8">
         <f t="shared" ref="C602" si="190">B604/7</f>
-        <v>29.714285714285715</v>
+        <v>30</v>
       </c>
       <c r="D602" s="10">
         <f t="shared" si="177"/>
-        <v>13706.57142857148</v>
+        <v>13717.000000000045</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
@@ -70625,11 +71836,11 @@
       </c>
       <c r="C603" s="8">
         <f t="shared" ref="C603" si="191">B604/7</f>
-        <v>29.714285714285715</v>
+        <v>30</v>
       </c>
       <c r="D603" s="10">
         <f t="shared" si="177"/>
-        <v>13736.285714285767</v>
+        <v>13747.000000000045</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
@@ -70638,29 +71849,29 @@
         <v>44492</v>
       </c>
       <c r="B604">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C604" s="8">
         <f t="shared" ref="C604" si="192">B604/7</f>
-        <v>29.714285714285715</v>
+        <v>30</v>
       </c>
       <c r="D604" s="10">
         <f t="shared" si="177"/>
-        <v>13766.000000000053</v>
+        <v>13777.000000000045</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="3">
-        <f t="shared" ref="A605:A631" si="193">A604+1</f>
+        <f t="shared" ref="A605:A645" si="193">A604+1</f>
         <v>44493</v>
       </c>
       <c r="C605" s="8">
         <f t="shared" ref="C605" si="194">B611/7</f>
-        <v>16.714285714285715</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="D605" s="10">
         <f t="shared" ref="D605:D618" si="195">D604+C605</f>
-        <v>13782.714285714339</v>
+        <v>13794.142857142902</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
@@ -70670,11 +71881,11 @@
       </c>
       <c r="C606" s="8">
         <f t="shared" ref="C606" si="196">B611/7</f>
-        <v>16.714285714285715</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="D606" s="10">
         <f t="shared" si="195"/>
-        <v>13799.428571428625</v>
+        <v>13811.285714285759</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
@@ -70684,11 +71895,11 @@
       </c>
       <c r="C607" s="8">
         <f t="shared" ref="C607" si="197">B611/7</f>
-        <v>16.714285714285715</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="D607" s="10">
         <f t="shared" si="195"/>
-        <v>13816.142857142911</v>
+        <v>13828.428571428616</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
@@ -70698,11 +71909,11 @@
       </c>
       <c r="C608" s="8">
         <f t="shared" ref="C608" si="198">B611/7</f>
-        <v>16.714285714285715</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="D608" s="10">
         <f t="shared" si="195"/>
-        <v>13832.857142857198</v>
+        <v>13845.571428571473</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
@@ -70712,11 +71923,11 @@
       </c>
       <c r="C609" s="8">
         <f t="shared" ref="C609" si="199">B611/7</f>
-        <v>16.714285714285715</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="D609" s="10">
         <f t="shared" si="195"/>
-        <v>13849.571428571484</v>
+        <v>13862.71428571433</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
@@ -70726,11 +71937,11 @@
       </c>
       <c r="C610" s="8">
         <f t="shared" ref="C610" si="200">B611/7</f>
-        <v>16.714285714285715</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="D610" s="10">
         <f t="shared" si="195"/>
-        <v>13866.28571428577</v>
+        <v>13879.857142857187</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
@@ -70739,15 +71950,15 @@
         <v>44499</v>
       </c>
       <c r="B611">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C611" s="8">
         <f t="shared" ref="C611" si="202">B611/7</f>
-        <v>16.714285714285715</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="D611" s="10">
         <f t="shared" si="195"/>
-        <v>13883.000000000056</v>
+        <v>13897.000000000044</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.25">
@@ -70757,11 +71968,11 @@
       </c>
       <c r="C612" s="8">
         <f t="shared" ref="C612" si="203">B618/7</f>
-        <v>14.285714285714286</v>
+        <v>15</v>
       </c>
       <c r="D612" s="10">
         <f t="shared" si="195"/>
-        <v>13897.28571428577</v>
+        <v>13912.000000000044</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
@@ -70771,11 +71982,11 @@
       </c>
       <c r="C613" s="8">
         <f t="shared" ref="C613" si="204">B618/7</f>
-        <v>14.285714285714286</v>
+        <v>15</v>
       </c>
       <c r="D613" s="10">
         <f t="shared" si="195"/>
-        <v>13911.571428571484</v>
+        <v>13927.000000000044</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
@@ -70785,11 +71996,11 @@
       </c>
       <c r="C614" s="8">
         <f t="shared" ref="C614" si="205">B618/7</f>
-        <v>14.285714285714286</v>
+        <v>15</v>
       </c>
       <c r="D614" s="10">
         <f t="shared" si="195"/>
-        <v>13925.857142857198</v>
+        <v>13942.000000000044</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
@@ -70799,11 +72010,11 @@
       </c>
       <c r="C615" s="8">
         <f t="shared" ref="C615" si="206">B618/7</f>
-        <v>14.285714285714286</v>
+        <v>15</v>
       </c>
       <c r="D615" s="10">
         <f t="shared" si="195"/>
-        <v>13940.142857142911</v>
+        <v>13957.000000000044</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
@@ -70813,11 +72024,11 @@
       </c>
       <c r="C616" s="8">
         <f t="shared" ref="C616" si="207">B618/7</f>
-        <v>14.285714285714286</v>
+        <v>15</v>
       </c>
       <c r="D616" s="10">
         <f t="shared" si="195"/>
-        <v>13954.428571428625</v>
+        <v>13972.000000000044</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
@@ -70827,11 +72038,11 @@
       </c>
       <c r="C617" s="8">
         <f t="shared" ref="C617" si="208">B618/7</f>
-        <v>14.285714285714286</v>
+        <v>15</v>
       </c>
       <c r="D617" s="10">
         <f t="shared" si="195"/>
-        <v>13968.714285714339</v>
+        <v>13987.000000000044</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
@@ -70840,15 +72051,15 @@
         <v>44506</v>
       </c>
       <c r="B618">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C618" s="8">
         <f t="shared" ref="C618" si="209">B618/7</f>
-        <v>14.285714285714286</v>
+        <v>15</v>
       </c>
       <c r="D618" s="10">
         <f t="shared" si="195"/>
-        <v>13983.000000000053</v>
+        <v>14002.000000000044</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
@@ -70858,11 +72069,11 @@
       </c>
       <c r="C619" s="8">
         <f t="shared" ref="C619" si="210">B625/7</f>
-        <v>11.857142857142858</v>
+        <v>13.285714285714286</v>
       </c>
       <c r="D619" s="10">
         <f t="shared" ref="D619:D625" si="211">D618+C619</f>
-        <v>13994.857142857196</v>
+        <v>14015.285714285757</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
@@ -70872,11 +72083,11 @@
       </c>
       <c r="C620" s="8">
         <f t="shared" ref="C620" si="212">B625/7</f>
-        <v>11.857142857142858</v>
+        <v>13.285714285714286</v>
       </c>
       <c r="D620" s="10">
         <f t="shared" si="211"/>
-        <v>14006.714285714339</v>
+        <v>14028.571428571471</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
@@ -70886,11 +72097,11 @@
       </c>
       <c r="C621" s="8">
         <f t="shared" ref="C621" si="213">B625/7</f>
-        <v>11.857142857142858</v>
+        <v>13.285714285714286</v>
       </c>
       <c r="D621" s="10">
         <f t="shared" si="211"/>
-        <v>14018.571428571482</v>
+        <v>14041.857142857185</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
@@ -70900,11 +72111,11 @@
       </c>
       <c r="C622" s="8">
         <f t="shared" ref="C622" si="214">B625/7</f>
-        <v>11.857142857142858</v>
+        <v>13.285714285714286</v>
       </c>
       <c r="D622" s="10">
         <f t="shared" si="211"/>
-        <v>14030.428571428625</v>
+        <v>14055.142857142899</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
@@ -70914,11 +72125,11 @@
       </c>
       <c r="C623" s="8">
         <f t="shared" ref="C623" si="215">B625/7</f>
-        <v>11.857142857142858</v>
+        <v>13.285714285714286</v>
       </c>
       <c r="D623" s="10">
         <f t="shared" si="211"/>
-        <v>14042.285714285768</v>
+        <v>14068.428571428612</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
@@ -70928,11 +72139,11 @@
       </c>
       <c r="C624" s="8">
         <f t="shared" ref="C624" si="216">B625/7</f>
-        <v>11.857142857142858</v>
+        <v>13.285714285714286</v>
       </c>
       <c r="D624" s="10">
         <f t="shared" si="211"/>
-        <v>14054.142857142911</v>
+        <v>14081.714285714326</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
@@ -70941,15 +72152,15 @@
         <v>44513</v>
       </c>
       <c r="B625">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C625" s="8">
         <f t="shared" ref="C625" si="218">B625/7</f>
-        <v>11.857142857142858</v>
+        <v>13.285714285714286</v>
       </c>
       <c r="D625" s="10">
         <f t="shared" si="211"/>
-        <v>14066.000000000055</v>
+        <v>14095.00000000004</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
@@ -70959,11 +72170,11 @@
       </c>
       <c r="C626" s="8">
         <f t="shared" ref="C626" si="219">B632/7</f>
-        <v>2.7142857142857144</v>
+        <v>12.142857142857142</v>
       </c>
       <c r="D626" s="10">
         <f t="shared" ref="D626:D632" si="220">D625+C626</f>
-        <v>14068.714285714341</v>
+        <v>14107.142857142897</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
@@ -70973,11 +72184,11 @@
       </c>
       <c r="C627" s="8">
         <f t="shared" ref="C627" si="221">B632/7</f>
-        <v>2.7142857142857144</v>
+        <v>12.142857142857142</v>
       </c>
       <c r="D627" s="10">
         <f t="shared" si="220"/>
-        <v>14071.428571428627</v>
+        <v>14119.285714285754</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
@@ -70987,11 +72198,11 @@
       </c>
       <c r="C628" s="8">
         <f t="shared" ref="C628" si="222">B632/7</f>
-        <v>2.7142857142857144</v>
+        <v>12.142857142857142</v>
       </c>
       <c r="D628" s="10">
         <f t="shared" si="220"/>
-        <v>14074.142857142913</v>
+        <v>14131.428571428611</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
@@ -71001,11 +72212,11 @@
       </c>
       <c r="C629" s="8">
         <f t="shared" ref="C629" si="223">B632/7</f>
-        <v>2.7142857142857144</v>
+        <v>12.142857142857142</v>
       </c>
       <c r="D629" s="10">
         <f t="shared" si="220"/>
-        <v>14076.8571428572</v>
+        <v>14143.571428571468</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
@@ -71015,11 +72226,11 @@
       </c>
       <c r="C630" s="8">
         <f t="shared" ref="C630" si="224">B632/7</f>
-        <v>2.7142857142857144</v>
+        <v>12.142857142857142</v>
       </c>
       <c r="D630" s="10">
         <f t="shared" si="220"/>
-        <v>14079.571428571486</v>
+        <v>14155.714285714324</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
@@ -71029,11 +72240,11 @@
       </c>
       <c r="C631" s="8">
         <f t="shared" ref="C631" si="225">B632/7</f>
-        <v>2.7142857142857144</v>
+        <v>12.142857142857142</v>
       </c>
       <c r="D631" s="10">
         <f t="shared" si="220"/>
-        <v>14082.285714285772</v>
+        <v>14167.857142857181</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
@@ -71042,37 +72253,218 @@
         <v>44520</v>
       </c>
       <c r="B632">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C632" s="8">
         <f t="shared" ref="C632" si="227">B632/7</f>
-        <v>2.7142857142857144</v>
+        <v>12.142857142857142</v>
       </c>
       <c r="D632" s="10">
         <f t="shared" si="220"/>
-        <v>14085.000000000058</v>
+        <v>14180.000000000038</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A633" s="3"/>
+      <c r="A633" s="3">
+        <f t="shared" si="193"/>
+        <v>44521</v>
+      </c>
+      <c r="C633" s="8">
+        <f t="shared" ref="C633" si="228">B639/7</f>
+        <v>9.5714285714285712</v>
+      </c>
+      <c r="D633" s="10">
+        <f t="shared" ref="D633:D646" si="229">D632+C633</f>
+        <v>14189.571428571468</v>
+      </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A634" s="3"/>
+      <c r="A634" s="3">
+        <f t="shared" si="193"/>
+        <v>44522</v>
+      </c>
+      <c r="C634" s="8">
+        <f t="shared" ref="C634" si="230">B639/7</f>
+        <v>9.5714285714285712</v>
+      </c>
+      <c r="D634" s="10">
+        <f t="shared" si="229"/>
+        <v>14199.142857142897</v>
+      </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A635" s="3"/>
+      <c r="A635" s="3">
+        <f t="shared" si="193"/>
+        <v>44523</v>
+      </c>
+      <c r="C635" s="8">
+        <f t="shared" ref="C635" si="231">B639/7</f>
+        <v>9.5714285714285712</v>
+      </c>
+      <c r="D635" s="10">
+        <f t="shared" si="229"/>
+        <v>14208.714285714326</v>
+      </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A636" s="3"/>
+      <c r="A636" s="3">
+        <f t="shared" si="193"/>
+        <v>44524</v>
+      </c>
+      <c r="C636" s="8">
+        <f t="shared" ref="C636" si="232">B639/7</f>
+        <v>9.5714285714285712</v>
+      </c>
+      <c r="D636" s="10">
+        <f t="shared" si="229"/>
+        <v>14218.285714285756</v>
+      </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A637" s="3"/>
+      <c r="A637" s="3">
+        <f t="shared" si="193"/>
+        <v>44525</v>
+      </c>
+      <c r="C637" s="8">
+        <f t="shared" ref="C637" si="233">B639/7</f>
+        <v>9.5714285714285712</v>
+      </c>
+      <c r="D637" s="10">
+        <f t="shared" si="229"/>
+        <v>14227.857142857185</v>
+      </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A638" s="3"/>
+      <c r="A638" s="3">
+        <f t="shared" si="193"/>
+        <v>44526</v>
+      </c>
+      <c r="C638" s="8">
+        <f t="shared" ref="C638" si="234">B639/7</f>
+        <v>9.5714285714285712</v>
+      </c>
+      <c r="D638" s="10">
+        <f t="shared" si="229"/>
+        <v>14237.428571428614</v>
+      </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A639" s="2"/>
+      <c r="A639" s="2">
+        <f t="shared" ref="A639" si="235">A632+7</f>
+        <v>44527</v>
+      </c>
+      <c r="B639">
+        <v>67</v>
+      </c>
+      <c r="C639" s="8">
+        <f t="shared" ref="C639" si="236">B639/7</f>
+        <v>9.5714285714285712</v>
+      </c>
+      <c r="D639" s="10">
+        <f t="shared" si="229"/>
+        <v>14247.000000000044</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A640" s="3">
+        <f t="shared" si="193"/>
+        <v>44528</v>
+      </c>
+      <c r="C640" s="8">
+        <f t="shared" ref="C640" si="237">B646/7</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="D640" s="10">
+        <f t="shared" si="229"/>
+        <v>14248.142857142901</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A641" s="3">
+        <f t="shared" si="193"/>
+        <v>44529</v>
+      </c>
+      <c r="C641" s="8">
+        <f t="shared" ref="C641" si="238">B646/7</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="D641" s="10">
+        <f t="shared" si="229"/>
+        <v>14249.285714285757</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A642" s="3">
+        <f t="shared" si="193"/>
+        <v>44530</v>
+      </c>
+      <c r="C642" s="8">
+        <f t="shared" ref="C642" si="239">B646/7</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="D642" s="10">
+        <f t="shared" si="229"/>
+        <v>14250.428571428614</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A643" s="3">
+        <f t="shared" si="193"/>
+        <v>44531</v>
+      </c>
+      <c r="C643" s="8">
+        <f t="shared" ref="C643" si="240">B646/7</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="D643" s="10">
+        <f t="shared" si="229"/>
+        <v>14251.571428571471</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A644" s="3">
+        <f t="shared" si="193"/>
+        <v>44532</v>
+      </c>
+      <c r="C644" s="8">
+        <f t="shared" ref="C644" si="241">B646/7</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="D644" s="10">
+        <f t="shared" si="229"/>
+        <v>14252.714285714328</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A645" s="3">
+        <f t="shared" si="193"/>
+        <v>44533</v>
+      </c>
+      <c r="C645" s="8">
+        <f t="shared" ref="C645" si="242">B646/7</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="D645" s="10">
+        <f t="shared" si="229"/>
+        <v>14253.857142857185</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A646" s="2">
+        <f t="shared" ref="A646" si="243">A639+7</f>
+        <v>44534</v>
+      </c>
+      <c r="B646">
+        <v>8</v>
+      </c>
+      <c r="C646" s="8">
+        <f t="shared" ref="C646" si="244">B646/7</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="D646" s="10">
+        <f t="shared" si="229"/>
+        <v>14255.000000000042</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -71081,11 +72473,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289241FA-DB67-DA49-A417-E4BD34D128D1}">
-  <dimension ref="A1:C630"/>
+  <dimension ref="A1:C644"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A597" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A597" sqref="A597"/>
+      <pane ySplit="1" topLeftCell="A529" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B540" sqref="B540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -78216,11 +79608,11 @@
         <v>44438</v>
       </c>
       <c r="B549">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C549">
         <f t="shared" si="39"/>
-        <v>2084</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -78233,7 +79625,7 @@
       </c>
       <c r="C550">
         <f t="shared" si="39"/>
-        <v>2087</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
@@ -78246,7 +79638,7 @@
       </c>
       <c r="C551">
         <f t="shared" si="39"/>
-        <v>2093</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
@@ -78259,7 +79651,7 @@
       </c>
       <c r="C552">
         <f t="shared" si="39"/>
-        <v>2096</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
@@ -78272,7 +79664,7 @@
       </c>
       <c r="C553">
         <f t="shared" si="39"/>
-        <v>2100</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
@@ -78285,7 +79677,7 @@
       </c>
       <c r="C554">
         <f t="shared" si="39"/>
-        <v>2103</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
@@ -78298,7 +79690,7 @@
       </c>
       <c r="C555">
         <f t="shared" si="39"/>
-        <v>2105</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
@@ -78311,7 +79703,7 @@
       </c>
       <c r="C556">
         <f t="shared" si="39"/>
-        <v>2109</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
@@ -78324,7 +79716,7 @@
       </c>
       <c r="C557">
         <f t="shared" si="39"/>
-        <v>2112</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -78337,7 +79729,7 @@
       </c>
       <c r="C558">
         <f t="shared" si="39"/>
-        <v>2114</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
@@ -78350,7 +79742,7 @@
       </c>
       <c r="C559">
         <f t="shared" si="39"/>
-        <v>2116</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
@@ -78363,7 +79755,7 @@
       </c>
       <c r="C560">
         <f t="shared" si="39"/>
-        <v>2116</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
@@ -78376,7 +79768,7 @@
       </c>
       <c r="C561">
         <f t="shared" si="39"/>
-        <v>2122</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
@@ -78389,7 +79781,7 @@
       </c>
       <c r="C562">
         <f t="shared" ref="C562:C578" si="40">C561+B562</f>
-        <v>2123</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
@@ -78402,7 +79794,7 @@
       </c>
       <c r="C563">
         <f t="shared" si="40"/>
-        <v>2125</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
@@ -78415,7 +79807,7 @@
       </c>
       <c r="C564">
         <f t="shared" si="40"/>
-        <v>2130</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
@@ -78428,7 +79820,7 @@
       </c>
       <c r="C565">
         <f t="shared" si="40"/>
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -78441,7 +79833,7 @@
       </c>
       <c r="C566">
         <f t="shared" si="40"/>
-        <v>2137</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -78450,11 +79842,11 @@
         <v>44456</v>
       </c>
       <c r="B567">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C567">
         <f t="shared" si="40"/>
-        <v>2141</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
@@ -78463,11 +79855,11 @@
         <v>44457</v>
       </c>
       <c r="B568">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C568">
         <f t="shared" si="40"/>
-        <v>2144</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
@@ -78480,7 +79872,7 @@
       </c>
       <c r="C569">
         <f t="shared" si="40"/>
-        <v>2147</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -78493,7 +79885,7 @@
       </c>
       <c r="C570">
         <f t="shared" si="40"/>
-        <v>2151</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
@@ -78506,7 +79898,7 @@
       </c>
       <c r="C571">
         <f t="shared" si="40"/>
-        <v>2154</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -78519,7 +79911,7 @@
       </c>
       <c r="C572">
         <f t="shared" si="40"/>
-        <v>2156</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -78532,7 +79924,7 @@
       </c>
       <c r="C573">
         <f t="shared" si="40"/>
-        <v>2161</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
@@ -78545,7 +79937,7 @@
       </c>
       <c r="C574">
         <f t="shared" si="40"/>
-        <v>2167</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
@@ -78558,7 +79950,7 @@
       </c>
       <c r="C575">
         <f t="shared" si="40"/>
-        <v>2170</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -78571,7 +79963,7 @@
       </c>
       <c r="C576">
         <f t="shared" si="40"/>
-        <v>2172</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -78584,7 +79976,7 @@
       </c>
       <c r="C577">
         <f t="shared" si="40"/>
-        <v>2177</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -78597,7 +79989,7 @@
       </c>
       <c r="C578">
         <f t="shared" si="40"/>
-        <v>2180</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -78610,12 +80002,12 @@
       </c>
       <c r="C579">
         <f t="shared" ref="C579:C580" si="41">C578+B579</f>
-        <v>2185</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
-        <f t="shared" ref="A580:A630" si="42">A579+1</f>
+        <f t="shared" ref="A580:A643" si="42">A579+1</f>
         <v>44469</v>
       </c>
       <c r="B580">
@@ -78623,7 +80015,7 @@
       </c>
       <c r="C580">
         <f t="shared" si="41"/>
-        <v>2189</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -78636,7 +80028,7 @@
       </c>
       <c r="C581">
         <f t="shared" ref="C581:C602" si="43">C580+B581</f>
-        <v>2193</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -78649,7 +80041,7 @@
       </c>
       <c r="C582">
         <f t="shared" si="43"/>
-        <v>2194</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
@@ -78662,7 +80054,7 @@
       </c>
       <c r="C583">
         <f t="shared" si="43"/>
-        <v>2196</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -78675,7 +80067,7 @@
       </c>
       <c r="C584">
         <f t="shared" si="43"/>
-        <v>2198</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
@@ -78688,7 +80080,7 @@
       </c>
       <c r="C585">
         <f t="shared" si="43"/>
-        <v>2198</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -78701,7 +80093,7 @@
       </c>
       <c r="C586">
         <f t="shared" si="43"/>
-        <v>2200</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -78714,7 +80106,7 @@
       </c>
       <c r="C587">
         <f t="shared" si="43"/>
-        <v>2204</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
@@ -78727,7 +80119,7 @@
       </c>
       <c r="C588">
         <f t="shared" si="43"/>
-        <v>2207</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
@@ -78740,7 +80132,7 @@
       </c>
       <c r="C589">
         <f t="shared" si="43"/>
-        <v>2212</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
@@ -78749,11 +80141,11 @@
         <v>44479</v>
       </c>
       <c r="B590">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C590">
         <f t="shared" si="43"/>
-        <v>2216</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
@@ -78766,7 +80158,7 @@
       </c>
       <c r="C591">
         <f t="shared" si="43"/>
-        <v>2219</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
@@ -78779,7 +80171,7 @@
       </c>
       <c r="C592">
         <f t="shared" si="43"/>
-        <v>2222</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
@@ -78792,7 +80184,7 @@
       </c>
       <c r="C593">
         <f t="shared" si="43"/>
-        <v>2226</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -78805,7 +80197,7 @@
       </c>
       <c r="C594">
         <f t="shared" si="43"/>
-        <v>2228</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -78818,7 +80210,7 @@
       </c>
       <c r="C595">
         <f t="shared" si="43"/>
-        <v>2228</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -78831,7 +80223,7 @@
       </c>
       <c r="C596">
         <f t="shared" si="43"/>
-        <v>2233</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -78844,7 +80236,7 @@
       </c>
       <c r="C597">
         <f t="shared" si="43"/>
-        <v>2234</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -78857,7 +80249,7 @@
       </c>
       <c r="C598">
         <f t="shared" si="43"/>
-        <v>2238</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -78870,7 +80262,7 @@
       </c>
       <c r="C599">
         <f t="shared" si="43"/>
-        <v>2242</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -78879,11 +80271,11 @@
         <v>44489</v>
       </c>
       <c r="B600">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C600">
         <f t="shared" si="43"/>
-        <v>2247</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -78896,7 +80288,7 @@
       </c>
       <c r="C601">
         <f t="shared" si="43"/>
-        <v>2247</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -78909,7 +80301,7 @@
       </c>
       <c r="C602">
         <f t="shared" si="43"/>
-        <v>2251</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -78922,7 +80314,7 @@
       </c>
       <c r="C603">
         <f t="shared" ref="C603:C616" si="44">C602+B603</f>
-        <v>2254</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -78931,11 +80323,11 @@
         <v>44493</v>
       </c>
       <c r="B604">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C604">
         <f t="shared" si="44"/>
-        <v>2258</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
@@ -78948,7 +80340,7 @@
       </c>
       <c r="C605">
         <f t="shared" si="44"/>
-        <v>2263</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -78957,11 +80349,11 @@
         <v>44495</v>
       </c>
       <c r="B606">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C606">
         <f t="shared" si="44"/>
-        <v>2265</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -78970,11 +80362,11 @@
         <v>44496</v>
       </c>
       <c r="B607">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C607">
         <f t="shared" si="44"/>
-        <v>2268</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -78983,11 +80375,11 @@
         <v>44497</v>
       </c>
       <c r="B608">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C608">
         <f t="shared" si="44"/>
-        <v>2271</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -79000,7 +80392,7 @@
       </c>
       <c r="C609">
         <f t="shared" si="44"/>
-        <v>2273</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -79013,7 +80405,7 @@
       </c>
       <c r="C610">
         <f t="shared" si="44"/>
-        <v>2276</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
@@ -79022,11 +80414,11 @@
         <v>44500</v>
       </c>
       <c r="B611">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C611">
         <f t="shared" si="44"/>
-        <v>2278</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
@@ -79039,7 +80431,7 @@
       </c>
       <c r="C612">
         <f t="shared" si="44"/>
-        <v>2283</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
@@ -79052,7 +80444,7 @@
       </c>
       <c r="C613">
         <f t="shared" si="44"/>
-        <v>2283</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
@@ -79061,11 +80453,11 @@
         <v>44503</v>
       </c>
       <c r="B614">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C614">
         <f t="shared" si="44"/>
-        <v>2284</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -79078,7 +80470,7 @@
       </c>
       <c r="C615">
         <f t="shared" si="44"/>
-        <v>2286</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
@@ -79091,7 +80483,7 @@
       </c>
       <c r="C616">
         <f t="shared" si="44"/>
-        <v>2287</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -79100,11 +80492,11 @@
         <v>44506</v>
       </c>
       <c r="B617">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C617">
         <f t="shared" ref="C617:C630" si="45">C616+B617</f>
-        <v>2289</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -79113,11 +80505,11 @@
         <v>44507</v>
       </c>
       <c r="B618">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C618">
         <f t="shared" si="45"/>
-        <v>2293</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
@@ -79130,7 +80522,7 @@
       </c>
       <c r="C619">
         <f t="shared" si="45"/>
-        <v>2294</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -79143,7 +80535,7 @@
       </c>
       <c r="C620">
         <f t="shared" si="45"/>
-        <v>2295</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -79152,11 +80544,11 @@
         <v>44510</v>
       </c>
       <c r="B621">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C621">
         <f t="shared" si="45"/>
-        <v>2297</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
@@ -79165,11 +80557,11 @@
         <v>44511</v>
       </c>
       <c r="B622">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C622">
         <f t="shared" si="45"/>
-        <v>2298</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -79177,9 +80569,12 @@
         <f t="shared" si="42"/>
         <v>44512</v>
       </c>
+      <c r="B623">
+        <v>4</v>
+      </c>
       <c r="C623">
         <f t="shared" si="45"/>
-        <v>2298</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
@@ -79187,9 +80582,12 @@
         <f t="shared" si="42"/>
         <v>44513</v>
       </c>
+      <c r="B624">
+        <v>3</v>
+      </c>
       <c r="C624">
         <f t="shared" si="45"/>
-        <v>2298</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
@@ -79197,9 +80595,12 @@
         <f t="shared" si="42"/>
         <v>44514</v>
       </c>
+      <c r="B625">
+        <v>2</v>
+      </c>
       <c r="C625">
         <f t="shared" si="45"/>
-        <v>2298</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
@@ -79207,9 +80608,12 @@
         <f t="shared" si="42"/>
         <v>44515</v>
       </c>
+      <c r="B626">
+        <v>4</v>
+      </c>
       <c r="C626">
         <f t="shared" si="45"/>
-        <v>2298</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -79217,9 +80621,12 @@
         <f t="shared" si="42"/>
         <v>44516</v>
       </c>
+      <c r="B627">
+        <v>2</v>
+      </c>
       <c r="C627">
         <f t="shared" si="45"/>
-        <v>2298</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
@@ -79227,9 +80634,12 @@
         <f t="shared" si="42"/>
         <v>44517</v>
       </c>
+      <c r="B628">
+        <v>4</v>
+      </c>
       <c r="C628">
         <f t="shared" si="45"/>
-        <v>2298</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
@@ -79237,9 +80647,12 @@
         <f t="shared" si="42"/>
         <v>44518</v>
       </c>
+      <c r="B629">
+        <v>2</v>
+      </c>
       <c r="C629">
         <f t="shared" si="45"/>
-        <v>2298</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
@@ -79247,9 +80660,170 @@
         <f t="shared" si="42"/>
         <v>44519</v>
       </c>
+      <c r="B630">
+        <v>1</v>
+      </c>
       <c r="C630">
         <f t="shared" si="45"/>
-        <v>2298</v>
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="2">
+        <f t="shared" si="42"/>
+        <v>44520</v>
+      </c>
+      <c r="B631">
+        <v>3</v>
+      </c>
+      <c r="C631">
+        <f t="shared" ref="C631:C644" si="46">C630+B631</f>
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="2">
+        <f t="shared" si="42"/>
+        <v>44521</v>
+      </c>
+      <c r="B632">
+        <v>1</v>
+      </c>
+      <c r="C632">
+        <f t="shared" si="46"/>
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="2">
+        <f t="shared" si="42"/>
+        <v>44522</v>
+      </c>
+      <c r="B633">
+        <v>1</v>
+      </c>
+      <c r="C633">
+        <f t="shared" si="46"/>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="2">
+        <f t="shared" si="42"/>
+        <v>44523</v>
+      </c>
+      <c r="B634">
+        <v>2</v>
+      </c>
+      <c r="C634">
+        <f t="shared" si="46"/>
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="2">
+        <f t="shared" si="42"/>
+        <v>44524</v>
+      </c>
+      <c r="C635">
+        <f t="shared" si="46"/>
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="2">
+        <f t="shared" si="42"/>
+        <v>44525</v>
+      </c>
+      <c r="B636">
+        <v>1</v>
+      </c>
+      <c r="C636">
+        <f t="shared" si="46"/>
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="2">
+        <f t="shared" si="42"/>
+        <v>44526</v>
+      </c>
+      <c r="C637">
+        <f t="shared" si="46"/>
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="2">
+        <f t="shared" si="42"/>
+        <v>44527</v>
+      </c>
+      <c r="B638">
+        <v>1</v>
+      </c>
+      <c r="C638">
+        <f t="shared" si="46"/>
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="2">
+        <f t="shared" si="42"/>
+        <v>44528</v>
+      </c>
+      <c r="C639">
+        <f t="shared" si="46"/>
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="2">
+        <f t="shared" si="42"/>
+        <v>44529</v>
+      </c>
+      <c r="C640">
+        <f t="shared" si="46"/>
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="2">
+        <f t="shared" si="42"/>
+        <v>44530</v>
+      </c>
+      <c r="C641">
+        <f t="shared" si="46"/>
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="2">
+        <f t="shared" si="42"/>
+        <v>44531</v>
+      </c>
+      <c r="C642">
+        <f t="shared" si="46"/>
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="2">
+        <f t="shared" si="42"/>
+        <v>44532</v>
+      </c>
+      <c r="C643">
+        <f t="shared" si="46"/>
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="2">
+        <f t="shared" ref="A644" si="47">A643+1</f>
+        <v>44533</v>
+      </c>
+      <c r="C644">
+        <f t="shared" si="46"/>
+        <v>2354</v>
       </c>
     </row>
   </sheetData>
